--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540652D-F389-42BB-888E-7E941DBA606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1F44C-1D14-441B-94DF-A75949399CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
     <sheet name="Ricavi" sheetId="1" r:id="rId2"/>
     <sheet name="RicaviBudget" sheetId="7" r:id="rId3"/>
     <sheet name="VariableCosts" sheetId="4" r:id="rId4"/>
-    <sheet name="FixedCosts" sheetId="5" r:id="rId5"/>
-    <sheet name="Others" sheetId="6" r:id="rId6"/>
+    <sheet name="VariableCostsBudget" sheetId="8" r:id="rId5"/>
+    <sheet name="FixedCosts" sheetId="5" r:id="rId6"/>
+    <sheet name="Others" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="238">
   <si>
     <t>MP1</t>
   </si>
@@ -721,6 +722,117 @@
   </si>
   <si>
     <t>Totale Ricavi Budget</t>
+  </si>
+  <si>
+    <t>Voce di costo</t>
+  </si>
+  <si>
+    <t>Formula/base di cacolo</t>
+  </si>
+  <si>
+    <t>Valore Budget (€)</t>
+  </si>
+  <si>
+    <t>Famiglia</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Polveri P, comsumi energia/metano diversi</t>
+  </si>
+  <si>
+    <t>Polveri V, comsumi medi diversi</t>
+  </si>
+  <si>
+    <t>Polveri A, consumi diversi dai primi due</t>
+  </si>
+  <si>
+    <t>PF V</t>
+  </si>
+  <si>
+    <t>PF A</t>
+  </si>
+  <si>
+    <t>Totale PF</t>
+  </si>
+  <si>
+    <t>quantita budget (kg)</t>
+  </si>
+  <si>
+    <t>Quantità Budget (ton)</t>
+  </si>
+  <si>
+    <t>Costo energia totale 2021</t>
+  </si>
+  <si>
+    <t>% elettricità</t>
+  </si>
+  <si>
+    <t>% metano</t>
+  </si>
+  <si>
+    <t>kWh 2021</t>
+  </si>
+  <si>
+    <t>smc metano 2021</t>
+  </si>
+  <si>
+    <t>Costo elettricità 2021</t>
+  </si>
+  <si>
+    <t>Costo Metano 2021</t>
+  </si>
+  <si>
+    <t>Prezzo €/kWh 2021</t>
+  </si>
+  <si>
+    <t>Prezzo €/smc 2021</t>
+  </si>
+  <si>
+    <t>Aumento Elettricità 2022</t>
+  </si>
+  <si>
+    <t>Aumento Metano 2022</t>
+  </si>
+  <si>
+    <t>Prezzo €/kWh 2022</t>
+  </si>
+  <si>
+    <t>Prezzo €/smc 2022</t>
+  </si>
+  <si>
+    <t>=(ton PF A*0,93 + ton PF V*0,64)*prezzo smc 2022</t>
+  </si>
+  <si>
+    <t>=(ton P*140 + ton V*60 + ton A*65 + 3.300.000)*prezzo kWh 2022</t>
+  </si>
+  <si>
+    <t>Costo metano</t>
+  </si>
+  <si>
+    <t>Costo energia elettrica</t>
+  </si>
+  <si>
+    <t>Materiali di consumo</t>
+  </si>
+  <si>
+    <t>Pulizia e smaltimento rifiuti</t>
+  </si>
+  <si>
+    <t>Trasporti vendita</t>
+  </si>
+  <si>
+    <t>Provvigioni su vendite</t>
+  </si>
+  <si>
+    <t>Totale costi variabili</t>
   </si>
 </sst>
 </file>
@@ -1602,6 +1714,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,7 +1748,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2549,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,23 +2679,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="E2" s="95" t="s">
+      <c r="C2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="97"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="98" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
@@ -2591,11 +2703,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="94"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3237,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q84"/>
+    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,24 +3375,24 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -6344,10 +6456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
-  <dimension ref="B2:G67"/>
+  <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,10 +6468,11 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -6376,10 +6489,13 @@
         <v>198</v>
       </c>
       <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>Ricavi!J4</f>
         <v>MP1</v>
@@ -6397,11 +6513,11 @@
         <v>0.93</v>
       </c>
       <c r="F3">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F34" si="0">D3*E3</f>
         <v>44640</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>Ricavi!J5</f>
         <v>MP2</v>
@@ -6419,11 +6535,11 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>Ricavi!J6</f>
         <v>MP3</v>
@@ -6441,11 +6557,11 @@
         <v>2.4</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>2640</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>Ricavi!J7</f>
         <v>MP4</v>
@@ -6463,11 +6579,11 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>Ricavi!J8</f>
         <v>MP5</v>
@@ -6485,11 +6601,11 @@
         <v>2.9058441558441559</v>
       </c>
       <c r="F7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>5593.75</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>Ricavi!J9</f>
         <v>MP6</v>
@@ -6507,11 +6623,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>Ricavi!J10</f>
         <v>MP7</v>
@@ -6529,11 +6645,11 @@
         <v>4.62</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>9240</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>Ricavi!J11</f>
         <v>MP8</v>
@@ -6551,11 +6667,11 @@
         <v>2.65</v>
       </c>
       <c r="F10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>2650</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>Ricavi!J12</f>
         <v>MP9</v>
@@ -6573,11 +6689,11 @@
         <v>0.19</v>
       </c>
       <c r="F11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>Ricavi!J13</f>
         <v>MP10</v>
@@ -6595,11 +6711,11 @@
         <v>0.50710643771654074</v>
       </c>
       <c r="F12">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>17680.975899999998</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>Ricavi!J14</f>
         <v>MP11</v>
@@ -6617,11 +6733,11 @@
         <v>7.4104528564263887</v>
       </c>
       <c r="F13">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>104021.416</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>Ricavi!J15</f>
         <v>MP12</v>
@@ -6639,11 +6755,11 @@
         <v>1.4275735294117646</v>
       </c>
       <c r="F14">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>2718.1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>Ricavi!J16</f>
         <v>MP13</v>
@@ -6661,11 +6777,11 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>Ricavi!J17</f>
         <v>MP14</v>
@@ -6683,11 +6799,11 @@
         <v>13.5</v>
       </c>
       <c r="F16">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>Ricavi!J18</f>
         <v>PCL1</v>
@@ -6705,11 +6821,11 @@
         <v>0.11065878100870709</v>
       </c>
       <c r="F17">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>239120.90000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>Ricavi!J19</f>
         <v>PCL2</v>
@@ -6727,11 +6843,11 @@
         <v>0.63902212980840634</v>
       </c>
       <c r="F18">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>107563.4</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>Ricavi!J20</f>
         <v>PCL3</v>
@@ -6749,11 +6865,11 @@
         <v>1.6503165205106214</v>
       </c>
       <c r="F19">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>817690.5780000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>Ricavi!J21</f>
         <v>PCL4</v>
@@ -6771,11 +6887,11 @@
         <v>2.6814489976240035</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>1311384.0838799998</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>Ricavi!J22</f>
         <v>PCL5</v>
@@ -6793,11 +6909,11 @@
         <v>2.25</v>
       </c>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>13860</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>Ricavi!J23</f>
         <v>PF P1</v>
@@ -6815,11 +6931,17 @@
         <v>3.2527355771579307</v>
       </c>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>5593287</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>Ricavi!J24</f>
         <v>PF P2</v>
@@ -6837,11 +6959,14 @@
         <v>3.2730881131217542</v>
       </c>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>957375</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>Ricavi!J25</f>
         <v>PF P3</v>
@@ -6859,11 +6984,14 @@
         <v>3.2317332881662151</v>
       </c>
       <c r="F24">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>1431011.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>Ricavi!J26</f>
         <v>PF P4</v>
@@ -6881,11 +7009,14 @@
         <v>3.1339358772483501</v>
       </c>
       <c r="F25">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>25292348.015000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>Ricavi!J27</f>
         <v>PF P5</v>
@@ -6903,11 +7034,14 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>D26*E26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>Ricavi!J28</f>
         <v>PF P6</v>
@@ -6925,11 +7059,14 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>D27*E27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>Ricavi!J29</f>
         <v>PF P7</v>
@@ -6947,11 +7084,14 @@
         <v>0.96042054093345852</v>
       </c>
       <c r="F28">
-        <f>D28*E28</f>
+        <f t="shared" si="0"/>
         <v>634204.1</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>Ricavi!J30</f>
         <v>PF V1</v>
@@ -6969,11 +7109,17 @@
         <v>1.4659810896505177</v>
       </c>
       <c r="F29">
-        <f>D29*E29</f>
+        <f t="shared" si="0"/>
         <v>747163.65</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>Ricavi!J31</f>
         <v>PF V2</v>
@@ -6991,11 +7137,14 @@
         <v>1.5574062198816996</v>
       </c>
       <c r="F30">
-        <f>D30*E30</f>
+        <f t="shared" si="0"/>
         <v>3955786.879999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>Ricavi!J32</f>
         <v>PF V3</v>
@@ -7013,11 +7162,14 @@
         <v>1.5255310138943521</v>
       </c>
       <c r="F31">
-        <f>D31*E31</f>
+        <f t="shared" si="0"/>
         <v>1341915.05</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>Ricavi!J33</f>
         <v>PF V4</v>
@@ -7035,11 +7187,14 @@
         <v>1.5588271124689272</v>
       </c>
       <c r="F32">
-        <f>D32*E32</f>
+        <f t="shared" si="0"/>
         <v>903634.92999999993</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>Ricavi!J34</f>
         <v>PF V5</v>
@@ -7057,11 +7212,14 @@
         <v>1.4237468896798742</v>
       </c>
       <c r="F33">
-        <f>D33*E33</f>
+        <f t="shared" si="0"/>
         <v>637988.1</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>Ricavi!J35</f>
         <v>PF V6</v>
@@ -7079,11 +7237,14 @@
         <v>1.9231706379707918</v>
       </c>
       <c r="F34">
-        <f>D34*E34</f>
+        <f t="shared" si="0"/>
         <v>250204.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>Ricavi!J36</f>
         <v>PF V7</v>
@@ -7101,11 +7262,14 @@
         <v>1.1880509745127437</v>
       </c>
       <c r="F35">
-        <f>D35*E35</f>
+        <f t="shared" ref="F35:F66" si="1">D35*E35</f>
         <v>15848.6</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>Ricavi!J37</f>
         <v>PF V8</v>
@@ -7123,11 +7287,14 @@
         <v>1.6966731850403327</v>
       </c>
       <c r="F36">
-        <f>D36*E36</f>
+        <f t="shared" si="1"/>
         <v>138821.80000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>Ricavi!J38</f>
         <v>PF V9</v>
@@ -7145,11 +7312,14 @@
         <v>1.6010133079847908</v>
       </c>
       <c r="F37">
-        <f>D37*E37</f>
+        <f t="shared" si="1"/>
         <v>33685.32</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f>Ricavi!J39</f>
         <v>PF V10</v>
@@ -7167,11 +7337,14 @@
         <v>1.6058974358974358</v>
       </c>
       <c r="F38">
-        <f>D38*E38</f>
+        <f t="shared" si="1"/>
         <v>23486.25</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f>Ricavi!J40</f>
         <v>PF V11</v>
@@ -7189,11 +7362,14 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f>D39*E39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f>Ricavi!J41</f>
         <v>PF V12</v>
@@ -7211,11 +7387,14 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f>D40*E40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>Ricavi!J42</f>
         <v>PF V13</v>
@@ -7233,11 +7412,14 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f>D41*E41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>Ricavi!J43</f>
         <v>PF V14</v>
@@ -7255,11 +7437,14 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f>D42*E42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>Ricavi!J44</f>
         <v>PF V15</v>
@@ -7277,11 +7462,14 @@
         <v>2.1413333333333333</v>
       </c>
       <c r="F43">
-        <f>D43*E43</f>
+        <f t="shared" si="1"/>
         <v>64240</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f>Ricavi!J45</f>
         <v>PF V16</v>
@@ -7299,11 +7487,14 @@
         <v>1.2007575757575757</v>
       </c>
       <c r="F44">
-        <f>D44*E44</f>
+        <f t="shared" si="1"/>
         <v>19812.5</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f>Ricavi!J46</f>
         <v>PF A1</v>
@@ -7321,11 +7512,17 @@
         <v>1.2885862763813767</v>
       </c>
       <c r="F45">
-        <f>D45*E45</f>
+        <f t="shared" si="1"/>
         <v>121500.8</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f>Ricavi!J47</f>
         <v>PF A2</v>
@@ -7343,11 +7540,14 @@
         <v>1.7877720617332806</v>
       </c>
       <c r="F46">
-        <f>D46*E46</f>
+        <f t="shared" si="1"/>
         <v>271062</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>Ricavi!J48</f>
         <v>PF A3</v>
@@ -7365,11 +7565,14 @@
         <v>1.8322972695210196</v>
       </c>
       <c r="F47">
-        <f>D47*E47</f>
+        <f t="shared" si="1"/>
         <v>754867.99680000008</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f>Ricavi!J49</f>
         <v>PF A4</v>
@@ -7387,11 +7590,14 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f>D48*E48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f>Ricavi!J50</f>
         <v>PF A5</v>
@@ -7409,11 +7615,14 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>D49*E49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f>Ricavi!J51</f>
         <v>PF A6</v>
@@ -7431,11 +7640,14 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <f>D50*E50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f>Ricavi!J52</f>
         <v>PF A7</v>
@@ -7453,11 +7665,14 @@
         <v>1.6397767269078427</v>
       </c>
       <c r="F51">
-        <f>D51*E51</f>
+        <f t="shared" si="1"/>
         <v>4624923.0109999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f>Ricavi!J53</f>
         <v>PF A8</v>
@@ -7475,11 +7690,14 @@
         <v>1.6271923465786613</v>
       </c>
       <c r="F52">
-        <f>D52*E52</f>
+        <f t="shared" si="1"/>
         <v>255897.15000000002</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>Ricavi!J54</f>
         <v>PF A9</v>
@@ -7497,11 +7715,14 @@
         <v>1.5522070782270072</v>
       </c>
       <c r="F53">
-        <f>D53*E53</f>
+        <f t="shared" si="1"/>
         <v>406569.6</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>Ricavi!J55</f>
         <v>PF A10</v>
@@ -7519,11 +7740,14 @@
         <v>1.2455093073420147</v>
       </c>
       <c r="F54">
-        <f>D54*E54</f>
+        <f t="shared" si="1"/>
         <v>623601.6</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>Ricavi!J56</f>
         <v>PF A11</v>
@@ -7541,11 +7765,14 @@
         <v>1.9325902603525706</v>
       </c>
       <c r="F55">
-        <f>D55*E55</f>
+        <f t="shared" si="1"/>
         <v>120920.23999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>Ricavi!J57</f>
         <v>PF A12</v>
@@ -7563,11 +7790,14 @@
         <v>2.009165683120187</v>
       </c>
       <c r="F56">
-        <f>D56*E56</f>
+        <f t="shared" si="1"/>
         <v>1864033.6000000003</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f>Ricavi!J58</f>
         <v>PF A13</v>
@@ -7585,11 +7815,14 @@
         <v>1.6307046552057176</v>
       </c>
       <c r="F57">
-        <f>D57*E57</f>
+        <f t="shared" si="1"/>
         <v>211053.95</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f>Ricavi!J59</f>
         <v>PF A14</v>
@@ -7607,11 +7840,14 @@
         <v>1.9791817665113107</v>
       </c>
       <c r="F58">
-        <f>D58*E58</f>
+        <f t="shared" si="1"/>
         <v>261162.93</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f>Ricavi!J60</f>
         <v>PF A15</v>
@@ -7629,11 +7865,14 @@
         <v>1.7865580217289871</v>
       </c>
       <c r="F59">
-        <f>D59*E59</f>
+        <f t="shared" si="1"/>
         <v>670093.24999999988</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f>Ricavi!J61</f>
         <v>PF A16</v>
@@ -7651,11 +7890,14 @@
         <v>1.6128909403745617</v>
       </c>
       <c r="F60">
-        <f>D60*E60</f>
+        <f t="shared" si="1"/>
         <v>243723.95</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f>Ricavi!J62</f>
         <v>PF A17</v>
@@ -7673,11 +7915,14 @@
         <v>1.9365259652409199</v>
       </c>
       <c r="F61">
-        <f>D61*E61</f>
+        <f t="shared" si="1"/>
         <v>465201.95</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f>Ricavi!J63</f>
         <v>PF A18</v>
@@ -7695,11 +7940,14 @@
         <v>1.0338126145387905</v>
       </c>
       <c r="F62">
-        <f>D62*E62</f>
+        <f t="shared" si="1"/>
         <v>406164.3</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f>Ricavi!J64</f>
         <v>PF A19</v>
@@ -7717,11 +7965,14 @@
         <v>1.59928712602404</v>
       </c>
       <c r="F63">
-        <f>D63*E63</f>
+        <f t="shared" si="1"/>
         <v>2120046.9999999879</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f>Ricavi!J65</f>
         <v>Spese trasporto</v>
@@ -7738,15 +7989,15 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <f>D64*E64</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="str">
         <f>"Riaccredito trasporti"</f>
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f>Ricavi!J66</f>
         <v>Premio Year22</v>
@@ -7767,16 +8018,16 @@
         <f>-D65*E65</f>
         <v>-227771.84999999998</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="str">
         <f>"Premio clienti (ricavo negativo)"</f>
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="104" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E67" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F67" s="104">
+      <c r="F67" s="93">
         <f>SUM(F3:F65)</f>
         <v>57945067.876579978</v>
       </c>
@@ -7807,22 +8058,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -8181,6 +8432,263 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2">
+        <v>3450000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3">
+        <v>0.41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4">
+        <f>1-C3</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$D:$D)</f>
+        <v>14624683</v>
+      </c>
+      <c r="G4">
+        <f>F4/1000</f>
+        <v>14624.683000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5">
+        <v>8997222.2200000007</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5">
+        <f>SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$D:$D)</f>
+        <v>6470002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">F5/1000</f>
+        <v>6470.0020000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6">
+        <v>4300000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6">
+        <f>SUMIF(RicaviBudget!$G:$G,"A",RicaviBudget!$D:$CD)</f>
+        <v>9655208.9900000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9655.208990000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> SUM(F4:F6)</f>
+        <v>30749893.990000002</v>
+      </c>
+      <c r="G7">
+        <f>G6+G5+G4</f>
+        <v>30749.893990000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8">
+        <f>C2*C3</f>
+        <v>1414500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9">
+        <f>C2*C4</f>
+        <v>2035500.0000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9">
+        <f>(G6*0.93+G5*0.64)*C18</f>
+        <v>7080.2103150872417</v>
+      </c>
+      <c r="H9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10">
+        <f xml:space="preserve"> ( G4*140 + G5*60 + G6*65 + 3300000 ) * C17</f>
+        <v>1110442.5180509007</v>
+      </c>
+      <c r="H10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11">
+        <f>C8/C5</f>
+        <v>0.15721518991224825</v>
+      </c>
+      <c r="F11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11">
+        <f>-'CE 21-22'!F15 *1.025</f>
+        <v>153750</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12">
+        <f>C9/C6</f>
+        <v>0.47337209302325589</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12">
+        <f>G7*10.24</f>
+        <v>314878.91445760004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13">
+        <f>G7*43.2</f>
+        <v>1328395.4203680002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14">
+        <v>0.11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14">
+        <f>(SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$F:$F)+SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$F:$F))*0.02</f>
+        <v>840816.26390000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G9:G14)</f>
+        <v>3755363.3270915882</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17">
+        <f>C11*(1+C14)</f>
+        <v>0.17450886080259559</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18">
+        <f>C12*(1+C15)</f>
+        <v>0.53964418604651176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
@@ -8321,7 +8829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1F44C-1D14-441B-94DF-A75949399CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C590D7E-DD1F-4900-B8C4-93081D601457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="243">
   <si>
     <t>MP1</t>
   </si>
@@ -833,6 +833,21 @@
   </si>
   <si>
     <t>Totale costi variabili</t>
+  </si>
+  <si>
+    <t>ton vapore PF P</t>
+  </si>
+  <si>
+    <t>ton vapore AV</t>
+  </si>
+  <si>
+    <t>ton vapore tot</t>
+  </si>
+  <si>
+    <t>quote da acquistare</t>
+  </si>
+  <si>
+    <t>costo CO2</t>
   </si>
 </sst>
 </file>
@@ -2662,7 +2677,7 @@
   <dimension ref="B1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,7 +7277,7 @@
         <v>1.1880509745127437</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F66" si="1">D35*E35</f>
+        <f t="shared" ref="F35:F64" si="1">D35*E35</f>
         <v>15848.6</v>
       </c>
       <c r="G35" t="s">
@@ -8041,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8433,10 +8448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8658,14 +8673,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G15">
-        <f>SUM(G9:G14)</f>
-        <v>3755363.3270915882</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <f>C23*71</f>
+        <v>962501.47376339999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>227</v>
       </c>
@@ -8673,14 +8688,57 @@
         <f>C11*(1+C14)</f>
         <v>0.17450886080259559</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F17" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="93">
+        <f>SUM(G9:G15)</f>
+        <v>4717864.8008549884</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>228</v>
       </c>
       <c r="C18">
         <f>C12*(1+C15)</f>
         <v>0.53964418604651176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20">
+        <f>G4*1.67*1.56</f>
+        <v>38100.224151599999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21">
+        <f>G5+G6</f>
+        <v>16125.210990000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22">
+        <f>C21+C20</f>
+        <v>54225.435141599999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23">
+        <f>C22*0.25</f>
+        <v>13556.3587854</v>
       </c>
     </row>
   </sheetData>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C590D7E-DD1F-4900-B8C4-93081D601457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E4B70-73E2-412A-B5B3-D44B6D1BB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="VariableCosts" sheetId="4" r:id="rId4"/>
     <sheet name="VariableCostsBudget" sheetId="8" r:id="rId5"/>
     <sheet name="FixedCosts" sheetId="5" r:id="rId6"/>
-    <sheet name="Others" sheetId="6" r:id="rId7"/>
+    <sheet name="FixedCostsBudget" sheetId="9" r:id="rId7"/>
+    <sheet name="Others" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="255">
   <si>
     <t>MP1</t>
   </si>
@@ -849,6 +850,42 @@
   <si>
     <t>costo CO2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Costo del personale </t>
+  </si>
+  <si>
+    <t>Manutenzioni</t>
+  </si>
+  <si>
+    <t>Altri oneri del personale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assicurazioni </t>
+  </si>
+  <si>
+    <t>Consulenze tecniche e canoni acque</t>
+  </si>
+  <si>
+    <t>Costo per godimento di beni di terzi</t>
+  </si>
+  <si>
+    <t>Consulenze e amministrazioni</t>
+  </si>
+  <si>
+    <t>Spese ufficio varie e oneri diversi di gestione</t>
+  </si>
+  <si>
+    <t>Imposte e tasse varie non sul reddito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale budget costi fissi di produzione </t>
+  </si>
+  <si>
+    <t>Totale budget costi struttura comm./amm.va</t>
+  </si>
+  <si>
+    <t>TOTALE BUDGET COSTI FISSI</t>
+  </si>
 </sst>
 </file>
 
@@ -868,7 +905,7 @@
     <numFmt numFmtId="172" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1093,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1529,7 +1572,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1762,6 +1805,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2677,7 +2723,7 @@
   <dimension ref="B1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,7 +6519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -8450,7 +8496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -8751,7 +8797,7 @@
   <dimension ref="B1:B28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8888,6 +8934,133 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <f>-'CE 21-22'!F22+50*12*100</f>
+        <v>5570785.9100000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4">
+        <f>-'CE 21-22'!F23-150000</f>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6">
+        <f>-'CE 21-22'!F24*1.025</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8">
+        <f>-'CE 21-22'!F25*1.025</f>
+        <v>151700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10">
+        <f>-'CE 21-22'!F26*1.025</f>
+        <v>309550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12">
+        <f>-'CE 21-22'!F27*1.025</f>
+        <v>212174.99999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="93">
+        <f>SUM(C12+C10+C8+C6+C4+C2)</f>
+        <v>7601710.9100000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17">
+        <f>-'CE 21-22'!F29*1.025</f>
+        <v>563750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19">
+        <f>-'CE 21-22'!F30*1.025</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21">
+        <f>-'CE 21-22'!F31*1.025</f>
+        <v>102499.99999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="93">
+        <f>SUM(C17+C19+C21)</f>
+        <v>973750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="93">
+        <f>SUM(C23+C14)</f>
+        <v>8575460.9100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E4B70-73E2-412A-B5B3-D44B6D1BB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2432B-FF90-4D8C-B125-165B7E71AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="254">
   <si>
     <t>MP1</t>
   </si>
@@ -698,9 +698,6 @@
     <t>1, da dove arrivano alcuni numeri</t>
   </si>
   <si>
-    <t>2, come mai le materie nel budget sono diverse da eulle del consuntivo</t>
-  </si>
-  <si>
     <t>qta</t>
   </si>
   <si>
@@ -905,7 +902,7 @@
     <numFmt numFmtId="172" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1096,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1572,7 +1576,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1773,6 +1777,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1806,8 +1813,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2722,53 +2729,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+    <row r="1" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="C2" s="98"/>
+      <c r="E2" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="97"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="F2" s="98"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="99" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="96"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -2785,11 +2792,8 @@
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
-      <c r="J5" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -2799,7 +2803,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -2809,7 +2813,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -2819,7 +2823,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -2829,7 +2833,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -2841,7 +2845,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -2851,7 +2855,7 @@
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -2861,7 +2865,7 @@
       <c r="E12" s="44"/>
       <c r="F12" s="45"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -2872,7 +2876,7 @@
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -2888,7 +2892,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>153.75</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -2993,7 +2997,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -3162,7 +3166,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -3230,7 +3234,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -3239,7 +3243,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -3248,7 +3252,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -3270,7 +3274,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -3279,7 +3283,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -3288,7 +3292,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -3297,7 +3301,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -3307,7 +3311,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -3326,7 +3330,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -3336,59 +3340,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -3410,52 +3414,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -3887,7 +3891,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -3929,7 +3933,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4017,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4059,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4101,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -4139,7 +4143,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -4181,7 +4185,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -4223,7 +4227,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -4265,7 +4269,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -4307,7 +4311,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -4349,7 +4353,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -4391,7 +4395,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -4433,7 +4437,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -4475,7 +4479,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -4557,7 +4561,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -4641,7 +4645,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -4683,7 +4687,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -4767,7 +4771,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -4808,7 +4812,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4854,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -4892,7 +4896,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -4933,7 +4937,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +4979,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -5016,7 +5020,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -5057,7 +5061,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5102,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5142,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -5179,7 +5183,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -5221,7 +5225,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -5263,7 +5267,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -5347,7 +5351,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -5389,7 +5393,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -5471,7 +5475,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -5512,7 +5516,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -5554,7 +5558,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -5596,7 +5600,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -5638,7 +5642,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -5680,7 +5684,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -5722,7 +5726,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -5764,7 +5768,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -5806,7 +5810,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -5848,7 +5852,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -5890,7 +5894,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -5932,7 +5936,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -5974,7 +5978,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -6058,7 +6062,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -6098,7 +6102,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -6138,7 +6142,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -6164,7 +6168,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -6190,7 +6194,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -6214,7 +6218,7 @@
       </c>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -6238,7 +6242,7 @@
       </c>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -6262,7 +6266,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -6286,7 +6290,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -6311,7 +6315,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -6335,7 +6339,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -6423,7 +6427,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -6449,7 +6453,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -6475,34 +6479,34 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -6519,21 +6523,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -6541,22 +6545,22 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
         <v>196</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>197</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f>Ricavi!J4</f>
         <v>MP1</v>
@@ -6578,7 +6582,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f>Ricavi!J5</f>
         <v>MP2</v>
@@ -6600,7 +6604,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <f>Ricavi!J6</f>
         <v>MP3</v>
@@ -6622,7 +6626,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>Ricavi!J7</f>
         <v>MP4</v>
@@ -6644,7 +6648,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>Ricavi!J8</f>
         <v>MP5</v>
@@ -6666,7 +6670,7 @@
         <v>5593.75</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>Ricavi!J9</f>
         <v>MP6</v>
@@ -6688,7 +6692,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>Ricavi!J10</f>
         <v>MP7</v>
@@ -6710,7 +6714,7 @@
         <v>9240</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>Ricavi!J11</f>
         <v>MP8</v>
@@ -6732,7 +6736,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>Ricavi!J12</f>
         <v>MP9</v>
@@ -6754,7 +6758,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>Ricavi!J13</f>
         <v>MP10</v>
@@ -6776,7 +6780,7 @@
         <v>17680.975899999998</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>Ricavi!J14</f>
         <v>MP11</v>
@@ -6798,7 +6802,7 @@
         <v>104021.416</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>Ricavi!J15</f>
         <v>MP12</v>
@@ -6820,7 +6824,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>Ricavi!J16</f>
         <v>MP13</v>
@@ -6842,7 +6846,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>Ricavi!J17</f>
         <v>MP14</v>
@@ -6864,7 +6868,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>Ricavi!J18</f>
         <v>PCL1</v>
@@ -6886,7 +6890,7 @@
         <v>239120.90000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>Ricavi!J19</f>
         <v>PCL2</v>
@@ -6908,7 +6912,7 @@
         <v>107563.4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>Ricavi!J20</f>
         <v>PCL3</v>
@@ -6930,7 +6934,7 @@
         <v>817690.5780000001</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>Ricavi!J21</f>
         <v>PCL4</v>
@@ -6952,7 +6956,7 @@
         <v>1311384.0838799998</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>Ricavi!J22</f>
         <v>PCL5</v>
@@ -6974,7 +6978,7 @@
         <v>13860</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>Ricavi!J23</f>
         <v>PF P1</v>
@@ -6996,13 +7000,13 @@
         <v>5593287</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>Ricavi!J24</f>
         <v>PF P2</v>
@@ -7024,10 +7028,10 @@
         <v>957375</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>Ricavi!J25</f>
         <v>PF P3</v>
@@ -7049,10 +7053,10 @@
         <v>1431011.5</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>Ricavi!J26</f>
         <v>PF P4</v>
@@ -7074,10 +7078,10 @@
         <v>25292348.015000001</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f>Ricavi!J27</f>
         <v>PF P5</v>
@@ -7099,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f>Ricavi!J28</f>
         <v>PF P6</v>
@@ -7124,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <f>Ricavi!J29</f>
         <v>PF P7</v>
@@ -7149,10 +7153,10 @@
         <v>634204.1</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
         <f>Ricavi!J30</f>
         <v>PF V1</v>
@@ -7174,13 +7178,13 @@
         <v>747163.65</v>
       </c>
       <c r="G29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
         <f>Ricavi!J31</f>
         <v>PF V2</v>
@@ -7202,10 +7206,10 @@
         <v>3955786.879999999</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f>Ricavi!J32</f>
         <v>PF V3</v>
@@ -7227,10 +7231,10 @@
         <v>1341915.05</v>
       </c>
       <c r="G31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f>Ricavi!J33</f>
         <v>PF V4</v>
@@ -7252,10 +7256,10 @@
         <v>903634.92999999993</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <f>Ricavi!J34</f>
         <v>PF V5</v>
@@ -7277,10 +7281,10 @@
         <v>637988.1</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
         <f>Ricavi!J35</f>
         <v>PF V6</v>
@@ -7302,10 +7306,10 @@
         <v>250204.5</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
         <f>Ricavi!J36</f>
         <v>PF V7</v>
@@ -7327,10 +7331,10 @@
         <v>15848.6</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <f>Ricavi!J37</f>
         <v>PF V8</v>
@@ -7352,10 +7356,10 @@
         <v>138821.80000000002</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>Ricavi!J38</f>
         <v>PF V9</v>
@@ -7377,10 +7381,10 @@
         <v>33685.32</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <f>Ricavi!J39</f>
         <v>PF V10</v>
@@ -7402,10 +7406,10 @@
         <v>23486.25</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="str">
         <f>Ricavi!J40</f>
         <v>PF V11</v>
@@ -7427,10 +7431,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="str">
         <f>Ricavi!J41</f>
         <v>PF V12</v>
@@ -7452,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="str">
         <f>Ricavi!J42</f>
         <v>PF V13</v>
@@ -7477,10 +7481,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="str">
         <f>Ricavi!J43</f>
         <v>PF V14</v>
@@ -7502,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="str">
         <f>Ricavi!J44</f>
         <v>PF V15</v>
@@ -7527,10 +7531,10 @@
         <v>64240</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="str">
         <f>Ricavi!J45</f>
         <v>PF V16</v>
@@ -7552,10 +7556,10 @@
         <v>19812.5</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f>Ricavi!J46</f>
         <v>PF A1</v>
@@ -7577,13 +7581,13 @@
         <v>121500.8</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="str">
         <f>Ricavi!J47</f>
         <v>PF A2</v>
@@ -7605,10 +7609,10 @@
         <v>271062</v>
       </c>
       <c r="G46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="str">
         <f>Ricavi!J48</f>
         <v>PF A3</v>
@@ -7630,10 +7634,10 @@
         <v>754867.99680000008</v>
       </c>
       <c r="G47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="str">
         <f>Ricavi!J49</f>
         <v>PF A4</v>
@@ -7655,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="str">
         <f>Ricavi!J50</f>
         <v>PF A5</v>
@@ -7680,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="str">
         <f>Ricavi!J51</f>
         <v>PF A6</v>
@@ -7705,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="str">
         <f>Ricavi!J52</f>
         <v>PF A7</v>
@@ -7730,10 +7734,10 @@
         <v>4624923.0109999999</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="str">
         <f>Ricavi!J53</f>
         <v>PF A8</v>
@@ -7755,10 +7759,10 @@
         <v>255897.15000000002</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="str">
         <f>Ricavi!J54</f>
         <v>PF A9</v>
@@ -7780,10 +7784,10 @@
         <v>406569.6</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="str">
         <f>Ricavi!J55</f>
         <v>PF A10</v>
@@ -7805,10 +7809,10 @@
         <v>623601.6</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="str">
         <f>Ricavi!J56</f>
         <v>PF A11</v>
@@ -7830,10 +7834,10 @@
         <v>120920.23999999999</v>
       </c>
       <c r="G55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="str">
         <f>Ricavi!J57</f>
         <v>PF A12</v>
@@ -7855,10 +7859,10 @@
         <v>1864033.6000000003</v>
       </c>
       <c r="G56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="str">
         <f>Ricavi!J58</f>
         <v>PF A13</v>
@@ -7880,10 +7884,10 @@
         <v>211053.95</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="str">
         <f>Ricavi!J59</f>
         <v>PF A14</v>
@@ -7905,10 +7909,10 @@
         <v>261162.93</v>
       </c>
       <c r="G58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="str">
         <f>Ricavi!J60</f>
         <v>PF A15</v>
@@ -7930,10 +7934,10 @@
         <v>670093.24999999988</v>
       </c>
       <c r="G59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="str">
         <f>Ricavi!J61</f>
         <v>PF A16</v>
@@ -7955,10 +7959,10 @@
         <v>243723.95</v>
       </c>
       <c r="G60" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="str">
         <f>Ricavi!J62</f>
         <v>PF A17</v>
@@ -7980,10 +7984,10 @@
         <v>465201.95</v>
       </c>
       <c r="G61" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" t="str">
         <f>Ricavi!J63</f>
         <v>PF A18</v>
@@ -8005,10 +8009,10 @@
         <v>406164.3</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" t="str">
         <f>Ricavi!J64</f>
         <v>PF A19</v>
@@ -8030,10 +8034,10 @@
         <v>2120046.9999999879</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="str">
         <f>Ricavi!J65</f>
         <v>Spese trasporto</v>
@@ -8058,7 +8062,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="str">
         <f>Ricavi!J66</f>
         <v>Premio Year22</v>
@@ -8084,9 +8088,9 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E67" s="93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F67" s="93">
         <f>SUM(F3:F65)</f>
@@ -8102,41 +8106,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="2.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -8154,7 +8158,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8169,7 +8173,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -8191,7 +8195,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -8211,7 +8215,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -8231,14 +8235,14 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -8251,7 +8255,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -8269,7 +8273,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -8309,7 +8313,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -8330,7 +8334,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -8352,120 +8356,120 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="23"/>
+      <c r="P17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -8497,47 +8501,47 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2">
         <v>3450000</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <v>0.41</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" t="s">
         <v>214</v>
       </c>
-      <c r="G3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <f>1-C3</f>
@@ -8555,15 +8559,15 @@
         <v>14624.683000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5">
         <v>8997222.2200000007</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5">
         <f>SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$D:$D)</f>
@@ -8574,15 +8578,15 @@
         <v>6470.0020000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6">
         <v>4300000</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6">
         <f>SUMIF(RicaviBudget!$G:$G,"A",RicaviBudget!$D:$CD)</f>
@@ -8593,9 +8597,9 @@
         <v>9655.208990000001</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7">
         <f xml:space="preserve"> SUM(F4:F6)</f>
@@ -8606,181 +8610,181 @@
         <v>30749.893990000004</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8">
         <f>C2*C3</f>
         <v>1414500</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <f>C2*C4</f>
         <v>2035500.0000000002</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9">
         <f>(G6*0.93+G5*0.64)*C18</f>
         <v>7080.2103150872417</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10">
         <f xml:space="preserve"> ( G4*140 + G5*60 + G6*65 + 3300000 ) * C17</f>
         <v>1110442.5180509007</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11">
         <f>C8/C5</f>
         <v>0.15721518991224825</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11">
         <f>-'CE 21-22'!F15 *1.025</f>
         <v>153750</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <f>C9/C6</f>
         <v>0.47337209302325589</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12">
         <f>G7*10.24</f>
         <v>314878.91445760004</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13">
         <f>G7*43.2</f>
         <v>1328395.4203680002</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14">
         <v>0.11</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G14">
         <f>(SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$F:$F)+SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$F:$F))*0.02</f>
         <v>840816.26390000002</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15">
         <v>0.14000000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15">
         <f>C23*71</f>
         <v>962501.47376339999</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17">
         <f>C11*(1+C14)</f>
         <v>0.17450886080259559</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G17" s="93">
         <f>SUM(G9:G15)</f>
         <v>4717864.8008549884</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18">
         <f>C12*(1+C15)</f>
         <v>0.53964418604651176</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20">
         <f>G4*1.67*1.56</f>
         <v>38100.224151599999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21">
         <f>G5+G6</f>
         <v>16125.210990000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22">
         <f>C21+C20</f>
         <v>54225.435141599999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23">
         <f>C22*0.25</f>
@@ -8800,129 +8804,129 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -8937,118 +8941,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <f>-'CE 21-22'!F22+50*12*100</f>
         <v>5570785.9100000001</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4">
         <f>-'CE 21-22'!F23-150000</f>
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6">
         <f>-'CE 21-22'!F24*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8">
         <f>-'CE 21-22'!F25*1.025</f>
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10">
         <f>-'CE 21-22'!F26*1.025</f>
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12">
         <f>-'CE 21-22'!F27*1.025</f>
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="93">
         <f>SUM(C12+C10+C8+C6+C4+C2)</f>
         <v>7601710.9100000001</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17">
         <f>-'CE 21-22'!F29*1.025</f>
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="s">
-        <v>250</v>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="94" t="s">
+        <v>249</v>
       </c>
       <c r="C19">
         <f>-'CE 21-22'!F30*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21">
         <f>-'CE 21-22'!F31*1.025</f>
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="93">
         <f>SUM(C17+C19+C21)</f>
         <v>973750</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="93">
         <f>SUM(C23+C14)</f>
@@ -9064,43 +9068,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="106" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -9108,33 +9112,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -9145,67 +9149,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2432B-FF90-4D8C-B125-165B7E71AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E559208-3CA4-4788-892E-F1A81DA9DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="FixedCosts" sheetId="5" r:id="rId6"/>
     <sheet name="FixedCostsBudget" sheetId="9" r:id="rId7"/>
     <sheet name="Others" sheetId="6" r:id="rId8"/>
+    <sheet name="OthersBudget" sheetId="10" r:id="rId9"/>
+    <sheet name="CE Budget 2022" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="292">
   <si>
     <t>MP1</t>
   </si>
@@ -882,6 +885,120 @@
   </si>
   <si>
     <t>TOTALE BUDGET COSTI FISSI</t>
+  </si>
+  <si>
+    <t>cons smc per ton A</t>
+  </si>
+  <si>
+    <t>cons smc per ton V</t>
+  </si>
+  <si>
+    <t>smc per ton vapore</t>
+  </si>
+  <si>
+    <t>kWh per ton P</t>
+  </si>
+  <si>
+    <t>kWh per ton V</t>
+  </si>
+  <si>
+    <t>kWh per ton A</t>
+  </si>
+  <si>
+    <t>kWh serivizi gerali annui</t>
+  </si>
+  <si>
+    <t>Costo smaltimento per ton</t>
+  </si>
+  <si>
+    <t>Costo trasporto per ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aumento costo trasporto </t>
+  </si>
+  <si>
+    <t>provvigioni su vendite</t>
+  </si>
+  <si>
+    <t>costo per quota CO2</t>
+  </si>
+  <si>
+    <t>valore moltiplicato per 1.4 per via del cuneo fiscale italiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note </t>
+  </si>
+  <si>
+    <t>Ammortamenti immobilizzazioni immateriali</t>
+  </si>
+  <si>
+    <t>Ammortamenti immobilizzazioni materiali</t>
+  </si>
+  <si>
+    <t>Svalutazione crediti</t>
+  </si>
+  <si>
+    <t>Oneri finanziari</t>
+  </si>
+  <si>
+    <t>Proventi finanziari</t>
+  </si>
+  <si>
+    <t>Oneri straordinari</t>
+  </si>
+  <si>
+    <t>Proventi straordinari</t>
+  </si>
+  <si>
+    <t>Svalutazioni-accantonamenti</t>
+  </si>
+  <si>
+    <t>Imposte sul reddito</t>
+  </si>
+  <si>
+    <t>va calcolata dopo il CE budget, perché dipende dal margine operativo + finanziario</t>
+  </si>
+  <si>
+    <t>A) Totale ricavi di produzione</t>
+  </si>
+  <si>
+    <t>B) Acquisto di materie prime</t>
+  </si>
+  <si>
+    <t>C) Totale costi variabili di produzione</t>
+  </si>
+  <si>
+    <t>D) Costo di vendita</t>
+  </si>
+  <si>
+    <t>E) Margine Operativo Lordo</t>
+  </si>
+  <si>
+    <t>F) Totale costi fissi di produzione</t>
+  </si>
+  <si>
+    <t>G) Totale costi di struttura comm./amm.va</t>
+  </si>
+  <si>
+    <t>H) Reddito operativo</t>
+  </si>
+  <si>
+    <t>I) Ammortamenti</t>
+  </si>
+  <si>
+    <t>L) Margine Operativo Netto</t>
+  </si>
+  <si>
+    <t>M) Oneri e Proventi Finanziari netti</t>
+  </si>
+  <si>
+    <t>N) Risultato Ante Imposte</t>
+  </si>
+  <si>
+    <t>O) Imposte sul reddito</t>
+  </si>
+  <si>
+    <t>Risultato Netto</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1693,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1780,6 +1897,9 @@
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,9 +1933,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2459,6 +2578,893 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="CE 21-22"/>
+      <sheetName val="Ricavi"/>
+      <sheetName val="RicaviBudget"/>
+      <sheetName val="VariableCosts"/>
+      <sheetName val="VariableCostsBudget"/>
+      <sheetName val="FixedCosts"/>
+      <sheetName val="FixedCostsBudget"/>
+      <sheetName val="Others"/>
+      <sheetName val="OthersBudget"/>
+      <sheetName val="CE budget 2022"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="J4" t="str">
+            <v>MP1</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L4">
+            <v>48000</v>
+          </cell>
+          <cell r="M4">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5" t="str">
+            <v>MP2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L5">
+            <v>700</v>
+          </cell>
+          <cell r="M5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6" t="str">
+            <v>MP3</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L6">
+            <v>1100</v>
+          </cell>
+          <cell r="M6">
+            <v>2.4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7" t="str">
+            <v>MP4</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L7">
+            <v>125</v>
+          </cell>
+          <cell r="M7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8" t="str">
+            <v>MP5</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L8">
+            <v>1925</v>
+          </cell>
+          <cell r="M8">
+            <v>2.9058441558441559</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9" t="str">
+            <v>MP6</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L9">
+            <v>125</v>
+          </cell>
+          <cell r="M9">
+            <v>4.4000000000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10" t="str">
+            <v>MP7</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L10">
+            <v>2000</v>
+          </cell>
+          <cell r="M10">
+            <v>4.62</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11" t="str">
+            <v>MP8</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L11">
+            <v>1000</v>
+          </cell>
+          <cell r="M11">
+            <v>2.65</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12" t="str">
+            <v>MP9</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L12">
+            <v>7000</v>
+          </cell>
+          <cell r="M12">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13" t="str">
+            <v>MP10</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L13">
+            <v>34866.400000000001</v>
+          </cell>
+          <cell r="M13">
+            <v>0.50710643771654074</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14" t="str">
+            <v>MP11</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L14">
+            <v>14037.12</v>
+          </cell>
+          <cell r="M14">
+            <v>7.4104528564263887</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15" t="str">
+            <v>MP12</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L15">
+            <v>1904</v>
+          </cell>
+          <cell r="M15">
+            <v>1.4275735294117646</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16" t="str">
+            <v>MP13</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L16">
+            <v>150</v>
+          </cell>
+          <cell r="M16">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17" t="str">
+            <v>MP14</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>MP</v>
+          </cell>
+          <cell r="L17">
+            <v>20</v>
+          </cell>
+          <cell r="M17">
+            <v>13.5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18" t="str">
+            <v>PCL1</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>PCL</v>
+          </cell>
+          <cell r="L18">
+            <v>2160885</v>
+          </cell>
+          <cell r="M18">
+            <v>0.11065878100870709</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19" t="str">
+            <v>PCL2</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>PCL</v>
+          </cell>
+          <cell r="L19">
+            <v>168325</v>
+          </cell>
+          <cell r="M19">
+            <v>0.63902212980840634</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20" t="str">
+            <v>PCL3</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>PCL</v>
+          </cell>
+          <cell r="L20">
+            <v>495475</v>
+          </cell>
+          <cell r="M20">
+            <v>1.6503165205106214</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21" t="str">
+            <v>PCL4</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>PCL</v>
+          </cell>
+          <cell r="L21">
+            <v>489058</v>
+          </cell>
+          <cell r="M21">
+            <v>2.6814489976240035</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22" t="str">
+            <v>PCL5</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>PCL</v>
+          </cell>
+          <cell r="L22">
+            <v>6160</v>
+          </cell>
+          <cell r="M22">
+            <v>2.25</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23" t="str">
+            <v>PF P1</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L23">
+            <v>1719564</v>
+          </cell>
+          <cell r="M23">
+            <v>3.2527355771579307</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24" t="str">
+            <v>PF P2</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L24">
+            <v>292499</v>
+          </cell>
+          <cell r="M24">
+            <v>3.2730881131217542</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25" t="str">
+            <v>PF P3</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L25">
+            <v>442800</v>
+          </cell>
+          <cell r="M25">
+            <v>3.2317332881662151</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26" t="str">
+            <v>PF P4</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L26">
+            <v>8070474</v>
+          </cell>
+          <cell r="M26">
+            <v>3.1339358772483501</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27" t="str">
+            <v>PF P5</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L27">
+            <v>205850</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28" t="str">
+            <v>PF P6</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L28">
+            <v>3233156</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29" t="str">
+            <v>PF P7</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L29">
+            <v>660340</v>
+          </cell>
+          <cell r="M29">
+            <v>0.96042054093345852</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30" t="str">
+            <v>PF V1</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L30">
+            <v>509668</v>
+          </cell>
+          <cell r="M30">
+            <v>1.4659810896505177</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31" t="str">
+            <v>PF V2</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L31">
+            <v>2539984</v>
+          </cell>
+          <cell r="M31">
+            <v>1.5574062198816996</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32" t="str">
+            <v>PF V3</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L32">
+            <v>879638</v>
+          </cell>
+          <cell r="M32">
+            <v>1.5255310138943521</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33" t="str">
+            <v>PF V4</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L33">
+            <v>579689</v>
+          </cell>
+          <cell r="M33">
+            <v>1.5588271124689272</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34" t="str">
+            <v>PF V5</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L34">
+            <v>448105</v>
+          </cell>
+          <cell r="M34">
+            <v>1.4237468896798742</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35" t="str">
+            <v>PF V6</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L35">
+            <v>130100</v>
+          </cell>
+          <cell r="M35">
+            <v>1.9231706379707918</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36" t="str">
+            <v>PF V7</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L36">
+            <v>13340</v>
+          </cell>
+          <cell r="M36">
+            <v>1.1880509745127437</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37" t="str">
+            <v>PF V8</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L37">
+            <v>81820</v>
+          </cell>
+          <cell r="M37">
+            <v>1.6966731850403327</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38" t="str">
+            <v>PF V9</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L38">
+            <v>21040</v>
+          </cell>
+          <cell r="M38">
+            <v>1.6010133079847908</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39" t="str">
+            <v>PF V10</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L39">
+            <v>14625</v>
+          </cell>
+          <cell r="M39">
+            <v>1.6058974358974358</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40" t="str">
+            <v>PF V11</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L40">
+            <v>307868</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41" t="str">
+            <v>PF V12</v>
+          </cell>
+          <cell r="K41" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L41">
+            <v>7000</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42" t="str">
+            <v>PF V13</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L42">
+            <v>850145</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43" t="str">
+            <v>PF V14</v>
+          </cell>
+          <cell r="K43" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L43">
+            <v>40480</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44" t="str">
+            <v>PF V15</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L44">
+            <v>30000</v>
+          </cell>
+          <cell r="M44">
+            <v>2.1413333333333333</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45" t="str">
+            <v>PF V16</v>
+          </cell>
+          <cell r="K45" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L45">
+            <v>16500</v>
+          </cell>
+          <cell r="M45">
+            <v>1.2007575757575757</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46" t="str">
+            <v>PF A1</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L46">
+            <v>94290</v>
+          </cell>
+          <cell r="M46">
+            <v>1.2885862763813767</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47" t="str">
+            <v>PF A2</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L47">
+            <v>151620</v>
+          </cell>
+          <cell r="M47">
+            <v>1.7877720617332806</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48" t="str">
+            <v>PF A3</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L48">
+            <v>411979</v>
+          </cell>
+          <cell r="M48">
+            <v>1.8322972695210196</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49" t="str">
+            <v>PF A4</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L49">
+            <v>1362839</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50" t="str">
+            <v>PF A5</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L50">
+            <v>96425</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51" t="str">
+            <v>PF A6</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L51">
+            <v>61100</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52" t="str">
+            <v>PF A7</v>
+          </cell>
+          <cell r="K52" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L52">
+            <v>2820458.99</v>
+          </cell>
+          <cell r="M52">
+            <v>1.6397767269078427</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53" t="str">
+            <v>PF A8</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L53">
+            <v>157263</v>
+          </cell>
+          <cell r="M53">
+            <v>1.6271923465786613</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54" t="str">
+            <v>PF A9</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L54">
+            <v>261930</v>
+          </cell>
+          <cell r="M54">
+            <v>1.5522070782270072</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55" t="str">
+            <v>PF A10</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L55">
+            <v>500680</v>
+          </cell>
+          <cell r="M55">
+            <v>1.2455093073420147</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56" t="str">
+            <v>PF A11</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L56">
+            <v>62569</v>
+          </cell>
+          <cell r="M56">
+            <v>1.9325902603525706</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57" t="str">
+            <v>PF A12</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L57">
+            <v>927765</v>
+          </cell>
+          <cell r="M57">
+            <v>2.009165683120187</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58" t="str">
+            <v>PF A13</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L58">
+            <v>129425</v>
+          </cell>
+          <cell r="M58">
+            <v>1.6307046552057176</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59" t="str">
+            <v>PF A14</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L59">
+            <v>131955</v>
+          </cell>
+          <cell r="M59">
+            <v>1.9791817665113107</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60" t="str">
+            <v>PF A15</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L60">
+            <v>375075</v>
+          </cell>
+          <cell r="M60">
+            <v>1.7865580217289871</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61" t="str">
+            <v>PF A16</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L61">
+            <v>151110</v>
+          </cell>
+          <cell r="M61">
+            <v>1.6128909403745617</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62" t="str">
+            <v>PF A17</v>
+          </cell>
+          <cell r="K62" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L62">
+            <v>240225</v>
+          </cell>
+          <cell r="M62">
+            <v>1.9365259652409199</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63" t="str">
+            <v>PF A18</v>
+          </cell>
+          <cell r="K63" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L63">
+            <v>392880</v>
+          </cell>
+          <cell r="M63">
+            <v>1.0338126145387905</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64" t="str">
+            <v>PF A19</v>
+          </cell>
+          <cell r="K64" t="str">
+            <v>PF</v>
+          </cell>
+          <cell r="L64">
+            <v>1325620</v>
+          </cell>
+          <cell r="M64">
+            <v>1.59928712602404</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65" t="str">
+            <v>Spese trasporto</v>
+          </cell>
+          <cell r="K65" t="str">
+            <v>Others</v>
+          </cell>
+          <cell r="L65">
+            <v>25000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66" t="str">
+            <v>Premio Year22</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>Others</v>
+          </cell>
+          <cell r="L66">
+            <v>12</v>
+          </cell>
+          <cell r="M66">
+            <v>18980.987499999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2733,49 +3739,49 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="97" t="s">
+    <row r="1" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="E2" s="97" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="98"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="F2" s="99"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="96" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="100" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="97"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -2783,7 +3789,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +3799,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -2803,7 +3809,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -2813,7 +3819,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -2823,7 +3829,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -2833,7 +3839,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +3851,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -2855,7 +3861,7 @@
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -2865,7 +3871,7 @@
       <c r="E12" s="44"/>
       <c r="F12" s="45"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +3882,7 @@
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -2892,7 +3898,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -2911,7 +3917,7 @@
         <v>153.75</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -2926,7 +3932,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -2942,7 +3948,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -2956,7 +3962,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -2970,7 +3976,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -2986,7 +3992,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -2997,7 +4003,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -3011,7 +4017,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -3025,7 +4031,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -3039,7 +4045,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -3053,7 +4059,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -3067,7 +4073,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -3081,7 +4087,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -3097,7 +4103,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -3111,7 +4117,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -3125,7 +4131,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -3139,7 +4145,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -3155,7 +4161,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -3166,7 +4172,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -3180,7 +4186,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -3194,7 +4200,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -3208,7 +4214,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -3224,7 +4230,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -3234,7 +4240,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -3243,7 +4249,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -3252,7 +4258,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -3264,7 +4270,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -3274,7 +4280,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -3283,7 +4289,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -3292,7 +4298,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -3301,7 +4307,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -3311,7 +4317,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -3321,7 +4327,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -3330,7 +4336,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -3340,59 +4346,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -3410,6 +4416,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
+  <dimension ref="B3:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="107">
+        <f>RicaviBudget!F67</f>
+        <v>57945067.876579978</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="107">
+        <f>VariableCostsBudget!G17</f>
+        <v>4884510.4936473556</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="108">
+        <f>C4-C6-C8-C10</f>
+        <v>53060557.382932618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="107">
+        <f>FixedCostsBudget!C15</f>
+        <v>7625710.9100000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="107">
+        <f>FixedCostsBudget!C24</f>
+        <v>973750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="108">
+        <f>C12-C14-C16</f>
+        <v>44461096.472932622</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="107">
+        <f>OthersBudget!C3+OthersBudget!C5</f>
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="108">
+        <f>C18-C20</f>
+        <v>43511096.472932622</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="107">
+        <f>OthersBudget!C9+OthersBudget!C11</f>
+        <v>227633.03999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="108">
+        <f>C22-C24</f>
+        <v>43283463.432932623</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="107">
+        <f>OthersBudget!C19</f>
+        <v>12985039.029879786</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="108">
+        <f>C26-C28</f>
+        <v>30298424.403052837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
@@ -3418,48 +4572,48 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="100" t="s">
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -3500,7 +4654,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +4701,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +4744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +4787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -3676,7 +4830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -3719,7 +4873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -3762,7 +4916,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +4959,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +5002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -3891,7 +5045,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -3933,7 +5087,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -3975,7 +5129,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +5171,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +5213,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -4101,7 +5255,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -4143,7 +5297,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -4185,7 +5339,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -4227,7 +5381,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -4269,7 +5423,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -4311,7 +5465,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -4353,7 +5507,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -4395,7 +5549,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -4437,7 +5591,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -4479,7 +5633,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -4520,7 +5674,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -4561,7 +5715,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -4603,7 +5757,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -4645,7 +5799,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -4687,7 +5841,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -4729,7 +5883,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -4771,7 +5925,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -4812,7 +5966,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -4854,7 +6008,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -4896,7 +6050,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -4937,7 +6091,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -4979,7 +6133,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -5020,7 +6174,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -5061,7 +6215,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -5102,7 +6256,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -5142,7 +6296,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -5183,7 +6337,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -5225,7 +6379,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +6421,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -5309,7 +6463,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -5351,7 +6505,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -5393,7 +6547,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -5434,7 +6588,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -5475,7 +6629,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -5516,7 +6670,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -5558,7 +6712,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -5600,7 +6754,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -5642,7 +6796,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -5684,7 +6838,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -5726,7 +6880,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -5768,7 +6922,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -5810,7 +6964,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -5852,7 +7006,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -5894,7 +7048,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -5936,7 +7090,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -5978,7 +7132,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -6020,7 +7174,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -6062,7 +7216,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -6102,7 +7256,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -6142,7 +7296,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -6168,7 +7322,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -6194,7 +7348,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -6218,7 +7372,7 @@
       </c>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -6242,7 +7396,7 @@
       </c>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -6266,7 +7420,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -6290,7 +7444,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -6315,7 +7469,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -6339,7 +7493,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -6367,7 +7521,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -6397,7 +7551,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -6427,7 +7581,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -6453,7 +7607,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -6479,7 +7633,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -6489,24 +7643,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -6521,1581 +7675,1760 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
-  <dimension ref="B2:H67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="107" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="str">
-        <f>Ricavi!J4</f>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107" t="str">
+        <f>[2]Ricavi!J4</f>
         <v>MP1</v>
       </c>
-      <c r="C3" t="str">
-        <f>Ricavi!K4</f>
+      <c r="C3" s="107" t="str">
+        <f>[2]Ricavi!K4</f>
         <v>MP</v>
       </c>
-      <c r="D3">
-        <f>Ricavi!L4</f>
+      <c r="D3" s="107">
+        <f>[2]Ricavi!L4</f>
         <v>48000</v>
       </c>
-      <c r="E3">
-        <f>Ricavi!M4</f>
+      <c r="E3" s="107">
+        <f>[2]Ricavi!M4</f>
         <v>0.93</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" si="0">D3*E3</f>
+      <c r="F3" s="107">
+        <f t="shared" ref="F3:F64" si="0">D3*E3</f>
         <v>44640</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="str">
-        <f>Ricavi!J5</f>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107" t="str">
+        <f>[2]Ricavi!J5</f>
         <v>MP2</v>
       </c>
-      <c r="C4" t="str">
-        <f>Ricavi!K5</f>
+      <c r="C4" s="107" t="str">
+        <f>[2]Ricavi!K5</f>
         <v>MP</v>
       </c>
-      <c r="D4">
-        <f>Ricavi!L5</f>
+      <c r="D4" s="107">
+        <f>[2]Ricavi!L5</f>
         <v>700</v>
       </c>
-      <c r="E4">
-        <f>Ricavi!M5</f>
+      <c r="E4" s="107">
+        <f>[2]Ricavi!M5</f>
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="107">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="str">
-        <f>Ricavi!J6</f>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107" t="str">
+        <f>[2]Ricavi!J6</f>
         <v>MP3</v>
       </c>
-      <c r="C5" t="str">
-        <f>Ricavi!K6</f>
+      <c r="C5" s="107" t="str">
+        <f>[2]Ricavi!K6</f>
         <v>MP</v>
       </c>
-      <c r="D5">
-        <f>Ricavi!L6</f>
+      <c r="D5" s="107">
+        <f>[2]Ricavi!L6</f>
         <v>1100</v>
       </c>
-      <c r="E5">
-        <f>Ricavi!M6</f>
+      <c r="E5" s="107">
+        <f>[2]Ricavi!M6</f>
         <v>2.4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="107">
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
-        <f>Ricavi!J7</f>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107" t="str">
+        <f>[2]Ricavi!J7</f>
         <v>MP4</v>
       </c>
-      <c r="C6" t="str">
-        <f>Ricavi!K7</f>
+      <c r="C6" s="107" t="str">
+        <f>[2]Ricavi!K7</f>
         <v>MP</v>
       </c>
-      <c r="D6">
-        <f>Ricavi!L7</f>
+      <c r="D6" s="107">
+        <f>[2]Ricavi!L7</f>
         <v>125</v>
       </c>
-      <c r="E6">
-        <f>Ricavi!M7</f>
+      <c r="E6" s="107">
+        <f>[2]Ricavi!M7</f>
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="107">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
-        <f>Ricavi!J8</f>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107" t="str">
+        <f>[2]Ricavi!J8</f>
         <v>MP5</v>
       </c>
-      <c r="C7" t="str">
-        <f>Ricavi!K8</f>
+      <c r="C7" s="107" t="str">
+        <f>[2]Ricavi!K8</f>
         <v>MP</v>
       </c>
-      <c r="D7">
-        <f>Ricavi!L8</f>
+      <c r="D7" s="107">
+        <f>[2]Ricavi!L8</f>
         <v>1925</v>
       </c>
-      <c r="E7">
-        <f>Ricavi!M8</f>
+      <c r="E7" s="107">
+        <f>[2]Ricavi!M8</f>
         <v>2.9058441558441559</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="107">
         <f t="shared" si="0"/>
         <v>5593.75</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
-        <f>Ricavi!J9</f>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107" t="str">
+        <f>[2]Ricavi!J9</f>
         <v>MP6</v>
       </c>
-      <c r="C8" t="str">
-        <f>Ricavi!K9</f>
+      <c r="C8" s="107" t="str">
+        <f>[2]Ricavi!K9</f>
         <v>MP</v>
       </c>
-      <c r="D8">
-        <f>Ricavi!L9</f>
+      <c r="D8" s="107">
+        <f>[2]Ricavi!L9</f>
         <v>125</v>
       </c>
-      <c r="E8">
-        <f>Ricavi!M9</f>
+      <c r="E8" s="107">
+        <f>[2]Ricavi!M9</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="107">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
-        <f>Ricavi!J10</f>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107" t="str">
+        <f>[2]Ricavi!J10</f>
         <v>MP7</v>
       </c>
-      <c r="C9" t="str">
-        <f>Ricavi!K10</f>
+      <c r="C9" s="107" t="str">
+        <f>[2]Ricavi!K10</f>
         <v>MP</v>
       </c>
-      <c r="D9">
-        <f>Ricavi!L10</f>
+      <c r="D9" s="107">
+        <f>[2]Ricavi!L10</f>
         <v>2000</v>
       </c>
-      <c r="E9">
-        <f>Ricavi!M10</f>
+      <c r="E9" s="107">
+        <f>[2]Ricavi!M10</f>
         <v>4.62</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="107">
         <f t="shared" si="0"/>
         <v>9240</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="str">
-        <f>Ricavi!J11</f>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107" t="str">
+        <f>[2]Ricavi!J11</f>
         <v>MP8</v>
       </c>
-      <c r="C10" t="str">
-        <f>Ricavi!K11</f>
+      <c r="C10" s="107" t="str">
+        <f>[2]Ricavi!K11</f>
         <v>MP</v>
       </c>
-      <c r="D10">
-        <f>Ricavi!L11</f>
+      <c r="D10" s="107">
+        <f>[2]Ricavi!L11</f>
         <v>1000</v>
       </c>
-      <c r="E10">
-        <f>Ricavi!M11</f>
+      <c r="E10" s="107">
+        <f>[2]Ricavi!M11</f>
         <v>2.65</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="107">
         <f t="shared" si="0"/>
         <v>2650</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="str">
-        <f>Ricavi!J12</f>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107" t="str">
+        <f>[2]Ricavi!J12</f>
         <v>MP9</v>
       </c>
-      <c r="C11" t="str">
-        <f>Ricavi!K12</f>
+      <c r="C11" s="107" t="str">
+        <f>[2]Ricavi!K12</f>
         <v>MP</v>
       </c>
-      <c r="D11">
-        <f>Ricavi!L12</f>
+      <c r="D11" s="107">
+        <f>[2]Ricavi!L12</f>
         <v>7000</v>
       </c>
-      <c r="E11">
-        <f>Ricavi!M12</f>
+      <c r="E11" s="107">
+        <f>[2]Ricavi!M12</f>
         <v>0.19</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="107">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="str">
-        <f>Ricavi!J13</f>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107" t="str">
+        <f>[2]Ricavi!J13</f>
         <v>MP10</v>
       </c>
-      <c r="C12" t="str">
-        <f>Ricavi!K13</f>
+      <c r="C12" s="107" t="str">
+        <f>[2]Ricavi!K13</f>
         <v>MP</v>
       </c>
-      <c r="D12">
-        <f>Ricavi!L13</f>
+      <c r="D12" s="107">
+        <f>[2]Ricavi!L13</f>
         <v>34866.400000000001</v>
       </c>
-      <c r="E12">
-        <f>Ricavi!M13</f>
+      <c r="E12" s="107">
+        <f>[2]Ricavi!M13</f>
         <v>0.50710643771654074</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="107">
         <f t="shared" si="0"/>
         <v>17680.975899999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="str">
-        <f>Ricavi!J14</f>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107" t="str">
+        <f>[2]Ricavi!J14</f>
         <v>MP11</v>
       </c>
-      <c r="C13" t="str">
-        <f>Ricavi!K14</f>
+      <c r="C13" s="107" t="str">
+        <f>[2]Ricavi!K14</f>
         <v>MP</v>
       </c>
-      <c r="D13">
-        <f>Ricavi!L14</f>
+      <c r="D13" s="107">
+        <f>[2]Ricavi!L14</f>
         <v>14037.12</v>
       </c>
-      <c r="E13">
-        <f>Ricavi!M14</f>
+      <c r="E13" s="107">
+        <f>[2]Ricavi!M14</f>
         <v>7.4104528564263887</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="107">
         <f t="shared" si="0"/>
         <v>104021.416</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="str">
-        <f>Ricavi!J15</f>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107" t="str">
+        <f>[2]Ricavi!J15</f>
         <v>MP12</v>
       </c>
-      <c r="C14" t="str">
-        <f>Ricavi!K15</f>
+      <c r="C14" s="107" t="str">
+        <f>[2]Ricavi!K15</f>
         <v>MP</v>
       </c>
-      <c r="D14">
-        <f>Ricavi!L15</f>
+      <c r="D14" s="107">
+        <f>[2]Ricavi!L15</f>
         <v>1904</v>
       </c>
-      <c r="E14">
-        <f>Ricavi!M15</f>
+      <c r="E14" s="107">
+        <f>[2]Ricavi!M15</f>
         <v>1.4275735294117646</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="107">
         <f t="shared" si="0"/>
         <v>2718.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="str">
-        <f>Ricavi!J16</f>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107" t="str">
+        <f>[2]Ricavi!J16</f>
         <v>MP13</v>
       </c>
-      <c r="C15" t="str">
-        <f>Ricavi!K16</f>
+      <c r="C15" s="107" t="str">
+        <f>[2]Ricavi!K16</f>
         <v>MP</v>
       </c>
-      <c r="D15">
-        <f>Ricavi!L16</f>
+      <c r="D15" s="107">
+        <f>[2]Ricavi!L16</f>
         <v>150</v>
       </c>
-      <c r="E15">
-        <f>Ricavi!M16</f>
+      <c r="E15" s="107">
+        <f>[2]Ricavi!M16</f>
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="107">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="str">
-        <f>Ricavi!J17</f>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107" t="str">
+        <f>[2]Ricavi!J17</f>
         <v>MP14</v>
       </c>
-      <c r="C16" t="str">
-        <f>Ricavi!K17</f>
+      <c r="C16" s="107" t="str">
+        <f>[2]Ricavi!K17</f>
         <v>MP</v>
       </c>
-      <c r="D16">
-        <f>Ricavi!L17</f>
+      <c r="D16" s="107">
+        <f>[2]Ricavi!L17</f>
         <v>20</v>
       </c>
-      <c r="E16">
-        <f>Ricavi!M17</f>
+      <c r="E16" s="107">
+        <f>[2]Ricavi!M17</f>
         <v>13.5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="107">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="str">
-        <f>Ricavi!J18</f>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107" t="str">
+        <f>[2]Ricavi!J18</f>
         <v>PCL1</v>
       </c>
-      <c r="C17" t="str">
-        <f>Ricavi!K18</f>
+      <c r="C17" s="107" t="str">
+        <f>[2]Ricavi!K18</f>
         <v>PCL</v>
       </c>
-      <c r="D17">
-        <f>Ricavi!L18</f>
+      <c r="D17" s="107">
+        <f>[2]Ricavi!L18</f>
         <v>2160885</v>
       </c>
-      <c r="E17">
-        <f>Ricavi!M18</f>
+      <c r="E17" s="107">
+        <f>[2]Ricavi!M18</f>
         <v>0.11065878100870709</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="107">
         <f t="shared" si="0"/>
         <v>239120.90000000002</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="str">
-        <f>Ricavi!J19</f>
+      <c r="G17" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="107"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107" t="str">
+        <f>[2]Ricavi!J19</f>
         <v>PCL2</v>
       </c>
-      <c r="C18" t="str">
-        <f>Ricavi!K19</f>
+      <c r="C18" s="107" t="str">
+        <f>[2]Ricavi!K19</f>
         <v>PCL</v>
       </c>
-      <c r="D18">
-        <f>Ricavi!L19</f>
+      <c r="D18" s="107">
+        <f>[2]Ricavi!L19</f>
         <v>168325</v>
       </c>
-      <c r="E18">
-        <f>Ricavi!M19</f>
+      <c r="E18" s="107">
+        <f>[2]Ricavi!M19</f>
         <v>0.63902212980840634</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="107">
         <f t="shared" si="0"/>
         <v>107563.4</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="str">
-        <f>Ricavi!J20</f>
+      <c r="G18" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="107"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107" t="str">
+        <f>[2]Ricavi!J20</f>
         <v>PCL3</v>
       </c>
-      <c r="C19" t="str">
-        <f>Ricavi!K20</f>
+      <c r="C19" s="107" t="str">
+        <f>[2]Ricavi!K20</f>
         <v>PCL</v>
       </c>
-      <c r="D19">
-        <f>Ricavi!L20</f>
+      <c r="D19" s="107">
+        <f>[2]Ricavi!L20</f>
         <v>495475</v>
       </c>
-      <c r="E19">
-        <f>Ricavi!M20</f>
+      <c r="E19" s="107">
+        <f>[2]Ricavi!M20</f>
         <v>1.6503165205106214</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="107">
         <f t="shared" si="0"/>
         <v>817690.5780000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="str">
-        <f>Ricavi!J21</f>
+      <c r="G19" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="107"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107" t="str">
+        <f>[2]Ricavi!J21</f>
         <v>PCL4</v>
       </c>
-      <c r="C20" t="str">
-        <f>Ricavi!K21</f>
+      <c r="C20" s="107" t="str">
+        <f>[2]Ricavi!K21</f>
         <v>PCL</v>
       </c>
-      <c r="D20">
-        <f>Ricavi!L21</f>
+      <c r="D20" s="107">
+        <f>[2]Ricavi!L21</f>
         <v>489058</v>
       </c>
-      <c r="E20">
-        <f>Ricavi!M21</f>
+      <c r="E20" s="107">
+        <f>[2]Ricavi!M21</f>
         <v>2.6814489976240035</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="107">
         <f t="shared" si="0"/>
         <v>1311384.0838799998</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="str">
-        <f>Ricavi!J22</f>
+      <c r="G20" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="107"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107" t="str">
+        <f>[2]Ricavi!J22</f>
         <v>PCL5</v>
       </c>
-      <c r="C21" t="str">
-        <f>Ricavi!K22</f>
+      <c r="C21" s="107" t="str">
+        <f>[2]Ricavi!K22</f>
         <v>PCL</v>
       </c>
-      <c r="D21">
-        <f>Ricavi!L22</f>
+      <c r="D21" s="107">
+        <f>[2]Ricavi!L22</f>
         <v>6160</v>
       </c>
-      <c r="E21">
-        <f>Ricavi!M22</f>
+      <c r="E21" s="107">
+        <f>[2]Ricavi!M22</f>
         <v>2.25</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="107">
         <f t="shared" si="0"/>
         <v>13860</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="str">
-        <f>Ricavi!J23</f>
+      <c r="G21" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="107"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107" t="str">
+        <f>[2]Ricavi!J23</f>
         <v>PF P1</v>
       </c>
-      <c r="C22" t="str">
-        <f>Ricavi!K23</f>
+      <c r="C22" s="107" t="str">
+        <f>[2]Ricavi!K23</f>
         <v>PF</v>
       </c>
-      <c r="D22">
-        <f>Ricavi!L23</f>
+      <c r="D22" s="107">
+        <f>[2]Ricavi!L23</f>
         <v>1719564</v>
       </c>
-      <c r="E22">
-        <f>Ricavi!M23</f>
+      <c r="E22" s="107">
+        <f>[2]Ricavi!M23</f>
         <v>3.2527355771579307</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="107">
         <f t="shared" si="0"/>
         <v>5593287</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="107" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="str">
-        <f>Ricavi!J24</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107" t="str">
+        <f>[2]Ricavi!J24</f>
         <v>PF P2</v>
       </c>
-      <c r="C23" t="str">
-        <f>Ricavi!K24</f>
+      <c r="C23" s="107" t="str">
+        <f>[2]Ricavi!K24</f>
         <v>PF</v>
       </c>
-      <c r="D23">
-        <f>Ricavi!L24</f>
+      <c r="D23" s="107">
+        <f>[2]Ricavi!L24</f>
         <v>292499</v>
       </c>
-      <c r="E23">
-        <f>Ricavi!M24</f>
+      <c r="E23" s="107">
+        <f>[2]Ricavi!M24</f>
         <v>3.2730881131217542</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="107">
         <f t="shared" si="0"/>
         <v>957375</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="str">
-        <f>Ricavi!J25</f>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107" t="str">
+        <f>[2]Ricavi!J25</f>
         <v>PF P3</v>
       </c>
-      <c r="C24" t="str">
-        <f>Ricavi!K25</f>
+      <c r="C24" s="107" t="str">
+        <f>[2]Ricavi!K25</f>
         <v>PF</v>
       </c>
-      <c r="D24">
-        <f>Ricavi!L25</f>
+      <c r="D24" s="107">
+        <f>[2]Ricavi!L25</f>
         <v>442800</v>
       </c>
-      <c r="E24">
-        <f>Ricavi!M25</f>
+      <c r="E24" s="107">
+        <f>[2]Ricavi!M25</f>
         <v>3.2317332881662151</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="107">
         <f t="shared" si="0"/>
         <v>1431011.5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="str">
-        <f>Ricavi!J26</f>
+      <c r="H24" s="107"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
+      <c r="B25" s="107" t="str">
+        <f>[2]Ricavi!J26</f>
         <v>PF P4</v>
       </c>
-      <c r="C25" t="str">
-        <f>Ricavi!K26</f>
+      <c r="C25" s="107" t="str">
+        <f>[2]Ricavi!K26</f>
         <v>PF</v>
       </c>
-      <c r="D25">
-        <f>Ricavi!L26</f>
+      <c r="D25" s="107">
+        <f>[2]Ricavi!L26</f>
         <v>8070474</v>
       </c>
-      <c r="E25">
-        <f>Ricavi!M26</f>
+      <c r="E25" s="107">
+        <f>[2]Ricavi!M26</f>
         <v>3.1339358772483501</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="107">
         <f t="shared" si="0"/>
         <v>25292348.015000001</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="str">
-        <f>Ricavi!J27</f>
+      <c r="H25" s="107"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107" t="str">
+        <f>[2]Ricavi!J27</f>
         <v>PF P5</v>
       </c>
-      <c r="C26" t="str">
-        <f>Ricavi!K27</f>
+      <c r="C26" s="107" t="str">
+        <f>[2]Ricavi!K27</f>
         <v>PF</v>
       </c>
-      <c r="D26">
-        <f>Ricavi!L27</f>
+      <c r="D26" s="107">
+        <f>[2]Ricavi!L27</f>
         <v>205850</v>
       </c>
-      <c r="E26">
-        <f>Ricavi!M27</f>
+      <c r="E26" s="107">
+        <f>[2]Ricavi!M27</f>
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="str">
-        <f>Ricavi!J28</f>
+      <c r="H26" s="107"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107" t="str">
+        <f>[2]Ricavi!J28</f>
         <v>PF P6</v>
       </c>
-      <c r="C27" t="str">
-        <f>Ricavi!K28</f>
+      <c r="C27" s="107" t="str">
+        <f>[2]Ricavi!K28</f>
         <v>PF</v>
       </c>
-      <c r="D27">
-        <f>Ricavi!L28</f>
+      <c r="D27" s="107">
+        <f>[2]Ricavi!L28</f>
         <v>3233156</v>
       </c>
-      <c r="E27">
-        <f>Ricavi!M28</f>
+      <c r="E27" s="107">
+        <f>[2]Ricavi!M28</f>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="str">
-        <f>Ricavi!J29</f>
+      <c r="H27" s="107"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107" t="str">
+        <f>[2]Ricavi!J29</f>
         <v>PF P7</v>
       </c>
-      <c r="C28" t="str">
-        <f>Ricavi!K29</f>
+      <c r="C28" s="107" t="str">
+        <f>[2]Ricavi!K29</f>
         <v>PF</v>
       </c>
-      <c r="D28">
-        <f>Ricavi!L29</f>
+      <c r="D28" s="107">
+        <f>[2]Ricavi!L29</f>
         <v>660340</v>
       </c>
-      <c r="E28">
-        <f>Ricavi!M29</f>
+      <c r="E28" s="107">
+        <f>[2]Ricavi!M29</f>
         <v>0.96042054093345852</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="107">
         <f t="shared" si="0"/>
         <v>634204.1</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="str">
-        <f>Ricavi!J30</f>
+      <c r="H28" s="107"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107" t="str">
+        <f>[2]Ricavi!J30</f>
         <v>PF V1</v>
       </c>
-      <c r="C29" t="str">
-        <f>Ricavi!K30</f>
+      <c r="C29" s="107" t="str">
+        <f>[2]Ricavi!K30</f>
         <v>PF</v>
       </c>
-      <c r="D29">
-        <f>Ricavi!L30</f>
+      <c r="D29" s="107">
+        <f>[2]Ricavi!L30</f>
         <v>509668</v>
       </c>
-      <c r="E29">
-        <f>Ricavi!M30</f>
+      <c r="E29" s="107">
+        <f>[2]Ricavi!M30</f>
         <v>1.4659810896505177</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="107">
         <f t="shared" si="0"/>
         <v>747163.65</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="str">
-        <f>Ricavi!J31</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107" t="str">
+        <f>[2]Ricavi!J31</f>
         <v>PF V2</v>
       </c>
-      <c r="C30" t="str">
-        <f>Ricavi!K31</f>
+      <c r="C30" s="107" t="str">
+        <f>[2]Ricavi!K31</f>
         <v>PF</v>
       </c>
-      <c r="D30">
-        <f>Ricavi!L31</f>
+      <c r="D30" s="107">
+        <f>[2]Ricavi!L31</f>
         <v>2539984</v>
       </c>
-      <c r="E30">
-        <f>Ricavi!M31</f>
+      <c r="E30" s="107">
+        <f>[2]Ricavi!M31</f>
         <v>1.5574062198816996</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="107">
         <f t="shared" si="0"/>
         <v>3955786.879999999</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="str">
-        <f>Ricavi!J32</f>
+      <c r="H30" s="107"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="107"/>
+      <c r="B31" s="107" t="str">
+        <f>[2]Ricavi!J32</f>
         <v>PF V3</v>
       </c>
-      <c r="C31" t="str">
-        <f>Ricavi!K32</f>
+      <c r="C31" s="107" t="str">
+        <f>[2]Ricavi!K32</f>
         <v>PF</v>
       </c>
-      <c r="D31">
-        <f>Ricavi!L32</f>
+      <c r="D31" s="107">
+        <f>[2]Ricavi!L32</f>
         <v>879638</v>
       </c>
-      <c r="E31">
-        <f>Ricavi!M32</f>
+      <c r="E31" s="107">
+        <f>[2]Ricavi!M32</f>
         <v>1.5255310138943521</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="107">
         <f t="shared" si="0"/>
         <v>1341915.05</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="str">
-        <f>Ricavi!J33</f>
+      <c r="H31" s="107"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107" t="str">
+        <f>[2]Ricavi!J33</f>
         <v>PF V4</v>
       </c>
-      <c r="C32" t="str">
-        <f>Ricavi!K33</f>
+      <c r="C32" s="107" t="str">
+        <f>[2]Ricavi!K33</f>
         <v>PF</v>
       </c>
-      <c r="D32">
-        <f>Ricavi!L33</f>
+      <c r="D32" s="107">
+        <f>[2]Ricavi!L33</f>
         <v>579689</v>
       </c>
-      <c r="E32">
-        <f>Ricavi!M33</f>
+      <c r="E32" s="107">
+        <f>[2]Ricavi!M33</f>
         <v>1.5588271124689272</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="107">
         <f t="shared" si="0"/>
         <v>903634.92999999993</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" t="str">
-        <f>Ricavi!J34</f>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107" t="str">
+        <f>[2]Ricavi!J34</f>
         <v>PF V5</v>
       </c>
-      <c r="C33" t="str">
-        <f>Ricavi!K34</f>
+      <c r="C33" s="107" t="str">
+        <f>[2]Ricavi!K34</f>
         <v>PF</v>
       </c>
-      <c r="D33">
-        <f>Ricavi!L34</f>
+      <c r="D33" s="107">
+        <f>[2]Ricavi!L34</f>
         <v>448105</v>
       </c>
-      <c r="E33">
-        <f>Ricavi!M34</f>
+      <c r="E33" s="107">
+        <f>[2]Ricavi!M34</f>
         <v>1.4237468896798742</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="107">
         <f t="shared" si="0"/>
         <v>637988.1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="str">
-        <f>Ricavi!J35</f>
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107" t="str">
+        <f>[2]Ricavi!J35</f>
         <v>PF V6</v>
       </c>
-      <c r="C34" t="str">
-        <f>Ricavi!K35</f>
+      <c r="C34" s="107" t="str">
+        <f>[2]Ricavi!K35</f>
         <v>PF</v>
       </c>
-      <c r="D34">
-        <f>Ricavi!L35</f>
+      <c r="D34" s="107">
+        <f>[2]Ricavi!L35</f>
         <v>130100</v>
       </c>
-      <c r="E34">
-        <f>Ricavi!M35</f>
+      <c r="E34" s="107">
+        <f>[2]Ricavi!M35</f>
         <v>1.9231706379707918</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="107">
         <f t="shared" si="0"/>
         <v>250204.5</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="str">
-        <f>Ricavi!J36</f>
+      <c r="H34" s="107"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107" t="str">
+        <f>[2]Ricavi!J36</f>
         <v>PF V7</v>
       </c>
-      <c r="C35" t="str">
-        <f>Ricavi!K36</f>
+      <c r="C35" s="107" t="str">
+        <f>[2]Ricavi!K36</f>
         <v>PF</v>
       </c>
-      <c r="D35">
-        <f>Ricavi!L36</f>
+      <c r="D35" s="107">
+        <f>[2]Ricavi!L36</f>
         <v>13340</v>
       </c>
-      <c r="E35">
-        <f>Ricavi!M36</f>
+      <c r="E35" s="107">
+        <f>[2]Ricavi!M36</f>
         <v>1.1880509745127437</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F64" si="1">D35*E35</f>
+      <c r="F35" s="107">
+        <f t="shared" si="0"/>
         <v>15848.6</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="str">
-        <f>Ricavi!J37</f>
+      <c r="H35" s="107"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107" t="str">
+        <f>[2]Ricavi!J37</f>
         <v>PF V8</v>
       </c>
-      <c r="C36" t="str">
-        <f>Ricavi!K37</f>
+      <c r="C36" s="107" t="str">
+        <f>[2]Ricavi!K37</f>
         <v>PF</v>
       </c>
-      <c r="D36">
-        <f>Ricavi!L37</f>
+      <c r="D36" s="107">
+        <f>[2]Ricavi!L37</f>
         <v>81820</v>
       </c>
-      <c r="E36">
-        <f>Ricavi!M37</f>
+      <c r="E36" s="107">
+        <f>[2]Ricavi!M37</f>
         <v>1.6966731850403327</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
+      <c r="F36" s="107">
+        <f t="shared" si="0"/>
         <v>138821.80000000002</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="str">
-        <f>Ricavi!J38</f>
+      <c r="H36" s="107"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107" t="str">
+        <f>[2]Ricavi!J38</f>
         <v>PF V9</v>
       </c>
-      <c r="C37" t="str">
-        <f>Ricavi!K38</f>
+      <c r="C37" s="107" t="str">
+        <f>[2]Ricavi!K38</f>
         <v>PF</v>
       </c>
-      <c r="D37">
-        <f>Ricavi!L38</f>
+      <c r="D37" s="107">
+        <f>[2]Ricavi!L38</f>
         <v>21040</v>
       </c>
-      <c r="E37">
-        <f>Ricavi!M38</f>
+      <c r="E37" s="107">
+        <f>[2]Ricavi!M38</f>
         <v>1.6010133079847908</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
+      <c r="F37" s="107">
+        <f t="shared" si="0"/>
         <v>33685.32</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="str">
-        <f>Ricavi!J39</f>
+      <c r="H37" s="107"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="107"/>
+      <c r="B38" s="107" t="str">
+        <f>[2]Ricavi!J39</f>
         <v>PF V10</v>
       </c>
-      <c r="C38" t="str">
-        <f>Ricavi!K39</f>
+      <c r="C38" s="107" t="str">
+        <f>[2]Ricavi!K39</f>
         <v>PF</v>
       </c>
-      <c r="D38">
-        <f>Ricavi!L39</f>
+      <c r="D38" s="107">
+        <f>[2]Ricavi!L39</f>
         <v>14625</v>
       </c>
-      <c r="E38">
-        <f>Ricavi!M39</f>
+      <c r="E38" s="107">
+        <f>[2]Ricavi!M39</f>
         <v>1.6058974358974358</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
+      <c r="F38" s="107">
+        <f t="shared" si="0"/>
         <v>23486.25</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" t="str">
-        <f>Ricavi!J40</f>
+      <c r="H38" s="107"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="107"/>
+      <c r="B39" s="107" t="str">
+        <f>[2]Ricavi!J40</f>
         <v>PF V11</v>
       </c>
-      <c r="C39" t="str">
-        <f>Ricavi!K40</f>
+      <c r="C39" s="107" t="str">
+        <f>[2]Ricavi!K40</f>
         <v>PF</v>
       </c>
-      <c r="D39">
-        <f>Ricavi!L40</f>
+      <c r="D39" s="107">
+        <f>[2]Ricavi!L40</f>
         <v>307868</v>
       </c>
-      <c r="E39">
-        <f>Ricavi!M40</f>
+      <c r="E39" s="107">
+        <f>[2]Ricavi!M40</f>
         <v>0</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
+      <c r="F39" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" t="str">
-        <f>Ricavi!J41</f>
+      <c r="H39" s="107"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="107"/>
+      <c r="B40" s="107" t="str">
+        <f>[2]Ricavi!J41</f>
         <v>PF V12</v>
       </c>
-      <c r="C40" t="str">
-        <f>Ricavi!K41</f>
+      <c r="C40" s="107" t="str">
+        <f>[2]Ricavi!K41</f>
         <v>PF</v>
       </c>
-      <c r="D40">
-        <f>Ricavi!L41</f>
+      <c r="D40" s="107">
+        <f>[2]Ricavi!L41</f>
         <v>7000</v>
       </c>
-      <c r="E40">
-        <f>Ricavi!M41</f>
+      <c r="E40" s="107">
+        <f>[2]Ricavi!M41</f>
         <v>0</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
+      <c r="F40" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="str">
-        <f>Ricavi!J42</f>
+      <c r="H40" s="107"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="107"/>
+      <c r="B41" s="107" t="str">
+        <f>[2]Ricavi!J42</f>
         <v>PF V13</v>
       </c>
-      <c r="C41" t="str">
-        <f>Ricavi!K42</f>
+      <c r="C41" s="107" t="str">
+        <f>[2]Ricavi!K42</f>
         <v>PF</v>
       </c>
-      <c r="D41">
-        <f>Ricavi!L42</f>
+      <c r="D41" s="107">
+        <f>[2]Ricavi!L42</f>
         <v>850145</v>
       </c>
-      <c r="E41">
-        <f>Ricavi!M42</f>
+      <c r="E41" s="107">
+        <f>[2]Ricavi!M42</f>
         <v>0</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
+      <c r="F41" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" t="str">
-        <f>Ricavi!J43</f>
+      <c r="H41" s="107"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="107"/>
+      <c r="B42" s="107" t="str">
+        <f>[2]Ricavi!J43</f>
         <v>PF V14</v>
       </c>
-      <c r="C42" t="str">
-        <f>Ricavi!K43</f>
+      <c r="C42" s="107" t="str">
+        <f>[2]Ricavi!K43</f>
         <v>PF</v>
       </c>
-      <c r="D42">
-        <f>Ricavi!L43</f>
+      <c r="D42" s="107">
+        <f>[2]Ricavi!L43</f>
         <v>40480</v>
       </c>
-      <c r="E42">
-        <f>Ricavi!M43</f>
+      <c r="E42" s="107">
+        <f>[2]Ricavi!M43</f>
         <v>0</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
+      <c r="F42" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" t="str">
-        <f>Ricavi!J44</f>
+      <c r="H42" s="107"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="107"/>
+      <c r="B43" s="107" t="str">
+        <f>[2]Ricavi!J44</f>
         <v>PF V15</v>
       </c>
-      <c r="C43" t="str">
-        <f>Ricavi!K44</f>
+      <c r="C43" s="107" t="str">
+        <f>[2]Ricavi!K44</f>
         <v>PF</v>
       </c>
-      <c r="D43">
-        <f>Ricavi!L44</f>
+      <c r="D43" s="107">
+        <f>[2]Ricavi!L44</f>
         <v>30000</v>
       </c>
-      <c r="E43">
-        <f>Ricavi!M44</f>
+      <c r="E43" s="107">
+        <f>[2]Ricavi!M44</f>
         <v>2.1413333333333333</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
+      <c r="F43" s="107">
+        <f t="shared" si="0"/>
         <v>64240</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" t="str">
-        <f>Ricavi!J45</f>
+      <c r="H43" s="107"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="107"/>
+      <c r="B44" s="107" t="str">
+        <f>[2]Ricavi!J45</f>
         <v>PF V16</v>
       </c>
-      <c r="C44" t="str">
-        <f>Ricavi!K45</f>
+      <c r="C44" s="107" t="str">
+        <f>[2]Ricavi!K45</f>
         <v>PF</v>
       </c>
-      <c r="D44">
-        <f>Ricavi!L45</f>
+      <c r="D44" s="107">
+        <f>[2]Ricavi!L45</f>
         <v>16500</v>
       </c>
-      <c r="E44">
-        <f>Ricavi!M45</f>
+      <c r="E44" s="107">
+        <f>[2]Ricavi!M45</f>
         <v>1.2007575757575757</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
+      <c r="F44" s="107">
+        <f t="shared" si="0"/>
         <v>19812.5</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="107" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="str">
-        <f>Ricavi!J46</f>
+      <c r="H44" s="107"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="107"/>
+      <c r="B45" s="107" t="str">
+        <f>[2]Ricavi!J46</f>
         <v>PF A1</v>
       </c>
-      <c r="C45" t="str">
-        <f>Ricavi!K46</f>
+      <c r="C45" s="107" t="str">
+        <f>[2]Ricavi!K46</f>
         <v>PF</v>
       </c>
-      <c r="D45">
-        <f>Ricavi!L46</f>
+      <c r="D45" s="107">
+        <f>[2]Ricavi!L46</f>
         <v>94290</v>
       </c>
-      <c r="E45">
-        <f>Ricavi!M46</f>
+      <c r="E45" s="107">
+        <f>[2]Ricavi!M46</f>
         <v>1.2885862763813767</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
+      <c r="F45" s="107">
+        <f t="shared" si="0"/>
         <v>121500.8</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="107" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="str">
-        <f>Ricavi!J47</f>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="107"/>
+      <c r="B46" s="107" t="str">
+        <f>[2]Ricavi!J47</f>
         <v>PF A2</v>
       </c>
-      <c r="C46" t="str">
-        <f>Ricavi!K47</f>
+      <c r="C46" s="107" t="str">
+        <f>[2]Ricavi!K47</f>
         <v>PF</v>
       </c>
-      <c r="D46">
-        <f>Ricavi!L47</f>
+      <c r="D46" s="107">
+        <f>[2]Ricavi!L47</f>
         <v>151620</v>
       </c>
-      <c r="E46">
-        <f>Ricavi!M47</f>
+      <c r="E46" s="107">
+        <f>[2]Ricavi!M47</f>
         <v>1.7877720617332806</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
+      <c r="F46" s="107">
+        <f t="shared" si="0"/>
         <v>271062</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="str">
-        <f>Ricavi!J48</f>
+      <c r="H46" s="107"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="107"/>
+      <c r="B47" s="107" t="str">
+        <f>[2]Ricavi!J48</f>
         <v>PF A3</v>
       </c>
-      <c r="C47" t="str">
-        <f>Ricavi!K48</f>
+      <c r="C47" s="107" t="str">
+        <f>[2]Ricavi!K48</f>
         <v>PF</v>
       </c>
-      <c r="D47">
-        <f>Ricavi!L48</f>
+      <c r="D47" s="107">
+        <f>[2]Ricavi!L48</f>
         <v>411979</v>
       </c>
-      <c r="E47">
-        <f>Ricavi!M48</f>
+      <c r="E47" s="107">
+        <f>[2]Ricavi!M48</f>
         <v>1.8322972695210196</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
+      <c r="F47" s="107">
+        <f t="shared" si="0"/>
         <v>754867.99680000008</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" t="str">
-        <f>Ricavi!J49</f>
+      <c r="H47" s="107"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="107"/>
+      <c r="B48" s="107" t="str">
+        <f>[2]Ricavi!J49</f>
         <v>PF A4</v>
       </c>
-      <c r="C48" t="str">
-        <f>Ricavi!K49</f>
+      <c r="C48" s="107" t="str">
+        <f>[2]Ricavi!K49</f>
         <v>PF</v>
       </c>
-      <c r="D48">
-        <f>Ricavi!L49</f>
+      <c r="D48" s="107">
+        <f>[2]Ricavi!L49</f>
         <v>1362839</v>
       </c>
-      <c r="E48">
-        <f>Ricavi!M49</f>
+      <c r="E48" s="107">
+        <f>[2]Ricavi!M49</f>
         <v>0</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
+      <c r="F48" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" t="str">
-        <f>Ricavi!J50</f>
+      <c r="H48" s="107"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="107"/>
+      <c r="B49" s="107" t="str">
+        <f>[2]Ricavi!J50</f>
         <v>PF A5</v>
       </c>
-      <c r="C49" t="str">
-        <f>Ricavi!K50</f>
+      <c r="C49" s="107" t="str">
+        <f>[2]Ricavi!K50</f>
         <v>PF</v>
       </c>
-      <c r="D49">
-        <f>Ricavi!L50</f>
+      <c r="D49" s="107">
+        <f>[2]Ricavi!L50</f>
         <v>96425</v>
       </c>
-      <c r="E49">
-        <f>Ricavi!M50</f>
+      <c r="E49" s="107">
+        <f>[2]Ricavi!M50</f>
         <v>0</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
+      <c r="F49" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="str">
-        <f>Ricavi!J51</f>
+      <c r="H49" s="107"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="107"/>
+      <c r="B50" s="107" t="str">
+        <f>[2]Ricavi!J51</f>
         <v>PF A6</v>
       </c>
-      <c r="C50" t="str">
-        <f>Ricavi!K51</f>
+      <c r="C50" s="107" t="str">
+        <f>[2]Ricavi!K51</f>
         <v>PF</v>
       </c>
-      <c r="D50">
-        <f>Ricavi!L51</f>
+      <c r="D50" s="107">
+        <f>[2]Ricavi!L51</f>
         <v>61100</v>
       </c>
-      <c r="E50">
-        <f>Ricavi!M51</f>
+      <c r="E50" s="107">
+        <f>[2]Ricavi!M51</f>
         <v>0</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
+      <c r="F50" s="107">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" t="str">
-        <f>Ricavi!J52</f>
+      <c r="H50" s="107"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="107"/>
+      <c r="B51" s="107" t="str">
+        <f>[2]Ricavi!J52</f>
         <v>PF A7</v>
       </c>
-      <c r="C51" t="str">
-        <f>Ricavi!K52</f>
+      <c r="C51" s="107" t="str">
+        <f>[2]Ricavi!K52</f>
         <v>PF</v>
       </c>
-      <c r="D51">
-        <f>Ricavi!L52</f>
+      <c r="D51" s="107">
+        <f>[2]Ricavi!L52</f>
         <v>2820458.99</v>
       </c>
-      <c r="E51">
-        <f>Ricavi!M52</f>
+      <c r="E51" s="107">
+        <f>[2]Ricavi!M52</f>
         <v>1.6397767269078427</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
+      <c r="F51" s="107">
+        <f t="shared" si="0"/>
         <v>4624923.0109999999</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" t="str">
-        <f>Ricavi!J53</f>
+      <c r="H51" s="107"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="107"/>
+      <c r="B52" s="107" t="str">
+        <f>[2]Ricavi!J53</f>
         <v>PF A8</v>
       </c>
-      <c r="C52" t="str">
-        <f>Ricavi!K53</f>
+      <c r="C52" s="107" t="str">
+        <f>[2]Ricavi!K53</f>
         <v>PF</v>
       </c>
-      <c r="D52">
-        <f>Ricavi!L53</f>
+      <c r="D52" s="107">
+        <f>[2]Ricavi!L53</f>
         <v>157263</v>
       </c>
-      <c r="E52">
-        <f>Ricavi!M53</f>
+      <c r="E52" s="107">
+        <f>[2]Ricavi!M53</f>
         <v>1.6271923465786613</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
+      <c r="F52" s="107">
+        <f t="shared" si="0"/>
         <v>255897.15000000002</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" t="str">
-        <f>Ricavi!J54</f>
+      <c r="H52" s="107"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="107"/>
+      <c r="B53" s="107" t="str">
+        <f>[2]Ricavi!J54</f>
         <v>PF A9</v>
       </c>
-      <c r="C53" t="str">
-        <f>Ricavi!K54</f>
+      <c r="C53" s="107" t="str">
+        <f>[2]Ricavi!K54</f>
         <v>PF</v>
       </c>
-      <c r="D53">
-        <f>Ricavi!L54</f>
+      <c r="D53" s="107">
+        <f>[2]Ricavi!L54</f>
         <v>261930</v>
       </c>
-      <c r="E53">
-        <f>Ricavi!M54</f>
+      <c r="E53" s="107">
+        <f>[2]Ricavi!M54</f>
         <v>1.5522070782270072</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
+      <c r="F53" s="107">
+        <f t="shared" si="0"/>
         <v>406569.6</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" t="str">
-        <f>Ricavi!J55</f>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="107"/>
+      <c r="B54" s="107" t="str">
+        <f>[2]Ricavi!J55</f>
         <v>PF A10</v>
       </c>
-      <c r="C54" t="str">
-        <f>Ricavi!K55</f>
+      <c r="C54" s="107" t="str">
+        <f>[2]Ricavi!K55</f>
         <v>PF</v>
       </c>
-      <c r="D54">
-        <f>Ricavi!L55</f>
+      <c r="D54" s="107">
+        <f>[2]Ricavi!L55</f>
         <v>500680</v>
       </c>
-      <c r="E54">
-        <f>Ricavi!M55</f>
+      <c r="E54" s="107">
+        <f>[2]Ricavi!M55</f>
         <v>1.2455093073420147</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
+      <c r="F54" s="107">
+        <f t="shared" si="0"/>
         <v>623601.6</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" t="str">
-        <f>Ricavi!J56</f>
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="107"/>
+      <c r="B55" s="107" t="str">
+        <f>[2]Ricavi!J56</f>
         <v>PF A11</v>
       </c>
-      <c r="C55" t="str">
-        <f>Ricavi!K56</f>
+      <c r="C55" s="107" t="str">
+        <f>[2]Ricavi!K56</f>
         <v>PF</v>
       </c>
-      <c r="D55">
-        <f>Ricavi!L56</f>
+      <c r="D55" s="107">
+        <f>[2]Ricavi!L56</f>
         <v>62569</v>
       </c>
-      <c r="E55">
-        <f>Ricavi!M56</f>
+      <c r="E55" s="107">
+        <f>[2]Ricavi!M56</f>
         <v>1.9325902603525706</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
+      <c r="F55" s="107">
+        <f t="shared" si="0"/>
         <v>120920.23999999999</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" t="str">
-        <f>Ricavi!J57</f>
+      <c r="H55" s="107"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="107"/>
+      <c r="B56" s="107" t="str">
+        <f>[2]Ricavi!J57</f>
         <v>PF A12</v>
       </c>
-      <c r="C56" t="str">
-        <f>Ricavi!K57</f>
+      <c r="C56" s="107" t="str">
+        <f>[2]Ricavi!K57</f>
         <v>PF</v>
       </c>
-      <c r="D56">
-        <f>Ricavi!L57</f>
+      <c r="D56" s="107">
+        <f>[2]Ricavi!L57</f>
         <v>927765</v>
       </c>
-      <c r="E56">
-        <f>Ricavi!M57</f>
+      <c r="E56" s="107">
+        <f>[2]Ricavi!M57</f>
         <v>2.009165683120187</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
+      <c r="F56" s="107">
+        <f t="shared" si="0"/>
         <v>1864033.6000000003</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" t="str">
-        <f>Ricavi!J58</f>
+      <c r="H56" s="107"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="107"/>
+      <c r="B57" s="107" t="str">
+        <f>[2]Ricavi!J58</f>
         <v>PF A13</v>
       </c>
-      <c r="C57" t="str">
-        <f>Ricavi!K58</f>
+      <c r="C57" s="107" t="str">
+        <f>[2]Ricavi!K58</f>
         <v>PF</v>
       </c>
-      <c r="D57">
-        <f>Ricavi!L58</f>
+      <c r="D57" s="107">
+        <f>[2]Ricavi!L58</f>
         <v>129425</v>
       </c>
-      <c r="E57">
-        <f>Ricavi!M58</f>
+      <c r="E57" s="107">
+        <f>[2]Ricavi!M58</f>
         <v>1.6307046552057176</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
+      <c r="F57" s="107">
+        <f t="shared" si="0"/>
         <v>211053.95</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" t="str">
-        <f>Ricavi!J59</f>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="107"/>
+      <c r="B58" s="107" t="str">
+        <f>[2]Ricavi!J59</f>
         <v>PF A14</v>
       </c>
-      <c r="C58" t="str">
-        <f>Ricavi!K59</f>
+      <c r="C58" s="107" t="str">
+        <f>[2]Ricavi!K59</f>
         <v>PF</v>
       </c>
-      <c r="D58">
-        <f>Ricavi!L59</f>
+      <c r="D58" s="107">
+        <f>[2]Ricavi!L59</f>
         <v>131955</v>
       </c>
-      <c r="E58">
-        <f>Ricavi!M59</f>
+      <c r="E58" s="107">
+        <f>[2]Ricavi!M59</f>
         <v>1.9791817665113107</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
+      <c r="F58" s="107">
+        <f t="shared" si="0"/>
         <v>261162.93</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" t="str">
-        <f>Ricavi!J60</f>
+      <c r="H58" s="107"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="107"/>
+      <c r="B59" s="107" t="str">
+        <f>[2]Ricavi!J60</f>
         <v>PF A15</v>
       </c>
-      <c r="C59" t="str">
-        <f>Ricavi!K60</f>
+      <c r="C59" s="107" t="str">
+        <f>[2]Ricavi!K60</f>
         <v>PF</v>
       </c>
-      <c r="D59">
-        <f>Ricavi!L60</f>
+      <c r="D59" s="107">
+        <f>[2]Ricavi!L60</f>
         <v>375075</v>
       </c>
-      <c r="E59">
-        <f>Ricavi!M60</f>
+      <c r="E59" s="107">
+        <f>[2]Ricavi!M60</f>
         <v>1.7865580217289871</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
+      <c r="F59" s="107">
+        <f t="shared" si="0"/>
         <v>670093.24999999988</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" t="str">
-        <f>Ricavi!J61</f>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="107"/>
+      <c r="B60" s="107" t="str">
+        <f>[2]Ricavi!J61</f>
         <v>PF A16</v>
       </c>
-      <c r="C60" t="str">
-        <f>Ricavi!K61</f>
+      <c r="C60" s="107" t="str">
+        <f>[2]Ricavi!K61</f>
         <v>PF</v>
       </c>
-      <c r="D60">
-        <f>Ricavi!L61</f>
+      <c r="D60" s="107">
+        <f>[2]Ricavi!L61</f>
         <v>151110</v>
       </c>
-      <c r="E60">
-        <f>Ricavi!M61</f>
+      <c r="E60" s="107">
+        <f>[2]Ricavi!M61</f>
         <v>1.6128909403745617</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
+      <c r="F60" s="107">
+        <f t="shared" si="0"/>
         <v>243723.95</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" t="str">
-        <f>Ricavi!J62</f>
+      <c r="H60" s="107"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="107"/>
+      <c r="B61" s="107" t="str">
+        <f>[2]Ricavi!J62</f>
         <v>PF A17</v>
       </c>
-      <c r="C61" t="str">
-        <f>Ricavi!K62</f>
+      <c r="C61" s="107" t="str">
+        <f>[2]Ricavi!K62</f>
         <v>PF</v>
       </c>
-      <c r="D61">
-        <f>Ricavi!L62</f>
+      <c r="D61" s="107">
+        <f>[2]Ricavi!L62</f>
         <v>240225</v>
       </c>
-      <c r="E61">
-        <f>Ricavi!M62</f>
+      <c r="E61" s="107">
+        <f>[2]Ricavi!M62</f>
         <v>1.9365259652409199</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
+      <c r="F61" s="107">
+        <f t="shared" si="0"/>
         <v>465201.95</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" t="str">
-        <f>Ricavi!J63</f>
+      <c r="H61" s="107"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="107"/>
+      <c r="B62" s="107" t="str">
+        <f>[2]Ricavi!J63</f>
         <v>PF A18</v>
       </c>
-      <c r="C62" t="str">
-        <f>Ricavi!K63</f>
+      <c r="C62" s="107" t="str">
+        <f>[2]Ricavi!K63</f>
         <v>PF</v>
       </c>
-      <c r="D62">
-        <f>Ricavi!L63</f>
+      <c r="D62" s="107">
+        <f>[2]Ricavi!L63</f>
         <v>392880</v>
       </c>
-      <c r="E62">
-        <f>Ricavi!M63</f>
+      <c r="E62" s="107">
+        <f>[2]Ricavi!M63</f>
         <v>1.0338126145387905</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
+      <c r="F62" s="107">
+        <f t="shared" si="0"/>
         <v>406164.3</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" t="str">
-        <f>Ricavi!J64</f>
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="107"/>
+      <c r="B63" s="107" t="str">
+        <f>[2]Ricavi!J64</f>
         <v>PF A19</v>
       </c>
-      <c r="C63" t="str">
-        <f>Ricavi!K64</f>
+      <c r="C63" s="107" t="str">
+        <f>[2]Ricavi!K64</f>
         <v>PF</v>
       </c>
-      <c r="D63">
-        <f>Ricavi!L64</f>
+      <c r="D63" s="107">
+        <f>[2]Ricavi!L64</f>
         <v>1325620</v>
       </c>
-      <c r="E63">
-        <f>Ricavi!M64</f>
+      <c r="E63" s="107">
+        <f>[2]Ricavi!M64</f>
         <v>1.59928712602404</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
+      <c r="F63" s="107">
+        <f t="shared" si="0"/>
         <v>2120046.9999999879</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="107" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" t="str">
-        <f>Ricavi!J65</f>
+      <c r="H63" s="107"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="107"/>
+      <c r="B64" s="107" t="str">
+        <f>[2]Ricavi!J65</f>
         <v>Spese trasporto</v>
       </c>
-      <c r="C64" t="str">
-        <f>Ricavi!K65</f>
+      <c r="C64" s="107" t="str">
+        <f>[2]Ricavi!K65</f>
         <v>Others</v>
       </c>
-      <c r="D64">
-        <f>Ricavi!L65</f>
+      <c r="D64" s="107">
+        <f>[2]Ricavi!L65</f>
         <v>25000</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="107">
         <v>1</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
+      <c r="F64" s="107">
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="H64" t="str">
+      <c r="G64" s="107"/>
+      <c r="H64" s="107" t="str">
         <f>"Riaccredito trasporti"</f>
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" t="str">
-        <f>Ricavi!J66</f>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
+      <c r="B65" s="107" t="str">
+        <f>[2]Ricavi!J66</f>
         <v>Premio Year22</v>
       </c>
-      <c r="C65" t="str">
-        <f>Ricavi!K66</f>
+      <c r="C65" s="107" t="str">
+        <f>[2]Ricavi!K66</f>
         <v>Others</v>
       </c>
-      <c r="D65">
-        <f>Ricavi!L66</f>
+      <c r="D65" s="107">
+        <f>[2]Ricavi!L66</f>
         <v>12</v>
       </c>
-      <c r="E65">
-        <f>Ricavi!M66</f>
+      <c r="E65" s="107">
+        <f>[2]Ricavi!M66</f>
         <v>18980.987499999999</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="107">
         <f>-D65*E65</f>
         <v>-227771.84999999998</v>
       </c>
-      <c r="H65" t="str">
+      <c r="G65" s="107"/>
+      <c r="H65" s="107" t="str">
         <f>"Premio clienti (ricavo negativo)"</f>
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E67" s="93" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="93">
+      <c r="F67" s="108">
         <f>SUM(F3:F65)</f>
         <v>57945067.876579978</v>
       </c>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8106,41 +9439,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="106"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -8158,7 +9491,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8173,7 +9506,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -8195,7 +9528,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -8215,7 +9548,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -8235,7 +9568,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -8255,7 +9588,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -8273,7 +9606,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -8293,7 +9626,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -8313,7 +9646,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -8334,7 +9667,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -8356,23 +9689,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -8381,95 +9714,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -8498,297 +9831,520 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="107">
+        <f>3450000</f>
         <v>3450000</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="107">
         <v>0.41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="107" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="H3" s="107"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="107">
         <f>1-C3</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="107">
         <f>SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$D:$D)</f>
         <v>14624683</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="107">
         <f>F4/1000</f>
         <v>14624.683000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="H4" s="107"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="107">
         <v>8997222.2200000007</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="107">
         <f>SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$D:$D)</f>
         <v>6470002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="107">
         <f t="shared" ref="G5:G6" si="0">F5/1000</f>
         <v>6470.0020000000004</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="H5" s="107"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="107">
         <v>4300000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="F6">
-        <f>SUMIF(RicaviBudget!$G:$G,"A",RicaviBudget!$D:$CD)</f>
-        <v>9655208.9900000002</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>9655.208990000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+      <c r="F6" s="107">
+        <f>SUMIF(RicaviBudget!$G:$G,"A",RicaviBudget!$D:$CD)+SUMIF(RicaviBudget!$G:$G,"PCL",RicaviBudget!$D:$CD)</f>
+        <v>12975111.99</v>
+      </c>
+      <c r="G6" s="107">
+        <f t="shared" si="0"/>
+        <v>12975.111989999999</v>
+      </c>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="107">
         <f xml:space="preserve"> SUM(F4:F6)</f>
-        <v>30749893.990000002</v>
-      </c>
-      <c r="G7">
+        <v>34069796.990000002</v>
+      </c>
+      <c r="G7" s="107">
         <f>G6+G5+G4</f>
-        <v>30749.893990000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+        <v>34069.796990000003</v>
+      </c>
+      <c r="H7" s="107"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="107">
         <f>C2*C3</f>
         <v>1414500</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="107">
         <f>C2*C4</f>
         <v>2035500.0000000002</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="G9">
-        <f>(G6*0.93+G5*0.64)*C18</f>
-        <v>7080.2103150872417</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="107">
+        <f>(G6*C20+G5*C21)*C18</f>
+        <v>8746.3670226224276</v>
+      </c>
+      <c r="H9" s="107" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="G10">
-        <f xml:space="preserve"> ( G4*140 + G5*60 + G6*65 + 3300000 ) * C17</f>
-        <v>1110442.5180509007</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="107">
+        <f xml:space="preserve"> ( G4*C24 + G5*C25 + G6*C26 + C27 ) * C17</f>
+        <v>1148100.4299337333</v>
+      </c>
+      <c r="H10" s="107" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="107">
         <f>C8/C5</f>
         <v>0.15721518991224825</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="107">
         <f>-'CE 21-22'!F15 *1.025</f>
         <v>153750</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="107">
         <f>C9/C6</f>
         <v>0.47337209302325589</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="G12">
-        <f>G7*10.24</f>
-        <v>314878.91445760004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="G12" s="107">
+        <f>G7*C29</f>
+        <v>348874.72117760003</v>
+      </c>
+      <c r="H12" s="107"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="G13">
-        <f>G7*43.2</f>
-        <v>1328395.4203680002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="G13" s="107">
+        <f>G7*C31+(1+C32)</f>
+        <v>1362792.9596000002</v>
+      </c>
+      <c r="H13" s="107"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="107">
         <v>0.11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="G14">
-        <f>(SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$F:$F)+SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$F:$F))*0.02</f>
+      <c r="G14" s="107">
+        <f>(SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$F:$F)+SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$F:$F))*C34</f>
         <v>840816.26390000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="H14" s="107"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="107">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="G15">
-        <f>C23*71</f>
-        <v>962501.47376339999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="G15" s="107">
+        <f>C39*C40</f>
+        <v>1021429.7520134</v>
+      </c>
+      <c r="H15" s="107"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="107">
         <f>C11*(1+C14)</f>
         <v>0.17450886080259559</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="108">
         <f>SUM(G9:G15)</f>
-        <v>4717864.8008549884</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+        <v>4884510.4936473556</v>
+      </c>
+      <c r="H17" s="107"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="107">
         <f>C12*(1+C15)</f>
         <v>0.53964418604651176</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="107">
+        <v>0.93</v>
+      </c>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="107">
+        <v>0.64</v>
+      </c>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="107">
+        <v>86</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="107">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="107">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="107"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="107">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="107">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="107">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="C20">
+      <c r="C36" s="107">
         <f>G4*1.67*1.56</f>
         <v>38100.224151599999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="C21">
+      <c r="C37" s="107">
         <f>G5+G6</f>
-        <v>16125.210990000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+        <v>19445.113989999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="C22">
-        <f>C21+C20</f>
-        <v>54225.435141599999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="C38" s="107">
+        <f>C37+C36</f>
+        <v>57545.338141599997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="C23">
-        <f>C22*0.25</f>
-        <v>13556.3587854</v>
+      <c r="C39" s="107">
+        <f>C38*0.25</f>
+        <v>14386.334535399999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -8804,129 +10360,129 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -8939,124 +10495,173 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>242</v>
       </c>
-      <c r="C2">
-        <f>-'CE 21-22'!F22+50*12*100</f>
-        <v>5570785.9100000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="107">
+        <f>-'CE 21-22'!F22+50*12*100*1.4</f>
+        <v>5594785.9100000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="107"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>243</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="107">
         <f>-'CE 21-22'!F23-150000</f>
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="107"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>244</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="107">
         <f>-'CE 21-22'!F24*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="107"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="107">
         <f>-'CE 21-22'!F25*1.025</f>
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="107"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="107">
         <f>-'CE 21-22'!F26*1.025</f>
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="107"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>247</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="107">
         <f>-'CE 21-22'!F27*1.025</f>
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="107"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="93">
-        <f>SUM(C12+C10+C8+C6+C4+C2)</f>
-        <v>7601710.9100000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="C15" s="108">
+        <f>SUM(C13+C11+C9+C7+C5+C3)</f>
+        <v>7625710.9100000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="107"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="107"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>248</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="107">
         <f>-'CE 21-22'!F29*1.025</f>
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="107"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="107">
         <f>-'CE 21-22'!F30*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="107"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>250</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="107">
         <f>-'CE 21-22'!F31*1.025</f>
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="93" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="107"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="93">
-        <f>SUM(C17+C19+C21)</f>
+      <c r="C24" s="108">
+        <f>SUM(C18+C20+C22)</f>
         <v>973750</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="93" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="107"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="107"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="93">
-        <f>SUM(C23+C14)</f>
-        <v>8575460.9100000001</v>
+      <c r="C27" s="108">
+        <f>SUM(C24+C15)</f>
+        <v>8599460.9100000001</v>
       </c>
     </row>
   </sheetData>
@@ -9068,43 +10673,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -9112,33 +10717,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -9149,69 +10754,247 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="107">
+        <f>-'CE 21-22'!F34</f>
+        <v>200000</v>
+      </c>
+      <c r="D3" s="107"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="107">
+        <f>-'CE 21-22'!F35</f>
+        <v>750000</v>
+      </c>
+      <c r="D5" s="107"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="107">
+        <v>0</v>
+      </c>
+      <c r="D7" s="107"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="107">
+        <f>-'CE 21-22'!C39+(3000000*0.05*7/12)</f>
+        <v>227633.03999999998</v>
+      </c>
+      <c r="D9" s="107"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="107">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="107">
+        <v>0</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="107">
+        <v>0</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="107">
+        <v>0</v>
+      </c>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="107">
+        <f>'CE Budget 2022'!C26*0.3</f>
+        <v>12985039.029879786</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E559208-3CA4-4788-892E-F1A81DA9DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88223F-667D-4907-8948-78EC57749D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -46,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
   <si>
     <t>MP1</t>
   </si>
@@ -809,12 +831,6 @@
     <t>Prezzo €/smc 2022</t>
   </si>
   <si>
-    <t>=(ton PF A*0,93 + ton PF V*0,64)*prezzo smc 2022</t>
-  </si>
-  <si>
-    <t>=(ton P*140 + ton V*60 + ton A*65 + 3.300.000)*prezzo kWh 2022</t>
-  </si>
-  <si>
     <t>Costo metano</t>
   </si>
   <si>
@@ -839,9 +855,6 @@
     <t>ton vapore PF P</t>
   </si>
   <si>
-    <t>ton vapore AV</t>
-  </si>
-  <si>
     <t>ton vapore tot</t>
   </si>
   <si>
@@ -896,36 +909,15 @@
     <t>smc per ton vapore</t>
   </si>
   <si>
-    <t>kWh per ton P</t>
-  </si>
-  <si>
     <t>kWh per ton V</t>
   </si>
   <si>
     <t>kWh per ton A</t>
   </si>
   <si>
-    <t>kWh serivizi gerali annui</t>
-  </si>
-  <si>
-    <t>Costo smaltimento per ton</t>
-  </si>
-  <si>
-    <t>Costo trasporto per ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aumento costo trasporto </t>
-  </si>
-  <si>
-    <t>provvigioni su vendite</t>
-  </si>
-  <si>
     <t>costo per quota CO2</t>
   </si>
   <si>
-    <t>valore moltiplicato per 1.4 per via del cuneo fiscale italiano</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note </t>
   </si>
   <si>
@@ -959,53 +951,113 @@
     <t>va calcolata dopo il CE budget, perché dipende dal margine operativo + finanziario</t>
   </si>
   <si>
-    <t>A) Totale ricavi di produzione</t>
-  </si>
-  <si>
-    <t>B) Acquisto di materie prime</t>
-  </si>
-  <si>
-    <t>C) Totale costi variabili di produzione</t>
-  </si>
-  <si>
-    <t>D) Costo di vendita</t>
-  </si>
-  <si>
-    <t>E) Margine Operativo Lordo</t>
-  </si>
-  <si>
-    <t>F) Totale costi fissi di produzione</t>
-  </si>
-  <si>
-    <t>G) Totale costi di struttura comm./amm.va</t>
-  </si>
-  <si>
-    <t>H) Reddito operativo</t>
-  </si>
-  <si>
-    <t>I) Ammortamenti</t>
-  </si>
-  <si>
-    <t>L) Margine Operativo Netto</t>
-  </si>
-  <si>
-    <t>M) Oneri e Proventi Finanziari netti</t>
-  </si>
-  <si>
-    <t>N) Risultato Ante Imposte</t>
-  </si>
-  <si>
-    <t>O) Imposte sul reddito</t>
-  </si>
-  <si>
-    <t>Risultato Netto</t>
+    <t>kWh Servizi Generali mensile</t>
+  </si>
+  <si>
+    <t>kWh Servizi Generali annui</t>
+  </si>
+  <si>
+    <t>Costo smaltimento per ton di emulsione</t>
+  </si>
+  <si>
+    <t>Costo trasporto per ton 2021</t>
+  </si>
+  <si>
+    <t>aumento costo trasporto 2022</t>
+  </si>
+  <si>
+    <t>Costo trasporto per ton 2022</t>
+  </si>
+  <si>
+    <t>provvigioni su vendite di polveri</t>
+  </si>
+  <si>
+    <t>valore moltiplicato per 1.4 per via del folle cuneo fiscale italiano</t>
+  </si>
+  <si>
+    <t>ton vapore A</t>
+  </si>
+  <si>
+    <t>ton vapore V</t>
+  </si>
+  <si>
+    <t>ton di V per fare 1 Ton di P</t>
+  </si>
+  <si>
+    <t>kWh per ton P (escluse le v)</t>
+  </si>
+  <si>
+    <t>cons smc per ton P (comprese le v)</t>
+  </si>
+  <si>
+    <t>Metano usato</t>
+  </si>
+  <si>
+    <t>Energia elettrica usata</t>
+  </si>
+  <si>
+    <t>la formula era sbagliata</t>
+  </si>
+  <si>
+    <t>la formula era sbagliata, andavano contate solo le emulsioni</t>
+  </si>
+  <si>
+    <t>la formula era sbagliata, contava acnhe le V</t>
+  </si>
+  <si>
+    <t>nuovo investimento</t>
+  </si>
+  <si>
+    <t>quota primo anno</t>
+  </si>
+  <si>
+    <t>Tasso di cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">euro </t>
+  </si>
+  <si>
+    <t>dollari</t>
+  </si>
+  <si>
+    <t>dollaro</t>
+  </si>
+  <si>
+    <t>"="</t>
+  </si>
+  <si>
+    <t>cambiare solo la cella arancio</t>
+  </si>
+  <si>
+    <t>Dazio</t>
+  </si>
+  <si>
+    <t>CMP euro/kg</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>RICAVI DELLE VENDITE DI MATERIE PRIME - RIADDEBITI MP A GAMMA</t>
+  </si>
+  <si>
+    <t>RICAVI CONTO LAVORAZIONE - GAMMA E POLIKEMIA</t>
+  </si>
+  <si>
+    <t>CE mix totale 2022</t>
+  </si>
+  <si>
+    <t>1, dove vanno i costi tasse unione eruopea?</t>
+  </si>
+  <si>
+    <t>ora vanno fatti mix un po alla volta per capire da dove slatano fuori i delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1018,8 +1070,10 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,8 +1275,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,6 +1354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,7 +1761,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1900,6 +1968,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1933,8 +2003,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2602,8 +2681,8 @@
       <sheetName val="CE budget 2022"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="4">
           <cell r="J4" t="str">
             <v>MP1</v>
@@ -2614,9 +2693,6 @@
           <cell r="L4">
             <v>48000</v>
           </cell>
-          <cell r="M4">
-            <v>0.93</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="J5" t="str">
@@ -2628,9 +2704,6 @@
           <cell r="L5">
             <v>700</v>
           </cell>
-          <cell r="M5">
-            <v>4</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="J6" t="str">
@@ -2642,9 +2715,6 @@
           <cell r="L6">
             <v>1100</v>
           </cell>
-          <cell r="M6">
-            <v>2.4</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="J7" t="str">
@@ -2656,9 +2726,6 @@
           <cell r="L7">
             <v>125</v>
           </cell>
-          <cell r="M7">
-            <v>4</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="J8" t="str">
@@ -2670,9 +2737,6 @@
           <cell r="L8">
             <v>1925</v>
           </cell>
-          <cell r="M8">
-            <v>2.9058441558441559</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="J9" t="str">
@@ -2684,9 +2748,6 @@
           <cell r="L9">
             <v>125</v>
           </cell>
-          <cell r="M9">
-            <v>4.4000000000000004</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="J10" t="str">
@@ -2698,9 +2759,6 @@
           <cell r="L10">
             <v>2000</v>
           </cell>
-          <cell r="M10">
-            <v>4.62</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="J11" t="str">
@@ -2712,9 +2770,6 @@
           <cell r="L11">
             <v>1000</v>
           </cell>
-          <cell r="M11">
-            <v>2.65</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="J12" t="str">
@@ -2726,9 +2781,6 @@
           <cell r="L12">
             <v>7000</v>
           </cell>
-          <cell r="M12">
-            <v>0.19</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="J13" t="str">
@@ -2740,9 +2792,6 @@
           <cell r="L13">
             <v>34866.400000000001</v>
           </cell>
-          <cell r="M13">
-            <v>0.50710643771654074</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="J14" t="str">
@@ -2754,9 +2803,6 @@
           <cell r="L14">
             <v>14037.12</v>
           </cell>
-          <cell r="M14">
-            <v>7.4104528564263887</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="J15" t="str">
@@ -2768,9 +2814,6 @@
           <cell r="L15">
             <v>1904</v>
           </cell>
-          <cell r="M15">
-            <v>1.4275735294117646</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="J16" t="str">
@@ -2782,9 +2825,6 @@
           <cell r="L16">
             <v>150</v>
           </cell>
-          <cell r="M16">
-            <v>13</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="J17" t="str">
@@ -2796,9 +2836,6 @@
           <cell r="L17">
             <v>20</v>
           </cell>
-          <cell r="M17">
-            <v>13.5</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="J18" t="str">
@@ -2810,9 +2847,6 @@
           <cell r="L18">
             <v>2160885</v>
           </cell>
-          <cell r="M18">
-            <v>0.11065878100870709</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="J19" t="str">
@@ -2824,9 +2858,6 @@
           <cell r="L19">
             <v>168325</v>
           </cell>
-          <cell r="M19">
-            <v>0.63902212980840634</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="J20" t="str">
@@ -2838,9 +2869,6 @@
           <cell r="L20">
             <v>495475</v>
           </cell>
-          <cell r="M20">
-            <v>1.6503165205106214</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="J21" t="str">
@@ -2852,9 +2880,6 @@
           <cell r="L21">
             <v>489058</v>
           </cell>
-          <cell r="M21">
-            <v>2.6814489976240035</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="J22" t="str">
@@ -2866,9 +2891,6 @@
           <cell r="L22">
             <v>6160</v>
           </cell>
-          <cell r="M22">
-            <v>2.25</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="J23" t="str">
@@ -2880,9 +2902,6 @@
           <cell r="L23">
             <v>1719564</v>
           </cell>
-          <cell r="M23">
-            <v>3.2527355771579307</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="J24" t="str">
@@ -2894,9 +2913,6 @@
           <cell r="L24">
             <v>292499</v>
           </cell>
-          <cell r="M24">
-            <v>3.2730881131217542</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="J25" t="str">
@@ -2908,9 +2924,6 @@
           <cell r="L25">
             <v>442800</v>
           </cell>
-          <cell r="M25">
-            <v>3.2317332881662151</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="J26" t="str">
@@ -2922,9 +2935,6 @@
           <cell r="L26">
             <v>8070474</v>
           </cell>
-          <cell r="M26">
-            <v>3.1339358772483501</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="J27" t="str">
@@ -2958,9 +2968,6 @@
           <cell r="L29">
             <v>660340</v>
           </cell>
-          <cell r="M29">
-            <v>0.96042054093345852</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="J30" t="str">
@@ -2972,9 +2979,6 @@
           <cell r="L30">
             <v>509668</v>
           </cell>
-          <cell r="M30">
-            <v>1.4659810896505177</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="J31" t="str">
@@ -2986,9 +2990,6 @@
           <cell r="L31">
             <v>2539984</v>
           </cell>
-          <cell r="M31">
-            <v>1.5574062198816996</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="J32" t="str">
@@ -3000,9 +3001,6 @@
           <cell r="L32">
             <v>879638</v>
           </cell>
-          <cell r="M32">
-            <v>1.5255310138943521</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="J33" t="str">
@@ -3014,9 +3012,6 @@
           <cell r="L33">
             <v>579689</v>
           </cell>
-          <cell r="M33">
-            <v>1.5588271124689272</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="J34" t="str">
@@ -3028,9 +3023,6 @@
           <cell r="L34">
             <v>448105</v>
           </cell>
-          <cell r="M34">
-            <v>1.4237468896798742</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="J35" t="str">
@@ -3042,9 +3034,6 @@
           <cell r="L35">
             <v>130100</v>
           </cell>
-          <cell r="M35">
-            <v>1.9231706379707918</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="J36" t="str">
@@ -3056,9 +3045,6 @@
           <cell r="L36">
             <v>13340</v>
           </cell>
-          <cell r="M36">
-            <v>1.1880509745127437</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="J37" t="str">
@@ -3070,9 +3056,6 @@
           <cell r="L37">
             <v>81820</v>
           </cell>
-          <cell r="M37">
-            <v>1.6966731850403327</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="J38" t="str">
@@ -3084,9 +3067,6 @@
           <cell r="L38">
             <v>21040</v>
           </cell>
-          <cell r="M38">
-            <v>1.6010133079847908</v>
-          </cell>
         </row>
         <row r="39">
           <cell r="J39" t="str">
@@ -3098,9 +3078,6 @@
           <cell r="L39">
             <v>14625</v>
           </cell>
-          <cell r="M39">
-            <v>1.6058974358974358</v>
-          </cell>
         </row>
         <row r="40">
           <cell r="J40" t="str">
@@ -3156,9 +3133,6 @@
           <cell r="L44">
             <v>30000</v>
           </cell>
-          <cell r="M44">
-            <v>2.1413333333333333</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="J45" t="str">
@@ -3170,9 +3144,6 @@
           <cell r="L45">
             <v>16500</v>
           </cell>
-          <cell r="M45">
-            <v>1.2007575757575757</v>
-          </cell>
         </row>
         <row r="46">
           <cell r="J46" t="str">
@@ -3184,9 +3155,6 @@
           <cell r="L46">
             <v>94290</v>
           </cell>
-          <cell r="M46">
-            <v>1.2885862763813767</v>
-          </cell>
         </row>
         <row r="47">
           <cell r="J47" t="str">
@@ -3198,9 +3166,6 @@
           <cell r="L47">
             <v>151620</v>
           </cell>
-          <cell r="M47">
-            <v>1.7877720617332806</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="J48" t="str">
@@ -3212,9 +3177,6 @@
           <cell r="L48">
             <v>411979</v>
           </cell>
-          <cell r="M48">
-            <v>1.8322972695210196</v>
-          </cell>
         </row>
         <row r="49">
           <cell r="J49" t="str">
@@ -3259,9 +3221,6 @@
           <cell r="L52">
             <v>2820458.99</v>
           </cell>
-          <cell r="M52">
-            <v>1.6397767269078427</v>
-          </cell>
         </row>
         <row r="53">
           <cell r="J53" t="str">
@@ -3273,9 +3232,6 @@
           <cell r="L53">
             <v>157263</v>
           </cell>
-          <cell r="M53">
-            <v>1.6271923465786613</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="J54" t="str">
@@ -3287,9 +3243,6 @@
           <cell r="L54">
             <v>261930</v>
           </cell>
-          <cell r="M54">
-            <v>1.5522070782270072</v>
-          </cell>
         </row>
         <row r="55">
           <cell r="J55" t="str">
@@ -3301,9 +3254,6 @@
           <cell r="L55">
             <v>500680</v>
           </cell>
-          <cell r="M55">
-            <v>1.2455093073420147</v>
-          </cell>
         </row>
         <row r="56">
           <cell r="J56" t="str">
@@ -3315,9 +3265,6 @@
           <cell r="L56">
             <v>62569</v>
           </cell>
-          <cell r="M56">
-            <v>1.9325902603525706</v>
-          </cell>
         </row>
         <row r="57">
           <cell r="J57" t="str">
@@ -3329,9 +3276,6 @@
           <cell r="L57">
             <v>927765</v>
           </cell>
-          <cell r="M57">
-            <v>2.009165683120187</v>
-          </cell>
         </row>
         <row r="58">
           <cell r="J58" t="str">
@@ -3343,9 +3287,6 @@
           <cell r="L58">
             <v>129425</v>
           </cell>
-          <cell r="M58">
-            <v>1.6307046552057176</v>
-          </cell>
         </row>
         <row r="59">
           <cell r="J59" t="str">
@@ -3357,9 +3298,6 @@
           <cell r="L59">
             <v>131955</v>
           </cell>
-          <cell r="M59">
-            <v>1.9791817665113107</v>
-          </cell>
         </row>
         <row r="60">
           <cell r="J60" t="str">
@@ -3371,9 +3309,6 @@
           <cell r="L60">
             <v>375075</v>
           </cell>
-          <cell r="M60">
-            <v>1.7865580217289871</v>
-          </cell>
         </row>
         <row r="61">
           <cell r="J61" t="str">
@@ -3385,9 +3320,6 @@
           <cell r="L61">
             <v>151110</v>
           </cell>
-          <cell r="M61">
-            <v>1.6128909403745617</v>
-          </cell>
         </row>
         <row r="62">
           <cell r="J62" t="str">
@@ -3399,9 +3331,6 @@
           <cell r="L62">
             <v>240225</v>
           </cell>
-          <cell r="M62">
-            <v>1.9365259652409199</v>
-          </cell>
         </row>
         <row r="63">
           <cell r="J63" t="str">
@@ -3413,9 +3342,6 @@
           <cell r="L63">
             <v>392880</v>
           </cell>
-          <cell r="M63">
-            <v>1.0338126145387905</v>
-          </cell>
         </row>
         <row r="64">
           <cell r="J64" t="str">
@@ -3427,9 +3353,6 @@
           <cell r="L64">
             <v>1325620</v>
           </cell>
-          <cell r="M64">
-            <v>1.59928712602404</v>
-          </cell>
         </row>
         <row r="65">
           <cell r="J65" t="str">
@@ -3457,14 +3380,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3733,55 +3656,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
-  <dimension ref="B1:J62"/>
+  <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
+    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="101"/>
+      <c r="E2" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="99"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="98" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="102" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="99"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="97"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3789,7 +3712,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3799,7 +3722,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -3809,7 +3732,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -3819,7 +3742,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -3829,7 +3752,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -3839,7 +3762,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -3851,7 +3774,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -3860,8 +3783,11 @@
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +3796,24 @@
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" s="109">
+        <f xml:space="preserve"> 1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -3881,8 +3823,24 @@
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M13" s="1">
+        <f>J13/M12</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -3897,8 +3855,11 @@
         <v>-3950000</v>
       </c>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -3912,12 +3873,8 @@
       <c r="F15" s="45">
         <v>-150000</v>
       </c>
-      <c r="G15" s="1">
-        <f>150*1.025</f>
-        <v>153.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3932,7 +3889,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3948,7 +3905,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -3962,7 +3919,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -3976,7 +3933,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -3992,7 +3949,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -4003,7 +3960,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4017,7 +3974,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4031,7 +3988,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4045,7 +4002,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4059,7 +4016,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4073,7 +4030,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4087,7 +4044,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4060,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4117,7 +4074,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4131,7 +4088,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4145,7 +4102,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4161,7 +4118,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4172,7 +4129,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4186,7 +4143,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4200,7 +4157,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4214,7 +4171,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4230,7 +4187,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4240,7 +4197,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4249,7 +4206,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4258,7 +4215,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4270,7 +4227,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4280,7 +4237,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4289,7 +4246,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4298,7 +4255,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4307,7 +4264,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4317,7 +4274,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4327,7 +4284,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4336,7 +4293,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4346,59 +4303,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4418,148 +4375,455 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
-  <dimension ref="B3:D30"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="107">
-        <f>RicaviBudget!F67</f>
-        <v>57945067.876579978</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="101"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="99"/>
+      <c r="C4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="112">
+        <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$G:$G))</f>
+        <v>69179261.631890893</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="113">
+        <f>SUMIF(RicaviBudget!$H:$H,"MP",RicaviBudget!$G:$G)</f>
+        <v>196584.24189999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="113">
+        <f>SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$G:$G)</f>
+        <v>2489618.9618799998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="89">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="89">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="48">
+        <f>+SUM(C5:C9)</f>
+        <v>72485464.835670888</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="113" cm="1">
+        <f t="array" ref="C11">SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
+        <v>52720275.740642987</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="90">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="107">
-        <f>VariableCostsBudget!G17</f>
-        <v>4884510.4936473556</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="48">
+        <f>+C11+C12</f>
+        <v>52720275.740642987</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="45">
+        <f>VariableCostsBudget!G9+VariableCostsBudget!G10</f>
+        <v>845126.76401898428</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="45">
+        <f>VariableCostsBudget!G11</f>
+        <v>153750</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="45">
+        <f>VariableCostsBudget!G12</f>
+        <v>449211.74630400003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="48">
+        <f>SUM(C14:C16)</f>
+        <v>1448088.5103229843</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="45">
+        <f>VariableCostsBudget!G13</f>
+        <v>1471815.2299680002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="45">
+        <f>VariableCostsBudget!G14+VariableCostsBudget!G15</f>
+        <v>1843830.8101585521</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="48">
+        <f>SUM(C18:C19)</f>
+        <v>3315646.0401265523</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="50">
+        <f>+C10-C13-C17-C20</f>
+        <v>15001454.544578364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="45">
+        <f>FixedCostsBudget!C3</f>
+        <v>5594785.9100000001</v>
+      </c>
+      <c r="G22" s="115"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="45">
+        <f>FixedCostsBudget!C5</f>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="45">
+        <f>FixedCostsBudget!C7</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="45">
+        <f>FixedCostsBudget!C9</f>
+        <v>151700</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="45">
+        <f>FixedCostsBudget!C11</f>
+        <v>309550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="45">
+        <f>FixedCostsBudget!C13</f>
+        <v>212174.99999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="48">
+        <f>SUM(C22:C27)</f>
+        <v>7625710.9100000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="45">
+        <f>FixedCostsBudget!C18</f>
+        <v>563750</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="45">
+        <f>FixedCostsBudget!C20</f>
+        <v>307500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="45">
+        <f>FixedCostsBudget!C22</f>
+        <v>102499.99999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="48">
+        <f>SUM(C29:C31)</f>
+        <v>973750</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="52">
+        <f>+C21-C28-C32</f>
+        <v>6401993.634578364</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="45">
+        <f>OthersBudget!C3</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="45">
+        <f>OthersBudget!C5</f>
+        <v>796875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="45">
+        <f>OthersBudget!C7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="108">
-        <f>C4-C6-C8-C10</f>
-        <v>53060557.382932618</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" s="107">
-        <f>FixedCostsBudget!C15</f>
-        <v>7625710.9100000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="107">
-        <f>FixedCostsBudget!C24</f>
-        <v>973750</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="108">
-        <f>C12-C14-C16</f>
-        <v>44461096.472932622</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="107">
-        <f>OthersBudget!C3+OthersBudget!C5</f>
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="108">
-        <f>C18-C20</f>
-        <v>43511096.472932622</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C24" s="107">
-        <f>OthersBudget!C9+OthersBudget!C11</f>
-        <v>227633.03999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="108">
-        <f>C22-C24</f>
-        <v>43283463.432932623</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="107">
+    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="48">
+        <f>SUM(C34:C36)</f>
+        <v>996875</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="50">
+        <f>+C33-C37</f>
+        <v>5405118.634578364</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="45">
+        <f>-OthersBudget!C9</f>
+        <v>-227633.03999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="45">
+        <f>OthersBudget!C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="48">
+        <f>SUM(C39:C40)</f>
+        <v>-227633.03999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="50">
+        <f>+C38+C41</f>
+        <v>5177485.5945783639</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="45">
+        <f>-OthersBudget!C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="45">
+        <f>OthersBudget!C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="45">
+        <f>OthersBudget!C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="48">
+        <f>SUM(C43:C45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="50">
+        <f>+C46+C42</f>
+        <v>5177485.5945783639</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="45">
         <f>OthersBudget!C19</f>
-        <v>12985039.029879786</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="108">
-        <f>C26-C28</f>
-        <v>30298424.403052837</v>
+        <v>1553245.6783735091</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="50">
+        <f>C47-C48</f>
+        <v>3624239.9162048548</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4568,52 +4832,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -4654,7 +4918,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4957,10 @@
         <v>0.93</v>
       </c>
       <c r="N4" s="66"/>
-      <c r="O4" s="64"/>
+      <c r="O4" s="111">
+        <f>P4*'CE 21-22'!$M$12*$S$6</f>
+        <v>4.6546500000000005E-2</v>
+      </c>
       <c r="P4" s="67">
         <v>0.65100000000000002</v>
       </c>
@@ -4701,7 +4968,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -4737,14 +5004,21 @@
         <v>4</v>
       </c>
       <c r="N5" s="38"/>
+      <c r="O5" s="111">
+        <f>P5*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.20020000000000002</v>
+      </c>
       <c r="P5" s="61">
         <v>2.8</v>
       </c>
       <c r="Q5" s="75" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -4780,14 +5054,22 @@
         <v>2.4</v>
       </c>
       <c r="N6" s="38"/>
+      <c r="O6" s="111">
+        <f>P6*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.12012</v>
+      </c>
       <c r="P6" s="61">
         <v>1.68</v>
       </c>
       <c r="Q6" s="75" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="1">
+        <f>6.5*0.01</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -4823,6 +5105,10 @@
         <v>4</v>
       </c>
       <c r="N7" s="38"/>
+      <c r="O7" s="111">
+        <f>P7*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.20020000000000002</v>
+      </c>
       <c r="P7" s="61">
         <v>2.8</v>
       </c>
@@ -4830,7 +5116,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -4866,6 +5152,10 @@
         <v>2.9058441558441559</v>
       </c>
       <c r="N8" s="38"/>
+      <c r="O8" s="111">
+        <f>P8*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.1454375</v>
+      </c>
       <c r="P8" s="61">
         <v>2.0340909090909087</v>
       </c>
@@ -4873,7 +5163,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -4909,6 +5199,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N9" s="38"/>
+      <c r="O9" s="111">
+        <f>P9*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.22022000000000003</v>
+      </c>
       <c r="P9" s="61">
         <v>3.08</v>
       </c>
@@ -4916,7 +5210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -4952,6 +5246,10 @@
         <v>4.62</v>
       </c>
       <c r="N10" s="38"/>
+      <c r="O10" s="111">
+        <f>P10*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.23123100000000002</v>
+      </c>
       <c r="P10" s="61">
         <v>3.234</v>
       </c>
@@ -4959,7 +5257,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -4995,6 +5293,10 @@
         <v>2.65</v>
       </c>
       <c r="N11" s="38"/>
+      <c r="O11" s="111">
+        <f>P11*'CE 21-22'!$M$12*$S$6</f>
+        <v>0.13263249999999999</v>
+      </c>
       <c r="P11" s="61">
         <v>1.8549999999999998</v>
       </c>
@@ -5002,7 +5304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -5045,7 +5347,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5087,7 +5389,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -5129,7 +5431,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5473,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -5213,7 +5515,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5557,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -5297,7 +5599,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -5339,7 +5641,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5381,7 +5683,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -5423,7 +5725,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -5465,7 +5767,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -5507,7 +5809,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -5549,7 +5851,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -5591,7 +5893,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -5633,7 +5935,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -5665,6 +5967,10 @@
       <c r="L27" s="37">
         <v>205850</v>
       </c>
+      <c r="M27" s="110">
+        <f>N27*'CE 21-22'!$M$13</f>
+        <v>2.8595490979751363</v>
+      </c>
       <c r="N27" s="38">
         <v>3.1455040077726499</v>
       </c>
@@ -5674,7 +5980,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -5706,6 +6012,10 @@
       <c r="L28" s="37">
         <v>3233156</v>
       </c>
+      <c r="M28" s="110">
+        <f>N28*'CE 21-22'!$M$13</f>
+        <v>2.9372024058901522</v>
+      </c>
       <c r="N28" s="38">
         <v>3.2309226464791676</v>
       </c>
@@ -5715,7 +6025,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -5757,7 +6067,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -5799,7 +6109,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -5841,7 +6151,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -5883,7 +6193,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -5925,7 +6235,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -5966,7 +6276,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6008,7 +6318,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6360,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6091,7 +6401,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6443,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6174,7 +6484,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -6206,6 +6516,10 @@
       <c r="L40" s="37">
         <v>307868</v>
       </c>
+      <c r="M40" s="110">
+        <f>N40*'CE 21-22'!$M$13</f>
+        <v>0.96161979691414379</v>
+      </c>
       <c r="N40" s="38">
         <v>1.0577817766055582</v>
       </c>
@@ -6215,7 +6529,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -6247,6 +6561,10 @@
       <c r="L41" s="37">
         <v>7000</v>
       </c>
+      <c r="M41" s="110">
+        <f>N41*'CE 21-22'!$M$13</f>
+        <v>1.2623376623376623</v>
+      </c>
       <c r="N41" s="38">
         <v>1.3885714285714286</v>
       </c>
@@ -6256,7 +6574,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -6287,6 +6605,10 @@
       <c r="L42" s="37">
         <v>850145</v>
       </c>
+      <c r="M42" s="110">
+        <f>N42*'CE 21-22'!$M$13</f>
+        <v>1.155471745728937</v>
+      </c>
       <c r="N42" s="38">
         <v>1.2710189203018307</v>
       </c>
@@ -6296,7 +6618,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -6328,6 +6650,10 @@
       <c r="L43" s="37">
         <v>40480</v>
       </c>
+      <c r="M43" s="110">
+        <f>N43*'CE 21-22'!$M$13</f>
+        <v>1.1559849982033774</v>
+      </c>
       <c r="N43" s="38">
         <v>1.2715834980237153</v>
       </c>
@@ -6337,7 +6663,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -6379,7 +6705,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -6421,7 +6747,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -6463,7 +6789,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -6505,7 +6831,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -6547,7 +6873,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -6579,6 +6905,10 @@
       <c r="L49" s="37">
         <v>1362839</v>
       </c>
+      <c r="M49" s="110">
+        <f>N49*'CE 21-22'!$M$13</f>
+        <v>1.5140679259852543</v>
+      </c>
       <c r="N49" s="38">
         <v>1.6654747185837797</v>
       </c>
@@ -6588,7 +6918,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -6620,6 +6950,10 @@
       <c r="L50" s="37">
         <v>96425</v>
       </c>
+      <c r="M50" s="110">
+        <f>N50*'CE 21-22'!$M$13</f>
+        <v>1.4414585051971622</v>
+      </c>
       <c r="N50" s="38">
         <v>1.5856043557168784</v>
       </c>
@@ -6629,7 +6963,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -6661,6 +6995,10 @@
       <c r="L51" s="37">
         <v>61100</v>
       </c>
+      <c r="M51" s="110">
+        <f>N51*'CE 21-22'!$M$13</f>
+        <v>1.5733021871745274</v>
+      </c>
       <c r="N51" s="38">
         <v>1.7306324058919802</v>
       </c>
@@ -6670,7 +7008,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -6712,7 +7050,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -6754,7 +7092,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -6796,7 +7134,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -6838,7 +7176,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -6880,7 +7218,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -6922,7 +7260,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -6964,7 +7302,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -7006,7 +7344,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -7048,7 +7386,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -7090,7 +7428,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -7132,7 +7470,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -7174,7 +7512,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -7216,7 +7554,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -7256,7 +7594,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -7296,7 +7634,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -7322,7 +7660,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -7348,7 +7686,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -7372,7 +7710,7 @@
       </c>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -7396,7 +7734,7 @@
       </c>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -7420,7 +7758,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -7444,7 +7782,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -7469,7 +7807,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -7493,7 +7831,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -7521,7 +7859,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -7551,7 +7889,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -7581,7 +7919,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -7607,7 +7945,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -7633,7 +7971,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -7643,24 +7981,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -7675,1760 +8013,2053 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="H2" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="I2" s="96" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107" t="str">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96" t="str">
         <f>[2]Ricavi!J4</f>
         <v>MP1</v>
       </c>
-      <c r="C3" s="107" t="str">
+      <c r="C3" s="96" t="str">
         <f>[2]Ricavi!K4</f>
         <v>MP</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="96">
         <f>[2]Ricavi!L4</f>
         <v>48000</v>
       </c>
-      <c r="E3" s="107">
-        <f>[2]Ricavi!M4</f>
+      <c r="E3" s="96">
+        <f>Ricavi!M4</f>
         <v>0.93</v>
       </c>
-      <c r="F3" s="107">
-        <f t="shared" ref="F3:F64" si="0">D3*E3</f>
+      <c r="F3" s="96">
+        <f>Ricavi!O4</f>
+        <v>4.6546500000000005E-2</v>
+      </c>
+      <c r="G3" s="96">
+        <f t="shared" ref="G3:G64" si="0">D3*E3</f>
         <v>44640</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107" t="str">
+      <c r="H3" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96" t="str">
         <f>[2]Ricavi!J5</f>
         <v>MP2</v>
       </c>
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="96" t="str">
         <f>[2]Ricavi!K5</f>
         <v>MP</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="96">
         <f>[2]Ricavi!L5</f>
         <v>700</v>
       </c>
-      <c r="E4" s="107">
-        <f>[2]Ricavi!M5</f>
+      <c r="E4" s="96">
+        <f>Ricavi!M5</f>
         <v>4</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="96">
+        <f>Ricavi!O5</f>
+        <v>0.20020000000000002</v>
+      </c>
+      <c r="G4" s="96">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107" t="str">
+      <c r="H4" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96" t="str">
         <f>[2]Ricavi!J6</f>
         <v>MP3</v>
       </c>
-      <c r="C5" s="107" t="str">
+      <c r="C5" s="96" t="str">
         <f>[2]Ricavi!K6</f>
         <v>MP</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="96">
         <f>[2]Ricavi!L6</f>
         <v>1100</v>
       </c>
-      <c r="E5" s="107">
-        <f>[2]Ricavi!M6</f>
+      <c r="E5" s="96">
+        <f>Ricavi!M6</f>
         <v>2.4</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="96">
+        <f>Ricavi!O6</f>
+        <v>0.12012</v>
+      </c>
+      <c r="G5" s="96">
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107" t="str">
+      <c r="H5" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="96"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96" t="str">
         <f>[2]Ricavi!J7</f>
         <v>MP4</v>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="96" t="str">
         <f>[2]Ricavi!K7</f>
         <v>MP</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="96">
         <f>[2]Ricavi!L7</f>
         <v>125</v>
       </c>
-      <c r="E6" s="107">
-        <f>[2]Ricavi!M7</f>
+      <c r="E6" s="96">
+        <f>Ricavi!M7</f>
         <v>4</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="96">
+        <f>Ricavi!O7</f>
+        <v>0.20020000000000002</v>
+      </c>
+      <c r="G6" s="96">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107" t="str">
+      <c r="H6" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="96"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96" t="str">
         <f>[2]Ricavi!J8</f>
         <v>MP5</v>
       </c>
-      <c r="C7" s="107" t="str">
+      <c r="C7" s="96" t="str">
         <f>[2]Ricavi!K8</f>
         <v>MP</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="96">
         <f>[2]Ricavi!L8</f>
         <v>1925</v>
       </c>
-      <c r="E7" s="107">
-        <f>[2]Ricavi!M8</f>
+      <c r="E7" s="96">
+        <f>Ricavi!M8</f>
         <v>2.9058441558441559</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="96">
+        <f>Ricavi!O8</f>
+        <v>0.1454375</v>
+      </c>
+      <c r="G7" s="96">
         <f t="shared" si="0"/>
         <v>5593.75</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107" t="str">
+      <c r="H7" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96" t="str">
         <f>[2]Ricavi!J9</f>
         <v>MP6</v>
       </c>
-      <c r="C8" s="107" t="str">
+      <c r="C8" s="96" t="str">
         <f>[2]Ricavi!K9</f>
         <v>MP</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="96">
         <f>[2]Ricavi!L9</f>
         <v>125</v>
       </c>
-      <c r="E8" s="107">
-        <f>[2]Ricavi!M9</f>
+      <c r="E8" s="96">
+        <f>Ricavi!M9</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="96">
+        <f>Ricavi!O9</f>
+        <v>0.22022000000000003</v>
+      </c>
+      <c r="G8" s="96">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107" t="str">
+      <c r="H8" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96" t="str">
         <f>[2]Ricavi!J10</f>
         <v>MP7</v>
       </c>
-      <c r="C9" s="107" t="str">
+      <c r="C9" s="96" t="str">
         <f>[2]Ricavi!K10</f>
         <v>MP</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="96">
         <f>[2]Ricavi!L10</f>
         <v>2000</v>
       </c>
-      <c r="E9" s="107">
-        <f>[2]Ricavi!M10</f>
+      <c r="E9" s="96">
+        <f>Ricavi!M10</f>
         <v>4.62</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="96">
+        <f>Ricavi!O10</f>
+        <v>0.23123100000000002</v>
+      </c>
+      <c r="G9" s="96">
         <f t="shared" si="0"/>
         <v>9240</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107" t="str">
+      <c r="H9" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96" t="str">
         <f>[2]Ricavi!J11</f>
         <v>MP8</v>
       </c>
-      <c r="C10" s="107" t="str">
+      <c r="C10" s="96" t="str">
         <f>[2]Ricavi!K11</f>
         <v>MP</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="96">
         <f>[2]Ricavi!L11</f>
         <v>1000</v>
       </c>
-      <c r="E10" s="107">
-        <f>[2]Ricavi!M11</f>
+      <c r="E10" s="96">
+        <f>Ricavi!M11</f>
         <v>2.65</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="96">
+        <f>Ricavi!O11</f>
+        <v>0.13263249999999999</v>
+      </c>
+      <c r="G10" s="96">
         <f t="shared" si="0"/>
         <v>2650</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107" t="str">
+      <c r="H10" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96" t="str">
         <f>[2]Ricavi!J12</f>
         <v>MP9</v>
       </c>
-      <c r="C11" s="107" t="str">
+      <c r="C11" s="96" t="str">
         <f>[2]Ricavi!K12</f>
         <v>MP</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="96">
         <f>[2]Ricavi!L12</f>
         <v>7000</v>
       </c>
-      <c r="E11" s="107">
-        <f>[2]Ricavi!M12</f>
+      <c r="E11" s="96">
+        <f>Ricavi!M12</f>
         <v>0.19</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="96">
+        <f>Ricavi!O12</f>
+        <v>0.13299999999999998</v>
+      </c>
+      <c r="G11" s="96">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107" t="str">
+      <c r="H11" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96" t="str">
         <f>[2]Ricavi!J13</f>
         <v>MP10</v>
       </c>
-      <c r="C12" s="107" t="str">
+      <c r="C12" s="96" t="str">
         <f>[2]Ricavi!K13</f>
         <v>MP</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="96">
         <f>[2]Ricavi!L13</f>
         <v>34866.400000000001</v>
       </c>
-      <c r="E12" s="107">
-        <f>[2]Ricavi!M13</f>
+      <c r="E12" s="96">
+        <f>Ricavi!M13</f>
         <v>0.50710643771654074</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="96">
+        <f>Ricavi!O13</f>
+        <v>0.35497450640157852</v>
+      </c>
+      <c r="G12" s="96">
         <f t="shared" si="0"/>
         <v>17680.975899999998</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107" t="str">
+      <c r="H12" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96" t="str">
         <f>[2]Ricavi!J14</f>
         <v>MP11</v>
       </c>
-      <c r="C13" s="107" t="str">
+      <c r="C13" s="96" t="str">
         <f>[2]Ricavi!K14</f>
         <v>MP</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="96">
         <f>[2]Ricavi!L14</f>
         <v>14037.12</v>
       </c>
-      <c r="E13" s="107">
-        <f>[2]Ricavi!M14</f>
+      <c r="E13" s="96">
+        <f>Ricavi!M14</f>
         <v>7.4104528564263887</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="96">
+        <f>Ricavi!O14</f>
+        <v>5.1873169994984716</v>
+      </c>
+      <c r="G13" s="96">
         <f t="shared" si="0"/>
         <v>104021.416</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107" t="str">
+      <c r="H13" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96" t="str">
         <f>[2]Ricavi!J15</f>
         <v>MP12</v>
       </c>
-      <c r="C14" s="107" t="str">
+      <c r="C14" s="96" t="str">
         <f>[2]Ricavi!K15</f>
         <v>MP</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="96">
         <f>[2]Ricavi!L15</f>
         <v>1904</v>
       </c>
-      <c r="E14" s="107">
-        <f>[2]Ricavi!M15</f>
+      <c r="E14" s="96">
+        <f>Ricavi!M15</f>
         <v>1.4275735294117646</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="96">
+        <f>Ricavi!O15</f>
+        <v>0.99930147058823504</v>
+      </c>
+      <c r="G14" s="96">
         <f t="shared" si="0"/>
         <v>2718.1</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107" t="str">
+      <c r="H14" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96" t="str">
         <f>[2]Ricavi!J16</f>
         <v>MP13</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="96" t="str">
         <f>[2]Ricavi!K16</f>
         <v>MP</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="96">
         <f>[2]Ricavi!L16</f>
         <v>150</v>
       </c>
-      <c r="E15" s="107">
-        <f>[2]Ricavi!M16</f>
+      <c r="E15" s="96">
+        <f>Ricavi!M16</f>
         <v>13</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="96">
+        <f>Ricavi!O16</f>
+        <v>9.1</v>
+      </c>
+      <c r="G15" s="96">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107" t="str">
+      <c r="H15" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96" t="str">
         <f>[2]Ricavi!J17</f>
         <v>MP14</v>
       </c>
-      <c r="C16" s="107" t="str">
+      <c r="C16" s="96" t="str">
         <f>[2]Ricavi!K17</f>
         <v>MP</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="96">
         <f>[2]Ricavi!L17</f>
         <v>20</v>
       </c>
-      <c r="E16" s="107">
-        <f>[2]Ricavi!M17</f>
+      <c r="E16" s="96">
+        <f>Ricavi!M17</f>
         <v>13.5</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="96">
+        <f>Ricavi!O17</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G16" s="96">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107" t="str">
+      <c r="H16" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96" t="str">
         <f>[2]Ricavi!J18</f>
         <v>PCL1</v>
       </c>
-      <c r="C17" s="107" t="str">
+      <c r="C17" s="96" t="str">
         <f>[2]Ricavi!K18</f>
         <v>PCL</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="96">
         <f>[2]Ricavi!L18</f>
         <v>2160885</v>
       </c>
-      <c r="E17" s="107">
-        <f>[2]Ricavi!M18</f>
+      <c r="E17" s="96">
+        <f>Ricavi!M18</f>
         <v>0.11065878100870709</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="96">
+        <f>Ricavi!O18</f>
+        <v>0.06</v>
+      </c>
+      <c r="G17" s="96">
         <f t="shared" si="0"/>
         <v>239120.90000000002</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="H17" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="107"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107" t="str">
+      <c r="I17" s="96"/>
+      <c r="K17" s="96"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96" t="str">
         <f>[2]Ricavi!J19</f>
         <v>PCL2</v>
       </c>
-      <c r="C18" s="107" t="str">
+      <c r="C18" s="96" t="str">
         <f>[2]Ricavi!K19</f>
         <v>PCL</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="96">
         <f>[2]Ricavi!L19</f>
         <v>168325</v>
       </c>
-      <c r="E18" s="107">
-        <f>[2]Ricavi!M19</f>
+      <c r="E18" s="96">
+        <f>Ricavi!M19</f>
         <v>0.63902212980840634</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="96">
+        <f>Ricavi!O19</f>
+        <v>0.45</v>
+      </c>
+      <c r="G18" s="96">
         <f t="shared" si="0"/>
         <v>107563.4</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="H18" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="107"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107" t="str">
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96" t="str">
         <f>[2]Ricavi!J20</f>
         <v>PCL3</v>
       </c>
-      <c r="C19" s="107" t="str">
+      <c r="C19" s="96" t="str">
         <f>[2]Ricavi!K20</f>
         <v>PCL</v>
       </c>
-      <c r="D19" s="107">
+      <c r="D19" s="96">
         <f>[2]Ricavi!L20</f>
         <v>495475</v>
       </c>
-      <c r="E19" s="107">
-        <f>[2]Ricavi!M20</f>
+      <c r="E19" s="96">
+        <f>Ricavi!M20</f>
         <v>1.6503165205106214</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="96">
+        <f>Ricavi!O20</f>
+        <v>1.2250024178212826</v>
+      </c>
+      <c r="G19" s="96">
         <f t="shared" si="0"/>
         <v>817690.5780000001</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="H19" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="107"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107" t="str">
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96" t="str">
         <f>[2]Ricavi!J21</f>
         <v>PCL4</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="96" t="str">
         <f>[2]Ricavi!K21</f>
         <v>PCL</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="96">
         <f>[2]Ricavi!L21</f>
         <v>489058</v>
       </c>
-      <c r="E20" s="107">
-        <f>[2]Ricavi!M21</f>
+      <c r="E20" s="96">
+        <f>Ricavi!M21</f>
         <v>2.6814489976240035</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="96">
+        <f>Ricavi!O21</f>
+        <v>2.2169886391798115</v>
+      </c>
+      <c r="G20" s="96">
         <f t="shared" si="0"/>
         <v>1311384.0838799998</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="H20" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="107"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107" t="str">
+      <c r="I20" s="96"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96" t="str">
         <f>[2]Ricavi!J22</f>
         <v>PCL5</v>
       </c>
-      <c r="C21" s="107" t="str">
+      <c r="C21" s="96" t="str">
         <f>[2]Ricavi!K22</f>
         <v>PCL</v>
       </c>
-      <c r="D21" s="107">
+      <c r="D21" s="96">
         <f>[2]Ricavi!L22</f>
         <v>6160</v>
       </c>
-      <c r="E21" s="107">
-        <f>[2]Ricavi!M22</f>
+      <c r="E21" s="96">
+        <f>Ricavi!M22</f>
         <v>2.25</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="96">
+        <f>Ricavi!O22</f>
+        <v>1.8643499999999997</v>
+      </c>
+      <c r="G21" s="96">
         <f t="shared" si="0"/>
         <v>13860</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="H21" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="107"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107" t="str">
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96" t="str">
         <f>[2]Ricavi!J23</f>
         <v>PF P1</v>
       </c>
-      <c r="C22" s="107" t="str">
+      <c r="C22" s="96" t="str">
         <f>[2]Ricavi!K23</f>
         <v>PF</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="96">
         <f>[2]Ricavi!L23</f>
         <v>1719564</v>
       </c>
-      <c r="E22" s="107">
-        <f>[2]Ricavi!M23</f>
+      <c r="E22" s="96">
+        <f>Ricavi!M23</f>
         <v>3.2527355771579307</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="96">
+        <f>Ricavi!O23</f>
+        <v>2.2970083985533547</v>
+      </c>
+      <c r="G22" s="96">
         <f t="shared" si="0"/>
         <v>5593287</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="H22" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="107" t="s">
+      <c r="I22" s="96" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96" t="str">
         <f>[2]Ricavi!J24</f>
         <v>PF P2</v>
       </c>
-      <c r="C23" s="107" t="str">
+      <c r="C23" s="96" t="str">
         <f>[2]Ricavi!K24</f>
         <v>PF</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="96">
         <f>[2]Ricavi!L24</f>
         <v>292499</v>
       </c>
-      <c r="E23" s="107">
-        <f>[2]Ricavi!M24</f>
+      <c r="E23" s="96">
+        <f>Ricavi!M24</f>
         <v>3.2730881131217542</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="96">
+        <f>Ricavi!O24</f>
+        <v>2.2528709887555176</v>
+      </c>
+      <c r="G23" s="96">
         <f t="shared" si="0"/>
         <v>957375</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="H23" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H23" s="107"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107" t="str">
+      <c r="I23" s="96"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="96"/>
+      <c r="B24" s="96" t="str">
         <f>[2]Ricavi!J25</f>
         <v>PF P3</v>
       </c>
-      <c r="C24" s="107" t="str">
+      <c r="C24" s="96" t="str">
         <f>[2]Ricavi!K25</f>
         <v>PF</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="96">
         <f>[2]Ricavi!L25</f>
         <v>442800</v>
       </c>
-      <c r="E24" s="107">
-        <f>[2]Ricavi!M25</f>
+      <c r="E24" s="96">
+        <f>Ricavi!M25</f>
         <v>3.2317332881662151</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="96">
+        <f>Ricavi!O25</f>
+        <v>2.2767847363369467</v>
+      </c>
+      <c r="G24" s="96">
         <f t="shared" si="0"/>
         <v>1431011.5</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="H24" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="107"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107" t="str">
+      <c r="I24" s="96"/>
+      <c r="L24" s="96"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96" t="str">
         <f>[2]Ricavi!J26</f>
         <v>PF P4</v>
       </c>
-      <c r="C25" s="107" t="str">
+      <c r="C25" s="96" t="str">
         <f>[2]Ricavi!K26</f>
         <v>PF</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="96">
         <f>[2]Ricavi!L26</f>
         <v>8070474</v>
       </c>
-      <c r="E25" s="107">
-        <f>[2]Ricavi!M26</f>
+      <c r="E25" s="96">
+        <f>Ricavi!M26</f>
         <v>3.1339358772483501</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="96">
+        <f>Ricavi!O26</f>
+        <v>2.1581976957735072</v>
+      </c>
+      <c r="G25" s="96">
         <f t="shared" si="0"/>
         <v>25292348.015000001</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="H25" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="107"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107" t="str">
+      <c r="I25" s="96"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96" t="str">
         <f>[2]Ricavi!J27</f>
         <v>PF P5</v>
       </c>
-      <c r="C26" s="107" t="str">
+      <c r="C26" s="96" t="str">
         <f>[2]Ricavi!K27</f>
         <v>PF</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="96">
         <f>[2]Ricavi!L27</f>
         <v>205850</v>
       </c>
-      <c r="E26" s="107">
-        <f>[2]Ricavi!M27</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="107" t="s">
+      <c r="E26" s="96">
+        <f>Ricavi!M27</f>
+        <v>2.8595490979751363</v>
+      </c>
+      <c r="F26" s="96">
+        <f>Ricavi!O27</f>
+        <v>2.1592931114889486</v>
+      </c>
+      <c r="G26" s="96">
+        <f t="shared" si="0"/>
+        <v>588638.18181818177</v>
+      </c>
+      <c r="H26" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H26" s="107"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107" t="str">
+      <c r="I26" s="96"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96" t="str">
         <f>[2]Ricavi!J28</f>
         <v>PF P6</v>
       </c>
-      <c r="C27" s="107" t="str">
+      <c r="C27" s="96" t="str">
         <f>[2]Ricavi!K28</f>
         <v>PF</v>
       </c>
-      <c r="D27" s="107">
+      <c r="D27" s="96">
         <f>[2]Ricavi!L28</f>
         <v>3233156</v>
       </c>
-      <c r="E27" s="107">
-        <f>[2]Ricavi!M28</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="107" t="s">
+      <c r="E27" s="96">
+        <f>Ricavi!M28</f>
+        <v>2.9372024058901522</v>
+      </c>
+      <c r="F27" s="96">
+        <f>Ricavi!O28</f>
+        <v>2.2976852023348089</v>
+      </c>
+      <c r="G27" s="96">
+        <f t="shared" si="0"/>
+        <v>9496433.5818181802</v>
+      </c>
+      <c r="H27" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="107"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107" t="str">
+      <c r="I27" s="96"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96" t="str">
         <f>[2]Ricavi!J29</f>
         <v>PF P7</v>
       </c>
-      <c r="C28" s="107" t="str">
+      <c r="C28" s="96" t="str">
         <f>[2]Ricavi!K29</f>
         <v>PF</v>
       </c>
-      <c r="D28" s="107">
+      <c r="D28" s="96">
         <f>[2]Ricavi!L29</f>
         <v>660340</v>
       </c>
-      <c r="E28" s="107">
-        <f>[2]Ricavi!M29</f>
+      <c r="E28" s="96">
+        <f>Ricavi!M29</f>
         <v>0.96042054093345852</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="96">
+        <f>Ricavi!O29</f>
+        <v>0.7356204767241119</v>
+      </c>
+      <c r="G28" s="96">
         <f t="shared" si="0"/>
         <v>634204.1</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="H28" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="107"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107" t="str">
+      <c r="I28" s="96"/>
+      <c r="K28" s="96"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96" t="str">
         <f>[2]Ricavi!J30</f>
         <v>PF V1</v>
       </c>
-      <c r="C29" s="107" t="str">
+      <c r="C29" s="96" t="str">
         <f>[2]Ricavi!K30</f>
         <v>PF</v>
       </c>
-      <c r="D29" s="107">
+      <c r="D29" s="96">
         <f>[2]Ricavi!L30</f>
         <v>509668</v>
       </c>
-      <c r="E29" s="107">
-        <f>[2]Ricavi!M30</f>
+      <c r="E29" s="96">
+        <f>Ricavi!M30</f>
         <v>1.4659810896505177</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="96">
+        <f>Ricavi!O30</f>
+        <v>1.1399042383473164</v>
+      </c>
+      <c r="G29" s="96">
         <f t="shared" si="0"/>
         <v>747163.65</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="H29" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H29" s="107" t="s">
+      <c r="I29" s="96" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107" t="str">
+      <c r="K29" s="96"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96" t="str">
         <f>[2]Ricavi!J31</f>
         <v>PF V2</v>
       </c>
-      <c r="C30" s="107" t="str">
+      <c r="C30" s="96" t="str">
         <f>[2]Ricavi!K31</f>
         <v>PF</v>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="96">
         <f>[2]Ricavi!L31</f>
         <v>2539984</v>
       </c>
-      <c r="E30" s="107">
-        <f>[2]Ricavi!M31</f>
+      <c r="E30" s="96">
+        <f>Ricavi!M31</f>
         <v>1.5574062198816996</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="96">
+        <f>Ricavi!O31</f>
+        <v>1.190501486698341</v>
+      </c>
+      <c r="G30" s="96">
         <f t="shared" si="0"/>
         <v>3955786.879999999</v>
       </c>
-      <c r="G30" s="107" t="s">
+      <c r="H30" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="107"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107" t="str">
+      <c r="I30" s="96"/>
+      <c r="K30" s="96"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96" t="str">
         <f>[2]Ricavi!J32</f>
         <v>PF V3</v>
       </c>
-      <c r="C31" s="107" t="str">
+      <c r="C31" s="96" t="str">
         <f>[2]Ricavi!K32</f>
         <v>PF</v>
       </c>
-      <c r="D31" s="107">
+      <c r="D31" s="96">
         <f>[2]Ricavi!L32</f>
         <v>879638</v>
       </c>
-      <c r="E31" s="107">
-        <f>[2]Ricavi!M32</f>
+      <c r="E31" s="96">
+        <f>Ricavi!M32</f>
         <v>1.5255310138943521</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="96">
+        <f>Ricavi!O32</f>
+        <v>1.159534770973969</v>
+      </c>
+      <c r="G31" s="96">
         <f t="shared" si="0"/>
         <v>1341915.05</v>
       </c>
-      <c r="G31" s="107" t="s">
+      <c r="H31" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="107"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107" t="str">
+      <c r="I31" s="96"/>
+      <c r="K31" s="96"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96" t="str">
         <f>[2]Ricavi!J33</f>
         <v>PF V4</v>
       </c>
-      <c r="C32" s="107" t="str">
+      <c r="C32" s="96" t="str">
         <f>[2]Ricavi!K33</f>
         <v>PF</v>
       </c>
-      <c r="D32" s="107">
+      <c r="D32" s="96">
         <f>[2]Ricavi!L33</f>
         <v>579689</v>
       </c>
-      <c r="E32" s="107">
-        <f>[2]Ricavi!M33</f>
+      <c r="E32" s="96">
+        <f>Ricavi!M33</f>
         <v>1.5588271124689272</v>
       </c>
-      <c r="F32" s="107">
+      <c r="F32" s="96">
+        <f>Ricavi!O33</f>
+        <v>1.1870107720346599</v>
+      </c>
+      <c r="G32" s="96">
         <f t="shared" si="0"/>
         <v>903634.92999999993</v>
       </c>
-      <c r="G32" s="107" t="s">
+      <c r="H32" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H32" s="107"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107" t="str">
+      <c r="I32" s="96"/>
+      <c r="K32" s="96"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="96"/>
+      <c r="B33" s="96" t="str">
         <f>[2]Ricavi!J34</f>
         <v>PF V5</v>
       </c>
-      <c r="C33" s="107" t="str">
+      <c r="C33" s="96" t="str">
         <f>[2]Ricavi!K34</f>
         <v>PF</v>
       </c>
-      <c r="D33" s="107">
+      <c r="D33" s="96">
         <f>[2]Ricavi!L34</f>
         <v>448105</v>
       </c>
-      <c r="E33" s="107">
-        <f>[2]Ricavi!M34</f>
+      <c r="E33" s="96">
+        <f>Ricavi!M34</f>
         <v>1.4237468896798742</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="96">
+        <f>Ricavi!O34</f>
+        <v>1.1223359093292866</v>
+      </c>
+      <c r="G33" s="96">
         <f t="shared" si="0"/>
         <v>637988.1</v>
       </c>
-      <c r="G33" s="107" t="s">
+      <c r="H33" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="107"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107" t="str">
+      <c r="I33" s="96"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96" t="str">
         <f>[2]Ricavi!J35</f>
         <v>PF V6</v>
       </c>
-      <c r="C34" s="107" t="str">
+      <c r="C34" s="96" t="str">
         <f>[2]Ricavi!K35</f>
         <v>PF</v>
       </c>
-      <c r="D34" s="107">
+      <c r="D34" s="96">
         <f>[2]Ricavi!L35</f>
         <v>130100</v>
       </c>
-      <c r="E34" s="107">
-        <f>[2]Ricavi!M35</f>
+      <c r="E34" s="96">
+        <f>Ricavi!M35</f>
         <v>1.9231706379707918</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="96">
+        <f>Ricavi!O35</f>
+        <v>1.2489680491929285</v>
+      </c>
+      <c r="G34" s="96">
         <f t="shared" si="0"/>
         <v>250204.5</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="H34" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="107"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107" t="str">
+      <c r="I34" s="96"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="96"/>
+      <c r="B35" s="96" t="str">
         <f>[2]Ricavi!J36</f>
         <v>PF V7</v>
       </c>
-      <c r="C35" s="107" t="str">
+      <c r="C35" s="96" t="str">
         <f>[2]Ricavi!K36</f>
         <v>PF</v>
       </c>
-      <c r="D35" s="107">
+      <c r="D35" s="96">
         <f>[2]Ricavi!L36</f>
         <v>13340</v>
       </c>
-      <c r="E35" s="107">
-        <f>[2]Ricavi!M36</f>
+      <c r="E35" s="96">
+        <f>Ricavi!M36</f>
         <v>1.1880509745127437</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="96">
+        <f>Ricavi!O36</f>
+        <v>0.55081494752623683</v>
+      </c>
+      <c r="G35" s="96">
         <f t="shared" si="0"/>
         <v>15848.6</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="H35" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H35" s="107"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107" t="str">
+      <c r="I35" s="96"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96" t="str">
         <f>[2]Ricavi!J37</f>
         <v>PF V8</v>
       </c>
-      <c r="C36" s="107" t="str">
+      <c r="C36" s="96" t="str">
         <f>[2]Ricavi!K37</f>
         <v>PF</v>
       </c>
-      <c r="D36" s="107">
+      <c r="D36" s="96">
         <f>[2]Ricavi!L37</f>
         <v>81820</v>
       </c>
-      <c r="E36" s="107">
-        <f>[2]Ricavi!M37</f>
+      <c r="E36" s="96">
+        <f>Ricavi!M37</f>
         <v>1.6966731850403327</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="96">
+        <f>Ricavi!O37</f>
+        <v>1.2888624835003668</v>
+      </c>
+      <c r="G36" s="96">
         <f t="shared" si="0"/>
         <v>138821.80000000002</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="H36" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="107"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107" t="str">
+      <c r="I36" s="96"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="96"/>
+      <c r="B37" s="96" t="str">
         <f>[2]Ricavi!J38</f>
         <v>PF V9</v>
       </c>
-      <c r="C37" s="107" t="str">
+      <c r="C37" s="96" t="str">
         <f>[2]Ricavi!K38</f>
         <v>PF</v>
       </c>
-      <c r="D37" s="107">
+      <c r="D37" s="96">
         <f>[2]Ricavi!L38</f>
         <v>21040</v>
       </c>
-      <c r="E37" s="107">
-        <f>[2]Ricavi!M38</f>
+      <c r="E37" s="96">
+        <f>Ricavi!M38</f>
         <v>1.6010133079847908</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="96">
+        <f>Ricavi!O38</f>
+        <v>1.3689428422053231</v>
+      </c>
+      <c r="G37" s="96">
         <f t="shared" si="0"/>
         <v>33685.32</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="H37" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="107"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
-      <c r="B38" s="107" t="str">
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96" t="str">
         <f>[2]Ricavi!J39</f>
         <v>PF V10</v>
       </c>
-      <c r="C38" s="107" t="str">
+      <c r="C38" s="96" t="str">
         <f>[2]Ricavi!K39</f>
         <v>PF</v>
       </c>
-      <c r="D38" s="107">
+      <c r="D38" s="96">
         <f>[2]Ricavi!L39</f>
         <v>14625</v>
       </c>
-      <c r="E38" s="107">
-        <f>[2]Ricavi!M39</f>
+      <c r="E38" s="96">
+        <f>Ricavi!M39</f>
         <v>1.6058974358974358</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="96">
+        <f>Ricavi!O39</f>
+        <v>1.2319166666666668</v>
+      </c>
+      <c r="G38" s="96">
         <f t="shared" si="0"/>
         <v>23486.25</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="H38" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="107"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107" t="str">
+      <c r="I38" s="96"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="96"/>
+      <c r="B39" s="96" t="str">
         <f>[2]Ricavi!J40</f>
         <v>PF V11</v>
       </c>
-      <c r="C39" s="107" t="str">
+      <c r="C39" s="96" t="str">
         <f>[2]Ricavi!K40</f>
         <v>PF</v>
       </c>
-      <c r="D39" s="107">
+      <c r="D39" s="96">
         <f>[2]Ricavi!L40</f>
         <v>307868</v>
       </c>
-      <c r="E39" s="107">
-        <f>[2]Ricavi!M40</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="107" t="s">
+      <c r="E39" s="96">
+        <f>Ricavi!M40</f>
+        <v>0.96161979691414379</v>
+      </c>
+      <c r="F39" s="96">
+        <f>Ricavi!O40</f>
+        <v>0.75997644847791901</v>
+      </c>
+      <c r="G39" s="96">
+        <f t="shared" si="0"/>
+        <v>296051.96363636362</v>
+      </c>
+      <c r="H39" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="107"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107" t="str">
+      <c r="I39" s="96"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96" t="str">
         <f>[2]Ricavi!J41</f>
         <v>PF V12</v>
       </c>
-      <c r="C40" s="107" t="str">
+      <c r="C40" s="96" t="str">
         <f>[2]Ricavi!K41</f>
         <v>PF</v>
       </c>
-      <c r="D40" s="107">
+      <c r="D40" s="96">
         <f>[2]Ricavi!L41</f>
         <v>7000</v>
       </c>
-      <c r="E40" s="107">
-        <f>[2]Ricavi!M41</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="107" t="s">
+      <c r="E40" s="96">
+        <f>Ricavi!M41</f>
+        <v>1.2623376623376623</v>
+      </c>
+      <c r="F40" s="96">
+        <f>Ricavi!O41</f>
+        <v>1.1206985714285713</v>
+      </c>
+      <c r="G40" s="96">
+        <f t="shared" si="0"/>
+        <v>8836.363636363636</v>
+      </c>
+      <c r="H40" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="107"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107" t="str">
+      <c r="I40" s="96"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96" t="str">
         <f>[2]Ricavi!J42</f>
         <v>PF V13</v>
       </c>
-      <c r="C41" s="107" t="str">
+      <c r="C41" s="96" t="str">
         <f>[2]Ricavi!K42</f>
         <v>PF</v>
       </c>
-      <c r="D41" s="107">
+      <c r="D41" s="96">
         <f>[2]Ricavi!L42</f>
         <v>850145</v>
       </c>
-      <c r="E41" s="107">
-        <f>[2]Ricavi!M42</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="107" t="s">
+      <c r="E41" s="96">
+        <f>Ricavi!M42</f>
+        <v>1.155471745728937</v>
+      </c>
+      <c r="F41" s="96">
+        <f>Ricavi!O42</f>
+        <v>0.99127780878556027</v>
+      </c>
+      <c r="G41" s="96">
+        <f t="shared" si="0"/>
+        <v>982318.52727272711</v>
+      </c>
+      <c r="H41" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="107"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107" t="str">
+      <c r="I41" s="96"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96" t="str">
         <f>[2]Ricavi!J43</f>
         <v>PF V14</v>
       </c>
-      <c r="C42" s="107" t="str">
+      <c r="C42" s="96" t="str">
         <f>[2]Ricavi!K43</f>
         <v>PF</v>
       </c>
-      <c r="D42" s="107">
+      <c r="D42" s="96">
         <f>[2]Ricavi!L43</f>
         <v>40480</v>
       </c>
-      <c r="E42" s="107">
-        <f>[2]Ricavi!M43</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="107" t="s">
+      <c r="E42" s="96">
+        <f>Ricavi!M43</f>
+        <v>1.1559849982033774</v>
+      </c>
+      <c r="F42" s="96">
+        <f>Ricavi!O43</f>
+        <v>0.96538828063241089</v>
+      </c>
+      <c r="G42" s="96">
+        <f t="shared" si="0"/>
+        <v>46794.272727272721</v>
+      </c>
+      <c r="H42" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H42" s="107"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107" t="str">
+      <c r="I42" s="96"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96" t="str">
         <f>[2]Ricavi!J44</f>
         <v>PF V15</v>
       </c>
-      <c r="C43" s="107" t="str">
+      <c r="C43" s="96" t="str">
         <f>[2]Ricavi!K44</f>
         <v>PF</v>
       </c>
-      <c r="D43" s="107">
+      <c r="D43" s="96">
         <f>[2]Ricavi!L44</f>
         <v>30000</v>
       </c>
-      <c r="E43" s="107">
-        <f>[2]Ricavi!M44</f>
+      <c r="E43" s="96">
+        <f>Ricavi!M44</f>
         <v>2.1413333333333333</v>
       </c>
-      <c r="F43" s="107">
+      <c r="F43" s="96">
+        <f>Ricavi!O44</f>
+        <v>1.6941680000000001</v>
+      </c>
+      <c r="G43" s="96">
         <f t="shared" si="0"/>
         <v>64240</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="H43" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H43" s="107"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107" t="str">
+      <c r="I43" s="96"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96" t="str">
         <f>[2]Ricavi!J45</f>
         <v>PF V16</v>
       </c>
-      <c r="C44" s="107" t="str">
+      <c r="C44" s="96" t="str">
         <f>[2]Ricavi!K45</f>
         <v>PF</v>
       </c>
-      <c r="D44" s="107">
+      <c r="D44" s="96">
         <f>[2]Ricavi!L45</f>
         <v>16500</v>
       </c>
-      <c r="E44" s="107">
-        <f>[2]Ricavi!M45</f>
+      <c r="E44" s="96">
+        <f>Ricavi!M45</f>
         <v>1.2007575757575757</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F44" s="96">
+        <f>Ricavi!O45</f>
+        <v>0.9244603787878789</v>
+      </c>
+      <c r="G44" s="96">
         <f t="shared" si="0"/>
         <v>19812.5</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="H44" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="107"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107" t="str">
+      <c r="I44" s="96"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96" t="str">
         <f>[2]Ricavi!J46</f>
         <v>PF A1</v>
       </c>
-      <c r="C45" s="107" t="str">
+      <c r="C45" s="96" t="str">
         <f>[2]Ricavi!K46</f>
         <v>PF</v>
       </c>
-      <c r="D45" s="107">
+      <c r="D45" s="96">
         <f>[2]Ricavi!L46</f>
         <v>94290</v>
       </c>
-      <c r="E45" s="107">
-        <f>[2]Ricavi!M46</f>
+      <c r="E45" s="96">
+        <f>Ricavi!M46</f>
         <v>1.2885862763813767</v>
       </c>
-      <c r="F45" s="107">
+      <c r="F45" s="96">
+        <f>Ricavi!O46</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="96">
         <f t="shared" si="0"/>
         <v>121500.8</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="H45" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="107" t="s">
+      <c r="I45" s="96" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107" t="str">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96" t="str">
         <f>[2]Ricavi!J47</f>
         <v>PF A2</v>
       </c>
-      <c r="C46" s="107" t="str">
+      <c r="C46" s="96" t="str">
         <f>[2]Ricavi!K47</f>
         <v>PF</v>
       </c>
-      <c r="D46" s="107">
+      <c r="D46" s="96">
         <f>[2]Ricavi!L47</f>
         <v>151620</v>
       </c>
-      <c r="E46" s="107">
-        <f>[2]Ricavi!M47</f>
+      <c r="E46" s="96">
+        <f>Ricavi!M47</f>
         <v>1.7877720617332806</v>
       </c>
-      <c r="F46" s="107">
+      <c r="F46" s="96">
+        <f>Ricavi!O47</f>
+        <v>1.5182724627357869</v>
+      </c>
+      <c r="G46" s="96">
         <f t="shared" si="0"/>
         <v>271062</v>
       </c>
-      <c r="G46" s="107" t="s">
+      <c r="H46" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="107"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107" t="str">
+      <c r="I46" s="96"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96" t="str">
         <f>[2]Ricavi!J48</f>
         <v>PF A3</v>
       </c>
-      <c r="C47" s="107" t="str">
+      <c r="C47" s="96" t="str">
         <f>[2]Ricavi!K48</f>
         <v>PF</v>
       </c>
-      <c r="D47" s="107">
+      <c r="D47" s="96">
         <f>[2]Ricavi!L48</f>
         <v>411979</v>
       </c>
-      <c r="E47" s="107">
-        <f>[2]Ricavi!M48</f>
+      <c r="E47" s="96">
+        <f>Ricavi!M48</f>
         <v>1.8322972695210196</v>
       </c>
-      <c r="F47" s="107">
+      <c r="F47" s="96">
+        <f>Ricavi!O48</f>
+        <v>1.4404786492029935</v>
+      </c>
+      <c r="G47" s="96">
         <f t="shared" si="0"/>
         <v>754867.99680000008</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="H47" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H47" s="107"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107" t="str">
+      <c r="I47" s="96"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96" t="str">
         <f>[2]Ricavi!J49</f>
         <v>PF A4</v>
       </c>
-      <c r="C48" s="107" t="str">
+      <c r="C48" s="96" t="str">
         <f>[2]Ricavi!K49</f>
         <v>PF</v>
       </c>
-      <c r="D48" s="107">
+      <c r="D48" s="96">
         <f>[2]Ricavi!L49</f>
         <v>1362839</v>
       </c>
-      <c r="E48" s="107">
-        <f>[2]Ricavi!M49</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="107" t="s">
+      <c r="E48" s="96">
+        <f>Ricavi!M49</f>
+        <v>1.5140679259852543</v>
+      </c>
+      <c r="F48" s="96">
+        <f>Ricavi!O49</f>
+        <v>1.3105806561670159</v>
+      </c>
+      <c r="G48" s="96">
+        <f t="shared" si="0"/>
+        <v>2063430.8181818179</v>
+      </c>
+      <c r="H48" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H48" s="107"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107" t="str">
+      <c r="I48" s="96"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96" t="str">
         <f>[2]Ricavi!J50</f>
         <v>PF A5</v>
       </c>
-      <c r="C49" s="107" t="str">
+      <c r="C49" s="96" t="str">
         <f>[2]Ricavi!K50</f>
         <v>PF</v>
       </c>
-      <c r="D49" s="107">
+      <c r="D49" s="96">
         <f>[2]Ricavi!L50</f>
         <v>96425</v>
       </c>
-      <c r="E49" s="107">
-        <f>[2]Ricavi!M50</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="107" t="s">
+      <c r="E49" s="96">
+        <f>Ricavi!M50</f>
+        <v>1.4414585051971622</v>
+      </c>
+      <c r="F49" s="96">
+        <f>Ricavi!O50</f>
+        <v>1.1837239694062742</v>
+      </c>
+      <c r="G49" s="96">
+        <f t="shared" si="0"/>
+        <v>138992.63636363638</v>
+      </c>
+      <c r="H49" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="107"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107" t="str">
+      <c r="I49" s="96"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="96"/>
+      <c r="B50" s="96" t="str">
         <f>[2]Ricavi!J51</f>
         <v>PF A6</v>
       </c>
-      <c r="C50" s="107" t="str">
+      <c r="C50" s="96" t="str">
         <f>[2]Ricavi!K51</f>
         <v>PF</v>
       </c>
-      <c r="D50" s="107">
+      <c r="D50" s="96">
         <f>[2]Ricavi!L51</f>
         <v>61100</v>
       </c>
-      <c r="E50" s="107">
-        <f>[2]Ricavi!M51</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="107">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="107" t="s">
+      <c r="E50" s="96">
+        <f>Ricavi!M51</f>
+        <v>1.5733021871745274</v>
+      </c>
+      <c r="F50" s="96">
+        <f>Ricavi!O51</f>
+        <v>1.2825347995090015</v>
+      </c>
+      <c r="G50" s="96">
+        <f t="shared" si="0"/>
+        <v>96128.763636363627</v>
+      </c>
+      <c r="H50" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H50" s="107"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107" t="str">
+      <c r="I50" s="96"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="96"/>
+      <c r="B51" s="96" t="str">
         <f>[2]Ricavi!J52</f>
         <v>PF A7</v>
       </c>
-      <c r="C51" s="107" t="str">
+      <c r="C51" s="96" t="str">
         <f>[2]Ricavi!K52</f>
         <v>PF</v>
       </c>
-      <c r="D51" s="107">
+      <c r="D51" s="96">
         <f>[2]Ricavi!L52</f>
         <v>2820458.99</v>
       </c>
-      <c r="E51" s="107">
-        <f>[2]Ricavi!M52</f>
+      <c r="E51" s="96">
+        <f>Ricavi!M52</f>
         <v>1.6397767269078427</v>
       </c>
-      <c r="F51" s="107">
+      <c r="F51" s="96">
+        <f>Ricavi!O52</f>
+        <v>1.2408623742745859</v>
+      </c>
+      <c r="G51" s="96">
         <f t="shared" si="0"/>
         <v>4624923.0109999999</v>
       </c>
-      <c r="G51" s="107" t="s">
+      <c r="H51" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="107"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107" t="str">
+      <c r="I51" s="96"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="96"/>
+      <c r="B52" s="96" t="str">
         <f>[2]Ricavi!J53</f>
         <v>PF A8</v>
       </c>
-      <c r="C52" s="107" t="str">
+      <c r="C52" s="96" t="str">
         <f>[2]Ricavi!K53</f>
         <v>PF</v>
       </c>
-      <c r="D52" s="107">
+      <c r="D52" s="96">
         <f>[2]Ricavi!L53</f>
         <v>157263</v>
       </c>
-      <c r="E52" s="107">
-        <f>[2]Ricavi!M53</f>
+      <c r="E52" s="96">
+        <f>Ricavi!M53</f>
         <v>1.6271923465786613</v>
       </c>
-      <c r="F52" s="107">
+      <c r="F52" s="96">
+        <f>Ricavi!O53</f>
+        <v>1.1648880465207965</v>
+      </c>
+      <c r="G52" s="96">
         <f t="shared" si="0"/>
         <v>255897.15000000002</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="H52" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H52" s="107"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107" t="str">
+      <c r="I52" s="96"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="96"/>
+      <c r="B53" s="96" t="str">
         <f>[2]Ricavi!J54</f>
         <v>PF A9</v>
       </c>
-      <c r="C53" s="107" t="str">
+      <c r="C53" s="96" t="str">
         <f>[2]Ricavi!K54</f>
         <v>PF</v>
       </c>
-      <c r="D53" s="107">
+      <c r="D53" s="96">
         <f>[2]Ricavi!L54</f>
         <v>261930</v>
       </c>
-      <c r="E53" s="107">
-        <f>[2]Ricavi!M54</f>
+      <c r="E53" s="96">
+        <f>Ricavi!M54</f>
         <v>1.5522070782270072</v>
       </c>
-      <c r="F53" s="107">
+      <c r="F53" s="96">
+        <f>Ricavi!O54</f>
+        <v>1.0346569554842897</v>
+      </c>
+      <c r="G53" s="96">
         <f t="shared" si="0"/>
         <v>406569.6</v>
       </c>
-      <c r="G53" s="107" t="s">
+      <c r="H53" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="107"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107" t="str">
+      <c r="I53" s="96"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="96"/>
+      <c r="B54" s="96" t="str">
         <f>[2]Ricavi!J55</f>
         <v>PF A10</v>
       </c>
-      <c r="C54" s="107" t="str">
+      <c r="C54" s="96" t="str">
         <f>[2]Ricavi!K55</f>
         <v>PF</v>
       </c>
-      <c r="D54" s="107">
+      <c r="D54" s="96">
         <f>[2]Ricavi!L55</f>
         <v>500680</v>
       </c>
-      <c r="E54" s="107">
-        <f>[2]Ricavi!M55</f>
+      <c r="E54" s="96">
+        <f>Ricavi!M55</f>
         <v>1.2455093073420147</v>
       </c>
-      <c r="F54" s="107">
+      <c r="F54" s="96">
+        <f>Ricavi!O55</f>
+        <v>0.90018249700407449</v>
+      </c>
+      <c r="G54" s="96">
         <f t="shared" si="0"/>
         <v>623601.6</v>
       </c>
-      <c r="G54" s="107" t="s">
+      <c r="H54" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="107"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107" t="str">
+      <c r="I54" s="96"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="96"/>
+      <c r="B55" s="96" t="str">
         <f>[2]Ricavi!J56</f>
         <v>PF A11</v>
       </c>
-      <c r="C55" s="107" t="str">
+      <c r="C55" s="96" t="str">
         <f>[2]Ricavi!K56</f>
         <v>PF</v>
       </c>
-      <c r="D55" s="107">
+      <c r="D55" s="96">
         <f>[2]Ricavi!L56</f>
         <v>62569</v>
       </c>
-      <c r="E55" s="107">
-        <f>[2]Ricavi!M56</f>
+      <c r="E55" s="96">
+        <f>Ricavi!M56</f>
         <v>1.9325902603525706</v>
       </c>
-      <c r="F55" s="107">
+      <c r="F55" s="96">
+        <f>Ricavi!O56</f>
+        <v>1.3611319394588377</v>
+      </c>
+      <c r="G55" s="96">
         <f t="shared" si="0"/>
         <v>120920.23999999999</v>
       </c>
-      <c r="G55" s="107" t="s">
+      <c r="H55" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="107"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107" t="str">
+      <c r="I55" s="96"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="96"/>
+      <c r="B56" s="96" t="str">
         <f>[2]Ricavi!J57</f>
         <v>PF A12</v>
       </c>
-      <c r="C56" s="107" t="str">
+      <c r="C56" s="96" t="str">
         <f>[2]Ricavi!K57</f>
         <v>PF</v>
       </c>
-      <c r="D56" s="107">
+      <c r="D56" s="96">
         <f>[2]Ricavi!L57</f>
         <v>927765</v>
       </c>
-      <c r="E56" s="107">
-        <f>[2]Ricavi!M57</f>
+      <c r="E56" s="96">
+        <f>Ricavi!M57</f>
         <v>2.009165683120187</v>
       </c>
-      <c r="F56" s="107">
+      <c r="F56" s="96">
+        <f>Ricavi!O57</f>
+        <v>1.404875675575173</v>
+      </c>
+      <c r="G56" s="96">
         <f t="shared" si="0"/>
         <v>1864033.6000000003</v>
       </c>
-      <c r="G56" s="107" t="s">
+      <c r="H56" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H56" s="107"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107" t="str">
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="96"/>
+      <c r="B57" s="96" t="str">
         <f>[2]Ricavi!J58</f>
         <v>PF A13</v>
       </c>
-      <c r="C57" s="107" t="str">
+      <c r="C57" s="96" t="str">
         <f>[2]Ricavi!K58</f>
         <v>PF</v>
       </c>
-      <c r="D57" s="107">
+      <c r="D57" s="96">
         <f>[2]Ricavi!L58</f>
         <v>129425</v>
       </c>
-      <c r="E57" s="107">
-        <f>[2]Ricavi!M58</f>
+      <c r="E57" s="96">
+        <f>Ricavi!M58</f>
         <v>1.6307046552057176</v>
       </c>
-      <c r="F57" s="107">
+      <c r="F57" s="96">
+        <f>Ricavi!O58</f>
+        <v>1.1999951095228896</v>
+      </c>
+      <c r="G57" s="96">
         <f t="shared" si="0"/>
         <v>211053.95</v>
       </c>
-      <c r="G57" s="107" t="s">
+      <c r="H57" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H57" s="107"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107" t="str">
+      <c r="I57" s="96"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="96"/>
+      <c r="B58" s="96" t="str">
         <f>[2]Ricavi!J59</f>
         <v>PF A14</v>
       </c>
-      <c r="C58" s="107" t="str">
+      <c r="C58" s="96" t="str">
         <f>[2]Ricavi!K59</f>
         <v>PF</v>
       </c>
-      <c r="D58" s="107">
+      <c r="D58" s="96">
         <f>[2]Ricavi!L59</f>
         <v>131955</v>
       </c>
-      <c r="E58" s="107">
-        <f>[2]Ricavi!M59</f>
+      <c r="E58" s="96">
+        <f>Ricavi!M59</f>
         <v>1.9791817665113107</v>
       </c>
-      <c r="F58" s="107">
+      <c r="F58" s="96">
+        <f>Ricavi!O59</f>
+        <v>1.370090544124891</v>
+      </c>
+      <c r="G58" s="96">
         <f t="shared" si="0"/>
         <v>261162.93</v>
       </c>
-      <c r="G58" s="107" t="s">
+      <c r="H58" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H58" s="107"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107" t="str">
+      <c r="I58" s="96"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="96"/>
+      <c r="B59" s="96" t="str">
         <f>[2]Ricavi!J60</f>
         <v>PF A15</v>
       </c>
-      <c r="C59" s="107" t="str">
+      <c r="C59" s="96" t="str">
         <f>[2]Ricavi!K60</f>
         <v>PF</v>
       </c>
-      <c r="D59" s="107">
+      <c r="D59" s="96">
         <f>[2]Ricavi!L60</f>
         <v>375075</v>
       </c>
-      <c r="E59" s="107">
-        <f>[2]Ricavi!M60</f>
+      <c r="E59" s="96">
+        <f>Ricavi!M60</f>
         <v>1.7865580217289871</v>
       </c>
-      <c r="F59" s="107">
+      <c r="F59" s="96">
+        <f>Ricavi!O60</f>
+        <v>1.2283678686929282</v>
+      </c>
+      <c r="G59" s="96">
         <f t="shared" si="0"/>
         <v>670093.24999999988</v>
       </c>
-      <c r="G59" s="107" t="s">
+      <c r="H59" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H59" s="107"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107" t="str">
+      <c r="I59" s="96"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="96"/>
+      <c r="B60" s="96" t="str">
         <f>[2]Ricavi!J61</f>
         <v>PF A16</v>
       </c>
-      <c r="C60" s="107" t="str">
+      <c r="C60" s="96" t="str">
         <f>[2]Ricavi!K61</f>
         <v>PF</v>
       </c>
-      <c r="D60" s="107">
+      <c r="D60" s="96">
         <f>[2]Ricavi!L61</f>
         <v>151110</v>
       </c>
-      <c r="E60" s="107">
-        <f>[2]Ricavi!M61</f>
+      <c r="E60" s="96">
+        <f>Ricavi!M61</f>
         <v>1.6128909403745617</v>
       </c>
-      <c r="F60" s="107">
+      <c r="F60" s="96">
+        <f>Ricavi!O61</f>
+        <v>1.1950272698696316</v>
+      </c>
+      <c r="G60" s="96">
         <f t="shared" si="0"/>
         <v>243723.95</v>
       </c>
-      <c r="G60" s="107" t="s">
+      <c r="H60" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="107"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107" t="str">
+      <c r="I60" s="96"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="96"/>
+      <c r="B61" s="96" t="str">
         <f>[2]Ricavi!J62</f>
         <v>PF A17</v>
       </c>
-      <c r="C61" s="107" t="str">
+      <c r="C61" s="96" t="str">
         <f>[2]Ricavi!K62</f>
         <v>PF</v>
       </c>
-      <c r="D61" s="107">
+      <c r="D61" s="96">
         <f>[2]Ricavi!L62</f>
         <v>240225</v>
       </c>
-      <c r="E61" s="107">
-        <f>[2]Ricavi!M62</f>
+      <c r="E61" s="96">
+        <f>Ricavi!M62</f>
         <v>1.9365259652409199</v>
       </c>
-      <c r="F61" s="107">
+      <c r="F61" s="96">
+        <f>Ricavi!O62</f>
+        <v>1.4175060813820379</v>
+      </c>
+      <c r="G61" s="96">
         <f t="shared" si="0"/>
         <v>465201.95</v>
       </c>
-      <c r="G61" s="107" t="s">
+      <c r="H61" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H61" s="107"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107" t="str">
+      <c r="I61" s="96"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="96"/>
+      <c r="B62" s="96" t="str">
         <f>[2]Ricavi!J63</f>
         <v>PF A18</v>
       </c>
-      <c r="C62" s="107" t="str">
+      <c r="C62" s="96" t="str">
         <f>[2]Ricavi!K63</f>
         <v>PF</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="96">
         <f>[2]Ricavi!L63</f>
         <v>392880</v>
       </c>
-      <c r="E62" s="107">
-        <f>[2]Ricavi!M63</f>
+      <c r="E62" s="96">
+        <f>Ricavi!M63</f>
         <v>1.0338126145387905</v>
       </c>
-      <c r="F62" s="107">
+      <c r="F62" s="96">
+        <f>Ricavi!O63</f>
+        <v>0.5436791535583384</v>
+      </c>
+      <c r="G62" s="96">
         <f t="shared" si="0"/>
         <v>406164.3</v>
       </c>
-      <c r="G62" s="107" t="s">
+      <c r="H62" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H62" s="107"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107" t="str">
+      <c r="I62" s="96"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="96"/>
+      <c r="B63" s="96" t="str">
         <f>[2]Ricavi!J64</f>
         <v>PF A19</v>
       </c>
-      <c r="C63" s="107" t="str">
+      <c r="C63" s="96" t="str">
         <f>[2]Ricavi!K64</f>
         <v>PF</v>
       </c>
-      <c r="D63" s="107">
+      <c r="D63" s="96">
         <f>[2]Ricavi!L64</f>
         <v>1325620</v>
       </c>
-      <c r="E63" s="107">
-        <f>[2]Ricavi!M64</f>
+      <c r="E63" s="96">
+        <f>Ricavi!M64</f>
         <v>1.59928712602404</v>
       </c>
-      <c r="F63" s="107">
+      <c r="F63" s="96">
+        <f>Ricavi!O64</f>
+        <v>1.4112718684087449</v>
+      </c>
+      <c r="G63" s="96">
         <f t="shared" si="0"/>
         <v>2120046.9999999879</v>
       </c>
-      <c r="G63" s="107" t="s">
+      <c r="H63" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="107"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107" t="str">
+      <c r="I63" s="96"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="96"/>
+      <c r="B64" s="96" t="str">
         <f>[2]Ricavi!J65</f>
         <v>Spese trasporto</v>
       </c>
-      <c r="C64" s="107" t="str">
+      <c r="C64" s="96" t="str">
         <f>[2]Ricavi!K65</f>
         <v>Others</v>
       </c>
-      <c r="D64" s="107">
+      <c r="D64" s="96">
         <f>[2]Ricavi!L65</f>
         <v>25000</v>
       </c>
-      <c r="E64" s="107">
+      <c r="E64" s="96">
         <v>1</v>
       </c>
-      <c r="F64" s="107">
+      <c r="F64" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" s="96">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107" t="str">
+      <c r="H64" s="96"/>
+      <c r="I64" s="96" t="str">
         <f>"Riaccredito trasporti"</f>
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107" t="str">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="96"/>
+      <c r="B65" s="96" t="str">
         <f>[2]Ricavi!J66</f>
         <v>Premio Year22</v>
       </c>
-      <c r="C65" s="107" t="str">
+      <c r="C65" s="96" t="str">
         <f>[2]Ricavi!K66</f>
         <v>Others</v>
       </c>
-      <c r="D65" s="107">
+      <c r="D65" s="96">
         <f>[2]Ricavi!L66</f>
         <v>12</v>
       </c>
-      <c r="E65" s="107">
+      <c r="E65" s="96">
         <f>[2]Ricavi!M66</f>
         <v>18980.987499999999</v>
       </c>
-      <c r="F65" s="107">
+      <c r="F65" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" s="96">
         <f>-D65*E65</f>
         <v>-227771.84999999998</v>
       </c>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107" t="str">
+      <c r="H65" s="96"/>
+      <c r="I65" s="96" t="str">
         <f>"Premio clienti (ricavo negativo)"</f>
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="108" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="108">
-        <f>SUM(F3:F65)</f>
-        <v>57945067.876579978</v>
-      </c>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97">
+        <f>SUM(G3:G65)</f>
+        <v>71662692.985670894</v>
+      </c>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9439,41 +10070,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="2.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="104" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="106"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -9491,7 +10122,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -9506,7 +10137,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -9528,7 +10159,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -9548,7 +10179,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -9568,7 +10199,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -9588,7 +10219,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -9606,7 +10237,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -9626,7 +10257,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -9646,7 +10277,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -9667,7 +10298,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -9689,23 +10320,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -9714,95 +10345,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -9831,519 +10462,589 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="96">
         <f>3450000</f>
         <v>3450000</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="107">
+      <c r="C3" s="96">
         <v>0.41</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="107"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107" t="s">
+      <c r="H3" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="96">
         <f>1-C3</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107" t="s">
+      <c r="D4" s="96"/>
+      <c r="E4" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="107">
-        <f>SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$D:$D)</f>
+      <c r="F4" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$D:$D)</f>
         <v>14624683</v>
       </c>
-      <c r="G4" s="107">
+      <c r="G4" s="96">
         <f>F4/1000</f>
         <v>14624.683000000001</v>
       </c>
-      <c r="H4" s="107"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107" t="s">
+      <c r="H4" s="96">
+        <f>C23*G4</f>
+        <v>15630.861190400001</v>
+      </c>
+      <c r="I4">
+        <f>G4*(C26+C22*C27)</f>
+        <v>3512848.8566000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="96">
         <v>8997222.2200000007</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="107">
-        <f>SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$D:$D)</f>
+      <c r="F5" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$D:$D)</f>
         <v>6470002</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="96">
         <f t="shared" ref="G5:G6" si="0">F5/1000</f>
         <v>6470.0020000000004</v>
       </c>
-      <c r="H5" s="107"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107" t="s">
+      <c r="H5" s="96">
+        <f>C21*G5</f>
+        <v>4140.8012800000006</v>
+      </c>
+      <c r="I5">
+        <f>G5*C27</f>
+        <v>388200.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="96">
         <v>4300000</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="107">
-        <f>SUMIF(RicaviBudget!$G:$G,"A",RicaviBudget!$D:$CD)+SUMIF(RicaviBudget!$G:$G,"PCL",RicaviBudget!$D:$CD)</f>
+      <c r="F6" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$D:$CE)+SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$D:$CE)</f>
         <v>12975111.99</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="96">
         <f t="shared" si="0"/>
         <v>12975.111989999999</v>
       </c>
-      <c r="H6" s="107"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107" t="s">
+      <c r="H6" s="96">
+        <f>G6*C20</f>
+        <v>12066.854150700001</v>
+      </c>
+      <c r="I6">
+        <f>G6*C28</f>
+        <v>843382.27934999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="96">
         <f xml:space="preserve"> SUM(F4:F6)</f>
         <v>34069796.990000002</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="96">
         <f>G6+G5+G4</f>
         <v>34069.796990000003</v>
       </c>
-      <c r="H7" s="107"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107" t="s">
+      <c r="H7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="96">
         <f>C2*C3</f>
         <v>1414500</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="96" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="96">
         <f>C2*C4</f>
         <v>2035500.0000000002</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107" t="s">
-        <v>230</v>
-      </c>
-      <c r="G9" s="107">
-        <f>(G6*C20+G5*C21)*C18</f>
-        <v>8746.3670226224276</v>
-      </c>
-      <c r="H9" s="107" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="107">
-        <f xml:space="preserve"> ( G4*C24 + G5*C25 + G6*C26 + C27 ) * C17</f>
-        <v>1148100.4299337333</v>
-      </c>
-      <c r="H10" s="107" t="s">
+      <c r="G9" s="96">
+        <f>(H4+H5+H6)*C18</f>
+        <v>17181.470386921847</v>
+      </c>
+      <c r="H9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107" t="s">
+      <c r="G10" s="96">
+        <f xml:space="preserve"> ( I4+I5+I6 ) * C17</f>
+        <v>827945.29363206238</v>
+      </c>
+      <c r="H10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="96">
         <f>C8/C5</f>
         <v>0.15721518991224825</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="107">
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="96">
         <f>-'CE 21-22'!F15 *1.025</f>
         <v>153750</v>
       </c>
-      <c r="H11" s="107"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107" t="s">
+      <c r="H11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="96">
         <f>C9/C6</f>
         <v>0.47337209302325589</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="96">
+        <f>(G5+G6+G4*C22)*C32</f>
+        <v>449211.74630400003</v>
+      </c>
+      <c r="H12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="96">
+        <f>G7*C36</f>
+        <v>1471815.2299680002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="96">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="107">
-        <f>G7*C29</f>
-        <v>348874.72117760003</v>
-      </c>
-      <c r="H12" s="107"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="107">
-        <f>G7*C31+(1+C32)</f>
-        <v>1362792.9596000002</v>
-      </c>
-      <c r="H13" s="107"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="107">
-        <v>0.11</v>
-      </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="107">
-        <f>(SUMIF(RicaviBudget!$G:$G,"P",RicaviBudget!$F:$F)+SUMIF(RicaviBudget!$G:$G,"V",RicaviBudget!$F:$F))*C34</f>
-        <v>840816.26390000002</v>
-      </c>
-      <c r="H14" s="107"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107" t="s">
+      <c r="G14" s="96">
+        <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G))*C38</f>
+        <v>879865.94757272722</v>
+      </c>
+      <c r="H14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="107">
+      <c r="C15" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="107">
-        <f>C39*C40</f>
-        <v>1021429.7520134</v>
-      </c>
-      <c r="H15" s="107"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="96">
+        <f>C44*C45</f>
+        <v>963964.86258582491</v>
+      </c>
+      <c r="H15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="96">
         <f>C11*(1+C14)</f>
         <v>0.17450886080259559</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="108">
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="97">
         <f>SUM(G9:G15)</f>
-        <v>4884510.4936473556</v>
-      </c>
-      <c r="H17" s="107"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107" t="s">
+        <v>4763734.5504495371</v>
+      </c>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="96">
         <f>C12*(1+C15)</f>
         <v>0.53964418604651176</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="96">
+        <v>0.93</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="96">
+        <v>0.64</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22">
+        <v>1.67</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23">
+        <f>C22*0.64</f>
+        <v>1.0688</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="96">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="96"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="96">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="107">
-        <v>0.93</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107" t="s">
+      <c r="C27" s="96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="107">
-        <v>0.64</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="107">
-        <v>86</v>
-      </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="107">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="107">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="107">
+      <c r="C28" s="96">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="107">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="96">
+        <f>275000</f>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="96">
+        <f>C29*12</f>
         <v>3300000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="107"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="107" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="107">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="96">
         <v>10.24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="107">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="96">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="107">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="96">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="107">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36">
+        <f>C34*(1+C35)</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="96">
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="107" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="107">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="96">
         <f>G4*1.67*1.56</f>
         <v>38100.224151599999</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="107">
-        <f>G5+G6</f>
-        <v>19445.113989999998</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="107">
-        <f>C37+C36</f>
-        <v>57545.338141599997</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="107">
-        <f>C38*0.25</f>
-        <v>14386.334535399999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="96">
+        <f>G5*C21</f>
+        <v>4140.8012800000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42">
+        <f>G6*C20</f>
+        <v>12066.854150700001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="96">
+        <f>C41+C40+C42</f>
+        <v>54307.879582299996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="96">
+        <f>C43*0.25</f>
+        <v>13576.969895574999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45">
         <v>71</v>
       </c>
     </row>
@@ -10356,133 +11057,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -10501,165 +11202,165 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="107">
+        <v>239</v>
+      </c>
+      <c r="C3" s="96">
         <f>-'CE 21-22'!F22+50*12*100*1.4</f>
         <v>5594785.9100000001</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="107"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="96"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="107">
+        <v>240</v>
+      </c>
+      <c r="C5" s="96">
         <f>-'CE 21-22'!F23-150000</f>
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="107"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="96"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="107">
+        <v>241</v>
+      </c>
+      <c r="C7" s="96">
         <f>-'CE 21-22'!F24*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="107"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="96"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="107">
+        <v>242</v>
+      </c>
+      <c r="C9" s="96">
         <f>-'CE 21-22'!F25*1.025</f>
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="107"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="96"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="107">
+        <v>243</v>
+      </c>
+      <c r="C11" s="96">
         <f>-'CE 21-22'!F26*1.025</f>
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="107"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="96"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="107">
+        <v>244</v>
+      </c>
+      <c r="C13" s="96">
         <f>-'CE 21-22'!F27*1.025</f>
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="107"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="96"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="108">
+        <v>248</v>
+      </c>
+      <c r="C15" s="97">
         <f>SUM(C13+C11+C9+C7+C5+C3)</f>
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="107"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="107"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="96"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="96"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="107">
+        <v>245</v>
+      </c>
+      <c r="C18" s="96">
         <f>-'CE 21-22'!F29*1.025</f>
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="107"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="96"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="107">
+        <v>246</v>
+      </c>
+      <c r="C20" s="96">
         <f>-'CE 21-22'!F30*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="107"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="96"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="107">
+        <v>247</v>
+      </c>
+      <c r="C22" s="96">
         <f>-'CE 21-22'!F31*1.025</f>
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="107"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="96"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="93" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="108">
+        <v>249</v>
+      </c>
+      <c r="C24" s="97">
         <f>SUM(C18+C20+C22)</f>
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="107"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="107"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="96"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="96"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="108">
+        <v>250</v>
+      </c>
+      <c r="C27" s="97">
         <f>SUM(C24+C15)</f>
         <v>8599460.9100000001</v>
       </c>
@@ -10674,28 +11375,28 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -10703,13 +11404,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -10717,33 +11418,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -10754,67 +11455,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -10826,175 +11527,192 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="107">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="96">
         <f>-'CE 21-22'!F34</f>
         <v>200000</v>
       </c>
-      <c r="D3" s="107"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="107">
-        <f>-'CE 21-22'!F35</f>
-        <v>750000</v>
-      </c>
-      <c r="D5" s="107"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="107">
+      <c r="D3" s="96"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="96">
+        <f>-'CE 21-22'!F35 +C23*C24</f>
+        <v>796875</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="96">
         <v>0</v>
       </c>
-      <c r="D7" s="107"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="107">
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="96">
         <f>-'CE 21-22'!C39+(3000000*0.05*7/12)</f>
         <v>227633.03999999998</v>
       </c>
-      <c r="D9" s="107"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="107">
+      <c r="D9" s="96"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="96">
         <v>0</v>
       </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="107">
+      <c r="D11" s="96"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="96">
         <v>0</v>
       </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="107">
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="96">
         <v>0</v>
       </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="107">
+      <c r="D15" s="96"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="96">
         <v>0</v>
       </c>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="107">
-        <f>'CE Budget 2022'!C26*0.3</f>
-        <v>12985039.029879786</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>277</v>
+      <c r="D17" s="96"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="96">
+        <f>'CE Budget 2022'!C47*0.3</f>
+        <v>1553245.6783735091</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88223F-667D-4907-8948-78EC57749D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC6996-5F9A-4904-B75F-07C5A89121BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="302">
   <si>
     <t>MP1</t>
   </si>
@@ -1073,7 +1073,7 @@
     <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,6 +1282,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1761,7 +1769,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1970,6 +1978,13 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2003,17 +2018,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -3658,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3676,23 +3683,23 @@
   <sheetData>
     <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="E2" s="100" t="s">
+      <c r="C2" s="106"/>
+      <c r="E2" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="103" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="107" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
@@ -3700,11 +3707,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3805,7 +3812,7 @@
       <c r="L12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="98">
         <f xml:space="preserve"> 1.1</f>
         <v>1.1000000000000001</v>
       </c>
@@ -4375,88 +4382,134 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="101"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="C2" s="106"/>
+      <c r="E2" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="106"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="103" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
+      <c r="E3" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="104"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="104"/>
+      <c r="F4" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="101">
         <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$G:$G))</f>
         <v>69179261.631890893</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="101">
+        <v>61294659.022799999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="45">
         <f>SUMIF(RicaviBudget!$H:$H,"MP",RicaviBudget!$G:$G)</f>
         <v>196584.24189999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="45">
+        <v>528226.62545000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="45">
         <f>SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$G:$G)</f>
         <v>2489618.9618799998</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1877590.3519999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="89">
         <v>120000</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="89">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="89">
         <v>500000</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="89">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4464,28 +4517,46 @@
         <f>+SUM(C5:C9)</f>
         <v>72485464.835670888</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="48">
+        <v>64320476.000249997</v>
+      </c>
+      <c r="P10" s="102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="113" cm="1">
+      <c r="C11" s="45" cm="1">
         <f t="array" ref="C11">SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
         <v>52720275.740642987</v>
       </c>
-      <c r="F11" s="114" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="45">
+        <v>-49370805.517265007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="90">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4493,8 +4564,14 @@
         <f>+C11+C12</f>
         <v>52720275.740642987</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="48">
+        <v>-46870805.517265007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4502,8 +4579,14 @@
         <f>VariableCostsBudget!G9+VariableCostsBudget!G10</f>
         <v>845126.76401898428</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="45">
+        <v>-4152707.4956527753</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4511,8 +4594,14 @@
         <f>VariableCostsBudget!G11</f>
         <v>153750</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="45">
+        <v>-175000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4520,6 +4609,12 @@
         <f>VariableCostsBudget!G12</f>
         <v>449211.74630400003</v>
       </c>
+      <c r="E16" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="45">
+        <v>-519959.9495168</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
@@ -4529,6 +4624,12 @@
         <f>SUM(C14:C16)</f>
         <v>1448088.5103229843</v>
       </c>
+      <c r="E17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="48">
+        <v>-4847667.4451695755</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
@@ -4538,6 +4639,12 @@
         <f>VariableCostsBudget!G13</f>
         <v>1471815.2299680002</v>
       </c>
+      <c r="E18" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="45">
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
@@ -4547,6 +4654,12 @@
         <f>VariableCostsBudget!G14+VariableCostsBudget!G15</f>
         <v>1843830.8101585521</v>
       </c>
+      <c r="E19" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="45">
+        <v>-550000</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
@@ -4556,6 +4669,12 @@
         <f>SUM(C18:C19)</f>
         <v>3315646.0401265523</v>
       </c>
+      <c r="E20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="48">
+        <v>-1550000</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
@@ -4565,6 +4684,12 @@
         <f>+C10-C13-C17-C20</f>
         <v>15001454.544578364</v>
       </c>
+      <c r="E21" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="50">
+        <v>11052003.037815414</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
@@ -4574,7 +4699,12 @@
         <f>FixedCostsBudget!C3</f>
         <v>5594785.9100000001</v>
       </c>
-      <c r="G22" s="115"/>
+      <c r="E22" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="45">
+        <v>-5650000</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
@@ -4584,6 +4714,12 @@
         <f>FixedCostsBudget!C5</f>
         <v>1050000</v>
       </c>
+      <c r="E23" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="45">
+        <v>-1100000</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
@@ -4593,6 +4729,12 @@
         <f>FixedCostsBudget!C7</f>
         <v>307500</v>
       </c>
+      <c r="E24" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="45">
+        <v>-305000</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
@@ -4602,6 +4744,12 @@
         <f>FixedCostsBudget!C9</f>
         <v>151700</v>
       </c>
+      <c r="E25" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="45">
+        <v>-145000</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
@@ -4611,6 +4759,12 @@
         <f>FixedCostsBudget!C11</f>
         <v>309550</v>
       </c>
+      <c r="E26" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="45">
+        <v>-307000</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
@@ -4620,6 +4774,12 @@
         <f>FixedCostsBudget!C13</f>
         <v>212174.99999999997</v>
       </c>
+      <c r="E27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="45">
+        <v>-209500</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
@@ -4629,6 +4789,12 @@
         <f>SUM(C22:C27)</f>
         <v>7625710.9100000001</v>
       </c>
+      <c r="E28" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="114">
+        <v>-7716500</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
@@ -4638,6 +4804,13 @@
         <f>FixedCostsBudget!C18</f>
         <v>563750</v>
       </c>
+      <c r="E29" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="45">
+        <v>-556000</v>
+      </c>
+      <c r="G29" s="102"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
@@ -4647,6 +4820,12 @@
         <f>FixedCostsBudget!C20</f>
         <v>307500</v>
       </c>
+      <c r="E30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="45">
+        <v>-297000</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
@@ -4656,6 +4835,12 @@
         <f>FixedCostsBudget!C22</f>
         <v>102499.99999999999</v>
       </c>
+      <c r="E31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="45">
+        <v>-98000</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
@@ -4665,8 +4850,14 @@
         <f>SUM(C29:C31)</f>
         <v>973750</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="48">
+        <v>-951000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4674,8 +4865,14 @@
         <f>+C21-C28-C32</f>
         <v>6401993.634578364</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E33" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="52">
+        <v>2384503.0378154144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4683,8 +4880,14 @@
         <f>OthersBudget!C3</f>
         <v>200000</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E34" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="45">
+        <v>-190000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4692,8 +4895,14 @@
         <f>OthersBudget!C5</f>
         <v>796875</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E35" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="45">
+        <v>-810000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4701,8 +4910,14 @@
         <f>OthersBudget!C7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="45">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4710,8 +4925,14 @@
         <f>SUM(C34:C36)</f>
         <v>996875</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="48">
+        <v>-1025000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4719,8 +4940,14 @@
         <f>+C33-C37</f>
         <v>5405118.634578364</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E38" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="50">
+        <v>1359503.0378154144</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4728,8 +4955,14 @@
         <f>-OthersBudget!C9</f>
         <v>-227633.03999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E39" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="45">
+        <v>-140133.03999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4737,8 +4970,14 @@
         <f>OthersBudget!C11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="45">
+        <v>3543.6200000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4746,8 +4985,14 @@
         <f>SUM(C39:C40)</f>
         <v>-227633.03999999998</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="48">
+        <v>-136589.41999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4755,8 +5000,14 @@
         <f>+C38+C41</f>
         <v>5177485.5945783639</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E42" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="50">
+        <v>1222913.6178154144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4764,8 +5015,14 @@
         <f>-OthersBudget!C13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E43" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="45">
+        <v>-130503.97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4773,8 +5030,14 @@
         <f>OthersBudget!C15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E44" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4782,8 +5045,14 @@
         <f>OthersBudget!C17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4791,8 +5060,14 @@
         <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="48">
+        <v>-130503.97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4800,8 +5075,14 @@
         <f>+C46+C42</f>
         <v>5177485.5945783639</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="50">
+        <v>1092409.6478154145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4809,8 +5090,14 @@
         <f>OthersBudget!C19</f>
         <v>1553245.6783735091</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="45">
+        <v>-327722.8943446154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4818,11 +5105,19 @@
         <f>C47-C48</f>
         <v>3624239.9162048548</v>
       </c>
+      <c r="E49" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="50">
+        <v>764686.75347079907</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4858,24 +5153,24 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="105"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
@@ -4957,7 +5252,7 @@
         <v>0.93</v>
       </c>
       <c r="N4" s="66"/>
-      <c r="O4" s="111">
+      <c r="O4" s="100">
         <f>P4*'CE 21-22'!$M$12*$S$6</f>
         <v>4.6546500000000005E-2</v>
       </c>
@@ -5004,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="38"/>
-      <c r="O5" s="111">
+      <c r="O5" s="100">
         <f>P5*'CE 21-22'!$M$12*$S$6</f>
         <v>0.20020000000000002</v>
       </c>
@@ -5054,7 +5349,7 @@
         <v>2.4</v>
       </c>
       <c r="N6" s="38"/>
-      <c r="O6" s="111">
+      <c r="O6" s="100">
         <f>P6*'CE 21-22'!$M$12*$S$6</f>
         <v>0.12012</v>
       </c>
@@ -5105,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="38"/>
-      <c r="O7" s="111">
+      <c r="O7" s="100">
         <f>P7*'CE 21-22'!$M$12*$S$6</f>
         <v>0.20020000000000002</v>
       </c>
@@ -5152,7 +5447,7 @@
         <v>2.9058441558441559</v>
       </c>
       <c r="N8" s="38"/>
-      <c r="O8" s="111">
+      <c r="O8" s="100">
         <f>P8*'CE 21-22'!$M$12*$S$6</f>
         <v>0.1454375</v>
       </c>
@@ -5199,7 +5494,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="N9" s="38"/>
-      <c r="O9" s="111">
+      <c r="O9" s="100">
         <f>P9*'CE 21-22'!$M$12*$S$6</f>
         <v>0.22022000000000003</v>
       </c>
@@ -5246,7 +5541,7 @@
         <v>4.62</v>
       </c>
       <c r="N10" s="38"/>
-      <c r="O10" s="111">
+      <c r="O10" s="100">
         <f>P10*'CE 21-22'!$M$12*$S$6</f>
         <v>0.23123100000000002</v>
       </c>
@@ -5293,7 +5588,7 @@
         <v>2.65</v>
       </c>
       <c r="N11" s="38"/>
-      <c r="O11" s="111">
+      <c r="O11" s="100">
         <f>P11*'CE 21-22'!$M$12*$S$6</f>
         <v>0.13263249999999999</v>
       </c>
@@ -5967,7 +6262,7 @@
       <c r="L27" s="37">
         <v>205850</v>
       </c>
-      <c r="M27" s="110">
+      <c r="M27" s="99">
         <f>N27*'CE 21-22'!$M$13</f>
         <v>2.8595490979751363</v>
       </c>
@@ -6012,7 +6307,7 @@
       <c r="L28" s="37">
         <v>3233156</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="99">
         <f>N28*'CE 21-22'!$M$13</f>
         <v>2.9372024058901522</v>
       </c>
@@ -6516,7 +6811,7 @@
       <c r="L40" s="37">
         <v>307868</v>
       </c>
-      <c r="M40" s="110">
+      <c r="M40" s="99">
         <f>N40*'CE 21-22'!$M$13</f>
         <v>0.96161979691414379</v>
       </c>
@@ -6561,7 +6856,7 @@
       <c r="L41" s="37">
         <v>7000</v>
       </c>
-      <c r="M41" s="110">
+      <c r="M41" s="99">
         <f>N41*'CE 21-22'!$M$13</f>
         <v>1.2623376623376623</v>
       </c>
@@ -6605,7 +6900,7 @@
       <c r="L42" s="37">
         <v>850145</v>
       </c>
-      <c r="M42" s="110">
+      <c r="M42" s="99">
         <f>N42*'CE 21-22'!$M$13</f>
         <v>1.155471745728937</v>
       </c>
@@ -6650,7 +6945,7 @@
       <c r="L43" s="37">
         <v>40480</v>
       </c>
-      <c r="M43" s="110">
+      <c r="M43" s="99">
         <f>N43*'CE 21-22'!$M$13</f>
         <v>1.1559849982033774</v>
       </c>
@@ -6905,7 +7200,7 @@
       <c r="L49" s="37">
         <v>1362839</v>
       </c>
-      <c r="M49" s="110">
+      <c r="M49" s="99">
         <f>N49*'CE 21-22'!$M$13</f>
         <v>1.5140679259852543</v>
       </c>
@@ -6950,7 +7245,7 @@
       <c r="L50" s="37">
         <v>96425</v>
       </c>
-      <c r="M50" s="110">
+      <c r="M50" s="99">
         <f>N50*'CE 21-22'!$M$13</f>
         <v>1.4414585051971622</v>
       </c>
@@ -6995,7 +7290,7 @@
       <c r="L51" s="37">
         <v>61100</v>
       </c>
-      <c r="M51" s="110">
+      <c r="M51" s="99">
         <f>N51*'CE 21-22'!$M$13</f>
         <v>1.5733021871745274</v>
       </c>
@@ -10087,22 +10382,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC6996-5F9A-4904-B75F-07C5A89121BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B605F-168B-4F79-B6AA-704F771CE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -1985,6 +1985,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="30" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,9 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3669,49 +3669,49 @@
       <selection activeCell="B2" sqref="B2:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="105" t="s">
+    <row r="1" spans="2:14" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="106"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="F2" s="107"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="104" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="108" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="105"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4310,59 +4310,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4384,39 +4384,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="106"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="F2" s="107"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="104" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="104" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4426,17 +4426,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
+    <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="105"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>297</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>298</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4646,13 +4646,13 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="45">
         <f>VariableCostsBudget!G14+VariableCostsBudget!G15</f>
-        <v>1843830.8101585521</v>
+        <v>1444999.6175972521</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>79</v>
@@ -4661,13 +4661,13 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="48">
         <f>SUM(C18:C19)</f>
-        <v>3315646.0401265523</v>
+        <v>2916814.8475652523</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>80</v>
@@ -4676,13 +4676,13 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="50">
         <f>+C10-C13-C17-C20</f>
-        <v>15001454.544578364</v>
+        <v>15400285.737139665</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>81</v>
@@ -4691,7 +4691,7 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4792,11 +4792,11 @@
       <c r="E28" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="114">
+      <c r="F28" s="103">
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4857,13 +4857,13 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="52">
         <f>+C21-C28-C32</f>
-        <v>6401993.634578364</v>
+        <v>6800824.8271396644</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>93</v>
@@ -4872,7 +4872,7 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4932,13 +4932,13 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="50">
         <f>+C33-C37</f>
-        <v>5405118.634578364</v>
+        <v>5803949.8271396644</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>98</v>
@@ -4947,7 +4947,7 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4992,13 +4992,13 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="50">
         <f>+C38+C41</f>
-        <v>5177485.5945783639</v>
+        <v>5576316.7871396644</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>102</v>
@@ -5007,7 +5007,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5067,13 +5067,13 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="50">
         <f>+C46+C42</f>
-        <v>5177485.5945783639</v>
+        <v>5576316.7871396644</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>107</v>
@@ -5082,13 +5082,13 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="45">
         <f>OthersBudget!C19</f>
-        <v>1553245.6783735091</v>
+        <v>1672895.0361418992</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>108</v>
@@ -5097,13 +5097,13 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="50">
         <f>C47-C48</f>
-        <v>3624239.9162048548</v>
+        <v>3903421.750997765</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>109</v>
@@ -5131,48 +5131,48 @@
       <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="108" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -5642,7 +5642,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -6404,7 +6404,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -7387,7 +7387,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -7513,7 +7513,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -7639,7 +7639,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -7681,7 +7681,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -7723,7 +7723,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -7849,7 +7849,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -7929,7 +7929,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -8214,7 +8214,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -8276,24 +8276,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -8310,23 +8310,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -8337,7 +8337,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -8364,7 +8364,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>[2]Ricavi!J4</f>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>[2]Ricavi!J5</f>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>[2]Ricavi!J6</f>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>[2]Ricavi!J7</f>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>[2]Ricavi!J8</f>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>[2]Ricavi!J9</f>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>[2]Ricavi!J10</f>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>[2]Ricavi!J11</f>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>[2]Ricavi!J12</f>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>[2]Ricavi!J13</f>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>[2]Ricavi!J14</f>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>[2]Ricavi!J15</f>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>[2]Ricavi!J16</f>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>[2]Ricavi!J17</f>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>[2]Ricavi!J18</f>
@@ -8830,7 +8830,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>[2]Ricavi!J19</f>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>[2]Ricavi!J20</f>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>[2]Ricavi!J21</f>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>[2]Ricavi!J22</f>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>[2]Ricavi!J23</f>
@@ -8987,7 +8987,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>[2]Ricavi!J24</f>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>[2]Ricavi!J25</f>
@@ -9050,7 +9050,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>[2]Ricavi!J26</f>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>[2]Ricavi!J27</f>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>[2]Ricavi!J28</f>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>[2]Ricavi!J29</f>
@@ -9175,7 +9175,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>[2]Ricavi!J30</f>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>[2]Ricavi!J31</f>
@@ -9241,7 +9241,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>[2]Ricavi!J32</f>
@@ -9273,7 +9273,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>[2]Ricavi!J33</f>
@@ -9305,7 +9305,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>[2]Ricavi!J34</f>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>[2]Ricavi!J35</f>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>[2]Ricavi!J36</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>[2]Ricavi!J37</f>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>[2]Ricavi!J38</f>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>[2]Ricavi!J39</f>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>[2]Ricavi!J40</f>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>[2]Ricavi!J41</f>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>[2]Ricavi!J42</f>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>[2]Ricavi!J43</f>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>[2]Ricavi!J44</f>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>[2]Ricavi!J45</f>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>[2]Ricavi!J46</f>
@@ -9710,7 +9710,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>[2]Ricavi!J47</f>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>[2]Ricavi!J48</f>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>[2]Ricavi!J49</f>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>[2]Ricavi!J50</f>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>[2]Ricavi!J51</f>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>[2]Ricavi!J52</f>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>[2]Ricavi!J53</f>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>[2]Ricavi!J54</f>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>[2]Ricavi!J55</f>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="I54" s="96"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>[2]Ricavi!J56</f>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="I55" s="96"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>[2]Ricavi!J57</f>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="I56" s="96"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>[2]Ricavi!J58</f>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="I57" s="96"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>[2]Ricavi!J59</f>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="I58" s="96"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>[2]Ricavi!J60</f>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="I59" s="96"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>[2]Ricavi!J61</f>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>[2]Ricavi!J62</f>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>[2]Ricavi!J63</f>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>[2]Ricavi!J64</f>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>[2]Ricavi!J65</f>
@@ -10298,7 +10298,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>[2]Ricavi!J66</f>
@@ -10329,7 +10329,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -10340,7 +10340,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -10369,37 +10369,37 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -10417,7 +10417,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -10432,7 +10432,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -10532,7 +10532,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -10615,23 +10615,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -10640,95 +10640,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -10760,20 +10760,20 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -10783,7 +10783,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>215</v>
@@ -10798,7 +10798,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>216</v>
@@ -10823,7 +10823,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>217</v>
@@ -10853,7 +10853,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>218</v>
@@ -10882,7 +10882,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>219</v>
@@ -10911,7 +10911,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>220</v>
@@ -10950,7 +10950,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>221</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>222</v>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>223</v>
@@ -11027,7 +11027,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -11044,7 +11044,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>224</v>
@@ -11065,7 +11065,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>225</v>
@@ -11080,11 +11080,11 @@
       </c>
       <c r="G15" s="96">
         <f>C44*C45</f>
-        <v>963964.86258582491</v>
+        <v>565133.67002452502</v>
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -11094,7 +11094,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>226</v>
@@ -11110,11 +11110,11 @@
       </c>
       <c r="G17" s="97">
         <f>SUM(G9:G15)</f>
-        <v>4763734.5504495371</v>
+        <v>4364903.3578882366</v>
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>227</v>
@@ -11129,7 +11129,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -11139,7 +11139,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>251</v>
@@ -11153,7 +11153,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>252</v>
@@ -11167,7 +11167,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>278</v>
@@ -11181,7 +11181,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>280</v>
@@ -11196,7 +11196,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="96" t="s">
         <v>253</v>
       </c>
@@ -11204,10 +11204,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="96" t="s">
         <v>279</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="96" t="s">
         <v>254</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="96" t="s">
         <v>255</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="96" t="s">
         <v>268</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="96" t="s">
         <v>269</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="96" t="s">
         <v>270</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>271</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>272</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="96" t="s">
         <v>273</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>274</v>
       </c>
@@ -11290,16 +11290,16 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="96" t="s">
         <v>235</v>
       </c>
       <c r="C40" s="96">
-        <f>G4*1.67*1.56</f>
-        <v>38100.224151599999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+        <f>G4*C23</f>
+        <v>15630.861190400001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="96" t="s">
         <v>277</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>4140.8012800000006</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="96" t="s">
         <v>276</v>
       </c>
@@ -11317,25 +11317,25 @@
         <v>12066.854150700001</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="96" t="s">
         <v>236</v>
       </c>
       <c r="C43" s="96">
         <f>C41+C40+C42</f>
-        <v>54307.879582299996</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+        <v>31838.516621100003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="96" t="s">
         <v>237</v>
       </c>
       <c r="C44" s="96">
         <f>C43*0.25</f>
-        <v>13576.969895574999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+        <v>7959.6291552750008</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="96" t="s">
         <v>256</v>
       </c>
@@ -11356,129 +11356,129 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -11497,20 +11497,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>239</v>
       </c>
@@ -11522,10 +11522,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>240</v>
       </c>
@@ -11534,10 +11534,10 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>241</v>
       </c>
@@ -11546,10 +11546,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>242</v>
       </c>
@@ -11558,10 +11558,10 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>243</v>
       </c>
@@ -11570,10 +11570,10 @@
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>244</v>
       </c>
@@ -11582,10 +11582,10 @@
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="93" t="s">
         <v>248</v>
       </c>
@@ -11594,13 +11594,13 @@
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>245</v>
       </c>
@@ -11609,10 +11609,10 @@
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="94" t="s">
         <v>246</v>
       </c>
@@ -11621,10 +11621,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>247</v>
       </c>
@@ -11633,10 +11633,10 @@
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="93" t="s">
         <v>249</v>
       </c>
@@ -11645,13 +11645,13 @@
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="93" t="s">
         <v>250</v>
       </c>
@@ -11673,25 +11673,25 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -11699,13 +11699,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -11713,33 +11713,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -11750,67 +11750,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -11824,25 +11824,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -11850,7 +11850,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>258</v>
@@ -11861,13 +11861,13 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>259</v>
@@ -11878,13 +11878,13 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
         <v>260</v>
@@ -11894,13 +11894,13 @@
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>261</v>
@@ -11911,13 +11911,13 @@
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>262</v>
@@ -11927,13 +11927,13 @@
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
         <v>263</v>
@@ -11943,13 +11943,13 @@
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>264</v>
@@ -11959,13 +11959,13 @@
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>265</v>
@@ -11975,26 +11975,26 @@
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
         <v>266</v>
       </c>
       <c r="C19" s="96">
         <f>'CE Budget 2022'!C47*0.3</f>
-        <v>1553245.6783735091</v>
+        <v>1672895.0361418992</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>286</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>287</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\script-analisi-scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B605F-168B-4F79-B6AA-704F771CE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A9D12-2D66-45F7-9F24-73B69E81CFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="303">
   <si>
     <t>MP1</t>
   </si>
@@ -768,12 +768,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Polveri P, comsumi energia/metano diversi</t>
-  </si>
-  <si>
-    <t>Polveri V, comsumi medi diversi</t>
-  </si>
-  <si>
     <t>Polveri A, consumi diversi dai primi due</t>
   </si>
   <si>
@@ -900,12 +894,6 @@
     <t>TOTALE BUDGET COSTI FISSI</t>
   </si>
   <si>
-    <t>cons smc per ton A</t>
-  </si>
-  <si>
-    <t>cons smc per ton V</t>
-  </si>
-  <si>
     <t>smc per ton vapore</t>
   </si>
   <si>
@@ -990,21 +978,6 @@
     <t>cons smc per ton P (comprese le v)</t>
   </si>
   <si>
-    <t>Metano usato</t>
-  </si>
-  <si>
-    <t>Energia elettrica usata</t>
-  </si>
-  <si>
-    <t>la formula era sbagliata</t>
-  </si>
-  <si>
-    <t>la formula era sbagliata, andavano contate solo le emulsioni</t>
-  </si>
-  <si>
-    <t>la formula era sbagliata, contava acnhe le V</t>
-  </si>
-  <si>
     <t>nuovo investimento</t>
   </si>
   <si>
@@ -1051,13 +1024,43 @@
   </si>
   <si>
     <t>ora vanno fatti mix un po alla volta per capire da dove slatano fuori i delta</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>Polveri P, consumi energia/metano diversi</t>
+  </si>
+  <si>
+    <t>Polveri V, consumi medi diversi</t>
+  </si>
+  <si>
+    <t>Ricavi delle vendite di prodotti finiti</t>
+  </si>
+  <si>
+    <t>Ricavi delle vendite di materie prime</t>
+  </si>
+  <si>
+    <t>Ricavi conto lavorazione</t>
+  </si>
+  <si>
+    <t>cons vap per ton A</t>
+  </si>
+  <si>
+    <t>cons vap per ton V</t>
+  </si>
+  <si>
+    <t>Metano usato (smc)</t>
+  </si>
+  <si>
+    <t>Energia elettrica usata (kWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="16">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1072,8 +1075,10 @@
     <numFmt numFmtId="173" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,8 +1296,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,6 +1381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1788,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2021,6 +2040,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2066,7 +2090,7 @@
       <sheetName val="Foglio1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="U2">
             <v>10</v>
@@ -3665,24 +3689,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="106" t="s">
         <v>139</v>
       </c>
@@ -3692,7 +3716,7 @@
       </c>
       <c r="F2" s="107"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="104" t="s">
         <v>169</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="105"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
@@ -3719,7 +3743,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3729,7 +3753,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -3739,7 +3763,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -3749,7 +3773,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -3759,7 +3783,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -3769,7 +3793,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -3781,7 +3805,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -3791,10 +3815,10 @@
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
       <c r="J11" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -3807,20 +3831,20 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M12" s="98">
-        <f xml:space="preserve"> 1.1</f>
-        <v>1.1000000000000001</v>
+        <f xml:space="preserve"> 1.17</f>
+        <v>1.17</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -3834,20 +3858,20 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M13" s="1">
         <f>J13/M12</f>
-        <v>0.90909090909090906</v>
+        <v>0.85470085470085477</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -3863,10 +3887,10 @@
       </c>
       <c r="G14" s="2"/>
       <c r="M14" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -3881,7 +3905,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3896,7 +3920,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3912,7 +3936,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -3926,7 +3950,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -3940,7 +3964,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -3956,7 +3980,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -3967,7 +3991,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -3981,7 +4005,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -3995,7 +4019,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4009,7 +4033,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4023,7 +4047,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4037,7 +4061,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4051,7 +4075,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4067,7 +4091,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4081,7 +4105,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4095,7 +4119,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4133,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4125,7 +4149,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4136,7 +4160,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4150,7 +4174,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4164,7 +4188,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4178,7 +4202,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4194,7 +4218,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4204,7 +4228,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4213,7 +4237,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4222,7 +4246,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4234,7 +4258,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4244,7 +4268,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4253,7 +4277,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4262,7 +4286,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4271,7 +4295,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4281,7 +4305,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4291,7 +4315,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4300,7 +4324,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4310,59 +4334,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4384,22 +4408,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B2" s="106" t="s">
         <v>139</v>
       </c>
@@ -4409,9 +4433,9 @@
       </c>
       <c r="F2" s="107"/>
     </row>
-    <row r="3" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="104" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
@@ -4423,10 +4447,10 @@
         <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="105"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
@@ -4436,13 +4460,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="101">
         <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$G:$G))</f>
-        <v>69179261.631890893</v>
+        <v>68358549.01852648</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>67</v>
@@ -4451,37 +4475,37 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C6" s="45">
         <f>SUMIF(RicaviBudget!$H:$H,"MP",RicaviBudget!$G:$G)</f>
         <v>196584.24189999999</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F6" s="45">
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C7" s="45">
         <f>SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$G:$G)</f>
         <v>2489618.9618799998</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F7" s="45">
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4495,7 +4519,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4509,13 +4533,13 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="48">
         <f>+SUM(C5:C9)</f>
-        <v>72485464.835670888</v>
+        <v>71664752.222306475</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>70</v>
@@ -4524,16 +4548,16 @@
         <v>64320476.000249997</v>
       </c>
       <c r="P10" s="102" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="45" cm="1">
         <f t="array" ref="C11">SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
-        <v>52720275.740642987</v>
+        <v>52760560.896493942</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>71</v>
@@ -4542,7 +4566,7 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4556,13 +4580,13 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="48">
         <f>+C11+C12</f>
-        <v>52720275.740642987</v>
+        <v>52760560.896493942</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>73</v>
@@ -4571,13 +4595,13 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="45">
         <f>VariableCostsBudget!G9+VariableCostsBudget!G10</f>
-        <v>845126.76401898428</v>
+        <v>845120.63826266082</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>74</v>
@@ -4586,7 +4610,7 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4601,7 +4625,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4616,13 +4640,13 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="48">
         <f>SUM(C14:C16)</f>
-        <v>1448088.5103229843</v>
+        <v>1448082.384566661</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>77</v>
@@ -4631,7 +4655,7 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4646,13 +4670,13 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="45">
         <f>VariableCostsBudget!G14+VariableCostsBudget!G15</f>
-        <v>1444999.6175972521</v>
+        <v>1432730.5217157288</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>79</v>
@@ -4661,13 +4685,13 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="48">
         <f>SUM(C18:C19)</f>
-        <v>2916814.8475652523</v>
+        <v>2904545.7516837288</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>80</v>
@@ -4676,13 +4700,13 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="50">
         <f>+C10-C13-C17-C20</f>
-        <v>15400285.737139665</v>
+        <v>14551563.189562144</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>81</v>
@@ -4691,7 +4715,7 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4706,7 +4730,7 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4721,7 +4745,7 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4736,7 +4760,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4751,7 +4775,7 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4766,7 +4790,7 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4781,7 +4805,7 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4796,7 +4820,7 @@
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4812,7 +4836,7 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4827,7 +4851,7 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4842,7 +4866,7 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4857,13 +4881,13 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="52">
         <f>+C21-C28-C32</f>
-        <v>6800824.8271396644</v>
+        <v>5952102.2795621436</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>93</v>
@@ -4872,7 +4896,7 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4887,7 +4911,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4902,7 +4926,7 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4917,7 +4941,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4932,13 +4956,13 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="50">
         <f>+C33-C37</f>
-        <v>5803949.8271396644</v>
+        <v>4955227.2795621436</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>98</v>
@@ -4947,7 +4971,7 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4962,7 +4986,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4977,7 +5001,7 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4992,13 +5016,13 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="50">
         <f>+C38+C41</f>
-        <v>5576316.7871396644</v>
+        <v>4727594.2395621436</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>102</v>
@@ -5007,7 +5031,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5022,7 +5046,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5037,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5052,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5067,13 +5091,13 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="50">
         <f>+C46+C42</f>
-        <v>5576316.7871396644</v>
+        <v>4727594.2395621436</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>107</v>
@@ -5082,13 +5106,13 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="45">
         <f>OthersBudget!C19</f>
-        <v>1672895.0361418992</v>
+        <v>1418278.2718686431</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>108</v>
@@ -5097,13 +5121,13 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="50">
         <f>C47-C48</f>
-        <v>3903421.750997765</v>
+        <v>3309315.9676935002</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>109</v>
@@ -5120,6 +5144,7 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5127,32 +5152,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="1"/>
+    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="109" t="s">
         <v>162</v>
       </c>
@@ -5171,8 +5198,9 @@
       <c r="O2" s="110"/>
       <c r="P2" s="110"/>
       <c r="Q2" s="111"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="88"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -5213,7 +5241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -5253,8 +5281,8 @@
       </c>
       <c r="N4" s="66"/>
       <c r="O4" s="100">
-        <f>P4*'CE 21-22'!$M$12*$S$6</f>
-        <v>4.6546500000000005E-2</v>
+        <f>P4*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>0.59257692307692311</v>
       </c>
       <c r="P4" s="67">
         <v>0.65100000000000002</v>
@@ -5263,7 +5291,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -5300,8 +5328,8 @@
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="100">
-        <f>P5*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.20020000000000002</v>
+        <f>P5*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>2.5487179487179485</v>
       </c>
       <c r="P5" s="61">
         <v>2.8</v>
@@ -5309,11 +5337,8 @@
       <c r="Q5" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -5350,8 +5375,8 @@
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="100">
-        <f>P6*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.12012</v>
+        <f>P6*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>1.5292307692307692</v>
       </c>
       <c r="P6" s="61">
         <v>1.68</v>
@@ -5359,12 +5384,8 @@
       <c r="Q6" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="S6" s="1">
-        <f>6.5*0.01</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -5401,8 +5422,8 @@
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="100">
-        <f>P7*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.20020000000000002</v>
+        <f>P7*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>2.5487179487179485</v>
       </c>
       <c r="P7" s="61">
         <v>2.8</v>
@@ -5411,7 +5432,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -5448,8 +5469,8 @@
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="100">
-        <f>P8*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.1454375</v>
+        <f>P8*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>1.8515442890442888</v>
       </c>
       <c r="P8" s="61">
         <v>2.0340909090909087</v>
@@ -5458,7 +5479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5495,8 +5516,8 @@
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="100">
-        <f>P9*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.22022000000000003</v>
+        <f>P9*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>2.8035897435897441</v>
       </c>
       <c r="P9" s="61">
         <v>3.08</v>
@@ -5505,7 +5526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -5542,8 +5563,8 @@
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="100">
-        <f>P10*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.23123100000000002</v>
+        <f>P10*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>2.9437692307692309</v>
       </c>
       <c r="P10" s="61">
         <v>3.234</v>
@@ -5552,7 +5573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -5589,8 +5610,8 @@
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="100">
-        <f>P11*'CE 21-22'!$M$12*$S$6</f>
-        <v>0.13263249999999999</v>
+        <f>P11*'CE 21-22'!$M$13*(1+$M$70)</f>
+        <v>1.6885256410256408</v>
       </c>
       <c r="P11" s="61">
         <v>1.8549999999999998</v>
@@ -5599,7 +5620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -5642,7 +5663,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5684,7 +5705,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -5726,7 +5747,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5789,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5831,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -5852,7 +5873,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -5894,7 +5915,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -5936,7 +5957,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5978,7 +5999,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -6020,7 +6041,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -6062,7 +6083,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -6104,7 +6125,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -6146,7 +6167,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -6188,7 +6209,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -6230,7 +6251,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -6264,7 +6285,7 @@
       </c>
       <c r="M27" s="99">
         <f>N27*'CE 21-22'!$M$13</f>
-        <v>2.8595490979751363</v>
+        <v>2.6884649639082481</v>
       </c>
       <c r="N27" s="38">
         <v>3.1455040077726499</v>
@@ -6275,7 +6296,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -6309,7 +6330,7 @@
       </c>
       <c r="M28" s="99">
         <f>N28*'CE 21-22'!$M$13</f>
-        <v>2.9372024058901522</v>
+        <v>2.761472347418092</v>
       </c>
       <c r="N28" s="38">
         <v>3.2309226464791676</v>
@@ -6320,7 +6341,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6362,7 +6383,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -6404,7 +6425,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -6446,7 +6467,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -6488,7 +6509,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -6530,7 +6551,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -6571,7 +6592,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +6634,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6655,7 +6676,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6696,7 +6717,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6738,7 +6759,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6779,7 +6800,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -6813,7 +6834,7 @@
       </c>
       <c r="M40" s="99">
         <f>N40*'CE 21-22'!$M$13</f>
-        <v>0.96161979691414379</v>
+        <v>0.90408698855175917</v>
       </c>
       <c r="N40" s="38">
         <v>1.0577817766055582</v>
@@ -6824,7 +6845,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -6858,7 +6879,7 @@
       </c>
       <c r="M41" s="99">
         <f>N41*'CE 21-22'!$M$13</f>
-        <v>1.2623376623376623</v>
+        <v>1.1868131868131868</v>
       </c>
       <c r="N41" s="38">
         <v>1.3885714285714286</v>
@@ -6869,7 +6890,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -6902,7 +6923,7 @@
       </c>
       <c r="M42" s="99">
         <f>N42*'CE 21-22'!$M$13</f>
-        <v>1.155471745728937</v>
+        <v>1.0863409575229324</v>
       </c>
       <c r="N42" s="38">
         <v>1.2710189203018307</v>
@@ -6913,7 +6934,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -6947,7 +6968,7 @@
       </c>
       <c r="M43" s="99">
         <f>N43*'CE 21-22'!$M$13</f>
-        <v>1.1559849982033774</v>
+        <v>1.0868235025843722</v>
       </c>
       <c r="N43" s="38">
         <v>1.2715834980237153</v>
@@ -6958,7 +6979,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -7000,7 +7021,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -7042,7 +7063,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -7084,7 +7105,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -7126,7 +7147,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -7168,7 +7189,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -7202,7 +7223,7 @@
       </c>
       <c r="M49" s="99">
         <f>N49*'CE 21-22'!$M$13</f>
-        <v>1.5140679259852543</v>
+        <v>1.423482665456222</v>
       </c>
       <c r="N49" s="38">
         <v>1.6654747185837797</v>
@@ -7213,7 +7234,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -7247,7 +7268,7 @@
       </c>
       <c r="M50" s="99">
         <f>N50*'CE 21-22'!$M$13</f>
-        <v>1.4414585051971622</v>
+        <v>1.3552173980486142</v>
       </c>
       <c r="N50" s="38">
         <v>1.5856043557168784</v>
@@ -7258,7 +7279,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -7292,7 +7313,7 @@
       </c>
       <c r="M51" s="99">
         <f>N51*'CE 21-22'!$M$13</f>
-        <v>1.5733021871745274</v>
+        <v>1.479172996488872</v>
       </c>
       <c r="N51" s="38">
         <v>1.7306324058919802</v>
@@ -7303,7 +7324,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -7345,7 +7366,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -7387,7 +7408,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -7429,7 +7450,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -7471,7 +7492,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -7513,7 +7534,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -7555,7 +7576,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -7597,7 +7618,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -7639,7 +7660,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -7681,7 +7702,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -7723,7 +7744,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -7765,7 +7786,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7828,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -7849,7 +7870,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -7889,7 +7910,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -7929,7 +7950,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -7955,7 +7976,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -7981,7 +8002,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -8004,8 +8025,11 @@
         <v>1280713.3406499999</v>
       </c>
       <c r="H69" s="37"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M69" s="88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -8028,8 +8052,12 @@
         <v>124161.22659999999</v>
       </c>
       <c r="H70" s="37"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M70" s="88">
+        <f>6.5*0.01</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -8053,7 +8081,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -8077,7 +8105,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -8102,7 +8130,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -8126,7 +8154,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -8154,7 +8182,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -8184,7 +8212,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -8214,7 +8242,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -8240,7 +8268,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -8266,7 +8294,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -8276,24 +8304,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -8310,23 +8338,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -8337,7 +8366,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -8352,7 +8381,7 @@
         <v>196</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>197</v>
@@ -8364,7 +8393,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>[2]Ricavi!J4</f>
@@ -8384,7 +8413,7 @@
       </c>
       <c r="F3" s="96">
         <f>Ricavi!O4</f>
-        <v>4.6546500000000005E-2</v>
+        <v>0.59257692307692311</v>
       </c>
       <c r="G3" s="96">
         <f t="shared" ref="G3:G64" si="0">D3*E3</f>
@@ -8395,7 +8424,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>[2]Ricavi!J5</f>
@@ -8415,7 +8444,7 @@
       </c>
       <c r="F4" s="96">
         <f>Ricavi!O5</f>
-        <v>0.20020000000000002</v>
+        <v>2.5487179487179485</v>
       </c>
       <c r="G4" s="96">
         <f t="shared" si="0"/>
@@ -8426,7 +8455,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>[2]Ricavi!J6</f>
@@ -8446,7 +8475,7 @@
       </c>
       <c r="F5" s="96">
         <f>Ricavi!O6</f>
-        <v>0.12012</v>
+        <v>1.5292307692307692</v>
       </c>
       <c r="G5" s="96">
         <f t="shared" si="0"/>
@@ -8457,7 +8486,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>[2]Ricavi!J7</f>
@@ -8477,7 +8506,7 @@
       </c>
       <c r="F6" s="96">
         <f>Ricavi!O7</f>
-        <v>0.20020000000000002</v>
+        <v>2.5487179487179485</v>
       </c>
       <c r="G6" s="96">
         <f t="shared" si="0"/>
@@ -8488,7 +8517,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>[2]Ricavi!J8</f>
@@ -8508,7 +8537,7 @@
       </c>
       <c r="F7" s="96">
         <f>Ricavi!O8</f>
-        <v>0.1454375</v>
+        <v>1.8515442890442888</v>
       </c>
       <c r="G7" s="96">
         <f t="shared" si="0"/>
@@ -8519,7 +8548,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>[2]Ricavi!J9</f>
@@ -8539,7 +8568,7 @@
       </c>
       <c r="F8" s="96">
         <f>Ricavi!O9</f>
-        <v>0.22022000000000003</v>
+        <v>2.8035897435897441</v>
       </c>
       <c r="G8" s="96">
         <f t="shared" si="0"/>
@@ -8550,7 +8579,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>[2]Ricavi!J10</f>
@@ -8570,7 +8599,7 @@
       </c>
       <c r="F9" s="96">
         <f>Ricavi!O10</f>
-        <v>0.23123100000000002</v>
+        <v>2.9437692307692309</v>
       </c>
       <c r="G9" s="96">
         <f t="shared" si="0"/>
@@ -8581,7 +8610,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>[2]Ricavi!J11</f>
@@ -8601,7 +8630,7 @@
       </c>
       <c r="F10" s="96">
         <f>Ricavi!O11</f>
-        <v>0.13263249999999999</v>
+        <v>1.6885256410256408</v>
       </c>
       <c r="G10" s="96">
         <f t="shared" si="0"/>
@@ -8612,7 +8641,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>[2]Ricavi!J12</f>
@@ -8643,7 +8672,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>[2]Ricavi!J13</f>
@@ -8674,7 +8703,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>[2]Ricavi!J14</f>
@@ -8705,7 +8734,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>[2]Ricavi!J15</f>
@@ -8736,7 +8765,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>[2]Ricavi!J16</f>
@@ -8767,7 +8796,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>[2]Ricavi!J17</f>
@@ -8798,7 +8827,7 @@
       </c>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>[2]Ricavi!J18</f>
@@ -8830,7 +8859,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>[2]Ricavi!J19</f>
@@ -8861,7 +8890,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>[2]Ricavi!J20</f>
@@ -8892,7 +8921,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>[2]Ricavi!J21</f>
@@ -8923,7 +8952,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>[2]Ricavi!J22</f>
@@ -8954,7 +8983,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>[2]Ricavi!J23</f>
@@ -8984,10 +9013,10 @@
         <v>204</v>
       </c>
       <c r="I22" s="96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>[2]Ricavi!J24</f>
@@ -9018,7 +9047,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>[2]Ricavi!J25</f>
@@ -9050,7 +9079,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>[2]Ricavi!J26</f>
@@ -9081,7 +9110,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>[2]Ricavi!J27</f>
@@ -9097,7 +9126,7 @@
       </c>
       <c r="E26" s="96">
         <f>Ricavi!M27</f>
-        <v>2.8595490979751363</v>
+        <v>2.6884649639082481</v>
       </c>
       <c r="F26" s="96">
         <f>Ricavi!O27</f>
@@ -9105,14 +9134,14 @@
       </c>
       <c r="G26" s="96">
         <f t="shared" si="0"/>
-        <v>588638.18181818177</v>
+        <v>553420.51282051287</v>
       </c>
       <c r="H26" s="96" t="s">
         <v>204</v>
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>[2]Ricavi!J28</f>
@@ -9128,7 +9157,7 @@
       </c>
       <c r="E27" s="96">
         <f>Ricavi!M28</f>
-        <v>2.9372024058901522</v>
+        <v>2.761472347418092</v>
       </c>
       <c r="F27" s="96">
         <f>Ricavi!O28</f>
@@ -9136,14 +9165,14 @@
       </c>
       <c r="G27" s="96">
         <f t="shared" si="0"/>
-        <v>9496433.5818181802</v>
+        <v>8928270.8888888881</v>
       </c>
       <c r="H27" s="96" t="s">
         <v>204</v>
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>[2]Ricavi!J29</f>
@@ -9175,7 +9204,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>[2]Ricavi!J30</f>
@@ -9205,11 +9234,11 @@
         <v>205</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>[2]Ricavi!J31</f>
@@ -9241,7 +9270,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>[2]Ricavi!J32</f>
@@ -9273,7 +9302,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>[2]Ricavi!J33</f>
@@ -9305,7 +9334,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>[2]Ricavi!J34</f>
@@ -9336,7 +9365,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>[2]Ricavi!J35</f>
@@ -9367,7 +9396,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>[2]Ricavi!J36</f>
@@ -9398,7 +9427,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>[2]Ricavi!J37</f>
@@ -9429,7 +9458,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>[2]Ricavi!J38</f>
@@ -9460,7 +9489,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>[2]Ricavi!J39</f>
@@ -9491,7 +9520,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>[2]Ricavi!J40</f>
@@ -9507,7 +9536,7 @@
       </c>
       <c r="E39" s="96">
         <f>Ricavi!M40</f>
-        <v>0.96161979691414379</v>
+        <v>0.90408698855175917</v>
       </c>
       <c r="F39" s="96">
         <f>Ricavi!O40</f>
@@ -9515,14 +9544,14 @@
       </c>
       <c r="G39" s="96">
         <f t="shared" si="0"/>
-        <v>296051.96363636362</v>
+        <v>278339.452991453</v>
       </c>
       <c r="H39" s="96" t="s">
         <v>205</v>
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>[2]Ricavi!J41</f>
@@ -9538,7 +9567,7 @@
       </c>
       <c r="E40" s="96">
         <f>Ricavi!M41</f>
-        <v>1.2623376623376623</v>
+        <v>1.1868131868131868</v>
       </c>
       <c r="F40" s="96">
         <f>Ricavi!O41</f>
@@ -9546,14 +9575,14 @@
       </c>
       <c r="G40" s="96">
         <f t="shared" si="0"/>
-        <v>8836.363636363636</v>
+        <v>8307.6923076923085</v>
       </c>
       <c r="H40" s="96" t="s">
         <v>205</v>
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>[2]Ricavi!J42</f>
@@ -9569,7 +9598,7 @@
       </c>
       <c r="E41" s="96">
         <f>Ricavi!M42</f>
-        <v>1.155471745728937</v>
+        <v>1.0863409575229324</v>
       </c>
       <c r="F41" s="96">
         <f>Ricavi!O42</f>
@@ -9577,14 +9606,14 @@
       </c>
       <c r="G41" s="96">
         <f t="shared" si="0"/>
-        <v>982318.52727272711</v>
+        <v>923547.33333333337</v>
       </c>
       <c r="H41" s="96" t="s">
         <v>205</v>
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>[2]Ricavi!J43</f>
@@ -9600,7 +9629,7 @@
       </c>
       <c r="E42" s="96">
         <f>Ricavi!M43</f>
-        <v>1.1559849982033774</v>
+        <v>1.0868235025843722</v>
       </c>
       <c r="F42" s="96">
         <f>Ricavi!O43</f>
@@ -9608,14 +9637,14 @@
       </c>
       <c r="G42" s="96">
         <f t="shared" si="0"/>
-        <v>46794.272727272721</v>
+        <v>43994.61538461539</v>
       </c>
       <c r="H42" s="96" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>[2]Ricavi!J44</f>
@@ -9646,7 +9675,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>[2]Ricavi!J45</f>
@@ -9677,7 +9706,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>[2]Ricavi!J46</f>
@@ -9707,10 +9736,10 @@
         <v>206</v>
       </c>
       <c r="I45" s="96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>[2]Ricavi!J47</f>
@@ -9741,7 +9770,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>[2]Ricavi!J48</f>
@@ -9772,7 +9801,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>[2]Ricavi!J49</f>
@@ -9788,7 +9817,7 @@
       </c>
       <c r="E48" s="96">
         <f>Ricavi!M49</f>
-        <v>1.5140679259852543</v>
+        <v>1.423482665456222</v>
       </c>
       <c r="F48" s="96">
         <f>Ricavi!O49</f>
@@ -9796,14 +9825,14 @@
       </c>
       <c r="G48" s="96">
         <f t="shared" si="0"/>
-        <v>2063430.8181818179</v>
+        <v>1939977.6923076923</v>
       </c>
       <c r="H48" s="96" t="s">
         <v>206</v>
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>[2]Ricavi!J50</f>
@@ -9819,7 +9848,7 @@
       </c>
       <c r="E49" s="96">
         <f>Ricavi!M50</f>
-        <v>1.4414585051971622</v>
+        <v>1.3552173980486142</v>
       </c>
       <c r="F49" s="96">
         <f>Ricavi!O50</f>
@@ -9827,14 +9856,14 @@
       </c>
       <c r="G49" s="96">
         <f t="shared" si="0"/>
-        <v>138992.63636363638</v>
+        <v>130676.83760683762</v>
       </c>
       <c r="H49" s="96" t="s">
         <v>206</v>
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>[2]Ricavi!J51</f>
@@ -9850,7 +9879,7 @@
       </c>
       <c r="E50" s="96">
         <f>Ricavi!M51</f>
-        <v>1.5733021871745274</v>
+        <v>1.479172996488872</v>
       </c>
       <c r="F50" s="96">
         <f>Ricavi!O51</f>
@@ -9858,14 +9887,14 @@
       </c>
       <c r="G50" s="96">
         <f t="shared" si="0"/>
-        <v>96128.763636363627</v>
+        <v>90377.470085470079</v>
       </c>
       <c r="H50" s="96" t="s">
         <v>206</v>
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>[2]Ricavi!J52</f>
@@ -9896,7 +9925,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>[2]Ricavi!J53</f>
@@ -9927,7 +9956,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>[2]Ricavi!J54</f>
@@ -9958,7 +9987,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>[2]Ricavi!J55</f>
@@ -9988,8 +10017,11 @@
         <v>206</v>
       </c>
       <c r="I54" s="96"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>[2]Ricavi!J56</f>
@@ -10019,8 +10051,12 @@
         <v>206</v>
       </c>
       <c r="I55" s="96"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="116">
+        <f>SUMIF($C$3:$C$63,"PF",$G$3:$G$63)</f>
+        <v>68358549.018526509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>[2]Ricavi!J57</f>
@@ -10050,8 +10086,11 @@
         <v>206</v>
       </c>
       <c r="I56" s="96"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>[2]Ricavi!J58</f>
@@ -10081,8 +10120,12 @@
         <v>206</v>
       </c>
       <c r="I57" s="96"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="116">
+        <f>SUMIF($C$3:$C$63,"MP",$G$3:$G$63)</f>
+        <v>196584.24189999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>[2]Ricavi!J59</f>
@@ -10112,8 +10155,11 @@
         <v>206</v>
       </c>
       <c r="I58" s="96"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58" s="115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>[2]Ricavi!J60</f>
@@ -10143,8 +10189,12 @@
         <v>206</v>
       </c>
       <c r="I59" s="96"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="116">
+        <f>SUMIF($C$3:$C$63,"PCL",$G$3:$G$63)</f>
+        <v>2489618.9618799998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>[2]Ricavi!J61</f>
@@ -10175,7 +10225,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>[2]Ricavi!J62</f>
@@ -10206,7 +10256,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>[2]Ricavi!J63</f>
@@ -10237,7 +10287,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>[2]Ricavi!J64</f>
@@ -10268,7 +10318,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>[2]Ricavi!J65</f>
@@ -10286,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G64" s="96">
         <f t="shared" si="0"/>
@@ -10298,7 +10348,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>[2]Ricavi!J66</f>
@@ -10317,7 +10367,7 @@
         <v>18980.987499999999</v>
       </c>
       <c r="F65" s="96" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G65" s="96">
         <f>-D65*E65</f>
@@ -10329,7 +10379,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -10340,7 +10390,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -10351,7 +10401,7 @@
       <c r="F67" s="97"/>
       <c r="G67" s="97">
         <f>SUM(G3:G65)</f>
-        <v>71662692.985670894</v>
+        <v>70841980.372306511</v>
       </c>
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
@@ -10365,23 +10415,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="2.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.54296875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="112" t="s">
         <v>134</v>
       </c>
@@ -10399,7 +10449,7 @@
       <c r="N2" s="113"/>
       <c r="O2" s="114"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -10417,7 +10467,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -10432,7 +10482,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -10454,7 +10504,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -10474,7 +10524,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -10494,7 +10544,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -10514,7 +10564,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -10532,7 +10582,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -10552,7 +10602,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -10572,7 +10622,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -10593,7 +10643,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -10615,23 +10665,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -10640,95 +10690,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -10759,21 +10809,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -10783,10 +10834,10 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="96">
         <f>3450000</f>
@@ -10798,10 +10849,10 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="96">
         <v>0.41</v>
@@ -10811,22 +10862,22 @@
         <v>200</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H3" s="96" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="I3" s="96" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="96">
         <f>1-C3</f>
@@ -10846,24 +10897,24 @@
       </c>
       <c r="H4" s="96">
         <f>C23*G4</f>
-        <v>15630.861190400001</v>
-      </c>
-      <c r="I4">
+        <v>15619.501552906979</v>
+      </c>
+      <c r="I4" s="119">
         <f>G4*(C26+C22*C27)</f>
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="96">
         <v>8997222.2200000007</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" s="96">
         <f>SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$D:$D)</f>
@@ -10875,24 +10926,24 @@
       </c>
       <c r="H5" s="96">
         <f>C21*G5</f>
-        <v>4140.8012800000006</v>
-      </c>
-      <c r="I5">
+        <v>4137.7919767441863</v>
+      </c>
+      <c r="I5" s="119">
         <f>G5*C27</f>
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" s="96">
         <v>4300000</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F6" s="96">
         <f>SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$D:$CE)+SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$D:$CE)</f>
@@ -10904,20 +10955,20 @@
       </c>
       <c r="H6" s="96">
         <f>G6*C20</f>
-        <v>12066.854150700001</v>
-      </c>
-      <c r="I6">
+        <v>12069.871618604651</v>
+      </c>
+      <c r="I6" s="119">
         <f>G6*C28</f>
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
       <c r="D7" s="96"/>
       <c r="E7" s="96" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="96">
         <f xml:space="preserve"> SUM(F4:F6)</f>
@@ -10929,10 +10980,10 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="96">
         <f>C2*C3</f>
@@ -10950,10 +11001,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C9" s="96">
         <f>C2*C4</f>
@@ -10962,22 +11013,22 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G9" s="96">
         <f>(H4+H5+H6)*C18</f>
-        <v>17181.470386921847</v>
+        <v>17175.344630598418</v>
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="F10" s="96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G10" s="96">
         <f xml:space="preserve"> ( I4+I5+I6 ) * C17</f>
@@ -10985,10 +11036,10 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="96">
         <f>C8/C5</f>
@@ -10997,7 +11048,7 @@
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
       <c r="F11" s="96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G11" s="96">
         <f>-'CE 21-22'!F15 *1.025</f>
@@ -11005,10 +11056,10 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="96">
         <f>C9/C6</f>
@@ -11017,37 +11068,31 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G12" s="96">
         <f>(G5+G6+G4*C22)*C32</f>
         <v>449211.74630400003</v>
       </c>
-      <c r="H12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G13" s="96">
         <f>G7*C36</f>
         <v>1471815.2299680002</v>
       </c>
-      <c r="H13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="96">
         <v>0.11</v>
@@ -11055,20 +11100,17 @@
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
       <c r="F14" s="96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G14" s="96">
         <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G))*C38</f>
-        <v>879865.94757272722</v>
-      </c>
-      <c r="H14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>867798.34033418808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="96">
         <v>0.14000000000000001</v>
@@ -11076,15 +11118,15 @@
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
       <c r="F15" s="96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G15" s="96">
         <f>C44*C45</f>
-        <v>565133.67002452502</v>
+        <v>564932.18138154072</v>
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -11094,10 +11136,10 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="96">
         <f>C11*(1+C14)</f>
@@ -11106,18 +11148,18 @@
       <c r="D17" s="96"/>
       <c r="E17" s="96"/>
       <c r="F17" s="97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G17" s="97">
         <f>SUM(G9:G15)</f>
-        <v>4364903.3578882366</v>
+        <v>4352628.1362503897</v>
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="96">
         <f>C12*(1+C15)</f>
@@ -11129,7 +11171,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -11139,13 +11181,14 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C20" s="96">
-        <v>0.93</v>
+        <f>VariableCosts!E6</f>
+        <v>0.93023255813953487</v>
       </c>
       <c r="D20" s="96"/>
       <c r="E20" s="96"/>
@@ -11153,13 +11196,14 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="C21" s="96">
-        <v>0.64</v>
+        <f>VariableCosts!E7</f>
+        <v>0.63953488372093026</v>
       </c>
       <c r="D21" s="96"/>
       <c r="E21" s="96"/>
@@ -11167,10 +11211,10 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C22">
         <v>1.67</v>
@@ -11181,14 +11225,14 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23">
-        <f>C22*0.64</f>
-        <v>1.0688</v>
+        <v>276</v>
+      </c>
+      <c r="C23" s="117">
+        <f>C22*C21</f>
+        <v>1.0680232558139535</v>
       </c>
       <c r="D23" s="96"/>
       <c r="E23" s="96"/>
@@ -11196,148 +11240,151 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="96" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C24" s="96">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="96" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C26" s="96">
+        <f>VariableCosts!C12</f>
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="96" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C27" s="96">
+        <f>VariableCosts!C11</f>
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="96" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C28" s="96">
+        <f>VariableCosts!C10</f>
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="96">
-        <f>275000</f>
+        <v>264</v>
+      </c>
+      <c r="C29" s="118">
+        <f>VariableCosts!C13</f>
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C30" s="96">
         <f>C29*12</f>
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="96" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C32" s="96">
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="96" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C34" s="96">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C35" s="96">
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="96" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C36">
         <f>C34*(1+C35)</f>
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C38" s="96">
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="96">
         <f>G4*C23</f>
-        <v>15630.861190400001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15619.501552906979</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="96" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C41" s="96">
         <f>G5*C21</f>
-        <v>4140.8012800000006</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>4137.7919767441863</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="C42">
+        <v>272</v>
+      </c>
+      <c r="C42" s="119">
         <f>G6*C20</f>
-        <v>12066.854150700001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+        <v>12069.871618604651</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="96">
         <f>C41+C40+C42</f>
-        <v>31838.516621100003</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31827.165148255815</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C44" s="96">
         <f>C43*0.25</f>
-        <v>7959.6291552750008</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7956.7912870639539</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="96" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C45">
         <v>71</v>
@@ -11352,133 +11399,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -11493,167 +11540,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="96">
         <f>-'CE 21-22'!F22+50*12*100*1.4</f>
         <v>5594785.9100000001</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="96">
         <f>-'CE 21-22'!F23-150000</f>
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="96">
         <f>-'CE 21-22'!F24*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" s="96">
         <f>-'CE 21-22'!F25*1.025</f>
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="96">
         <f>-'CE 21-22'!F26*1.025</f>
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="96">
         <f>-'CE 21-22'!F27*1.025</f>
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C15" s="97">
         <f>SUM(C13+C11+C9+C7+C5+C3)</f>
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="96">
         <f>-'CE 21-22'!F29*1.025</f>
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" s="96">
         <f>-'CE 21-22'!F30*1.025</f>
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="96">
         <f>-'CE 21-22'!F31*1.025</f>
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C24" s="97">
         <f>SUM(C18+C20+C22)</f>
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" s="97">
         <f>SUM(C24+C15)</f>
@@ -11673,25 +11720,25 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -11699,13 +11746,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -11713,33 +11760,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -11750,73 +11797,74 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11824,36 +11872,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C3" s="96">
         <f>-'CE 21-22'!F34</f>
@@ -11861,16 +11909,16 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C5" s="96">
         <f>-'CE 21-22'!F35 +C23*C24</f>
@@ -11878,32 +11926,32 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" s="96">
         <v>0</v>
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" s="96">
         <f>-'CE 21-22'!C39+(3000000*0.05*7/12)</f>
@@ -11911,100 +11959,100 @@
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C11" s="96">
         <v>0</v>
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C13" s="96">
         <v>0</v>
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C15" s="96">
         <v>0</v>
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C17" s="96">
         <v>0</v>
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C19" s="96">
         <f>'CE Budget 2022'!C47*0.3</f>
-        <v>1672895.0361418992</v>
+        <v>1418278.2718686431</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C23">
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C24">
         <v>6.25E-2</v>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A9D12-2D66-45F7-9F24-73B69E81CFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BA10F-6013-4605-9440-3AEF6D50F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="304">
   <si>
     <t>MP1</t>
   </si>
@@ -1055,6 +1055,9 @@
   <si>
     <t>Energia elettrica usata (kWh)</t>
   </si>
+  <si>
+    <t>DELTA</t>
+  </si>
 </sst>
 </file>
 
@@ -1076,7 +1079,7 @@
     <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2007,6 +2010,10 @@
     <xf numFmtId="169" fontId="30" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,11 +2047,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -3689,53 +3692,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="106" t="s">
+    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="E2" s="106" t="s">
+      <c r="C2" s="111"/>
+      <c r="E2" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="107"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
+      <c r="F2" s="111"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="108" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="112" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="105"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="109"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3753,7 +3756,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -3763,7 +3766,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -3773,7 +3776,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -3783,7 +3786,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -3793,7 +3796,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -3805,7 +3808,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -3991,7 +3994,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4160,7 +4163,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4228,7 +4231,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4237,7 +4240,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4246,7 +4249,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4258,7 +4261,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +4271,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4277,7 +4280,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4286,7 +4289,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4295,7 +4298,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4315,7 +4318,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4324,7 +4327,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4334,59 +4337,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4406,41 +4409,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
-  <dimension ref="B1:P49"/>
+  <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="E2" s="106" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="107"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
+      <c r="F2" s="111"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="108" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="108" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4450,17 +4457,17 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105"/>
+    <row r="4" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="109"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4468,6 +4475,10 @@
         <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$G:$G))</f>
         <v>68358549.01852648</v>
       </c>
+      <c r="D5" s="119">
+        <f>C5-F5</f>
+        <v>7063889.9957264811</v>
+      </c>
       <c r="E5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4475,7 +4486,7 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>288</v>
       </c>
@@ -4483,6 +4494,10 @@
         <f>SUMIF(RicaviBudget!$H:$H,"MP",RicaviBudget!$G:$G)</f>
         <v>196584.24189999999</v>
       </c>
+      <c r="D6" s="119">
+        <f t="shared" ref="D6:D49" si="0">C6-F6</f>
+        <v>-331642.38355000003</v>
+      </c>
       <c r="E6" s="46" t="s">
         <v>288</v>
       </c>
@@ -4490,7 +4505,7 @@
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>289</v>
       </c>
@@ -4498,6 +4513,10 @@
         <f>SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$G:$G)</f>
         <v>2489618.9618799998</v>
       </c>
+      <c r="D7" s="119">
+        <f t="shared" si="0"/>
+        <v>612028.60988000012</v>
+      </c>
       <c r="E7" s="44" t="s">
         <v>289</v>
       </c>
@@ -4505,13 +4524,17 @@
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="89">
         <v>120000</v>
       </c>
+      <c r="D8" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4519,13 +4542,17 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="89">
         <v>500000</v>
       </c>
+      <c r="D9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4533,7 +4560,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4541,6 +4568,10 @@
         <f>+SUM(C5:C9)</f>
         <v>71664752.222306475</v>
       </c>
+      <c r="D10" s="119">
+        <f t="shared" si="0"/>
+        <v>7344276.2220564783</v>
+      </c>
       <c r="E10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4551,13 +4582,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="45" cm="1">
-        <f t="array" ref="C11">SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
-        <v>52760560.896493942</v>
+        <f t="array" ref="C11">-SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D11" s="119">
+        <f t="shared" si="0"/>
+        <v>-3389755.3792289346</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>71</v>
@@ -4566,13 +4601,17 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
       </c>
+      <c r="D12" s="119">
+        <f t="shared" si="0"/>
+        <v>-2500000</v>
+      </c>
       <c r="E12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4580,13 +4619,17 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="48">
         <f>+C11+C12</f>
-        <v>52760560.896493942</v>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D13" s="119">
+        <f t="shared" si="0"/>
+        <v>-5889755.3792289346</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>73</v>
@@ -4595,13 +4638,17 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="45">
-        <f>VariableCostsBudget!G9+VariableCostsBudget!G10</f>
-        <v>845120.63826266082</v>
+        <f>-VariableCostsBudget!G9-VariableCostsBudget!G10</f>
+        <v>-2880904.1725120917</v>
+      </c>
+      <c r="D14" s="119">
+        <f t="shared" si="0"/>
+        <v>1271803.3231406836</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>74</v>
@@ -4610,13 +4657,17 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="45">
-        <f>VariableCostsBudget!G11</f>
-        <v>153750</v>
+        <f>-VariableCostsBudget!G11</f>
+        <v>-153750</v>
+      </c>
+      <c r="D15" s="119">
+        <f t="shared" si="0"/>
+        <v>21250</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>75</v>
@@ -4625,13 +4676,17 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="45">
-        <f>VariableCostsBudget!G12</f>
-        <v>449211.74630400003</v>
+        <f>-VariableCostsBudget!G12</f>
+        <v>-449211.74630400003</v>
+      </c>
+      <c r="D16" s="119">
+        <f t="shared" si="0"/>
+        <v>70748.20321279997</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>76</v>
@@ -4640,13 +4695,17 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="48">
         <f>SUM(C14:C16)</f>
-        <v>1448082.384566661</v>
+        <v>-3483865.9188160915</v>
+      </c>
+      <c r="D17" s="119">
+        <f t="shared" si="0"/>
+        <v>1363801.526353484</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>77</v>
@@ -4655,13 +4714,17 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="45">
-        <f>VariableCostsBudget!G13</f>
-        <v>1471815.2299680002</v>
+        <f>-VariableCostsBudget!G13</f>
+        <v>-1471815.2299680002</v>
+      </c>
+      <c r="D18" s="119">
+        <f t="shared" si="0"/>
+        <v>-471815.2299680002</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>78</v>
@@ -4670,13 +4733,17 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="45">
-        <f>VariableCostsBudget!G14+VariableCostsBudget!G15</f>
-        <v>1432730.5217157288</v>
+        <f>-VariableCostsBudget!G14-VariableCostsBudget!G15</f>
+        <v>-1432730.5217157288</v>
+      </c>
+      <c r="D19" s="119">
+        <f t="shared" si="0"/>
+        <v>-882730.5217157288</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>79</v>
@@ -4685,13 +4752,17 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="48">
         <f>SUM(C18:C19)</f>
-        <v>2904545.7516837288</v>
+        <v>-2904545.7516837288</v>
+      </c>
+      <c r="D20" s="119">
+        <f t="shared" si="0"/>
+        <v>-1354545.7516837288</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>80</v>
@@ -4700,13 +4771,17 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="50">
-        <f>+C10-C13-C17-C20</f>
-        <v>14551563.189562144</v>
+        <f>+C10+C13+C17+C20</f>
+        <v>12515779.655312713</v>
+      </c>
+      <c r="D21" s="119">
+        <f t="shared" si="0"/>
+        <v>1463776.6174972989</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>81</v>
@@ -4715,13 +4790,17 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="45">
-        <f>FixedCostsBudget!C3</f>
-        <v>5594785.9100000001</v>
+        <f>-FixedCostsBudget!C3</f>
+        <v>-5594785.9100000001</v>
+      </c>
+      <c r="D22" s="119">
+        <f t="shared" si="0"/>
+        <v>55214.089999999851</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>82</v>
@@ -4730,13 +4809,17 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="45">
-        <f>FixedCostsBudget!C5</f>
-        <v>1050000</v>
+        <f>-FixedCostsBudget!C5</f>
+        <v>-1050000</v>
+      </c>
+      <c r="D23" s="119">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>83</v>
@@ -4745,13 +4828,17 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="45">
-        <f>FixedCostsBudget!C7</f>
-        <v>307500</v>
+        <f>-FixedCostsBudget!C7</f>
+        <v>-307500</v>
+      </c>
+      <c r="D24" s="119">
+        <f t="shared" si="0"/>
+        <v>-2500</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>84</v>
@@ -4760,13 +4847,17 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="45">
-        <f>FixedCostsBudget!C9</f>
-        <v>151700</v>
+        <f>-FixedCostsBudget!C9</f>
+        <v>-151700</v>
+      </c>
+      <c r="D25" s="119">
+        <f t="shared" si="0"/>
+        <v>-6700</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>85</v>
@@ -4775,13 +4866,17 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="45">
-        <f>FixedCostsBudget!C11</f>
-        <v>309550</v>
+        <f>-FixedCostsBudget!C11</f>
+        <v>-309550</v>
+      </c>
+      <c r="D26" s="119">
+        <f t="shared" si="0"/>
+        <v>-2550</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>86</v>
@@ -4790,13 +4885,17 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="45">
-        <f>FixedCostsBudget!C13</f>
-        <v>212174.99999999997</v>
+        <f>-FixedCostsBudget!C13</f>
+        <v>-212174.99999999997</v>
+      </c>
+      <c r="D27" s="119">
+        <f t="shared" si="0"/>
+        <v>-2674.9999999999709</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>87</v>
@@ -4805,13 +4904,17 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="48">
         <f>SUM(C22:C27)</f>
-        <v>7625710.9100000001</v>
+        <v>-7625710.9100000001</v>
+      </c>
+      <c r="D28" s="119">
+        <f t="shared" si="0"/>
+        <v>90789.089999999851</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>88</v>
@@ -4820,13 +4923,17 @@
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="45">
-        <f>FixedCostsBudget!C18</f>
-        <v>563750</v>
+        <f>-FixedCostsBudget!C18</f>
+        <v>-563750</v>
+      </c>
+      <c r="D29" s="119">
+        <f t="shared" si="0"/>
+        <v>-7750</v>
       </c>
       <c r="E29" s="44" t="s">
         <v>89</v>
@@ -4836,13 +4943,17 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="45">
-        <f>FixedCostsBudget!C20</f>
-        <v>307500</v>
+        <f>-FixedCostsBudget!C20</f>
+        <v>-307500</v>
+      </c>
+      <c r="D30" s="119">
+        <f t="shared" si="0"/>
+        <v>-10500</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>90</v>
@@ -4851,13 +4962,17 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="45">
-        <f>FixedCostsBudget!C22</f>
-        <v>102499.99999999999</v>
+        <f>-FixedCostsBudget!C22</f>
+        <v>-102499.99999999999</v>
+      </c>
+      <c r="D31" s="119">
+        <f t="shared" si="0"/>
+        <v>-4499.9999999999854</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>91</v>
@@ -4866,13 +4981,17 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="48">
         <f>SUM(C29:C31)</f>
-        <v>973750</v>
+        <v>-973750</v>
+      </c>
+      <c r="D32" s="119">
+        <f t="shared" si="0"/>
+        <v>-22750</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>92</v>
@@ -4881,13 +5000,17 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="52">
-        <f>+C21-C28-C32</f>
-        <v>5952102.2795621436</v>
+        <f>+C21+C28+C32</f>
+        <v>3916318.7453127131</v>
+      </c>
+      <c r="D33" s="119">
+        <f t="shared" si="0"/>
+        <v>1531815.7074972987</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>93</v>
@@ -4896,13 +5019,17 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="45">
-        <f>OthersBudget!C3</f>
-        <v>200000</v>
+        <f>-OthersBudget!C3</f>
+        <v>-200000</v>
+      </c>
+      <c r="D34" s="119">
+        <f t="shared" si="0"/>
+        <v>-10000</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>94</v>
@@ -4911,13 +5038,17 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="45">
-        <f>OthersBudget!C5</f>
-        <v>796875</v>
+        <f>-OthersBudget!C5</f>
+        <v>-796875</v>
+      </c>
+      <c r="D35" s="119">
+        <f t="shared" si="0"/>
+        <v>13125</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>95</v>
@@ -4926,13 +5057,17 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="45">
-        <f>OthersBudget!C7</f>
+        <f>-OthersBudget!C7</f>
         <v>0</v>
+      </c>
+      <c r="D36" s="119">
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>96</v>
@@ -4941,13 +5076,17 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="48">
         <f>SUM(C34:C36)</f>
-        <v>996875</v>
+        <v>-996875</v>
+      </c>
+      <c r="D37" s="119">
+        <f t="shared" si="0"/>
+        <v>28125</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>97</v>
@@ -4956,13 +5095,17 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="50">
-        <f>+C33-C37</f>
-        <v>4955227.2795621436</v>
+        <f>+C33+C37</f>
+        <v>2919443.7453127131</v>
+      </c>
+      <c r="D38" s="119">
+        <f t="shared" si="0"/>
+        <v>1559940.7074972987</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>98</v>
@@ -4971,7 +5114,7 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4979,6 +5122,10 @@
         <f>-OthersBudget!C9</f>
         <v>-227633.03999999998</v>
       </c>
+      <c r="D39" s="119">
+        <f t="shared" si="0"/>
+        <v>-87500</v>
+      </c>
       <c r="E39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4986,7 +5133,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4994,6 +5141,10 @@
         <f>OthersBudget!C11</f>
         <v>0</v>
       </c>
+      <c r="D40" s="119">
+        <f t="shared" si="0"/>
+        <v>-3543.6200000000003</v>
+      </c>
       <c r="E40" s="44" t="s">
         <v>100</v>
       </c>
@@ -5001,7 +5152,7 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -5009,6 +5160,10 @@
         <f>SUM(C39:C40)</f>
         <v>-227633.03999999998</v>
       </c>
+      <c r="D41" s="119">
+        <f t="shared" si="0"/>
+        <v>-91043.62</v>
+      </c>
       <c r="E41" s="47" t="s">
         <v>101</v>
       </c>
@@ -5016,13 +5171,17 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="50">
         <f>+C38+C41</f>
-        <v>4727594.2395621436</v>
+        <v>2691810.705312713</v>
+      </c>
+      <c r="D42" s="119">
+        <f t="shared" si="0"/>
+        <v>1468897.0874972986</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>102</v>
@@ -5031,7 +5190,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5039,6 +5198,10 @@
         <f>-OthersBudget!C13</f>
         <v>0</v>
       </c>
+      <c r="D43" s="119">
+        <f t="shared" si="0"/>
+        <v>130503.97</v>
+      </c>
       <c r="E43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5046,7 +5209,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5054,6 +5217,10 @@
         <f>OthersBudget!C15</f>
         <v>0</v>
       </c>
+      <c r="D44" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5061,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5069,6 +5236,10 @@
         <f>OthersBudget!C17</f>
         <v>0</v>
       </c>
+      <c r="D45" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5076,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5084,6 +5255,10 @@
         <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
+      <c r="D46" s="119">
+        <f t="shared" si="0"/>
+        <v>130503.97</v>
+      </c>
       <c r="E46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5091,13 +5266,17 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="50">
         <f>+C46+C42</f>
-        <v>4727594.2395621436</v>
+        <v>2691810.705312713</v>
+      </c>
+      <c r="D47" s="119">
+        <f t="shared" si="0"/>
+        <v>1599401.0574972986</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>107</v>
@@ -5106,13 +5285,17 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="45">
-        <f>OthersBudget!C19</f>
-        <v>1418278.2718686431</v>
+        <f>-OthersBudget!C19</f>
+        <v>-807543.21159381384</v>
+      </c>
+      <c r="D48" s="119">
+        <f t="shared" si="0"/>
+        <v>-479820.31724919844</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>108</v>
@@ -5121,13 +5304,17 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="50">
-        <f>C47-C48</f>
-        <v>3309315.9676935002</v>
+        <f>C47+C48</f>
+        <v>1884267.4937188993</v>
+      </c>
+      <c r="D49" s="119">
+        <f t="shared" si="0"/>
+        <v>1119580.7402481004</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>109</v>
@@ -5135,6 +5322,12 @@
       <c r="F49" s="50">
         <v>764686.75347079907</v>
       </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="102"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5156,51 +5349,51 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" style="1"/>
-    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="1"/>
+    <col min="19" max="19" width="8.77734375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="109" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="111"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115"/>
       <c r="S2" s="88"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -5241,7 +5434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -5291,7 +5484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -5338,7 +5531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -5385,7 +5578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -5432,7 +5625,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5526,7 +5719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -5573,7 +5766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -5663,7 +5856,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5705,7 +5898,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -5747,7 +5940,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -5789,7 +5982,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -5831,7 +6024,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -5873,7 +6066,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -5915,7 +6108,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -5957,7 +6150,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5999,7 +6192,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -6041,7 +6234,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -6083,7 +6276,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -6125,7 +6318,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -6167,7 +6360,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -6209,7 +6402,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -6251,7 +6444,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -6296,7 +6489,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -6341,7 +6534,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6383,7 +6576,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -6425,7 +6618,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -6467,7 +6660,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -6509,7 +6702,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -6551,7 +6744,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -6592,7 +6785,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6634,7 +6827,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6676,7 +6869,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6910,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6759,7 +6952,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6800,7 +6993,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -6845,7 +7038,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -6890,7 +7083,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -6934,7 +7127,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -6979,7 +7172,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -7021,7 +7214,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -7063,7 +7256,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -7105,7 +7298,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -7147,7 +7340,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -7189,7 +7382,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -7234,7 +7427,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -7279,7 +7472,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -7324,7 +7517,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -7366,7 +7559,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -7408,7 +7601,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -7450,7 +7643,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -7492,7 +7685,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -7534,7 +7727,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -7576,7 +7769,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -7618,7 +7811,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -7660,7 +7853,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +7895,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -7744,7 +7937,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -7786,7 +7979,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -7828,7 +8021,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -7870,7 +8063,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -7910,7 +8103,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -7950,7 +8143,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -7976,7 +8169,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -8002,7 +8195,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -8029,7 +8222,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -8057,7 +8250,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -8081,7 +8274,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -8105,7 +8298,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -8130,7 +8323,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -8154,7 +8347,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -8182,7 +8375,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -8212,7 +8405,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -8242,7 +8435,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -8268,7 +8461,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -8294,7 +8487,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -8304,24 +8497,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -8342,20 +8535,20 @@
       <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -8366,7 +8559,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -8393,7 +8586,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>[2]Ricavi!J4</f>
@@ -8424,7 +8617,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>[2]Ricavi!J5</f>
@@ -8455,7 +8648,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>[2]Ricavi!J6</f>
@@ -8486,7 +8679,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>[2]Ricavi!J7</f>
@@ -8517,7 +8710,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>[2]Ricavi!J8</f>
@@ -8548,7 +8741,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>[2]Ricavi!J9</f>
@@ -8579,7 +8772,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>[2]Ricavi!J10</f>
@@ -8610,7 +8803,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>[2]Ricavi!J11</f>
@@ -8641,7 +8834,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>[2]Ricavi!J12</f>
@@ -8672,7 +8865,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>[2]Ricavi!J13</f>
@@ -8703,7 +8896,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>[2]Ricavi!J14</f>
@@ -8734,7 +8927,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>[2]Ricavi!J15</f>
@@ -8765,7 +8958,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>[2]Ricavi!J16</f>
@@ -8796,7 +8989,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>[2]Ricavi!J17</f>
@@ -8827,7 +9020,7 @@
       </c>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>[2]Ricavi!J18</f>
@@ -8859,7 +9052,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>[2]Ricavi!J19</f>
@@ -8890,7 +9083,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>[2]Ricavi!J20</f>
@@ -8921,7 +9114,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>[2]Ricavi!J21</f>
@@ -8952,7 +9145,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>[2]Ricavi!J22</f>
@@ -8983,7 +9176,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>[2]Ricavi!J23</f>
@@ -9016,7 +9209,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>[2]Ricavi!J24</f>
@@ -9047,7 +9240,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>[2]Ricavi!J25</f>
@@ -9079,7 +9272,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>[2]Ricavi!J26</f>
@@ -9110,7 +9303,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>[2]Ricavi!J27</f>
@@ -9141,7 +9334,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>[2]Ricavi!J28</f>
@@ -9172,7 +9365,7 @@
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>[2]Ricavi!J29</f>
@@ -9204,7 +9397,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>[2]Ricavi!J30</f>
@@ -9238,7 +9431,7 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>[2]Ricavi!J31</f>
@@ -9270,7 +9463,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>[2]Ricavi!J32</f>
@@ -9302,7 +9495,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>[2]Ricavi!J33</f>
@@ -9334,7 +9527,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>[2]Ricavi!J34</f>
@@ -9365,7 +9558,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>[2]Ricavi!J35</f>
@@ -9396,7 +9589,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>[2]Ricavi!J36</f>
@@ -9427,7 +9620,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>[2]Ricavi!J37</f>
@@ -9458,7 +9651,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>[2]Ricavi!J38</f>
@@ -9489,7 +9682,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>[2]Ricavi!J39</f>
@@ -9520,7 +9713,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>[2]Ricavi!J40</f>
@@ -9551,7 +9744,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>[2]Ricavi!J41</f>
@@ -9582,7 +9775,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>[2]Ricavi!J42</f>
@@ -9613,7 +9806,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>[2]Ricavi!J43</f>
@@ -9644,7 +9837,7 @@
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>[2]Ricavi!J44</f>
@@ -9675,7 +9868,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>[2]Ricavi!J45</f>
@@ -9706,7 +9899,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>[2]Ricavi!J46</f>
@@ -9739,7 +9932,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>[2]Ricavi!J47</f>
@@ -9770,7 +9963,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>[2]Ricavi!J48</f>
@@ -9801,7 +9994,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>[2]Ricavi!J49</f>
@@ -9832,7 +10025,7 @@
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>[2]Ricavi!J50</f>
@@ -9863,7 +10056,7 @@
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>[2]Ricavi!J51</f>
@@ -9894,7 +10087,7 @@
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>[2]Ricavi!J52</f>
@@ -9925,7 +10118,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>[2]Ricavi!J53</f>
@@ -9956,7 +10149,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>[2]Ricavi!J54</f>
@@ -9987,7 +10180,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>[2]Ricavi!J55</f>
@@ -10017,11 +10210,11 @@
         <v>206</v>
       </c>
       <c r="I54" s="96"/>
-      <c r="K54" s="115" t="s">
+      <c r="K54" s="104" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>[2]Ricavi!J56</f>
@@ -10051,12 +10244,12 @@
         <v>206</v>
       </c>
       <c r="I55" s="96"/>
-      <c r="K55" s="116">
+      <c r="K55" s="105">
         <f>SUMIF($C$3:$C$63,"PF",$G$3:$G$63)</f>
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>[2]Ricavi!J57</f>
@@ -10086,11 +10279,11 @@
         <v>206</v>
       </c>
       <c r="I56" s="96"/>
-      <c r="K56" s="115" t="s">
+      <c r="K56" s="104" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>[2]Ricavi!J58</f>
@@ -10120,12 +10313,12 @@
         <v>206</v>
       </c>
       <c r="I57" s="96"/>
-      <c r="K57" s="116">
+      <c r="K57" s="105">
         <f>SUMIF($C$3:$C$63,"MP",$G$3:$G$63)</f>
         <v>196584.24189999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>[2]Ricavi!J59</f>
@@ -10155,11 +10348,11 @@
         <v>206</v>
       </c>
       <c r="I58" s="96"/>
-      <c r="K58" s="115" t="s">
+      <c r="K58" s="104" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>[2]Ricavi!J60</f>
@@ -10189,12 +10382,12 @@
         <v>206</v>
       </c>
       <c r="I59" s="96"/>
-      <c r="K59" s="116">
+      <c r="K59" s="105">
         <f>SUMIF($C$3:$C$63,"PCL",$G$3:$G$63)</f>
         <v>2489618.9618799998</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>[2]Ricavi!J61</f>
@@ -10225,7 +10418,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>[2]Ricavi!J62</f>
@@ -10256,7 +10449,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>[2]Ricavi!J63</f>
@@ -10287,7 +10480,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>[2]Ricavi!J64</f>
@@ -10318,7 +10511,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>[2]Ricavi!J65</f>
@@ -10348,7 +10541,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>[2]Ricavi!J66</f>
@@ -10379,7 +10572,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -10390,7 +10583,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -10415,41 +10608,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.54296875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.26953125" style="3"/>
+    <col min="1" max="1" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="112" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="118"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -10467,7 +10660,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -10482,7 +10675,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -10504,7 +10697,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -10524,7 +10717,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -10544,7 +10737,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -10564,7 +10757,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -10582,7 +10775,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -10602,7 +10795,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -10622,7 +10815,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -10643,7 +10836,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -10665,23 +10858,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -10690,95 +10883,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -10809,22 +11002,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -10834,7 +11027,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -10849,7 +11042,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -10874,7 +11067,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -10896,15 +11089,15 @@
         <v>14624.683000000001</v>
       </c>
       <c r="H4" s="96">
-        <f>C23*G4</f>
-        <v>15619.501552906979</v>
-      </c>
-      <c r="I4" s="119">
+        <f>C23*G4*C24</f>
+        <v>1343277.1335500001</v>
+      </c>
+      <c r="I4" s="107">
         <f>G4*(C26+C22*C27)</f>
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -10925,15 +11118,15 @@
         <v>6470.0020000000004</v>
       </c>
       <c r="H5" s="96">
-        <f>C21*G5</f>
-        <v>4137.7919767441863</v>
-      </c>
-      <c r="I5" s="119">
+        <f>C21*G5*C24</f>
+        <v>355850.11000000004</v>
+      </c>
+      <c r="I5" s="107">
         <f>G5*C27</f>
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -10954,15 +11147,15 @@
         <v>12975.111989999999</v>
       </c>
       <c r="H6" s="96">
-        <f>G6*C20</f>
-        <v>12069.871618604651</v>
-      </c>
-      <c r="I6" s="119">
+        <f>G6*C20*C24</f>
+        <v>1038008.9592</v>
+      </c>
+      <c r="I6" s="107">
         <f>G6*C28</f>
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -10980,7 +11173,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -11001,7 +11194,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -11017,11 +11210,11 @@
       </c>
       <c r="G9" s="96">
         <f>(H4+H5+H6)*C18</f>
-        <v>17175.344630598418</v>
+        <v>1477079.6382314637</v>
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -11031,12 +11224,12 @@
         <v>227</v>
       </c>
       <c r="G10" s="96">
-        <f xml:space="preserve"> ( I4+I5+I6 ) * C17</f>
-        <v>827945.29363206238</v>
+        <f>(I4+I5+I6+C30)*C17</f>
+        <v>1403824.5342806277</v>
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -11056,7 +11249,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -11075,7 +11268,7 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -11089,7 +11282,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -11107,7 +11300,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -11126,7 +11319,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -11136,7 +11329,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -11152,11 +11345,11 @@
       </c>
       <c r="G17" s="97">
         <f>SUM(G9:G15)</f>
-        <v>4352628.1362503897</v>
+        <v>6388411.6704998203</v>
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -11171,7 +11364,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -11181,7 +11374,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -11196,7 +11389,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -11211,7 +11404,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -11225,12 +11418,12 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="106">
         <f>C22*C21</f>
         <v>1.0680232558139535</v>
       </c>
@@ -11240,7 +11433,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -11248,10 +11441,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -11260,7 +11453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -11269,7 +11462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -11278,16 +11471,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="96">
         <f>VariableCosts!C13</f>
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -11296,7 +11489,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -11304,7 +11497,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -11312,7 +11505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -11320,7 +11513,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -11329,7 +11522,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -11337,7 +11530,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -11346,7 +11539,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -11355,16 +11548,16 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="C42" s="119">
+      <c r="C42" s="107">
         <f>G6*C20</f>
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -11373,7 +11566,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -11382,7 +11575,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -11403,129 +11596,129 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -11544,20 +11737,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -11569,10 +11762,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>238</v>
       </c>
@@ -11581,10 +11774,10 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>239</v>
       </c>
@@ -11593,10 +11786,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>240</v>
       </c>
@@ -11605,10 +11798,10 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>241</v>
       </c>
@@ -11617,10 +11810,10 @@
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -11629,10 +11822,10 @@
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="93" t="s">
         <v>246</v>
       </c>
@@ -11641,13 +11834,13 @@
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>243</v>
       </c>
@@ -11656,10 +11849,10 @@
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="s">
         <v>244</v>
       </c>
@@ -11668,10 +11861,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>245</v>
       </c>
@@ -11680,10 +11873,10 @@
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="93" t="s">
         <v>247</v>
       </c>
@@ -11692,13 +11885,13 @@
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="93" t="s">
         <v>248</v>
       </c>
@@ -11720,25 +11913,25 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -11746,13 +11939,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -11760,33 +11953,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -11797,67 +11990,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -11876,21 +12069,21 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -11898,7 +12091,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>254</v>
@@ -11909,13 +12102,13 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>255</v>
@@ -11926,13 +12119,13 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
         <v>256</v>
@@ -11942,13 +12135,13 @@
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>257</v>
@@ -11959,13 +12152,13 @@
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>258</v>
@@ -11975,13 +12168,13 @@
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
         <v>259</v>
@@ -11991,13 +12184,13 @@
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>260</v>
@@ -12007,13 +12200,13 @@
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>261</v>
@@ -12023,26 +12216,26 @@
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="96">
         <f>'CE Budget 2022'!C47*0.3</f>
-        <v>1418278.2718686431</v>
+        <v>807543.21159381384</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>277</v>
       </c>
@@ -12050,7 +12243,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>278</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BA10F-6013-4605-9440-3AEF6D50F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002714A5-77CC-4C19-9816-942E652CA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="4" xr2:uid="{95440F54-80AC-4A51-8A6B-2203749B58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1306,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1791,7 +1798,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2014,6 +2021,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,7 +2055,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -3692,53 +3706,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+    <row r="1" spans="2:14" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="E2" s="110" t="s">
+      <c r="C2" s="112"/>
+      <c r="E2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="111"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+      <c r="F2" s="112"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="109" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="113" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="110"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3756,7 +3770,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -3766,7 +3780,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -3776,7 +3790,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -3786,7 +3800,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -3796,7 +3810,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -3808,7 +3822,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -3821,7 +3835,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -3874,7 +3888,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -3893,7 +3907,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -3908,7 +3922,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3939,7 +3953,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -3953,7 +3967,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -3967,7 +3981,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -3983,7 +3997,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -3994,7 +4008,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4008,7 +4022,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4022,7 +4036,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4036,7 +4050,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4064,7 +4078,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4078,7 +4092,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4094,7 +4108,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4108,7 +4122,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4136,7 +4150,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4152,7 +4166,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4163,7 +4177,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +4191,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4191,7 +4205,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4205,7 +4219,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4231,7 +4245,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4240,7 +4254,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4249,7 +4263,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4261,7 +4275,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4271,7 +4285,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4280,7 +4294,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4289,7 +4303,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4298,7 +4312,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4308,7 +4322,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4318,7 +4332,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4327,7 +4341,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4337,59 +4351,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4411,43 +4425,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="111"/>
+      <c r="C2" s="112"/>
       <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="111"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+      <c r="F2" s="112"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="109" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="109" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4457,17 +4469,17 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="109"/>
+    <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="110"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4475,7 +4487,7 @@
         <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$G:$G)+SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$G:$G))</f>
         <v>68358549.01852648</v>
       </c>
-      <c r="D5" s="119">
+      <c r="D5" s="108">
         <f>C5-F5</f>
         <v>7063889.9957264811</v>
       </c>
@@ -4486,7 +4498,7 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>288</v>
       </c>
@@ -4494,7 +4506,7 @@
         <f>SUMIF(RicaviBudget!$H:$H,"MP",RicaviBudget!$G:$G)</f>
         <v>196584.24189999999</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="108">
         <f t="shared" ref="D6:D49" si="0">C6-F6</f>
         <v>-331642.38355000003</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>289</v>
       </c>
@@ -4513,7 +4525,7 @@
         <f>SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$G:$G)</f>
         <v>2489618.9618799998</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="108">
         <f t="shared" si="0"/>
         <v>612028.60988000012</v>
       </c>
@@ -4524,16 +4536,17 @@
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="89">
-        <v>120000</v>
-      </c>
-      <c r="D8" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C8" s="120">
+        <f>RicaviBudget!G64+RicaviBudget!G65</f>
+        <v>-202771.84999999998</v>
+      </c>
+      <c r="D8" s="108">
+        <f t="shared" si="0"/>
+        <v>-322771.84999999998</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>68</v>
@@ -4542,16 +4555,16 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="89">
-        <v>500000</v>
-      </c>
-      <c r="D9" s="119">
-        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="D9" s="108">
+        <f t="shared" si="0"/>
+        <v>-500000</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>69</v>
@@ -4560,17 +4573,17 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="48">
         <f>+SUM(C5:C9)</f>
-        <v>71664752.222306475</v>
-      </c>
-      <c r="D10" s="119">
-        <f t="shared" si="0"/>
-        <v>7344276.2220564783</v>
+        <v>70841980.372306481</v>
+      </c>
+      <c r="D10" s="108">
+        <f t="shared" si="0"/>
+        <v>6521504.3720564842</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>70</v>
@@ -4582,7 +4595,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4590,7 +4603,7 @@
         <f t="array" ref="C11">-SUM(RicaviBudget!D3:D63 * RicaviBudget!F3:F63)</f>
         <v>-52760560.896493942</v>
       </c>
-      <c r="D11" s="119">
+      <c r="D11" s="108">
         <f t="shared" si="0"/>
         <v>-3389755.3792289346</v>
       </c>
@@ -4601,14 +4614,14 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
       </c>
-      <c r="D12" s="119">
+      <c r="D12" s="108">
         <f t="shared" si="0"/>
         <v>-2500000</v>
       </c>
@@ -4619,7 +4632,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4627,7 +4640,7 @@
         <f>+C11+C12</f>
         <v>-52760560.896493942</v>
       </c>
-      <c r="D13" s="119">
+      <c r="D13" s="108">
         <f t="shared" si="0"/>
         <v>-5889755.3792289346</v>
       </c>
@@ -4638,17 +4651,17 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="45">
-        <f>-VariableCostsBudget!G9-VariableCostsBudget!G10</f>
-        <v>-2880904.1725120917</v>
-      </c>
-      <c r="D14" s="119">
-        <f t="shared" si="0"/>
-        <v>1271803.3231406836</v>
+        <f>-VariableCostsBudget!G9-VariableCostsBudget!G10-VariableCostsBudget!G15</f>
+        <v>-3445836.3538936325</v>
+      </c>
+      <c r="D14" s="108">
+        <f t="shared" si="0"/>
+        <v>706871.14175914275</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>74</v>
@@ -4657,15 +4670,15 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="122">
         <f>-VariableCostsBudget!G11</f>
         <v>-153750</v>
       </c>
-      <c r="D15" s="119">
+      <c r="D15" s="108">
         <f t="shared" si="0"/>
         <v>21250</v>
       </c>
@@ -4676,7 +4689,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4684,7 +4697,7 @@
         <f>-VariableCostsBudget!G12</f>
         <v>-449211.74630400003</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="108">
         <f t="shared" si="0"/>
         <v>70748.20321279997</v>
       </c>
@@ -4695,17 +4708,17 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="48">
         <f>SUM(C14:C16)</f>
-        <v>-3483865.9188160915</v>
-      </c>
-      <c r="D17" s="119">
-        <f t="shared" si="0"/>
-        <v>1363801.526353484</v>
+        <v>-4048798.1001976328</v>
+      </c>
+      <c r="D17" s="108">
+        <f t="shared" si="0"/>
+        <v>798869.34497194272</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>77</v>
@@ -4714,7 +4727,7 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4722,7 +4735,7 @@
         <f>-VariableCostsBudget!G13</f>
         <v>-1471815.2299680002</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="108">
         <f t="shared" si="0"/>
         <v>-471815.2299680002</v>
       </c>
@@ -4733,17 +4746,17 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="45">
-        <f>-VariableCostsBudget!G14-VariableCostsBudget!G15</f>
-        <v>-1432730.5217157288</v>
-      </c>
-      <c r="D19" s="119">
-        <f t="shared" si="0"/>
-        <v>-882730.5217157288</v>
+        <f>-VariableCostsBudget!G14</f>
+        <v>-867798.34033418808</v>
+      </c>
+      <c r="D19" s="108">
+        <f t="shared" si="0"/>
+        <v>-317798.34033418808</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>79</v>
@@ -4752,17 +4765,17 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="48">
         <f>SUM(C18:C19)</f>
-        <v>-2904545.7516837288</v>
-      </c>
-      <c r="D20" s="119">
-        <f t="shared" si="0"/>
-        <v>-1354545.7516837288</v>
+        <v>-2339613.5703021884</v>
+      </c>
+      <c r="D20" s="108">
+        <f t="shared" si="0"/>
+        <v>-789613.5703021884</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>80</v>
@@ -4771,17 +4784,17 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="50">
         <f>+C10+C13+C17+C20</f>
-        <v>12515779.655312713</v>
-      </c>
-      <c r="D21" s="119">
-        <f t="shared" si="0"/>
-        <v>1463776.6174972989</v>
+        <v>11693007.805312719</v>
+      </c>
+      <c r="D21" s="108">
+        <f t="shared" si="0"/>
+        <v>641004.76749730483</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>81</v>
@@ -4790,7 +4803,7 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4798,7 +4811,7 @@
         <f>-FixedCostsBudget!C3</f>
         <v>-5594785.9100000001</v>
       </c>
-      <c r="D22" s="119">
+      <c r="D22" s="108">
         <f t="shared" si="0"/>
         <v>55214.089999999851</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4817,7 +4830,7 @@
         <f>-FixedCostsBudget!C5</f>
         <v>-1050000</v>
       </c>
-      <c r="D23" s="119">
+      <c r="D23" s="108">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -4828,7 +4841,7 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4836,7 +4849,7 @@
         <f>-FixedCostsBudget!C7</f>
         <v>-307500</v>
       </c>
-      <c r="D24" s="119">
+      <c r="D24" s="108">
         <f t="shared" si="0"/>
         <v>-2500</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4855,7 +4868,7 @@
         <f>-FixedCostsBudget!C9</f>
         <v>-151700</v>
       </c>
-      <c r="D25" s="119">
+      <c r="D25" s="108">
         <f t="shared" si="0"/>
         <v>-6700</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4874,7 +4887,7 @@
         <f>-FixedCostsBudget!C11</f>
         <v>-309550</v>
       </c>
-      <c r="D26" s="119">
+      <c r="D26" s="108">
         <f t="shared" si="0"/>
         <v>-2550</v>
       </c>
@@ -4885,7 +4898,7 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4893,7 +4906,7 @@
         <f>-FixedCostsBudget!C13</f>
         <v>-212174.99999999997</v>
       </c>
-      <c r="D27" s="119">
+      <c r="D27" s="108">
         <f t="shared" si="0"/>
         <v>-2674.9999999999709</v>
       </c>
@@ -4904,7 +4917,7 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4912,7 +4925,7 @@
         <f>SUM(C22:C27)</f>
         <v>-7625710.9100000001</v>
       </c>
-      <c r="D28" s="119">
+      <c r="D28" s="108">
         <f t="shared" si="0"/>
         <v>90789.089999999851</v>
       </c>
@@ -4923,7 +4936,7 @@
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4931,7 +4944,7 @@
         <f>-FixedCostsBudget!C18</f>
         <v>-563750</v>
       </c>
-      <c r="D29" s="119">
+      <c r="D29" s="108">
         <f t="shared" si="0"/>
         <v>-7750</v>
       </c>
@@ -4943,7 +4956,7 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4951,7 +4964,7 @@
         <f>-FixedCostsBudget!C20</f>
         <v>-307500</v>
       </c>
-      <c r="D30" s="119">
+      <c r="D30" s="108">
         <f t="shared" si="0"/>
         <v>-10500</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4970,7 +4983,7 @@
         <f>-FixedCostsBudget!C22</f>
         <v>-102499.99999999999</v>
       </c>
-      <c r="D31" s="119">
+      <c r="D31" s="108">
         <f t="shared" si="0"/>
         <v>-4499.9999999999854</v>
       </c>
@@ -4981,7 +4994,7 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4989,7 +5002,7 @@
         <f>SUM(C29:C31)</f>
         <v>-973750</v>
       </c>
-      <c r="D32" s="119">
+      <c r="D32" s="108">
         <f t="shared" si="0"/>
         <v>-22750</v>
       </c>
@@ -5000,17 +5013,17 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="52">
         <f>+C21+C28+C32</f>
-        <v>3916318.7453127131</v>
-      </c>
-      <c r="D33" s="119">
-        <f t="shared" si="0"/>
-        <v>1531815.7074972987</v>
+        <v>3093546.895312719</v>
+      </c>
+      <c r="D33" s="108">
+        <f t="shared" si="0"/>
+        <v>709043.85749730468</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>93</v>
@@ -5019,7 +5032,7 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -5027,7 +5040,7 @@
         <f>-OthersBudget!C3</f>
         <v>-200000</v>
       </c>
-      <c r="D34" s="119">
+      <c r="D34" s="108">
         <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
@@ -5038,7 +5051,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -5046,7 +5059,7 @@
         <f>-OthersBudget!C5</f>
         <v>-796875</v>
       </c>
-      <c r="D35" s="119">
+      <c r="D35" s="108">
         <f t="shared" si="0"/>
         <v>13125</v>
       </c>
@@ -5057,7 +5070,7 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -5065,7 +5078,7 @@
         <f>-OthersBudget!C7</f>
         <v>0</v>
       </c>
-      <c r="D36" s="119">
+      <c r="D36" s="108">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
@@ -5076,7 +5089,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -5084,7 +5097,7 @@
         <f>SUM(C34:C36)</f>
         <v>-996875</v>
       </c>
-      <c r="D37" s="119">
+      <c r="D37" s="108">
         <f t="shared" si="0"/>
         <v>28125</v>
       </c>
@@ -5095,17 +5108,17 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="50">
         <f>+C33+C37</f>
-        <v>2919443.7453127131</v>
-      </c>
-      <c r="D38" s="119">
-        <f t="shared" si="0"/>
-        <v>1559940.7074972987</v>
+        <v>2096671.895312719</v>
+      </c>
+      <c r="D38" s="108">
+        <f t="shared" si="0"/>
+        <v>737168.85749730468</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>98</v>
@@ -5114,7 +5127,7 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -5122,7 +5135,7 @@
         <f>-OthersBudget!C9</f>
         <v>-227633.03999999998</v>
       </c>
-      <c r="D39" s="119">
+      <c r="D39" s="108">
         <f t="shared" si="0"/>
         <v>-87500</v>
       </c>
@@ -5133,7 +5146,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -5141,7 +5154,7 @@
         <f>OthersBudget!C11</f>
         <v>0</v>
       </c>
-      <c r="D40" s="119">
+      <c r="D40" s="108">
         <f t="shared" si="0"/>
         <v>-3543.6200000000003</v>
       </c>
@@ -5152,7 +5165,7 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -5160,7 +5173,7 @@
         <f>SUM(C39:C40)</f>
         <v>-227633.03999999998</v>
       </c>
-      <c r="D41" s="119">
+      <c r="D41" s="108">
         <f t="shared" si="0"/>
         <v>-91043.62</v>
       </c>
@@ -5171,17 +5184,17 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="50">
         <f>+C38+C41</f>
-        <v>2691810.705312713</v>
-      </c>
-      <c r="D42" s="119">
-        <f t="shared" si="0"/>
-        <v>1468897.0874972986</v>
+        <v>1869038.855312719</v>
+      </c>
+      <c r="D42" s="108">
+        <f t="shared" si="0"/>
+        <v>646125.23749730457</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>102</v>
@@ -5190,7 +5203,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5198,7 +5211,7 @@
         <f>-OthersBudget!C13</f>
         <v>0</v>
       </c>
-      <c r="D43" s="119">
+      <c r="D43" s="108">
         <f t="shared" si="0"/>
         <v>130503.97</v>
       </c>
@@ -5209,7 +5222,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5217,7 +5230,7 @@
         <f>OthersBudget!C15</f>
         <v>0</v>
       </c>
-      <c r="D44" s="119">
+      <c r="D44" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5228,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5236,7 +5249,7 @@
         <f>OthersBudget!C17</f>
         <v>0</v>
       </c>
-      <c r="D45" s="119">
+      <c r="D45" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5255,7 +5268,7 @@
         <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="119">
+      <c r="D46" s="108">
         <f t="shared" si="0"/>
         <v>130503.97</v>
       </c>
@@ -5266,17 +5279,17 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="50">
         <f>+C46+C42</f>
-        <v>2691810.705312713</v>
-      </c>
-      <c r="D47" s="119">
-        <f t="shared" si="0"/>
-        <v>1599401.0574972986</v>
+        <v>1869038.855312719</v>
+      </c>
+      <c r="D47" s="108">
+        <f t="shared" si="0"/>
+        <v>776629.20749730454</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>107</v>
@@ -5285,17 +5298,17 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="45">
         <f>-OthersBudget!C19</f>
-        <v>-807543.21159381384</v>
-      </c>
-      <c r="D48" s="119">
-        <f t="shared" si="0"/>
-        <v>-479820.31724919844</v>
+        <v>-560711.65659381566</v>
+      </c>
+      <c r="D48" s="108">
+        <f t="shared" si="0"/>
+        <v>-232988.76224920026</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>108</v>
@@ -5304,17 +5317,17 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="50">
         <f>C47+C48</f>
-        <v>1884267.4937188993</v>
-      </c>
-      <c r="D49" s="119">
-        <f t="shared" si="0"/>
-        <v>1119580.7402481004</v>
+        <v>1308327.1987189034</v>
+      </c>
+      <c r="D49" s="108">
+        <f t="shared" si="0"/>
+        <v>543640.44524810428</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>109</v>
@@ -5323,10 +5336,10 @@
         <v>764686.75347079907</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C50" s="102"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D54" s="102"/>
     </row>
   </sheetData>
@@ -5345,55 +5358,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="1"/>
-    <col min="19" max="19" width="8.77734375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="1"/>
+    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="113" t="s">
+    <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="116"/>
       <c r="S2" s="88"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -5434,7 +5445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -5766,7 +5777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -5813,7 +5824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -5856,7 +5867,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5909,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -5940,7 +5951,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -5982,7 +5993,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -6024,7 +6035,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -6066,7 +6077,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -6108,7 +6119,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -6150,7 +6161,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -6192,7 +6203,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -6234,7 +6245,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -6276,7 +6287,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -6318,7 +6329,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -6360,7 +6371,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -6402,7 +6413,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -6444,7 +6455,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -6489,7 +6500,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -6534,7 +6545,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6576,7 +6587,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -6618,7 +6629,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -6660,7 +6671,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -6702,7 +6713,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -6744,7 +6755,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -6785,7 +6796,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6827,7 +6838,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6869,7 +6880,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6910,7 +6921,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6952,7 +6963,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6993,7 +7004,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -7038,7 +7049,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -7083,7 +7094,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -7127,7 +7138,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -7172,7 +7183,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -7214,7 +7225,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -7256,7 +7267,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -7298,7 +7309,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -7340,7 +7351,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -7382,7 +7393,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -7427,7 +7438,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -7472,7 +7483,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -7517,7 +7528,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -7559,7 +7570,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -7601,7 +7612,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -7643,7 +7654,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -7685,7 +7696,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -7727,7 +7738,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -7769,7 +7780,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -7811,7 +7822,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -7853,7 +7864,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -7895,7 +7906,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -7937,7 +7948,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -7979,7 +7990,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -8021,7 +8032,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -8063,7 +8074,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -8103,7 +8114,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -8143,7 +8154,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -8169,7 +8180,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -8195,7 +8206,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -8222,7 +8233,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -8250,7 +8261,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -8274,7 +8285,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -8298,7 +8309,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -8323,7 +8334,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -8347,7 +8358,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -8375,7 +8386,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -8405,7 +8416,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -8435,7 +8446,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -8461,7 +8472,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -8487,7 +8498,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -8497,24 +8508,24 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -8531,24 +8542,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
-    </sheetView>
+    <sheetView topLeftCell="E49" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -8559,7 +8568,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -8586,7 +8595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>[2]Ricavi!J4</f>
@@ -8617,7 +8626,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>[2]Ricavi!J5</f>
@@ -8648,7 +8657,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>[2]Ricavi!J6</f>
@@ -8679,7 +8688,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>[2]Ricavi!J7</f>
@@ -8710,7 +8719,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>[2]Ricavi!J8</f>
@@ -8741,7 +8750,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>[2]Ricavi!J9</f>
@@ -8772,7 +8781,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>[2]Ricavi!J10</f>
@@ -8803,7 +8812,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>[2]Ricavi!J11</f>
@@ -8834,7 +8843,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>[2]Ricavi!J12</f>
@@ -8865,7 +8874,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>[2]Ricavi!J13</f>
@@ -8896,7 +8905,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>[2]Ricavi!J14</f>
@@ -8927,7 +8936,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>[2]Ricavi!J15</f>
@@ -8958,7 +8967,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>[2]Ricavi!J16</f>
@@ -8989,7 +8998,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>[2]Ricavi!J17</f>
@@ -9020,7 +9029,7 @@
       </c>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>[2]Ricavi!J18</f>
@@ -9052,7 +9061,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>[2]Ricavi!J19</f>
@@ -9083,7 +9092,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>[2]Ricavi!J20</f>
@@ -9114,7 +9123,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>[2]Ricavi!J21</f>
@@ -9145,7 +9154,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>[2]Ricavi!J22</f>
@@ -9176,7 +9185,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>[2]Ricavi!J23</f>
@@ -9209,7 +9218,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>[2]Ricavi!J24</f>
@@ -9240,7 +9249,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>[2]Ricavi!J25</f>
@@ -9272,7 +9281,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>[2]Ricavi!J26</f>
@@ -9303,7 +9312,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>[2]Ricavi!J27</f>
@@ -9334,7 +9343,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>[2]Ricavi!J28</f>
@@ -9365,7 +9374,7 @@
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>[2]Ricavi!J29</f>
@@ -9397,7 +9406,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>[2]Ricavi!J30</f>
@@ -9431,7 +9440,7 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>[2]Ricavi!J31</f>
@@ -9463,7 +9472,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>[2]Ricavi!J32</f>
@@ -9495,7 +9504,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>[2]Ricavi!J33</f>
@@ -9527,7 +9536,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>[2]Ricavi!J34</f>
@@ -9558,7 +9567,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>[2]Ricavi!J35</f>
@@ -9589,7 +9598,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>[2]Ricavi!J36</f>
@@ -9620,7 +9629,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>[2]Ricavi!J37</f>
@@ -9651,7 +9660,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>[2]Ricavi!J38</f>
@@ -9682,7 +9691,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>[2]Ricavi!J39</f>
@@ -9713,7 +9722,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>[2]Ricavi!J40</f>
@@ -9744,7 +9753,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>[2]Ricavi!J41</f>
@@ -9775,7 +9784,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>[2]Ricavi!J42</f>
@@ -9806,7 +9815,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>[2]Ricavi!J43</f>
@@ -9837,7 +9846,7 @@
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>[2]Ricavi!J44</f>
@@ -9868,7 +9877,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>[2]Ricavi!J45</f>
@@ -9899,7 +9908,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>[2]Ricavi!J46</f>
@@ -9932,7 +9941,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>[2]Ricavi!J47</f>
@@ -9963,7 +9972,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>[2]Ricavi!J48</f>
@@ -9994,7 +10003,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>[2]Ricavi!J49</f>
@@ -10025,7 +10034,7 @@
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>[2]Ricavi!J50</f>
@@ -10056,7 +10065,7 @@
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>[2]Ricavi!J51</f>
@@ -10087,7 +10096,7 @@
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>[2]Ricavi!J52</f>
@@ -10118,7 +10127,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>[2]Ricavi!J53</f>
@@ -10149,7 +10158,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>[2]Ricavi!J54</f>
@@ -10180,7 +10189,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>[2]Ricavi!J55</f>
@@ -10214,7 +10223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>[2]Ricavi!J56</f>
@@ -10249,7 +10258,7 @@
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>[2]Ricavi!J57</f>
@@ -10283,7 +10292,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>[2]Ricavi!J58</f>
@@ -10318,7 +10327,7 @@
         <v>196584.24189999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>[2]Ricavi!J59</f>
@@ -10352,7 +10361,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>[2]Ricavi!J60</f>
@@ -10387,7 +10396,7 @@
         <v>2489618.9618799998</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>[2]Ricavi!J61</f>
@@ -10418,7 +10427,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>[2]Ricavi!J62</f>
@@ -10449,7 +10458,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>[2]Ricavi!J63</f>
@@ -10480,7 +10489,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>[2]Ricavi!J64</f>
@@ -10511,7 +10520,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>[2]Ricavi!J65</f>
@@ -10541,7 +10550,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>[2]Ricavi!J66</f>
@@ -10572,7 +10581,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -10583,7 +10592,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -10608,41 +10617,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="1" width="2.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.54296875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="116" t="s">
+    <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="118"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -10660,7 +10669,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -10675,7 +10684,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -10697,7 +10706,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -10717,7 +10726,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -10737,7 +10746,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -10757,7 +10766,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -10775,7 +10784,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -10795,7 +10804,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -10815,7 +10824,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -10836,7 +10845,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -10858,23 +10867,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -10883,95 +10892,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -11002,22 +11011,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -11027,7 +11036,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -11042,7 +11051,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -11067,7 +11076,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -11097,7 +11106,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -11126,7 +11135,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -11155,7 +11164,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -11173,7 +11182,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -11194,7 +11203,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -11214,7 +11223,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -11229,7 +11238,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -11249,7 +11258,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -11268,12 +11277,12 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="96" t="s">
         <v>230</v>
       </c>
@@ -11282,7 +11291,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -11300,7 +11309,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -11319,7 +11328,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -11329,7 +11338,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -11349,7 +11358,7 @@
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -11364,7 +11373,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -11374,7 +11383,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -11389,7 +11398,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -11404,7 +11413,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -11418,7 +11427,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
@@ -11433,7 +11442,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -11441,10 +11450,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -11453,7 +11462,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -11462,7 +11471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -11471,7 +11480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
@@ -11480,7 +11489,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -11489,7 +11498,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -11497,7 +11506,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -11505,7 +11514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -11513,7 +11522,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -11522,7 +11531,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -11530,7 +11539,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -11539,7 +11548,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -11548,7 +11557,7 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
@@ -11557,7 +11566,7 @@
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -11566,7 +11575,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -11575,7 +11584,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -11592,133 +11601,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -11733,24 +11740,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -11762,10 +11767,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>238</v>
       </c>
@@ -11774,10 +11779,10 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>239</v>
       </c>
@@ -11786,10 +11791,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>240</v>
       </c>
@@ -11798,10 +11803,10 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>241</v>
       </c>
@@ -11810,10 +11815,10 @@
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -11822,10 +11827,10 @@
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="93" t="s">
         <v>246</v>
       </c>
@@ -11834,13 +11839,13 @@
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>243</v>
       </c>
@@ -11849,10 +11854,10 @@
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="94" t="s">
         <v>244</v>
       </c>
@@ -11861,10 +11866,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>245</v>
       </c>
@@ -11873,10 +11878,10 @@
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="93" t="s">
         <v>247</v>
       </c>
@@ -11885,13 +11890,13 @@
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="93" t="s">
         <v>248</v>
       </c>
@@ -11909,29 +11914,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -11939,13 +11942,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -11953,33 +11956,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -11990,67 +11993,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -12065,25 +12068,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -12091,7 +12092,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>254</v>
@@ -12102,13 +12103,13 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>255</v>
@@ -12119,13 +12120,13 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
         <v>256</v>
@@ -12135,13 +12136,13 @@
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>257</v>
@@ -12152,13 +12153,13 @@
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>258</v>
@@ -12168,13 +12169,13 @@
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
         <v>259</v>
@@ -12184,13 +12185,13 @@
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>260</v>
@@ -12200,13 +12201,13 @@
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>261</v>
@@ -12216,26 +12217,26 @@
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="96">
         <f>'CE Budget 2022'!C47*0.3</f>
-        <v>807543.21159381384</v>
+        <v>560711.65659381566</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>277</v>
       </c>
@@ -12243,7 +12244,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>278</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002714A5-77CC-4C19-9816-942E652CA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272EDE6F-C249-4B9E-A265-74B6F35A0F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="4" xr2:uid="{95440F54-80AC-4A51-8A6B-2203749B58E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{95440F54-80AC-4A51-8A6B-2203749B58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2022,6 +2021,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2054,13 +2060,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2705,737 +2704,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="CE 21-22"/>
-      <sheetName val="Ricavi"/>
-      <sheetName val="RicaviBudget"/>
-      <sheetName val="VariableCosts"/>
-      <sheetName val="VariableCostsBudget"/>
-      <sheetName val="FixedCosts"/>
-      <sheetName val="FixedCostsBudget"/>
-      <sheetName val="Others"/>
-      <sheetName val="OthersBudget"/>
-      <sheetName val="CE budget 2022"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="4">
-          <cell r="J4" t="str">
-            <v>MP1</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L4">
-            <v>48000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5" t="str">
-            <v>MP2</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L5">
-            <v>700</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6" t="str">
-            <v>MP3</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L6">
-            <v>1100</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7" t="str">
-            <v>MP4</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L7">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8" t="str">
-            <v>MP5</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L8">
-            <v>1925</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9" t="str">
-            <v>MP6</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L9">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10" t="str">
-            <v>MP7</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L10">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11" t="str">
-            <v>MP8</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L11">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12" t="str">
-            <v>MP9</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L12">
-            <v>7000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13" t="str">
-            <v>MP10</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L13">
-            <v>34866.400000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14" t="str">
-            <v>MP11</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L14">
-            <v>14037.12</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15" t="str">
-            <v>MP12</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L15">
-            <v>1904</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16" t="str">
-            <v>MP13</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L16">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17" t="str">
-            <v>MP14</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>MP</v>
-          </cell>
-          <cell r="L17">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18" t="str">
-            <v>PCL1</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>PCL</v>
-          </cell>
-          <cell r="L18">
-            <v>2160885</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19" t="str">
-            <v>PCL2</v>
-          </cell>
-          <cell r="K19" t="str">
-            <v>PCL</v>
-          </cell>
-          <cell r="L19">
-            <v>168325</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20" t="str">
-            <v>PCL3</v>
-          </cell>
-          <cell r="K20" t="str">
-            <v>PCL</v>
-          </cell>
-          <cell r="L20">
-            <v>495475</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21" t="str">
-            <v>PCL4</v>
-          </cell>
-          <cell r="K21" t="str">
-            <v>PCL</v>
-          </cell>
-          <cell r="L21">
-            <v>489058</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22" t="str">
-            <v>PCL5</v>
-          </cell>
-          <cell r="K22" t="str">
-            <v>PCL</v>
-          </cell>
-          <cell r="L22">
-            <v>6160</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23" t="str">
-            <v>PF P1</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L23">
-            <v>1719564</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24" t="str">
-            <v>PF P2</v>
-          </cell>
-          <cell r="K24" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L24">
-            <v>292499</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25" t="str">
-            <v>PF P3</v>
-          </cell>
-          <cell r="K25" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L25">
-            <v>442800</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26" t="str">
-            <v>PF P4</v>
-          </cell>
-          <cell r="K26" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L26">
-            <v>8070474</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27" t="str">
-            <v>PF P5</v>
-          </cell>
-          <cell r="K27" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L27">
-            <v>205850</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28" t="str">
-            <v>PF P6</v>
-          </cell>
-          <cell r="K28" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L28">
-            <v>3233156</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29" t="str">
-            <v>PF P7</v>
-          </cell>
-          <cell r="K29" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L29">
-            <v>660340</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30" t="str">
-            <v>PF V1</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L30">
-            <v>509668</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31" t="str">
-            <v>PF V2</v>
-          </cell>
-          <cell r="K31" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L31">
-            <v>2539984</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32" t="str">
-            <v>PF V3</v>
-          </cell>
-          <cell r="K32" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L32">
-            <v>879638</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33" t="str">
-            <v>PF V4</v>
-          </cell>
-          <cell r="K33" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L33">
-            <v>579689</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34" t="str">
-            <v>PF V5</v>
-          </cell>
-          <cell r="K34" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L34">
-            <v>448105</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35" t="str">
-            <v>PF V6</v>
-          </cell>
-          <cell r="K35" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L35">
-            <v>130100</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36" t="str">
-            <v>PF V7</v>
-          </cell>
-          <cell r="K36" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L36">
-            <v>13340</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37" t="str">
-            <v>PF V8</v>
-          </cell>
-          <cell r="K37" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L37">
-            <v>81820</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38" t="str">
-            <v>PF V9</v>
-          </cell>
-          <cell r="K38" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L38">
-            <v>21040</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39" t="str">
-            <v>PF V10</v>
-          </cell>
-          <cell r="K39" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L39">
-            <v>14625</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40" t="str">
-            <v>PF V11</v>
-          </cell>
-          <cell r="K40" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L40">
-            <v>307868</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41" t="str">
-            <v>PF V12</v>
-          </cell>
-          <cell r="K41" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L41">
-            <v>7000</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42" t="str">
-            <v>PF V13</v>
-          </cell>
-          <cell r="K42" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L42">
-            <v>850145</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43" t="str">
-            <v>PF V14</v>
-          </cell>
-          <cell r="K43" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L43">
-            <v>40480</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44" t="str">
-            <v>PF V15</v>
-          </cell>
-          <cell r="K44" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L44">
-            <v>30000</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45" t="str">
-            <v>PF V16</v>
-          </cell>
-          <cell r="K45" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L45">
-            <v>16500</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46" t="str">
-            <v>PF A1</v>
-          </cell>
-          <cell r="K46" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L46">
-            <v>94290</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47" t="str">
-            <v>PF A2</v>
-          </cell>
-          <cell r="K47" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L47">
-            <v>151620</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48" t="str">
-            <v>PF A3</v>
-          </cell>
-          <cell r="K48" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L48">
-            <v>411979</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49" t="str">
-            <v>PF A4</v>
-          </cell>
-          <cell r="K49" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L49">
-            <v>1362839</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50" t="str">
-            <v>PF A5</v>
-          </cell>
-          <cell r="K50" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L50">
-            <v>96425</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51" t="str">
-            <v>PF A6</v>
-          </cell>
-          <cell r="K51" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L51">
-            <v>61100</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52" t="str">
-            <v>PF A7</v>
-          </cell>
-          <cell r="K52" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L52">
-            <v>2820458.99</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53" t="str">
-            <v>PF A8</v>
-          </cell>
-          <cell r="K53" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L53">
-            <v>157263</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54" t="str">
-            <v>PF A9</v>
-          </cell>
-          <cell r="K54" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L54">
-            <v>261930</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55" t="str">
-            <v>PF A10</v>
-          </cell>
-          <cell r="K55" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L55">
-            <v>500680</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56" t="str">
-            <v>PF A11</v>
-          </cell>
-          <cell r="K56" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L56">
-            <v>62569</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57" t="str">
-            <v>PF A12</v>
-          </cell>
-          <cell r="K57" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L57">
-            <v>927765</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58" t="str">
-            <v>PF A13</v>
-          </cell>
-          <cell r="K58" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L58">
-            <v>129425</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59" t="str">
-            <v>PF A14</v>
-          </cell>
-          <cell r="K59" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L59">
-            <v>131955</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60" t="str">
-            <v>PF A15</v>
-          </cell>
-          <cell r="K60" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L60">
-            <v>375075</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61" t="str">
-            <v>PF A16</v>
-          </cell>
-          <cell r="K61" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L61">
-            <v>151110</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62" t="str">
-            <v>PF A17</v>
-          </cell>
-          <cell r="K62" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L62">
-            <v>240225</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63" t="str">
-            <v>PF A18</v>
-          </cell>
-          <cell r="K63" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L63">
-            <v>392880</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64" t="str">
-            <v>PF A19</v>
-          </cell>
-          <cell r="K64" t="str">
-            <v>PF</v>
-          </cell>
-          <cell r="L64">
-            <v>1325620</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65" t="str">
-            <v>Spese trasporto</v>
-          </cell>
-          <cell r="K65" t="str">
-            <v>Others</v>
-          </cell>
-          <cell r="L65">
-            <v>25000</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66" t="str">
-            <v>Premio Year22</v>
-          </cell>
-          <cell r="K66" t="str">
-            <v>Others</v>
-          </cell>
-          <cell r="L66">
-            <v>12</v>
-          </cell>
-          <cell r="M66">
-            <v>18980.987499999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3706,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3724,23 +2992,23 @@
   <sheetData>
     <row r="1" spans="2:14" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="115"/>
+      <c r="E2" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="116" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
@@ -3748,11 +3016,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="110"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -4425,7 +3693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4440,26 +3710,26 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="112"/>
+      <c r="C2" s="115"/>
       <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="112" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4470,11 +3740,11 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="110"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -4540,7 +3810,7 @@
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="109">
         <f>RicaviBudget!G64+RicaviBudget!G65</f>
         <v>-202771.84999999998</v>
       </c>
@@ -4674,7 +3944,7 @@
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="111">
         <f>-VariableCostsBudget!G11</f>
         <v>-153750</v>
       </c>
@@ -5338,6 +4608,9 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C50" s="102"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E53" s="102"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D54" s="102"/>
@@ -5358,7 +4631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5384,24 +4659,24 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="116"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
       <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8542,7 +7817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="E49" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8598,15 +7875,15 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
-        <f>[2]Ricavi!J4</f>
+        <f>Ricavi!J4</f>
         <v>MP1</v>
       </c>
       <c r="C3" s="96" t="str">
-        <f>[2]Ricavi!K4</f>
+        <f>Ricavi!K4</f>
         <v>MP</v>
       </c>
       <c r="D3" s="96">
-        <f>[2]Ricavi!L4</f>
+        <f>Ricavi!L4</f>
         <v>48000</v>
       </c>
       <c r="E3" s="96">
@@ -8629,15 +7906,15 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
-        <f>[2]Ricavi!J5</f>
+        <f>Ricavi!J5</f>
         <v>MP2</v>
       </c>
       <c r="C4" s="96" t="str">
-        <f>[2]Ricavi!K5</f>
+        <f>Ricavi!K5</f>
         <v>MP</v>
       </c>
       <c r="D4" s="96">
-        <f>[2]Ricavi!L5</f>
+        <f>Ricavi!L5</f>
         <v>700</v>
       </c>
       <c r="E4" s="96">
@@ -8660,15 +7937,15 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
-        <f>[2]Ricavi!J6</f>
+        <f>Ricavi!J6</f>
         <v>MP3</v>
       </c>
       <c r="C5" s="96" t="str">
-        <f>[2]Ricavi!K6</f>
+        <f>Ricavi!K6</f>
         <v>MP</v>
       </c>
       <c r="D5" s="96">
-        <f>[2]Ricavi!L6</f>
+        <f>Ricavi!L6</f>
         <v>1100</v>
       </c>
       <c r="E5" s="96">
@@ -8691,15 +7968,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
-        <f>[2]Ricavi!J7</f>
+        <f>Ricavi!J7</f>
         <v>MP4</v>
       </c>
       <c r="C6" s="96" t="str">
-        <f>[2]Ricavi!K7</f>
+        <f>Ricavi!K7</f>
         <v>MP</v>
       </c>
       <c r="D6" s="96">
-        <f>[2]Ricavi!L7</f>
+        <f>Ricavi!L7</f>
         <v>125</v>
       </c>
       <c r="E6" s="96">
@@ -8722,15 +7999,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
-        <f>[2]Ricavi!J8</f>
+        <f>Ricavi!J8</f>
         <v>MP5</v>
       </c>
       <c r="C7" s="96" t="str">
-        <f>[2]Ricavi!K8</f>
+        <f>Ricavi!K8</f>
         <v>MP</v>
       </c>
       <c r="D7" s="96">
-        <f>[2]Ricavi!L8</f>
+        <f>Ricavi!L8</f>
         <v>1925</v>
       </c>
       <c r="E7" s="96">
@@ -8753,15 +8030,15 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
-        <f>[2]Ricavi!J9</f>
+        <f>Ricavi!J9</f>
         <v>MP6</v>
       </c>
       <c r="C8" s="96" t="str">
-        <f>[2]Ricavi!K9</f>
+        <f>Ricavi!K9</f>
         <v>MP</v>
       </c>
       <c r="D8" s="96">
-        <f>[2]Ricavi!L9</f>
+        <f>Ricavi!L9</f>
         <v>125</v>
       </c>
       <c r="E8" s="96">
@@ -8784,15 +8061,15 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
-        <f>[2]Ricavi!J10</f>
+        <f>Ricavi!J10</f>
         <v>MP7</v>
       </c>
       <c r="C9" s="96" t="str">
-        <f>[2]Ricavi!K10</f>
+        <f>Ricavi!K10</f>
         <v>MP</v>
       </c>
       <c r="D9" s="96">
-        <f>[2]Ricavi!L10</f>
+        <f>Ricavi!L10</f>
         <v>2000</v>
       </c>
       <c r="E9" s="96">
@@ -8815,15 +8092,15 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
-        <f>[2]Ricavi!J11</f>
+        <f>Ricavi!J11</f>
         <v>MP8</v>
       </c>
       <c r="C10" s="96" t="str">
-        <f>[2]Ricavi!K11</f>
+        <f>Ricavi!K11</f>
         <v>MP</v>
       </c>
       <c r="D10" s="96">
-        <f>[2]Ricavi!L11</f>
+        <f>Ricavi!L11</f>
         <v>1000</v>
       </c>
       <c r="E10" s="96">
@@ -8846,15 +8123,15 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
-        <f>[2]Ricavi!J12</f>
+        <f>Ricavi!J12</f>
         <v>MP9</v>
       </c>
       <c r="C11" s="96" t="str">
-        <f>[2]Ricavi!K12</f>
+        <f>Ricavi!K12</f>
         <v>MP</v>
       </c>
       <c r="D11" s="96">
-        <f>[2]Ricavi!L12</f>
+        <f>Ricavi!L12</f>
         <v>7000</v>
       </c>
       <c r="E11" s="96">
@@ -8877,15 +8154,15 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
-        <f>[2]Ricavi!J13</f>
+        <f>Ricavi!J13</f>
         <v>MP10</v>
       </c>
       <c r="C12" s="96" t="str">
-        <f>[2]Ricavi!K13</f>
+        <f>Ricavi!K13</f>
         <v>MP</v>
       </c>
       <c r="D12" s="96">
-        <f>[2]Ricavi!L13</f>
+        <f>Ricavi!L13</f>
         <v>34866.400000000001</v>
       </c>
       <c r="E12" s="96">
@@ -8908,15 +8185,15 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
-        <f>[2]Ricavi!J14</f>
+        <f>Ricavi!J14</f>
         <v>MP11</v>
       </c>
       <c r="C13" s="96" t="str">
-        <f>[2]Ricavi!K14</f>
+        <f>Ricavi!K14</f>
         <v>MP</v>
       </c>
       <c r="D13" s="96">
-        <f>[2]Ricavi!L14</f>
+        <f>Ricavi!L14</f>
         <v>14037.12</v>
       </c>
       <c r="E13" s="96">
@@ -8939,15 +8216,15 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
-        <f>[2]Ricavi!J15</f>
+        <f>Ricavi!J15</f>
         <v>MP12</v>
       </c>
       <c r="C14" s="96" t="str">
-        <f>[2]Ricavi!K15</f>
+        <f>Ricavi!K15</f>
         <v>MP</v>
       </c>
       <c r="D14" s="96">
-        <f>[2]Ricavi!L15</f>
+        <f>Ricavi!L15</f>
         <v>1904</v>
       </c>
       <c r="E14" s="96">
@@ -8970,15 +8247,15 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
-        <f>[2]Ricavi!J16</f>
+        <f>Ricavi!J16</f>
         <v>MP13</v>
       </c>
       <c r="C15" s="96" t="str">
-        <f>[2]Ricavi!K16</f>
+        <f>Ricavi!K16</f>
         <v>MP</v>
       </c>
       <c r="D15" s="96">
-        <f>[2]Ricavi!L16</f>
+        <f>Ricavi!L16</f>
         <v>150</v>
       </c>
       <c r="E15" s="96">
@@ -9001,15 +8278,15 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
-        <f>[2]Ricavi!J17</f>
+        <f>Ricavi!J17</f>
         <v>MP14</v>
       </c>
       <c r="C16" s="96" t="str">
-        <f>[2]Ricavi!K17</f>
+        <f>Ricavi!K17</f>
         <v>MP</v>
       </c>
       <c r="D16" s="96">
-        <f>[2]Ricavi!L17</f>
+        <f>Ricavi!L17</f>
         <v>20</v>
       </c>
       <c r="E16" s="96">
@@ -9032,15 +8309,15 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
-        <f>[2]Ricavi!J18</f>
+        <f>Ricavi!J18</f>
         <v>PCL1</v>
       </c>
       <c r="C17" s="96" t="str">
-        <f>[2]Ricavi!K18</f>
+        <f>Ricavi!K18</f>
         <v>PCL</v>
       </c>
       <c r="D17" s="96">
-        <f>[2]Ricavi!L18</f>
+        <f>Ricavi!L18</f>
         <v>2160885</v>
       </c>
       <c r="E17" s="96">
@@ -9064,15 +8341,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
-        <f>[2]Ricavi!J19</f>
+        <f>Ricavi!J19</f>
         <v>PCL2</v>
       </c>
       <c r="C18" s="96" t="str">
-        <f>[2]Ricavi!K19</f>
+        <f>Ricavi!K19</f>
         <v>PCL</v>
       </c>
       <c r="D18" s="96">
-        <f>[2]Ricavi!L19</f>
+        <f>Ricavi!L19</f>
         <v>168325</v>
       </c>
       <c r="E18" s="96">
@@ -9095,15 +8372,15 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
-        <f>[2]Ricavi!J20</f>
+        <f>Ricavi!J20</f>
         <v>PCL3</v>
       </c>
       <c r="C19" s="96" t="str">
-        <f>[2]Ricavi!K20</f>
+        <f>Ricavi!K20</f>
         <v>PCL</v>
       </c>
       <c r="D19" s="96">
-        <f>[2]Ricavi!L20</f>
+        <f>Ricavi!L20</f>
         <v>495475</v>
       </c>
       <c r="E19" s="96">
@@ -9126,15 +8403,15 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
-        <f>[2]Ricavi!J21</f>
+        <f>Ricavi!J21</f>
         <v>PCL4</v>
       </c>
       <c r="C20" s="96" t="str">
-        <f>[2]Ricavi!K21</f>
+        <f>Ricavi!K21</f>
         <v>PCL</v>
       </c>
       <c r="D20" s="96">
-        <f>[2]Ricavi!L21</f>
+        <f>Ricavi!L21</f>
         <v>489058</v>
       </c>
       <c r="E20" s="96">
@@ -9157,15 +8434,15 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
-        <f>[2]Ricavi!J22</f>
+        <f>Ricavi!J22</f>
         <v>PCL5</v>
       </c>
       <c r="C21" s="96" t="str">
-        <f>[2]Ricavi!K22</f>
+        <f>Ricavi!K22</f>
         <v>PCL</v>
       </c>
       <c r="D21" s="96">
-        <f>[2]Ricavi!L22</f>
+        <f>Ricavi!L22</f>
         <v>6160</v>
       </c>
       <c r="E21" s="96">
@@ -9188,15 +8465,15 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
-        <f>[2]Ricavi!J23</f>
+        <f>Ricavi!J23</f>
         <v>PF P1</v>
       </c>
       <c r="C22" s="96" t="str">
-        <f>[2]Ricavi!K23</f>
+        <f>Ricavi!K23</f>
         <v>PF</v>
       </c>
       <c r="D22" s="96">
-        <f>[2]Ricavi!L23</f>
+        <f>Ricavi!L23</f>
         <v>1719564</v>
       </c>
       <c r="E22" s="96">
@@ -9221,15 +8498,15 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
-        <f>[2]Ricavi!J24</f>
+        <f>Ricavi!J24</f>
         <v>PF P2</v>
       </c>
       <c r="C23" s="96" t="str">
-        <f>[2]Ricavi!K24</f>
+        <f>Ricavi!K24</f>
         <v>PF</v>
       </c>
       <c r="D23" s="96">
-        <f>[2]Ricavi!L24</f>
+        <f>Ricavi!L24</f>
         <v>292499</v>
       </c>
       <c r="E23" s="96">
@@ -9252,15 +8529,15 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
-        <f>[2]Ricavi!J25</f>
+        <f>Ricavi!J25</f>
         <v>PF P3</v>
       </c>
       <c r="C24" s="96" t="str">
-        <f>[2]Ricavi!K25</f>
+        <f>Ricavi!K25</f>
         <v>PF</v>
       </c>
       <c r="D24" s="96">
-        <f>[2]Ricavi!L25</f>
+        <f>Ricavi!L25</f>
         <v>442800</v>
       </c>
       <c r="E24" s="96">
@@ -9284,15 +8561,15 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
-        <f>[2]Ricavi!J26</f>
+        <f>Ricavi!J26</f>
         <v>PF P4</v>
       </c>
       <c r="C25" s="96" t="str">
-        <f>[2]Ricavi!K26</f>
+        <f>Ricavi!K26</f>
         <v>PF</v>
       </c>
       <c r="D25" s="96">
-        <f>[2]Ricavi!L26</f>
+        <f>Ricavi!L26</f>
         <v>8070474</v>
       </c>
       <c r="E25" s="96">
@@ -9315,15 +8592,15 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
-        <f>[2]Ricavi!J27</f>
+        <f>Ricavi!J27</f>
         <v>PF P5</v>
       </c>
       <c r="C26" s="96" t="str">
-        <f>[2]Ricavi!K27</f>
+        <f>Ricavi!K27</f>
         <v>PF</v>
       </c>
       <c r="D26" s="96">
-        <f>[2]Ricavi!L27</f>
+        <f>Ricavi!L27</f>
         <v>205850</v>
       </c>
       <c r="E26" s="96">
@@ -9346,15 +8623,15 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
-        <f>[2]Ricavi!J28</f>
+        <f>Ricavi!J28</f>
         <v>PF P6</v>
       </c>
       <c r="C27" s="96" t="str">
-        <f>[2]Ricavi!K28</f>
+        <f>Ricavi!K28</f>
         <v>PF</v>
       </c>
       <c r="D27" s="96">
-        <f>[2]Ricavi!L28</f>
+        <f>Ricavi!L28</f>
         <v>3233156</v>
       </c>
       <c r="E27" s="96">
@@ -9377,15 +8654,15 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
-        <f>[2]Ricavi!J29</f>
+        <f>Ricavi!J29</f>
         <v>PF P7</v>
       </c>
       <c r="C28" s="96" t="str">
-        <f>[2]Ricavi!K29</f>
+        <f>Ricavi!K29</f>
         <v>PF</v>
       </c>
       <c r="D28" s="96">
-        <f>[2]Ricavi!L29</f>
+        <f>Ricavi!L29</f>
         <v>660340</v>
       </c>
       <c r="E28" s="96">
@@ -9409,15 +8686,15 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
-        <f>[2]Ricavi!J30</f>
+        <f>Ricavi!J30</f>
         <v>PF V1</v>
       </c>
       <c r="C29" s="96" t="str">
-        <f>[2]Ricavi!K30</f>
+        <f>Ricavi!K30</f>
         <v>PF</v>
       </c>
       <c r="D29" s="96">
-        <f>[2]Ricavi!L30</f>
+        <f>Ricavi!L30</f>
         <v>509668</v>
       </c>
       <c r="E29" s="96">
@@ -9443,15 +8720,15 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
-        <f>[2]Ricavi!J31</f>
+        <f>Ricavi!J31</f>
         <v>PF V2</v>
       </c>
       <c r="C30" s="96" t="str">
-        <f>[2]Ricavi!K31</f>
+        <f>Ricavi!K31</f>
         <v>PF</v>
       </c>
       <c r="D30" s="96">
-        <f>[2]Ricavi!L31</f>
+        <f>Ricavi!L31</f>
         <v>2539984</v>
       </c>
       <c r="E30" s="96">
@@ -9475,15 +8752,15 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
-        <f>[2]Ricavi!J32</f>
+        <f>Ricavi!J32</f>
         <v>PF V3</v>
       </c>
       <c r="C31" s="96" t="str">
-        <f>[2]Ricavi!K32</f>
+        <f>Ricavi!K32</f>
         <v>PF</v>
       </c>
       <c r="D31" s="96">
-        <f>[2]Ricavi!L32</f>
+        <f>Ricavi!L32</f>
         <v>879638</v>
       </c>
       <c r="E31" s="96">
@@ -9507,15 +8784,15 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
-        <f>[2]Ricavi!J33</f>
+        <f>Ricavi!J33</f>
         <v>PF V4</v>
       </c>
       <c r="C32" s="96" t="str">
-        <f>[2]Ricavi!K33</f>
+        <f>Ricavi!K33</f>
         <v>PF</v>
       </c>
       <c r="D32" s="96">
-        <f>[2]Ricavi!L33</f>
+        <f>Ricavi!L33</f>
         <v>579689</v>
       </c>
       <c r="E32" s="96">
@@ -9539,15 +8816,15 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
-        <f>[2]Ricavi!J34</f>
+        <f>Ricavi!J34</f>
         <v>PF V5</v>
       </c>
       <c r="C33" s="96" t="str">
-        <f>[2]Ricavi!K34</f>
+        <f>Ricavi!K34</f>
         <v>PF</v>
       </c>
       <c r="D33" s="96">
-        <f>[2]Ricavi!L34</f>
+        <f>Ricavi!L34</f>
         <v>448105</v>
       </c>
       <c r="E33" s="96">
@@ -9570,15 +8847,15 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
-        <f>[2]Ricavi!J35</f>
+        <f>Ricavi!J35</f>
         <v>PF V6</v>
       </c>
       <c r="C34" s="96" t="str">
-        <f>[2]Ricavi!K35</f>
+        <f>Ricavi!K35</f>
         <v>PF</v>
       </c>
       <c r="D34" s="96">
-        <f>[2]Ricavi!L35</f>
+        <f>Ricavi!L35</f>
         <v>130100</v>
       </c>
       <c r="E34" s="96">
@@ -9601,15 +8878,15 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
-        <f>[2]Ricavi!J36</f>
+        <f>Ricavi!J36</f>
         <v>PF V7</v>
       </c>
       <c r="C35" s="96" t="str">
-        <f>[2]Ricavi!K36</f>
+        <f>Ricavi!K36</f>
         <v>PF</v>
       </c>
       <c r="D35" s="96">
-        <f>[2]Ricavi!L36</f>
+        <f>Ricavi!L36</f>
         <v>13340</v>
       </c>
       <c r="E35" s="96">
@@ -9632,15 +8909,15 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
-        <f>[2]Ricavi!J37</f>
+        <f>Ricavi!J37</f>
         <v>PF V8</v>
       </c>
       <c r="C36" s="96" t="str">
-        <f>[2]Ricavi!K37</f>
+        <f>Ricavi!K37</f>
         <v>PF</v>
       </c>
       <c r="D36" s="96">
-        <f>[2]Ricavi!L37</f>
+        <f>Ricavi!L37</f>
         <v>81820</v>
       </c>
       <c r="E36" s="96">
@@ -9663,15 +8940,15 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
-        <f>[2]Ricavi!J38</f>
+        <f>Ricavi!J38</f>
         <v>PF V9</v>
       </c>
       <c r="C37" s="96" t="str">
-        <f>[2]Ricavi!K38</f>
+        <f>Ricavi!K38</f>
         <v>PF</v>
       </c>
       <c r="D37" s="96">
-        <f>[2]Ricavi!L38</f>
+        <f>Ricavi!L38</f>
         <v>21040</v>
       </c>
       <c r="E37" s="96">
@@ -9694,15 +8971,15 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
-        <f>[2]Ricavi!J39</f>
+        <f>Ricavi!J39</f>
         <v>PF V10</v>
       </c>
       <c r="C38" s="96" t="str">
-        <f>[2]Ricavi!K39</f>
+        <f>Ricavi!K39</f>
         <v>PF</v>
       </c>
       <c r="D38" s="96">
-        <f>[2]Ricavi!L39</f>
+        <f>Ricavi!L39</f>
         <v>14625</v>
       </c>
       <c r="E38" s="96">
@@ -9725,15 +9002,15 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
-        <f>[2]Ricavi!J40</f>
+        <f>Ricavi!J40</f>
         <v>PF V11</v>
       </c>
       <c r="C39" s="96" t="str">
-        <f>[2]Ricavi!K40</f>
+        <f>Ricavi!K40</f>
         <v>PF</v>
       </c>
       <c r="D39" s="96">
-        <f>[2]Ricavi!L40</f>
+        <f>Ricavi!L40</f>
         <v>307868</v>
       </c>
       <c r="E39" s="96">
@@ -9756,15 +9033,15 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
-        <f>[2]Ricavi!J41</f>
+        <f>Ricavi!J41</f>
         <v>PF V12</v>
       </c>
       <c r="C40" s="96" t="str">
-        <f>[2]Ricavi!K41</f>
+        <f>Ricavi!K41</f>
         <v>PF</v>
       </c>
       <c r="D40" s="96">
-        <f>[2]Ricavi!L41</f>
+        <f>Ricavi!L41</f>
         <v>7000</v>
       </c>
       <c r="E40" s="96">
@@ -9787,15 +9064,15 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
-        <f>[2]Ricavi!J42</f>
+        <f>Ricavi!J42</f>
         <v>PF V13</v>
       </c>
       <c r="C41" s="96" t="str">
-        <f>[2]Ricavi!K42</f>
+        <f>Ricavi!K42</f>
         <v>PF</v>
       </c>
       <c r="D41" s="96">
-        <f>[2]Ricavi!L42</f>
+        <f>Ricavi!L42</f>
         <v>850145</v>
       </c>
       <c r="E41" s="96">
@@ -9818,15 +9095,15 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
-        <f>[2]Ricavi!J43</f>
+        <f>Ricavi!J43</f>
         <v>PF V14</v>
       </c>
       <c r="C42" s="96" t="str">
-        <f>[2]Ricavi!K43</f>
+        <f>Ricavi!K43</f>
         <v>PF</v>
       </c>
       <c r="D42" s="96">
-        <f>[2]Ricavi!L43</f>
+        <f>Ricavi!L43</f>
         <v>40480</v>
       </c>
       <c r="E42" s="96">
@@ -9849,15 +9126,15 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
-        <f>[2]Ricavi!J44</f>
+        <f>Ricavi!J44</f>
         <v>PF V15</v>
       </c>
       <c r="C43" s="96" t="str">
-        <f>[2]Ricavi!K44</f>
+        <f>Ricavi!K44</f>
         <v>PF</v>
       </c>
       <c r="D43" s="96">
-        <f>[2]Ricavi!L44</f>
+        <f>Ricavi!L44</f>
         <v>30000</v>
       </c>
       <c r="E43" s="96">
@@ -9880,15 +9157,15 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
-        <f>[2]Ricavi!J45</f>
+        <f>Ricavi!J45</f>
         <v>PF V16</v>
       </c>
       <c r="C44" s="96" t="str">
-        <f>[2]Ricavi!K45</f>
+        <f>Ricavi!K45</f>
         <v>PF</v>
       </c>
       <c r="D44" s="96">
-        <f>[2]Ricavi!L45</f>
+        <f>Ricavi!L45</f>
         <v>16500</v>
       </c>
       <c r="E44" s="96">
@@ -9911,15 +9188,15 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
-        <f>[2]Ricavi!J46</f>
+        <f>Ricavi!J46</f>
         <v>PF A1</v>
       </c>
       <c r="C45" s="96" t="str">
-        <f>[2]Ricavi!K46</f>
+        <f>Ricavi!K46</f>
         <v>PF</v>
       </c>
       <c r="D45" s="96">
-        <f>[2]Ricavi!L46</f>
+        <f>Ricavi!L46</f>
         <v>94290</v>
       </c>
       <c r="E45" s="96">
@@ -9944,15 +9221,15 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
-        <f>[2]Ricavi!J47</f>
+        <f>Ricavi!J47</f>
         <v>PF A2</v>
       </c>
       <c r="C46" s="96" t="str">
-        <f>[2]Ricavi!K47</f>
+        <f>Ricavi!K47</f>
         <v>PF</v>
       </c>
       <c r="D46" s="96">
-        <f>[2]Ricavi!L47</f>
+        <f>Ricavi!L47</f>
         <v>151620</v>
       </c>
       <c r="E46" s="96">
@@ -9975,15 +9252,15 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
-        <f>[2]Ricavi!J48</f>
+        <f>Ricavi!J48</f>
         <v>PF A3</v>
       </c>
       <c r="C47" s="96" t="str">
-        <f>[2]Ricavi!K48</f>
+        <f>Ricavi!K48</f>
         <v>PF</v>
       </c>
       <c r="D47" s="96">
-        <f>[2]Ricavi!L48</f>
+        <f>Ricavi!L48</f>
         <v>411979</v>
       </c>
       <c r="E47" s="96">
@@ -10006,15 +9283,15 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
-        <f>[2]Ricavi!J49</f>
+        <f>Ricavi!J49</f>
         <v>PF A4</v>
       </c>
       <c r="C48" s="96" t="str">
-        <f>[2]Ricavi!K49</f>
+        <f>Ricavi!K49</f>
         <v>PF</v>
       </c>
       <c r="D48" s="96">
-        <f>[2]Ricavi!L49</f>
+        <f>Ricavi!L49</f>
         <v>1362839</v>
       </c>
       <c r="E48" s="96">
@@ -10037,15 +9314,15 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
-        <f>[2]Ricavi!J50</f>
+        <f>Ricavi!J50</f>
         <v>PF A5</v>
       </c>
       <c r="C49" s="96" t="str">
-        <f>[2]Ricavi!K50</f>
+        <f>Ricavi!K50</f>
         <v>PF</v>
       </c>
       <c r="D49" s="96">
-        <f>[2]Ricavi!L50</f>
+        <f>Ricavi!L50</f>
         <v>96425</v>
       </c>
       <c r="E49" s="96">
@@ -10068,15 +9345,15 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
-        <f>[2]Ricavi!J51</f>
+        <f>Ricavi!J51</f>
         <v>PF A6</v>
       </c>
       <c r="C50" s="96" t="str">
-        <f>[2]Ricavi!K51</f>
+        <f>Ricavi!K51</f>
         <v>PF</v>
       </c>
       <c r="D50" s="96">
-        <f>[2]Ricavi!L51</f>
+        <f>Ricavi!L51</f>
         <v>61100</v>
       </c>
       <c r="E50" s="96">
@@ -10099,15 +9376,15 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
-        <f>[2]Ricavi!J52</f>
+        <f>Ricavi!J52</f>
         <v>PF A7</v>
       </c>
       <c r="C51" s="96" t="str">
-        <f>[2]Ricavi!K52</f>
+        <f>Ricavi!K52</f>
         <v>PF</v>
       </c>
       <c r="D51" s="96">
-        <f>[2]Ricavi!L52</f>
+        <f>Ricavi!L52</f>
         <v>2820458.99</v>
       </c>
       <c r="E51" s="96">
@@ -10130,15 +9407,15 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
-        <f>[2]Ricavi!J53</f>
+        <f>Ricavi!J53</f>
         <v>PF A8</v>
       </c>
       <c r="C52" s="96" t="str">
-        <f>[2]Ricavi!K53</f>
+        <f>Ricavi!K53</f>
         <v>PF</v>
       </c>
       <c r="D52" s="96">
-        <f>[2]Ricavi!L53</f>
+        <f>Ricavi!L53</f>
         <v>157263</v>
       </c>
       <c r="E52" s="96">
@@ -10161,15 +9438,15 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
-        <f>[2]Ricavi!J54</f>
+        <f>Ricavi!J54</f>
         <v>PF A9</v>
       </c>
       <c r="C53" s="96" t="str">
-        <f>[2]Ricavi!K54</f>
+        <f>Ricavi!K54</f>
         <v>PF</v>
       </c>
       <c r="D53" s="96">
-        <f>[2]Ricavi!L54</f>
+        <f>Ricavi!L54</f>
         <v>261930</v>
       </c>
       <c r="E53" s="96">
@@ -10192,15 +9469,15 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
-        <f>[2]Ricavi!J55</f>
+        <f>Ricavi!J55</f>
         <v>PF A10</v>
       </c>
       <c r="C54" s="96" t="str">
-        <f>[2]Ricavi!K55</f>
+        <f>Ricavi!K55</f>
         <v>PF</v>
       </c>
       <c r="D54" s="96">
-        <f>[2]Ricavi!L55</f>
+        <f>Ricavi!L55</f>
         <v>500680</v>
       </c>
       <c r="E54" s="96">
@@ -10226,15 +9503,15 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
-        <f>[2]Ricavi!J56</f>
+        <f>Ricavi!J56</f>
         <v>PF A11</v>
       </c>
       <c r="C55" s="96" t="str">
-        <f>[2]Ricavi!K56</f>
+        <f>Ricavi!K56</f>
         <v>PF</v>
       </c>
       <c r="D55" s="96">
-        <f>[2]Ricavi!L56</f>
+        <f>Ricavi!L56</f>
         <v>62569</v>
       </c>
       <c r="E55" s="96">
@@ -10261,15 +9538,15 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
-        <f>[2]Ricavi!J57</f>
+        <f>Ricavi!J57</f>
         <v>PF A12</v>
       </c>
       <c r="C56" s="96" t="str">
-        <f>[2]Ricavi!K57</f>
+        <f>Ricavi!K57</f>
         <v>PF</v>
       </c>
       <c r="D56" s="96">
-        <f>[2]Ricavi!L57</f>
+        <f>Ricavi!L57</f>
         <v>927765</v>
       </c>
       <c r="E56" s="96">
@@ -10295,15 +9572,15 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
-        <f>[2]Ricavi!J58</f>
+        <f>Ricavi!J58</f>
         <v>PF A13</v>
       </c>
       <c r="C57" s="96" t="str">
-        <f>[2]Ricavi!K58</f>
+        <f>Ricavi!K58</f>
         <v>PF</v>
       </c>
       <c r="D57" s="96">
-        <f>[2]Ricavi!L58</f>
+        <f>Ricavi!L58</f>
         <v>129425</v>
       </c>
       <c r="E57" s="96">
@@ -10330,15 +9607,15 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
-        <f>[2]Ricavi!J59</f>
+        <f>Ricavi!J59</f>
         <v>PF A14</v>
       </c>
       <c r="C58" s="96" t="str">
-        <f>[2]Ricavi!K59</f>
+        <f>Ricavi!K59</f>
         <v>PF</v>
       </c>
       <c r="D58" s="96">
-        <f>[2]Ricavi!L59</f>
+        <f>Ricavi!L59</f>
         <v>131955</v>
       </c>
       <c r="E58" s="96">
@@ -10364,15 +9641,15 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
-        <f>[2]Ricavi!J60</f>
+        <f>Ricavi!J60</f>
         <v>PF A15</v>
       </c>
       <c r="C59" s="96" t="str">
-        <f>[2]Ricavi!K60</f>
+        <f>Ricavi!K60</f>
         <v>PF</v>
       </c>
       <c r="D59" s="96">
-        <f>[2]Ricavi!L60</f>
+        <f>Ricavi!L60</f>
         <v>375075</v>
       </c>
       <c r="E59" s="96">
@@ -10399,15 +9676,15 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
-        <f>[2]Ricavi!J61</f>
+        <f>Ricavi!J61</f>
         <v>PF A16</v>
       </c>
       <c r="C60" s="96" t="str">
-        <f>[2]Ricavi!K61</f>
+        <f>Ricavi!K61</f>
         <v>PF</v>
       </c>
       <c r="D60" s="96">
-        <f>[2]Ricavi!L61</f>
+        <f>Ricavi!L61</f>
         <v>151110</v>
       </c>
       <c r="E60" s="96">
@@ -10430,15 +9707,15 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
-        <f>[2]Ricavi!J62</f>
+        <f>Ricavi!J62</f>
         <v>PF A17</v>
       </c>
       <c r="C61" s="96" t="str">
-        <f>[2]Ricavi!K62</f>
+        <f>Ricavi!K62</f>
         <v>PF</v>
       </c>
       <c r="D61" s="96">
-        <f>[2]Ricavi!L62</f>
+        <f>Ricavi!L62</f>
         <v>240225</v>
       </c>
       <c r="E61" s="96">
@@ -10461,15 +9738,15 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
-        <f>[2]Ricavi!J63</f>
+        <f>Ricavi!J63</f>
         <v>PF A18</v>
       </c>
       <c r="C62" s="96" t="str">
-        <f>[2]Ricavi!K63</f>
+        <f>Ricavi!K63</f>
         <v>PF</v>
       </c>
       <c r="D62" s="96">
-        <f>[2]Ricavi!L63</f>
+        <f>Ricavi!L63</f>
         <v>392880</v>
       </c>
       <c r="E62" s="96">
@@ -10492,15 +9769,15 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
-        <f>[2]Ricavi!J64</f>
+        <f>Ricavi!J64</f>
         <v>PF A19</v>
       </c>
       <c r="C63" s="96" t="str">
-        <f>[2]Ricavi!K64</f>
+        <f>Ricavi!K64</f>
         <v>PF</v>
       </c>
       <c r="D63" s="96">
-        <f>[2]Ricavi!L64</f>
+        <f>Ricavi!L64</f>
         <v>1325620</v>
       </c>
       <c r="E63" s="96">
@@ -10523,15 +9800,15 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
-        <f>[2]Ricavi!J65</f>
+        <f>Ricavi!J65</f>
         <v>Spese trasporto</v>
       </c>
       <c r="C64" s="96" t="str">
-        <f>[2]Ricavi!K65</f>
+        <f>Ricavi!K65</f>
         <v>Others</v>
       </c>
       <c r="D64" s="96">
-        <f>[2]Ricavi!L65</f>
+        <f>Ricavi!L65</f>
         <v>25000</v>
       </c>
       <c r="E64" s="96">
@@ -10553,19 +9830,19 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
-        <f>[2]Ricavi!J66</f>
+        <f>Ricavi!J66</f>
         <v>Premio Year22</v>
       </c>
       <c r="C65" s="96" t="str">
-        <f>[2]Ricavi!K66</f>
+        <f>Ricavi!K66</f>
         <v>Others</v>
       </c>
       <c r="D65" s="96">
-        <f>[2]Ricavi!L66</f>
+        <f>Ricavi!L66</f>
         <v>12</v>
       </c>
       <c r="E65" s="96">
-        <f>[2]Ricavi!M66</f>
+        <f>Ricavi!M66</f>
         <v>18980.987499999999</v>
       </c>
       <c r="F65" s="96" t="s">
@@ -10634,22 +9911,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -11011,7 +10288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -11282,7 +10559,7 @@
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
-      <c r="E13" s="121"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="96" t="s">
         <v>230</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272EDE6F-C249-4B9E-A265-74B6F35A0F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6404DE-B496-4DAA-B78B-345EB90F2C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{95440F54-80AC-4A51-8A6B-2203749B58E4}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{F3D2BC44-8B96-4191-A951-D452051F21FF}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="Others" sheetId="6" r:id="rId8"/>
     <sheet name="OthersBudget" sheetId="10" r:id="rId9"/>
     <sheet name="CE Budget 2022" sheetId="11" r:id="rId10"/>
+    <sheet name="Analisi degli scostamenti" sheetId="12" r:id="rId11"/>
+    <sheet name="VariableCostsC" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="358">
   <si>
     <t>MP1</t>
   </si>
@@ -1057,12 +1060,174 @@
   <si>
     <t>DELTA</t>
   </si>
+  <si>
+    <t>Budget 2022</t>
+  </si>
+  <si>
+    <t>Volume (kg)</t>
+  </si>
+  <si>
+    <t>Ricavi (€)</t>
+  </si>
+  <si>
+    <t>Voce</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Reale</t>
+  </si>
+  <si>
+    <t>∆ Reale-Budget</t>
+  </si>
+  <si>
+    <t>Mix Standard</t>
+  </si>
+  <si>
+    <t>∆ Mix Standard-Budget</t>
+  </si>
+  <si>
+    <t>Mix Effettivo</t>
+  </si>
+  <si>
+    <t>∆ Mix Effettivo-Budget</t>
+  </si>
+  <si>
+    <t>In kg</t>
+  </si>
+  <si>
+    <t>Q MP</t>
+  </si>
+  <si>
+    <t>Q PCL</t>
+  </si>
+  <si>
+    <t>Q PF P</t>
+  </si>
+  <si>
+    <t>Q PF V</t>
+  </si>
+  <si>
+    <t>Q PF A</t>
+  </si>
+  <si>
+    <t>In €</t>
+  </si>
+  <si>
+    <t>Prezzo totale MP</t>
+  </si>
+  <si>
+    <t>Prezzo totale PCL</t>
+  </si>
+  <si>
+    <t>Prezzo totale PF P</t>
+  </si>
+  <si>
+    <t>Prezzo totale PF V</t>
+  </si>
+  <si>
+    <t>Prezzo totale PF A</t>
+  </si>
+  <si>
+    <t>Ricavi totali MP</t>
+  </si>
+  <si>
+    <t>Ricavi totali PCL</t>
+  </si>
+  <si>
+    <t>Ricavi totali PF P</t>
+  </si>
+  <si>
+    <t>Ricavi totali PF V</t>
+  </si>
+  <si>
+    <t>Ricavi totali PF A</t>
+  </si>
+  <si>
+    <t>Ricavi totali PF</t>
+  </si>
+  <si>
+    <t>Altri ricavi</t>
+  </si>
+  <si>
+    <t>Variazione prodotti</t>
+  </si>
+  <si>
+    <t>Totale ricavi di produzione</t>
+  </si>
+  <si>
+    <t>Acquisto MP</t>
+  </si>
+  <si>
+    <t>Variazione scorte</t>
+  </si>
+  <si>
+    <t>Totale costi materie prime</t>
+  </si>
+  <si>
+    <t>Costo energia totale</t>
+  </si>
+  <si>
+    <t>Puizia e smaltimento rifiuti</t>
+  </si>
+  <si>
+    <t>Costi variabili di produzione</t>
+  </si>
+  <si>
+    <t>Trasporti e oneri di vendita + acquisto</t>
+  </si>
+  <si>
+    <t>Costo di vendita- provvigion-enasarco</t>
+  </si>
+  <si>
+    <t>Totale costi di vendita</t>
+  </si>
+  <si>
+    <t>Margine operativo lordo (MON)</t>
+  </si>
+  <si>
+    <t>Costo del personale</t>
+  </si>
+  <si>
+    <t>Assicurazioni</t>
+  </si>
+  <si>
+    <t>Consulenza tecniche e canoni acque</t>
+  </si>
+  <si>
+    <t>Costo per godimento di beni terzi</t>
+  </si>
+  <si>
+    <t>Totale costi fissi di produzione</t>
+  </si>
+  <si>
+    <t>Consulenze e amministratori</t>
+  </si>
+  <si>
+    <t>Totale costi struttura comm./amm.va</t>
+  </si>
+  <si>
+    <t>Reddito operativo (EBITDA)</t>
+  </si>
+  <si>
+    <t>Mix Budget (%)</t>
+  </si>
+  <si>
+    <t>Totale reale</t>
+  </si>
+  <si>
+    <t>Totale budget</t>
+  </si>
+  <si>
+    <t>Rapporto Totale famiglia-MS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="16">
+  <numFmts count="18">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1079,6 +1244,8 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1314,7 +1481,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,8 +1566,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1773,6 +1970,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1797,7 +2009,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2061,6 +2273,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2704,6 +2990,684 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="CE 21-22"/>
+      <sheetName val="Ricavi"/>
+      <sheetName val="RicaviBudget"/>
+      <sheetName val="VariableCosts"/>
+      <sheetName val="VariableCostsBudget"/>
+      <sheetName val="FixedCosts"/>
+      <sheetName val="FixedCostsBudget"/>
+      <sheetName val="Others"/>
+      <sheetName val="OthersBudget"/>
+      <sheetName val="CE Budget 2022"/>
+      <sheetName val="Analisi degli scostamenti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Consuntivo 2022</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Articolo</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>P medio (€/kg)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>MP1</v>
+          </cell>
+          <cell r="E4">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>MP2</v>
+          </cell>
+          <cell r="E5">
+            <v>2.8454343054568869</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>MP3</v>
+          </cell>
+          <cell r="E6">
+            <v>2.394191982210288</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>MP4</v>
+          </cell>
+          <cell r="E7">
+            <v>1.6259024091283505</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>MP5</v>
+          </cell>
+          <cell r="E8">
+            <v>7.2999999999999989</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>MP6</v>
+          </cell>
+          <cell r="E9">
+            <v>1.407538523574988</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>MP7</v>
+          </cell>
+          <cell r="E10">
+            <v>2.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>MP8</v>
+          </cell>
+          <cell r="E11">
+            <v>2.069991076133928</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>MP9</v>
+          </cell>
+          <cell r="E12">
+            <v>2.5294423532749355</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>MP10</v>
+          </cell>
+          <cell r="E13">
+            <v>2.3872630549463576</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>MP11</v>
+          </cell>
+          <cell r="E14">
+            <v>1.4000000000000004</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>MP12</v>
+          </cell>
+          <cell r="E15">
+            <v>1.88</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>MP13</v>
+          </cell>
+          <cell r="E16">
+            <v>1.1300000000000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>MP14</v>
+          </cell>
+          <cell r="E17">
+            <v>3.6564488552004386</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>MP15</v>
+          </cell>
+          <cell r="E18">
+            <v>0.29851713713549144</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>MP16</v>
+          </cell>
+          <cell r="E19">
+            <v>1.3214682559652613</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>MP17</v>
+          </cell>
+          <cell r="E20">
+            <v>0.20188006306692874</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>MP18</v>
+          </cell>
+          <cell r="E21">
+            <v>3.4812737374826175</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>MP19</v>
+          </cell>
+          <cell r="E22">
+            <v>5.1675675675675672</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>MP20</v>
+          </cell>
+          <cell r="E23">
+            <v>0.45000000000000007</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>MP21</v>
+          </cell>
+          <cell r="E24">
+            <v>4.4926663923229482</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>MP22</v>
+          </cell>
+          <cell r="E25">
+            <v>6.6300000000000008</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>MP23</v>
+          </cell>
+          <cell r="E26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>MP24</v>
+          </cell>
+          <cell r="E27">
+            <v>12.982910321489001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>PCL1</v>
+          </cell>
+          <cell r="E28">
+            <v>7.7960603855361868E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>PCL2</v>
+          </cell>
+          <cell r="E29">
+            <v>0.67441660867548137</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>PCL3</v>
+          </cell>
+          <cell r="E30">
+            <v>1.5633914368373318</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>PCL4</v>
+          </cell>
+          <cell r="E31">
+            <v>1.6736903475641822</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>PCL5</v>
+          </cell>
+          <cell r="E32">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>PF P1</v>
+          </cell>
+          <cell r="E33">
+            <v>0.95151747373984275</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>PF P2</v>
+          </cell>
+          <cell r="E34">
+            <v>2.0941639085164221</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>PF P3</v>
+          </cell>
+          <cell r="E35">
+            <v>2.2182920110192836</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>PF P4</v>
+          </cell>
+          <cell r="E36">
+            <v>2.1110997372569629</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>PF P5</v>
+          </cell>
+          <cell r="E37">
+            <v>2.1683789936275497</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>PF P6</v>
+          </cell>
+          <cell r="E38">
+            <v>2.4447673031026254</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>PF P7</v>
+          </cell>
+          <cell r="E39">
+            <v>2.1755305430745655</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>PF P8</v>
+          </cell>
+          <cell r="E40">
+            <v>0.72040658436213989</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>PF V1</v>
+          </cell>
+          <cell r="E41">
+            <v>1.2394066091686382</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>PF V2</v>
+          </cell>
+          <cell r="E42">
+            <v>1.3500108906011263</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>PF V3</v>
+          </cell>
+          <cell r="E43">
+            <v>1.1953137569283963</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>PF V4</v>
+          </cell>
+          <cell r="E44">
+            <v>1.0664157465717947</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>PF V5</v>
+          </cell>
+          <cell r="E45">
+            <v>1.0917239485733838</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>PF V6</v>
+          </cell>
+          <cell r="E46">
+            <v>1.5032278016563581</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>PF V7</v>
+          </cell>
+          <cell r="E47">
+            <v>0.81786394557823128</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>PF V8</v>
+          </cell>
+          <cell r="E48">
+            <v>1.2292548613611811</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>PF V9</v>
+          </cell>
+          <cell r="E49">
+            <v>1.3103522012578614</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>PF V10</v>
+          </cell>
+          <cell r="E50">
+            <v>1.3809778209486805</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>PF V11</v>
+          </cell>
+          <cell r="E51">
+            <v>0.7641895591554374</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>PF V12</v>
+          </cell>
+          <cell r="E52">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>PF V13</v>
+          </cell>
+          <cell r="E53">
+            <v>1.29</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>PF V14</v>
+          </cell>
+          <cell r="E54">
+            <v>1.003604926690739</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>PF V15</v>
+          </cell>
+          <cell r="E55">
+            <v>1.1262508272667109</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>PF V16</v>
+          </cell>
+          <cell r="E56">
+            <v>1.1679999999999999</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>PF V17</v>
+          </cell>
+          <cell r="E57">
+            <v>0.66185661102437854</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>PF A1</v>
+          </cell>
+          <cell r="E58">
+            <v>1.5481564896611979</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>PF A2</v>
+          </cell>
+          <cell r="E59">
+            <v>1.0145297661595016</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>PF A3</v>
+          </cell>
+          <cell r="E60">
+            <v>1.5966125451519446</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>PF A4</v>
+          </cell>
+          <cell r="E61">
+            <v>1.1722768518267583</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>PF A5</v>
+          </cell>
+          <cell r="E62">
+            <v>1.3571836380718363</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>PF A6</v>
+          </cell>
+          <cell r="E63">
+            <v>1.6094114465975666</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>PF A7</v>
+          </cell>
+          <cell r="E64">
+            <v>1.7370298635106558</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>PF A8</v>
+          </cell>
+          <cell r="E65">
+            <v>1.6806898864347668</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>PF A9</v>
+          </cell>
+          <cell r="E66">
+            <v>1.0545722952001755</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>PF A10</v>
+          </cell>
+          <cell r="E67">
+            <v>1.0427329563480954</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>PF A11</v>
+          </cell>
+          <cell r="E68">
+            <v>1.9287213205204836</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>PF A12</v>
+          </cell>
+          <cell r="E69">
+            <v>1.9086574648277184</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>PF A13</v>
+          </cell>
+          <cell r="E70">
+            <v>1.4443107909945656</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>PF A14</v>
+          </cell>
+          <cell r="E71">
+            <v>1.9315133240974656</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>PF A15</v>
+          </cell>
+          <cell r="E72">
+            <v>1.5090489190950254</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>PF A16</v>
+          </cell>
+          <cell r="E73">
+            <v>1.5367824521112794</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>PF A17</v>
+          </cell>
+          <cell r="E74">
+            <v>1.7941255297930692</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>PF A18</v>
+          </cell>
+          <cell r="E75">
+            <v>0.60202058079706988</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>PF A19</v>
+          </cell>
+          <cell r="E76">
+            <v>0.63365096811948207</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Spese trasporto</v>
+          </cell>
+          <cell r="E77">
+            <v>697.35714285714289</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Premio Year21</v>
+          </cell>
+          <cell r="E78">
+            <v>19834.952666666664</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Addebiti vari</v>
+          </cell>
+          <cell r="E79">
+            <v>7.155483831924637</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80" t="str">
+            <v>€/qta</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v xml:space="preserve">NB: </v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>i) le spese di trasporto sono un riaccredito da parte di un cliente.</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>ii) i premi vanno a diminuire il ricavo perché erogati a clienti</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2974,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3693,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4627,12 +5591,2595 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2357A-B255-476A-B362-53609C625BCC}">
+  <dimension ref="A2:I135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="153" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="156">
+        <f>C4/$C$9</f>
+        <v>3.3043719893555163E-3</v>
+      </c>
+      <c r="H3" s="154">
+        <f>G3*$C$11</f>
+        <v>127308.44354485766</v>
+      </c>
+      <c r="I3" s="152">
+        <f>C4/H3</f>
+        <v>0.88723510283275675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="125">
+        <f>SUMIF(Ricavi!J:J, "MP*",Ricavi!L:L)</f>
+        <v>112952.51999999999</v>
+      </c>
+      <c r="D4" s="125" cm="1">
+        <f t="array" ref="D4">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="E4" s="148"/>
+      <c r="F4" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="156">
+        <f t="shared" ref="G4:G7" si="0">C5/$C$9</f>
+        <v>9.7122175588267953E-2</v>
+      </c>
+      <c r="H4" s="154">
+        <f t="shared" ref="H4:H7" si="1">G4*$C$11</f>
+        <v>3741852.6266603312</v>
+      </c>
+      <c r="I4" s="152">
+        <f t="shared" ref="I4:I7" si="2">C5/H4</f>
+        <v>0.88723510283275675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="125">
+        <f>SUMIF(Ricavi!J:J, "PCL*",Ricavi!L:L)</f>
+        <v>3319903</v>
+      </c>
+      <c r="D5" s="125" cm="1">
+        <f t="array" ref="D5">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="E5" s="148"/>
+      <c r="F5" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="156">
+        <f t="shared" si="0"/>
+        <v>0.42783811161011548</v>
+      </c>
+      <c r="H5" s="154">
+        <f t="shared" si="1"/>
+        <v>16483435.961118348</v>
+      </c>
+      <c r="I5" s="152">
+        <f t="shared" si="2"/>
+        <v>0.88723510283275686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="125">
+        <f>SUMIF(Ricavi!J:J, "PF P*",Ricavi!L:L)</f>
+        <v>14624683</v>
+      </c>
+      <c r="D6" s="125" cm="1">
+        <f t="array" ref="D6">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
+        <v>43389917.016709402</v>
+      </c>
+      <c r="E6" s="148"/>
+      <c r="F6" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="156">
+        <f t="shared" si="0"/>
+        <v>0.18927681631073101</v>
+      </c>
+      <c r="H6" s="154">
+        <f t="shared" si="1"/>
+        <v>7292319.678676635</v>
+      </c>
+      <c r="I6" s="152">
+        <f t="shared" si="2"/>
+        <v>0.88723510283275675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="125">
+        <f>SUMIF(Ricavi!J:J, "PF V*",Ricavi!L:L)</f>
+        <v>6470002</v>
+      </c>
+      <c r="D7" s="125" cm="1">
+        <f t="array" ref="D7">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
+        <v>9386776.6740170922</v>
+      </c>
+      <c r="E7" s="148"/>
+      <c r="F7" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="156">
+        <f t="shared" si="0"/>
+        <v>0.28245852450153008</v>
+      </c>
+      <c r="H7" s="154">
+        <f t="shared" si="1"/>
+        <v>10882356.839999827</v>
+      </c>
+      <c r="I7" s="152">
+        <f t="shared" si="2"/>
+        <v>0.88723510283275675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="125">
+        <f>SUMIF(Ricavi!J:J, "PF A*",Ricavi!L:L)</f>
+        <v>9655208.9900000002</v>
+      </c>
+      <c r="D8" s="125" cm="1">
+        <f t="array" ref="D8">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
+        <v>15581855.327799987</v>
+      </c>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="141" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="151">
+        <f>SUM(C4:C8)</f>
+        <v>34182749.509999998</v>
+      </c>
+      <c r="D9" s="151">
+        <f>SUM(D4:D8)</f>
+        <v>71044752.22230649</v>
+      </c>
+      <c r="H9" s="154">
+        <f>SUM(H3:H7)</f>
+        <v>38527273.549999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="140"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="140">
+        <f>SUM(D14:D18)</f>
+        <v>38527273.549999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="126"/>
+      <c r="B13" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="128" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="130">
+        <f>C4</f>
+        <v>112952.51999999999</v>
+      </c>
+      <c r="D14" s="130">
+        <f>SUMIF(Ricavi!B:B, "MP*", Ricavi!D:D)</f>
+        <v>240574.55000000005</v>
+      </c>
+      <c r="E14" s="130">
+        <f>D14-C14</f>
+        <v>127622.03000000006</v>
+      </c>
+      <c r="F14" s="130">
+        <f>H3</f>
+        <v>127308.44354485766</v>
+      </c>
+      <c r="G14" s="130">
+        <f>F14-C14</f>
+        <v>14355.923544857666</v>
+      </c>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="128"/>
+      <c r="B15" s="129" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="130">
+        <f>C5</f>
+        <v>3319903</v>
+      </c>
+      <c r="D15" s="130">
+        <f>SUMIF(Ricavi!B:B, "PCL*", Ricavi!D:D)</f>
+        <v>3223711</v>
+      </c>
+      <c r="E15" s="130">
+        <f>D15-C15</f>
+        <v>-96192</v>
+      </c>
+      <c r="F15" s="130">
+        <f t="shared" ref="F15:F18" si="3">H4</f>
+        <v>3741852.6266603312</v>
+      </c>
+      <c r="G15" s="130">
+        <f t="shared" ref="G15:G18" si="4">F15-C15</f>
+        <v>421949.62666033115</v>
+      </c>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="128"/>
+      <c r="B16" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="130">
+        <f>C6</f>
+        <v>14624683</v>
+      </c>
+      <c r="D16" s="130">
+        <f>SUMIF(Ricavi!B:B, "PF P*", Ricavi!D:D)</f>
+        <v>18642746</v>
+      </c>
+      <c r="E16" s="130">
+        <f>D16-C16</f>
+        <v>4018063</v>
+      </c>
+      <c r="F16" s="130">
+        <f t="shared" si="3"/>
+        <v>16483435.961118348</v>
+      </c>
+      <c r="G16" s="130">
+        <f t="shared" si="4"/>
+        <v>1858752.9611183479</v>
+      </c>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="128"/>
+      <c r="B17" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="130">
+        <f>C7</f>
+        <v>6470002</v>
+      </c>
+      <c r="D17" s="130">
+        <f>SUMIF(Ricavi!B:B, "PF V*", Ricavi!D:D)</f>
+        <v>6692984</v>
+      </c>
+      <c r="E17" s="130">
+        <f>D17-C17</f>
+        <v>222982</v>
+      </c>
+      <c r="F17" s="130">
+        <f t="shared" si="3"/>
+        <v>7292319.678676635</v>
+      </c>
+      <c r="G17" s="130">
+        <f t="shared" si="4"/>
+        <v>822317.67867663503</v>
+      </c>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="128"/>
+      <c r="B18" s="129" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="130">
+        <f>C8</f>
+        <v>9655208.9900000002</v>
+      </c>
+      <c r="D18" s="130">
+        <f>SUMIF(Ricavi!B:B, "PF A*", Ricavi!D:D)</f>
+        <v>9727258</v>
+      </c>
+      <c r="E18" s="130">
+        <f>D18-C18</f>
+        <v>72049.009999999776</v>
+      </c>
+      <c r="F18" s="130">
+        <f t="shared" si="3"/>
+        <v>10882356.839999827</v>
+      </c>
+      <c r="G18" s="130">
+        <f t="shared" si="4"/>
+        <v>1227147.8499998264</v>
+      </c>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="126"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="128" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="133" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="130">
+        <f>SUMIF(Ricavi!B:B, "MP*",Ricavi!E:E)</f>
+        <v>81.552496034955993</v>
+      </c>
+      <c r="E20" s="130" t="e">
+        <f>D20-C20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="128"/>
+      <c r="B21" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="130" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="130" t="e">
+        <f>SUMIF([2]Ricavi!B:B, "PCL*",[2]Ricavi!E:E)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="130" t="e">
+        <f>D21-C21</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="128"/>
+      <c r="B22" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="130" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="130" t="e">
+        <f>SUMIF([2]Ricavi!B:B, "PF P*",[2]Ricavi!E:E)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="130" t="e">
+        <f>D22-C22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="128"/>
+      <c r="B23" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="130" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="130" t="e">
+        <f>SUMIF([2]Ricavi!B:B, "PF V*",[2]Ricavi!E:E)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="130" t="e">
+        <f>D23-C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="128"/>
+      <c r="B24" s="129" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="130" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="130" t="e">
+        <f>SUMIF([2]Ricavi!B:B, "PF A*",[2]Ricavi!E:E)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="130" t="e">
+        <f>D24-C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="126"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="126"/>
+      <c r="B26" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="130">
+        <f>D4</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="D26" s="130" cm="1">
+        <f t="array" ref="D26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>528226.62545000017</v>
+      </c>
+      <c r="E26" s="130">
+        <f>D26-C26</f>
+        <v>331642.38355000014</v>
+      </c>
+      <c r="F26" s="130" cm="1">
+        <f t="array" ref="F26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I3, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="130">
+        <f t="shared" ref="C27:C30" si="5">D5</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="D27" s="130" cm="1">
+        <f t="array" ref="D27">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>1877590.3519999997</v>
+      </c>
+      <c r="E27" s="130">
+        <f>D27-C27</f>
+        <v>-612028.60988000012</v>
+      </c>
+      <c r="F27" s="130" cm="1">
+        <f t="array" ref="F27">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I4, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="129" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="130">
+        <f t="shared" si="5"/>
+        <v>43389917.016709402</v>
+      </c>
+      <c r="D28" s="130" cm="1">
+        <f t="array" ref="D28">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>39445016.509999998</v>
+      </c>
+      <c r="E28" s="130">
+        <f>D28-C28</f>
+        <v>-3944900.5067094043</v>
+      </c>
+      <c r="F28" s="130" cm="1">
+        <f t="array" ref="F28">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I5, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="130">
+        <f t="shared" si="5"/>
+        <v>9386776.6740170922</v>
+      </c>
+      <c r="D29" s="130" cm="1">
+        <f t="array" ref="D29">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>8028278.8500000006</v>
+      </c>
+      <c r="E29" s="130">
+        <f>D29-C29</f>
+        <v>-1358497.8240170917</v>
+      </c>
+      <c r="F29" s="130" cm="1">
+        <f t="array" ref="F29">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I6, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="130">
+        <f t="shared" si="5"/>
+        <v>15581855.327799987</v>
+      </c>
+      <c r="D30" s="130" cm="1">
+        <f t="array" ref="D30">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>13754406.152800001</v>
+      </c>
+      <c r="E30" s="130">
+        <f>D30-C30</f>
+        <v>-1827449.1749999858</v>
+      </c>
+      <c r="F30" s="130" cm="1">
+        <f t="array" ref="F30">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I7, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="136"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="130">
+        <f>SUM(C28:C30)</f>
+        <v>68358549.01852648</v>
+      </c>
+      <c r="D32" s="130">
+        <f>SUM(D28:D30)</f>
+        <v>61227701.512800001</v>
+      </c>
+      <c r="E32" s="130">
+        <f>D32-C32</f>
+        <v>-7130847.505726479</v>
+      </c>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="129" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="130">
+        <f>C26</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="D33" s="135">
+        <f>D26</f>
+        <v>528226.62545000017</v>
+      </c>
+      <c r="E33" s="130">
+        <f t="shared" ref="E33:E94" si="6">D33-C33</f>
+        <v>331642.38355000014</v>
+      </c>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="130">
+        <f>C27</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="D34" s="138">
+        <f>D27</f>
+        <v>1877590.3519999997</v>
+      </c>
+      <c r="E34" s="130">
+        <f t="shared" si="6"/>
+        <v>-612028.60988000012</v>
+      </c>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="135">
+        <f>Ricavi!L65 - Ricavi!M66*Ricavi!L66</f>
+        <v>-202771.84999999998</v>
+      </c>
+      <c r="D35" s="135">
+        <f>SUM(Ricavi!E77*Ricavi!D77,Ricavi!D78*(-Ricavi!E78),Ricavi!D79*Ricavi!E79)</f>
+        <v>66957.510000000068</v>
+      </c>
+      <c r="E35" s="130">
+        <f t="shared" si="6"/>
+        <v>269729.36000000004</v>
+      </c>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="135">
+        <v>0</v>
+      </c>
+      <c r="D36" s="135">
+        <v>500000</v>
+      </c>
+      <c r="E36" s="130">
+        <f t="shared" si="6"/>
+        <v>500000</v>
+      </c>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="131"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="135">
+        <f xml:space="preserve"> SUM(C32:C36)</f>
+        <v>70841980.372306481</v>
+      </c>
+      <c r="D38" s="135">
+        <f xml:space="preserve"> SUM(D32:D36)</f>
+        <v>64200476.000249997</v>
+      </c>
+      <c r="E38" s="130">
+        <f t="shared" si="6"/>
+        <v>-6641504.3720564842</v>
+      </c>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="131"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="135" cm="1">
+        <f t="array" ref="C40">-SUM(RicaviBudget!D3:D63*RicaviBudget!F3:F63)</f>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D40" s="135" cm="1">
+        <f t="array" ref="D40">-SUM(Ricavi!D4:D76*Ricavi!F4:F76)</f>
+        <v>-46870805.517265007</v>
+      </c>
+      <c r="E40" s="130">
+        <f t="shared" si="6"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="135">
+        <v>0</v>
+      </c>
+      <c r="D41" s="135">
+        <v>0</v>
+      </c>
+      <c r="E41" s="130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="131"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="139" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="135">
+        <f>SUM(C40:C41)</f>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D43" s="135">
+        <f>SUM(D40:D41)</f>
+        <v>-46870805.517265007</v>
+      </c>
+      <c r="E43" s="130">
+        <f t="shared" si="6"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="131"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="140">
+        <f>'CE Budget 2022'!C14</f>
+        <v>-3445836.3538936325</v>
+      </c>
+      <c r="D45" s="140">
+        <f>'CE Budget 2022'!F14</f>
+        <v>-4152707.4956527753</v>
+      </c>
+      <c r="E45" s="130">
+        <f t="shared" si="6"/>
+        <v>-706871.14175914275</v>
+      </c>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="140">
+        <f>'CE Budget 2022'!C15</f>
+        <v>-153750</v>
+      </c>
+      <c r="D46" s="140">
+        <v>-175000</v>
+      </c>
+      <c r="E46" s="130">
+        <f t="shared" si="6"/>
+        <v>-21250</v>
+      </c>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="140">
+        <f>'CE Budget 2022'!C16</f>
+        <v>-449211.74630400003</v>
+      </c>
+      <c r="D47" s="140">
+        <v>-519959.9495168</v>
+      </c>
+      <c r="E47" s="130">
+        <f t="shared" si="6"/>
+        <v>-70748.20321279997</v>
+      </c>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="131"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="140">
+        <f>SUM(C45:C47)</f>
+        <v>-4048798.1001976328</v>
+      </c>
+      <c r="D49" s="140">
+        <v>-4847667.4451695755</v>
+      </c>
+      <c r="E49" s="130">
+        <f t="shared" si="6"/>
+        <v>-798869.34497194272</v>
+      </c>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="131"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="140">
+        <f>'CE Budget 2022'!C18</f>
+        <v>-1471815.2299680002</v>
+      </c>
+      <c r="D51" s="140">
+        <v>-1000000</v>
+      </c>
+      <c r="E51" s="130">
+        <f t="shared" si="6"/>
+        <v>471815.2299680002</v>
+      </c>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="140">
+        <f>'CE Budget 2022'!C19</f>
+        <v>-867798.34033418808</v>
+      </c>
+      <c r="D52" s="140">
+        <v>-550000</v>
+      </c>
+      <c r="E52" s="130">
+        <f t="shared" si="6"/>
+        <v>317798.34033418808</v>
+      </c>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="131"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" s="140">
+        <f>SUM(C51+C52)</f>
+        <v>-2339613.5703021884</v>
+      </c>
+      <c r="D54" s="140">
+        <v>-1550000</v>
+      </c>
+      <c r="E54" s="130">
+        <f t="shared" si="6"/>
+        <v>789613.5703021884</v>
+      </c>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="131"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="144" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="140">
+        <f>C38+C43+C49+C54</f>
+        <v>11693007.805312719</v>
+      </c>
+      <c r="D56" s="140">
+        <f>D38+D43+D49+D54</f>
+        <v>10932003.037815414</v>
+      </c>
+      <c r="E56" s="130">
+        <f t="shared" si="6"/>
+        <v>-761004.76749730483</v>
+      </c>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="140">
+        <f>-FixedCostsBudget!C3</f>
+        <v>-5594785.9100000001</v>
+      </c>
+      <c r="D57" s="140">
+        <f>'CE Budget 2022'!F22</f>
+        <v>-5650000</v>
+      </c>
+      <c r="E57" s="130">
+        <f t="shared" si="6"/>
+        <v>-55214.089999999851</v>
+      </c>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="140">
+        <f>-FixedCostsBudget!C5</f>
+        <v>-1050000</v>
+      </c>
+      <c r="D58" s="140">
+        <f>'CE Budget 2022'!F23</f>
+        <v>-1100000</v>
+      </c>
+      <c r="E58" s="130">
+        <f t="shared" si="6"/>
+        <v>-50000</v>
+      </c>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="140">
+        <f>-FixedCostsBudget!C7</f>
+        <v>-307500</v>
+      </c>
+      <c r="D59" s="140">
+        <f>'CE Budget 2022'!F24</f>
+        <v>-305000</v>
+      </c>
+      <c r="E59" s="130">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="140">
+        <f>-FixedCostsBudget!C9</f>
+        <v>-151700</v>
+      </c>
+      <c r="D60" s="140">
+        <f>'CE Budget 2022'!F25</f>
+        <v>-145000</v>
+      </c>
+      <c r="E60" s="130">
+        <f t="shared" si="6"/>
+        <v>6700</v>
+      </c>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="140">
+        <f>-FixedCostsBudget!C11</f>
+        <v>-309550</v>
+      </c>
+      <c r="D61" s="140">
+        <f>'CE Budget 2022'!F26</f>
+        <v>-307000</v>
+      </c>
+      <c r="E61" s="130">
+        <f t="shared" si="6"/>
+        <v>2550</v>
+      </c>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" s="140">
+        <f>-FixedCostsBudget!C13</f>
+        <v>-212174.99999999997</v>
+      </c>
+      <c r="D62" s="140">
+        <f>'CE Budget 2022'!F27</f>
+        <v>-209500</v>
+      </c>
+      <c r="E62" s="130">
+        <f t="shared" si="6"/>
+        <v>2674.9999999999709</v>
+      </c>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="131"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" s="140">
+        <f>SUM(C57:C62)</f>
+        <v>-7625710.9100000001</v>
+      </c>
+      <c r="D64" s="140">
+        <f>'CE Budget 2022'!F28</f>
+        <v>-7716500</v>
+      </c>
+      <c r="E64" s="130">
+        <f t="shared" si="6"/>
+        <v>-90789.089999999851</v>
+      </c>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="131"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="140">
+        <f>-FixedCostsBudget!C18</f>
+        <v>-563750</v>
+      </c>
+      <c r="D66" s="140">
+        <f>'CE Budget 2022'!F29</f>
+        <v>-556000</v>
+      </c>
+      <c r="E66" s="130">
+        <f t="shared" si="6"/>
+        <v>7750</v>
+      </c>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="140">
+        <f>-FixedCostsBudget!C20</f>
+        <v>-307500</v>
+      </c>
+      <c r="D67" s="140">
+        <f>'CE Budget 2022'!F30</f>
+        <v>-297000</v>
+      </c>
+      <c r="E67" s="130">
+        <f t="shared" si="6"/>
+        <v>10500</v>
+      </c>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="140">
+        <f>-FixedCostsBudget!C22</f>
+        <v>-102499.99999999999</v>
+      </c>
+      <c r="D68" s="140">
+        <f>'CE Budget 2022'!F31</f>
+        <v>-98000</v>
+      </c>
+      <c r="E68" s="130">
+        <f t="shared" si="6"/>
+        <v>4499.9999999999854</v>
+      </c>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="131"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" s="140">
+        <f>SUM(C66:C68)</f>
+        <v>-973750</v>
+      </c>
+      <c r="D70" s="140">
+        <f>'CE Budget 2022'!F32</f>
+        <v>-951000</v>
+      </c>
+      <c r="E70" s="130">
+        <f t="shared" si="6"/>
+        <v>22750</v>
+      </c>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="142" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" s="140">
+        <f>+C56+C64+C70</f>
+        <v>3093546.895312719</v>
+      </c>
+      <c r="D71" s="140">
+        <f>'CE Budget 2022'!F33</f>
+        <v>2384503.0378154144</v>
+      </c>
+      <c r="E71" s="130">
+        <f t="shared" si="6"/>
+        <v>-709043.85749730468</v>
+      </c>
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="142"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="140">
+        <f>-OthersBudget!C3</f>
+        <v>-200000</v>
+      </c>
+      <c r="D73" s="140">
+        <f>'CE Budget 2022'!F34</f>
+        <v>-190000</v>
+      </c>
+      <c r="E73" s="130">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="140">
+        <f>-OthersBudget!C5</f>
+        <v>-796875</v>
+      </c>
+      <c r="D74" s="140">
+        <f>'CE Budget 2022'!F35</f>
+        <v>-810000</v>
+      </c>
+      <c r="E74" s="130">
+        <f t="shared" si="6"/>
+        <v>-13125</v>
+      </c>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="140">
+        <f>-OthersBudget!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="140">
+        <f>'CE Budget 2022'!F36</f>
+        <v>-25000</v>
+      </c>
+      <c r="E75" s="130">
+        <f t="shared" si="6"/>
+        <v>-25000</v>
+      </c>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="131"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="140">
+        <f>SUM(C73:C75)</f>
+        <v>-996875</v>
+      </c>
+      <c r="D77" s="140">
+        <f>'CE Budget 2022'!F37</f>
+        <v>-1025000</v>
+      </c>
+      <c r="E77" s="130">
+        <f t="shared" si="6"/>
+        <v>-28125</v>
+      </c>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="140">
+        <f>+C71+C77</f>
+        <v>2096671.895312719</v>
+      </c>
+      <c r="D78" s="140">
+        <f>'CE Budget 2022'!F38</f>
+        <v>1359503.0378154144</v>
+      </c>
+      <c r="E78" s="130">
+        <f t="shared" si="6"/>
+        <v>-737168.85749730468</v>
+      </c>
+      <c r="F78" s="140"/>
+      <c r="G78" s="140"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="145"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="140">
+        <f>-OthersBudget!C9</f>
+        <v>-227633.03999999998</v>
+      </c>
+      <c r="D80" s="140">
+        <f>'CE Budget 2022'!F39</f>
+        <v>-140133.03999999998</v>
+      </c>
+      <c r="E80" s="130">
+        <f t="shared" si="6"/>
+        <v>87500</v>
+      </c>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="140">
+        <f>OthersBudget!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="140">
+        <f>'CE Budget 2022'!F40</f>
+        <v>3543.6200000000003</v>
+      </c>
+      <c r="E81" s="130">
+        <f t="shared" si="6"/>
+        <v>3543.6200000000003</v>
+      </c>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="131"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="140">
+        <f>SUM(C80:C81)</f>
+        <v>-227633.03999999998</v>
+      </c>
+      <c r="D83" s="140">
+        <f>'CE Budget 2022'!F41</f>
+        <v>-136589.41999999998</v>
+      </c>
+      <c r="E83" s="130">
+        <f t="shared" si="6"/>
+        <v>91043.62</v>
+      </c>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="140">
+        <f>+C78+C83</f>
+        <v>1869038.855312719</v>
+      </c>
+      <c r="D84" s="140">
+        <f>'CE Budget 2022'!F42</f>
+        <v>1222913.6178154144</v>
+      </c>
+      <c r="E84" s="130">
+        <f t="shared" si="6"/>
+        <v>-646125.23749730457</v>
+      </c>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="140">
+        <f>-OthersBudget!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="140">
+        <f>'CE Budget 2022'!F43</f>
+        <v>-130503.97</v>
+      </c>
+      <c r="E85" s="130">
+        <f t="shared" si="6"/>
+        <v>-130503.97</v>
+      </c>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="140">
+        <f>OthersBudget!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="140">
+        <f>'CE Budget 2022'!F44</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="140">
+        <f>OthersBudget!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="140">
+        <f>'CE Budget 2022'!F45</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="131"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="137"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="140">
+        <f>SUM(C85:C87)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="140">
+        <f>'CE Budget 2022'!F46</f>
+        <v>-130503.97</v>
+      </c>
+      <c r="E89" s="130">
+        <f t="shared" si="6"/>
+        <v>-130503.97</v>
+      </c>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="140">
+        <f>+C89+C84</f>
+        <v>1869038.855312719</v>
+      </c>
+      <c r="D90" s="140">
+        <f>'CE Budget 2022'!F47</f>
+        <v>1092409.6478154145</v>
+      </c>
+      <c r="E90" s="130">
+        <f t="shared" si="6"/>
+        <v>-776629.20749730454</v>
+      </c>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="145"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="140">
+        <f>-OthersBudget!C19</f>
+        <v>-560711.65659381566</v>
+      </c>
+      <c r="D92" s="140">
+        <f>'CE Budget 2022'!F48</f>
+        <v>-327722.8943446154</v>
+      </c>
+      <c r="E92" s="130">
+        <f t="shared" si="6"/>
+        <v>232988.76224920026</v>
+      </c>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="131"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="140">
+        <f>C90+C92</f>
+        <v>1308327.1987189034</v>
+      </c>
+      <c r="D94" s="140">
+        <f>'CE Budget 2022'!F49</f>
+        <v>764686.75347079907</v>
+      </c>
+      <c r="E94" s="130">
+        <f t="shared" si="6"/>
+        <v>-543640.44524810428</v>
+      </c>
+      <c r="F94" s="140"/>
+      <c r="G94" s="140"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="140"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="140"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C99" s="140"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="140"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="140"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="140"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="140"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C103" s="140"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="140"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C104" s="140"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="140"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C105" s="140"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="140"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C106" s="140"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="140"/>
+      <c r="G106" s="140"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C107" s="140"/>
+      <c r="D107" s="140"/>
+      <c r="E107" s="140"/>
+      <c r="F107" s="140"/>
+      <c r="G107" s="140"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C108" s="140"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="140"/>
+      <c r="F108" s="140"/>
+      <c r="G108" s="140"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C109" s="140"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="140"/>
+      <c r="F109" s="140"/>
+      <c r="G109" s="140"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C110" s="140"/>
+      <c r="D110" s="140"/>
+      <c r="E110" s="140"/>
+      <c r="F110" s="140"/>
+      <c r="G110" s="140"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C111" s="140"/>
+      <c r="D111" s="140"/>
+      <c r="E111" s="140"/>
+      <c r="F111" s="140"/>
+      <c r="G111" s="140"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C112" s="140"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="140"/>
+      <c r="G112" s="140"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C113" s="140"/>
+      <c r="D113" s="140"/>
+      <c r="E113" s="140"/>
+      <c r="F113" s="140"/>
+      <c r="G113" s="140"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C115" s="140"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="140"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C117" s="140"/>
+      <c r="D117" s="140"/>
+      <c r="E117" s="140"/>
+      <c r="F117" s="140"/>
+      <c r="G117" s="140"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C118" s="140"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="140"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C119" s="140"/>
+      <c r="D119" s="140"/>
+      <c r="E119" s="140"/>
+      <c r="F119" s="140"/>
+      <c r="G119" s="140"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C120" s="140"/>
+      <c r="D120" s="140"/>
+      <c r="E120" s="140"/>
+      <c r="F120" s="140"/>
+      <c r="G120" s="140"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C121" s="140"/>
+      <c r="D121" s="140"/>
+      <c r="E121" s="140"/>
+      <c r="F121" s="140"/>
+      <c r="G121" s="140"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C122" s="140"/>
+      <c r="D122" s="140"/>
+      <c r="E122" s="140"/>
+      <c r="F122" s="140"/>
+      <c r="G122" s="140"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C123" s="140"/>
+      <c r="D123" s="140"/>
+      <c r="E123" s="140"/>
+      <c r="F123" s="140"/>
+      <c r="G123" s="140"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C124" s="140"/>
+      <c r="D124" s="140"/>
+      <c r="E124" s="140"/>
+      <c r="F124" s="140"/>
+      <c r="G124" s="140"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C125" s="140"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="140"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="140"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C126" s="140"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="140"/>
+      <c r="F126" s="140"/>
+      <c r="G126" s="140"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C127" s="140"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="140"/>
+      <c r="F127" s="140"/>
+      <c r="G127" s="140"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="140"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C129" s="140"/>
+      <c r="D129" s="140"/>
+      <c r="E129" s="140"/>
+      <c r="F129" s="140"/>
+      <c r="G129" s="140"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C130" s="140"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="140"/>
+      <c r="F130" s="140"/>
+      <c r="G130" s="140"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C131" s="140"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="140"/>
+      <c r="F131" s="140"/>
+      <c r="G131" s="140"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C132" s="140"/>
+      <c r="D132" s="140"/>
+      <c r="E132" s="140"/>
+      <c r="F132" s="140"/>
+      <c r="G132" s="140"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C133" s="140"/>
+      <c r="D133" s="140"/>
+      <c r="E133" s="140"/>
+      <c r="F133" s="140"/>
+      <c r="G133" s="140"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C134" s="140"/>
+      <c r="D134" s="140"/>
+      <c r="E134" s="140"/>
+      <c r="F134" s="140"/>
+      <c r="G134" s="140"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C135" s="140"/>
+      <c r="D135" s="140"/>
+      <c r="E135" s="140"/>
+      <c r="F135" s="140"/>
+      <c r="G135" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70766F80-CE68-41EB-ABBB-DDA3104E92AF}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="96">
+        <f>3450000</f>
+        <v>3450000</v>
+      </c>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="96">
+        <v>0.41</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="96">
+        <f>1-C3</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$D:$D)</f>
+        <v>14624683</v>
+      </c>
+      <c r="G4" s="96">
+        <f>F4/1000</f>
+        <v>14624.683000000001</v>
+      </c>
+      <c r="H4" s="96">
+        <f>C23*G4*C24</f>
+        <v>1343277.1335500001</v>
+      </c>
+      <c r="I4" s="107">
+        <f>G4*(C26+C22*C27)</f>
+        <v>3512848.8566000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="96">
+        <v>8997222.2200000007</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$D:$D)</f>
+        <v>6470002</v>
+      </c>
+      <c r="G5" s="96">
+        <f t="shared" ref="G5:G6" si="0">F5/1000</f>
+        <v>6470.0020000000004</v>
+      </c>
+      <c r="H5" s="96">
+        <f>C21*G5*C24</f>
+        <v>355850.11000000004</v>
+      </c>
+      <c r="I5" s="107">
+        <f>G5*C27</f>
+        <v>388200.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="96">
+        <v>4300000</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="96">
+        <f>SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$D:$CE)+SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$D:$CE)</f>
+        <v>12975111.99</v>
+      </c>
+      <c r="G6" s="96">
+        <f t="shared" si="0"/>
+        <v>12975.111989999999</v>
+      </c>
+      <c r="H6" s="96">
+        <f>G6*C20*C24</f>
+        <v>1038008.9592</v>
+      </c>
+      <c r="I6" s="107">
+        <f>G6*C28</f>
+        <v>843382.27934999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="96">
+        <f xml:space="preserve"> SUM(F4:F6)</f>
+        <v>34069796.990000002</v>
+      </c>
+      <c r="G7" s="96">
+        <f>G6+G5+G4</f>
+        <v>34069.796990000003</v>
+      </c>
+      <c r="H7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="96">
+        <f>C2*C3</f>
+        <v>1414500</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="96">
+        <f>C2*C4</f>
+        <v>2035500.0000000002</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="96">
+        <f>(H4+H5+H6)*C18</f>
+        <v>1477079.6382314637</v>
+      </c>
+      <c r="H9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="96">
+        <f>(I4+I5+I6+C30)*C17</f>
+        <v>1403824.5342806277</v>
+      </c>
+      <c r="H10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="96">
+        <f>C8/C5</f>
+        <v>0.15721518991224825</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="96">
+        <f>-'CE 21-22'!F15 *1.025</f>
+        <v>153750</v>
+      </c>
+      <c r="H11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="96">
+        <f>C9/C6</f>
+        <v>0.47337209302325589</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="96">
+        <f>(G5+G6+G4*C22)*C32</f>
+        <v>449211.74630400003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="96">
+        <f>G7*C36</f>
+        <v>1471815.2299680002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="96">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="96">
+        <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G))*C38</f>
+        <v>867798.34033418808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="96">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="96">
+        <f>C44*C45</f>
+        <v>564932.18138154072</v>
+      </c>
+      <c r="H15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="96">
+        <f>C11*(1+C14)</f>
+        <v>0.17450886080259559</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="97">
+        <f>SUM(G9:G15)</f>
+        <v>6388411.6704998203</v>
+      </c>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="96">
+        <f>C12*(1+C15)</f>
+        <v>0.53964418604651176</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="96">
+        <f>VariableCosts!E6</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="96">
+        <f>VariableCosts!E7</f>
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22">
+        <v>1.67</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="106">
+        <f>C22*C21</f>
+        <v>1.0680232558139535</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="96">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="96"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="96">
+        <f>VariableCosts!C12</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="96">
+        <f>VariableCosts!C11</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="96">
+        <f>VariableCosts!C10</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="96">
+        <f>VariableCosts!C13</f>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="96">
+        <f>C29*12</f>
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="96">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="96">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36">
+        <f>C34*(1+C35)</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="96">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="96">
+        <f>G4*C23</f>
+        <v>15619.501552906979</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="96">
+        <f>G5*C21</f>
+        <v>4137.7919767441863</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="107">
+        <f>G6*C20</f>
+        <v>12069.871618604651</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="96">
+        <f>C41+C40+C42</f>
+        <v>31827.165148255815</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="96">
+        <f>C43*0.25</f>
+        <v>7956.7912870639539</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7787,6 +11334,7 @@
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="D81" s="88"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
@@ -7817,9 +11365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8304,7 +11850,10 @@
       <c r="H16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="96"/>
+      <c r="I16" s="96">
+        <f>SUM(G22:G63)</f>
+        <v>68358549.018526509</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
@@ -9894,9 +13443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10288,8 +13835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10878,7 +14425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11017,7 +14564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6404DE-B496-4DAA-B78B-345EB90F2C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75F190-D92C-4BCE-A23C-D209FFDF4DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{F3D2BC44-8B96-4191-A951-D452051F21FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{F3D2BC44-8B96-4191-A951-D452051F21FF}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1245,7 +1245,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2009,7 +2009,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2240,6 +2240,64 @@
     <xf numFmtId="169" fontId="32" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,79 +2331,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3939,52 +3929,52 @@
   <dimension ref="B1:N62"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="E2" s="114" t="s">
+      <c r="C2" s="141"/>
+      <c r="E2" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="115"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="112" t="s">
+      <c r="F2" s="141"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="138" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="142" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="113"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="139"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -3992,7 +3982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4002,7 +3992,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -4012,7 +4002,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -4022,7 +4012,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4032,7 +4022,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4042,7 +4032,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4044,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4067,7 +4057,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4093,7 +4083,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4120,7 +4110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4139,7 +4129,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4154,7 +4144,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4169,7 +4159,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -4185,7 +4175,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4199,7 +4189,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -4213,7 +4203,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -4229,7 +4219,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -4240,7 +4230,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4254,7 +4244,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4268,7 +4258,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4282,7 +4272,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4296,7 +4286,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4310,7 +4300,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4324,7 +4314,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4340,7 +4330,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4354,7 +4344,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4368,7 +4358,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4382,7 +4372,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4398,7 +4388,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4409,7 +4399,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4423,7 +4413,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4437,7 +4427,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4451,7 +4441,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4467,7 +4457,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4477,7 +4467,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4486,7 +4476,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4495,7 +4485,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4507,7 +4497,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4517,7 +4507,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4526,7 +4516,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4535,7 +4525,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4544,7 +4534,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4554,7 +4544,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4564,7 +4554,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4573,7 +4563,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4583,59 +4573,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4657,43 +4647,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="141"/>
       <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="115"/>
-    </row>
-    <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="112" t="s">
+      <c r="F2" s="141"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="138" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="138" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4703,17 +4693,17 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="113"/>
+    <row r="4" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="139"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4732,7 +4722,7 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>288</v>
       </c>
@@ -4751,7 +4741,7 @@
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
         <v>289</v>
       </c>
@@ -4770,7 +4760,7 @@
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4789,7 +4779,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4807,7 +4797,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4819,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4848,7 +4838,7 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4866,7 +4856,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4885,7 +4875,7 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4904,7 +4894,7 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4942,7 +4932,7 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -4961,7 +4951,7 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4980,7 +4970,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -4999,7 +4989,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -5018,7 +5008,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -5037,7 +5027,7 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -5056,7 +5046,7 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -5075,7 +5065,7 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -5094,7 +5084,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -5113,7 +5103,7 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -5132,7 +5122,7 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -5151,7 +5141,7 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -5170,7 +5160,7 @@
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -5190,7 +5180,7 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -5209,7 +5199,7 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -5228,7 +5218,7 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5237,7 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -5266,7 +5256,7 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -5285,7 +5275,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -5304,7 +5294,7 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -5323,7 +5313,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -5342,7 +5332,7 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -5361,17 +5351,17 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="45">
         <f>-OthersBudget!C9</f>
-        <v>-227633.03999999998</v>
+        <v>-87500</v>
       </c>
       <c r="D39" s="108">
         <f t="shared" si="0"/>
-        <v>-87500</v>
+        <v>52633.039999999979</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>99</v>
@@ -5380,7 +5370,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -5399,17 +5389,17 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="48">
         <f>SUM(C39:C40)</f>
-        <v>-227633.03999999998</v>
+        <v>-87500</v>
       </c>
       <c r="D41" s="108">
         <f t="shared" si="0"/>
-        <v>-91043.62</v>
+        <v>49089.419999999984</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>101</v>
@@ -5418,17 +5408,17 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="50">
         <f>+C38+C41</f>
-        <v>1869038.855312719</v>
+        <v>2009171.895312719</v>
       </c>
       <c r="D42" s="108">
         <f t="shared" si="0"/>
-        <v>646125.23749730457</v>
+        <v>786258.2774973046</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>102</v>
@@ -5437,7 +5427,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5456,7 +5446,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5475,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5494,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5513,17 +5503,17 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="50">
         <f>+C46+C42</f>
-        <v>1869038.855312719</v>
+        <v>2009171.895312719</v>
       </c>
       <c r="D47" s="108">
         <f t="shared" si="0"/>
-        <v>776629.20749730454</v>
+        <v>916762.24749730458</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>107</v>
@@ -5532,17 +5522,17 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="45">
         <f>-OthersBudget!C19</f>
-        <v>-560711.65659381566</v>
+        <v>-602751.56859381567</v>
       </c>
       <c r="D48" s="108">
         <f t="shared" si="0"/>
-        <v>-232988.76224920026</v>
+        <v>-275028.67424920027</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>108</v>
@@ -5551,17 +5541,17 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="50">
         <f>C47+C48</f>
-        <v>1308327.1987189034</v>
+        <v>1406420.3267189034</v>
       </c>
       <c r="D49" s="108">
         <f t="shared" si="0"/>
-        <v>543640.44524810428</v>
+        <v>641733.57324810431</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>109</v>
@@ -5570,13 +5560,13 @@
         <v>764686.75347079907</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C50" s="102"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E53" s="102"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D54" s="102"/>
     </row>
   </sheetData>
@@ -5595,1984 +5585,1984 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2357A-B255-476A-B362-53609C625BCC}">
   <dimension ref="A2:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="3" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="150" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="150"/>
       <c r="D2" s="150"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147" t="s">
+      <c r="E2" s="131"/>
+      <c r="F2" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="135" t="s">
         <v>311</v>
       </c>
       <c r="I2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="123" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="156">
+      <c r="G3" s="137">
         <f>C4/$C$9</f>
         <v>3.3043719893555163E-3</v>
       </c>
-      <c r="H3" s="154">
+      <c r="H3" s="136">
         <f>G3*$C$11</f>
         <v>127308.44354485766</v>
       </c>
-      <c r="I3" s="152">
+      <c r="I3" s="134">
         <f>C4/H3</f>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="124" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4" s="114">
         <f>SUMIF(Ricavi!J:J, "MP*",Ricavi!L:L)</f>
         <v>112952.51999999999</v>
       </c>
-      <c r="D4" s="125" cm="1">
+      <c r="D4" s="114" cm="1">
         <f t="array" ref="D4">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
         <v>196584.24189999999</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="155" t="s">
+      <c r="E4" s="132"/>
+      <c r="F4" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="137">
         <f t="shared" ref="G4:G7" si="0">C5/$C$9</f>
         <v>9.7122175588267953E-2</v>
       </c>
-      <c r="H4" s="154">
+      <c r="H4" s="136">
         <f t="shared" ref="H4:H7" si="1">G4*$C$11</f>
         <v>3741852.6266603312</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="134">
         <f t="shared" ref="I4:I7" si="2">C5/H4</f>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="124" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="114">
         <f>SUMIF(Ricavi!J:J, "PCL*",Ricavi!L:L)</f>
         <v>3319903</v>
       </c>
-      <c r="D5" s="125" cm="1">
+      <c r="D5" s="114" cm="1">
         <f t="array" ref="D5">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
         <v>2489618.9618799998</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="155" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="156">
+      <c r="G5" s="137">
         <f t="shared" si="0"/>
         <v>0.42783811161011548</v>
       </c>
-      <c r="H5" s="154">
+      <c r="H5" s="136">
         <f t="shared" si="1"/>
         <v>16483435.961118348</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="134">
         <f t="shared" si="2"/>
         <v>0.88723510283275686</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="124" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6" s="114">
         <f>SUMIF(Ricavi!J:J, "PF P*",Ricavi!L:L)</f>
         <v>14624683</v>
       </c>
-      <c r="D6" s="125" cm="1">
+      <c r="D6" s="114" cm="1">
         <f t="array" ref="D6">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
         <v>43389917.016709402</v>
       </c>
-      <c r="E6" s="148"/>
-      <c r="F6" s="155" t="s">
+      <c r="E6" s="132"/>
+      <c r="F6" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="156">
+      <c r="G6" s="137">
         <f t="shared" si="0"/>
         <v>0.18927681631073101</v>
       </c>
-      <c r="H6" s="154">
+      <c r="H6" s="136">
         <f t="shared" si="1"/>
         <v>7292319.678676635</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="134">
         <f t="shared" si="2"/>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="124" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="114">
         <f>SUMIF(Ricavi!J:J, "PF V*",Ricavi!L:L)</f>
         <v>6470002</v>
       </c>
-      <c r="D7" s="125" cm="1">
+      <c r="D7" s="114" cm="1">
         <f t="array" ref="D7">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
         <v>9386776.6740170922</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="155" t="s">
+      <c r="E7" s="132"/>
+      <c r="F7" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="156">
+      <c r="G7" s="137">
         <f t="shared" si="0"/>
         <v>0.28245852450153008</v>
       </c>
-      <c r="H7" s="154">
+      <c r="H7" s="136">
         <f t="shared" si="1"/>
         <v>10882356.839999827</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="134">
         <f t="shared" si="2"/>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="124" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8" s="114">
         <f>SUMIF(Ricavi!J:J, "PF A*",Ricavi!L:L)</f>
         <v>9655208.9900000002</v>
       </c>
-      <c r="D8" s="125" cm="1">
+      <c r="D8" s="114" cm="1">
         <f t="array" ref="D8">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$J$4:$J$64))), Ricavi!$L$4:$L$64, Ricavi!$M$4:$M$64)</f>
         <v>15581855.327799987</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="141" t="s">
+      <c r="E8" s="132"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="133">
         <f>SUM(C4:C8)</f>
         <v>34182749.509999998</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="133">
         <f>SUM(D4:D8)</f>
         <v>71044752.22230649</v>
       </c>
-      <c r="H9" s="154">
+      <c r="H9" s="136">
         <f>SUM(H3:H7)</f>
         <v>38527273.549999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E10" s="140"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="147" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="128"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="128">
         <f>SUM(D14:D18)</f>
         <v>38527273.549999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="116" t="s">
         <v>313</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="116" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="128" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="149" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="118">
         <f>C4</f>
         <v>112952.51999999999</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="118">
         <f>SUMIF(Ricavi!B:B, "MP*", Ricavi!D:D)</f>
         <v>240574.55000000005</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="118">
         <f>D14-C14</f>
         <v>127622.03000000006</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="118">
         <f>H3</f>
         <v>127308.44354485766</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="118">
         <f>F14-C14</f>
         <v>14355.923544857666</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129" t="s">
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="149"/>
+      <c r="B15" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="130">
+      <c r="C15" s="118">
         <f>C5</f>
         <v>3319903</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="118">
         <f>SUMIF(Ricavi!B:B, "PCL*", Ricavi!D:D)</f>
         <v>3223711</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="118">
         <f>D15-C15</f>
         <v>-96192</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="118">
         <f t="shared" ref="F15:F18" si="3">H4</f>
         <v>3741852.6266603312</v>
       </c>
-      <c r="G15" s="130">
+      <c r="G15" s="118">
         <f t="shared" ref="G15:G18" si="4">F15-C15</f>
         <v>421949.62666033115</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129" t="s">
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="149"/>
+      <c r="B16" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="118">
         <f>C6</f>
         <v>14624683</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="118">
         <f>SUMIF(Ricavi!B:B, "PF P*", Ricavi!D:D)</f>
         <v>18642746</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="118">
         <f>D16-C16</f>
         <v>4018063</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="118">
         <f t="shared" si="3"/>
         <v>16483435.961118348</v>
       </c>
-      <c r="G16" s="130">
+      <c r="G16" s="118">
         <f t="shared" si="4"/>
         <v>1858752.9611183479</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129" t="s">
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="149"/>
+      <c r="B17" s="117" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="130">
+      <c r="C17" s="118">
         <f>C7</f>
         <v>6470002</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="118">
         <f>SUMIF(Ricavi!B:B, "PF V*", Ricavi!D:D)</f>
         <v>6692984</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="118">
         <f>D17-C17</f>
         <v>222982</v>
       </c>
-      <c r="F17" s="130">
+      <c r="F17" s="118">
         <f t="shared" si="3"/>
         <v>7292319.678676635</v>
       </c>
-      <c r="G17" s="130">
+      <c r="G17" s="118">
         <f t="shared" si="4"/>
         <v>822317.67867663503</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="149"/>
+      <c r="B18" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="118">
         <f>C8</f>
         <v>9655208.9900000002</v>
       </c>
-      <c r="D18" s="130">
+      <c r="D18" s="118">
         <f>SUMIF(Ricavi!B:B, "PF A*", Ricavi!D:D)</f>
         <v>9727258</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="118">
         <f>D18-C18</f>
         <v>72049.009999999776</v>
       </c>
-      <c r="F18" s="130">
+      <c r="F18" s="118">
         <f t="shared" si="3"/>
         <v>10882356.839999827</v>
       </c>
-      <c r="G18" s="130">
+      <c r="G18" s="118">
         <f t="shared" si="4"/>
         <v>1227147.8499998264</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="126"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="128" t="s">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="117" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="133" t="e">
+      <c r="C20" s="121" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="118">
         <f>SUMIF(Ricavi!B:B, "MP*",Ricavi!E:E)</f>
         <v>81.552496034955993</v>
       </c>
-      <c r="E20" s="130" t="e">
+      <c r="E20" s="118" t="e">
         <f>D20-C20</f>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129" t="s">
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="149"/>
+      <c r="B21" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="130" t="e">
+      <c r="C21" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D21" s="130" t="e">
+      <c r="D21" s="118" t="e">
         <f>SUMIF([2]Ricavi!B:B, "PCL*",[2]Ricavi!E:E)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="130" t="e">
+      <c r="E21" s="118" t="e">
         <f>D21-C21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129" t="s">
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="149"/>
+      <c r="B22" s="117" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="130" t="e">
+      <c r="C22" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="130" t="e">
+      <c r="D22" s="118" t="e">
         <f>SUMIF([2]Ricavi!B:B, "PF P*",[2]Ricavi!E:E)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="130" t="e">
+      <c r="E22" s="118" t="e">
         <f>D22-C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129" t="s">
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="149"/>
+      <c r="B23" s="117" t="s">
         <v>325</v>
       </c>
-      <c r="C23" s="130" t="e">
+      <c r="C23" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D23" s="130" t="e">
+      <c r="D23" s="118" t="e">
         <f>SUMIF([2]Ricavi!B:B, "PF V*",[2]Ricavi!E:E)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="130" t="e">
+      <c r="E23" s="118" t="e">
         <f>D23-C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129" t="s">
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="149"/>
+      <c r="B24" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="130" t="e">
+      <c r="C24" s="118" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D24" s="130" t="e">
+      <c r="D24" s="118" t="e">
         <f>SUMIF([2]Ricavi!B:B, "PF A*",[2]Ricavi!E:E)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="130" t="e">
+      <c r="E24" s="118" t="e">
         <f>D24-C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="126"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126" t="s">
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="130">
+      <c r="C26" s="118">
         <f>D4</f>
         <v>196584.24189999999</v>
       </c>
-      <c r="D26" s="130" cm="1">
+      <c r="D26" s="118" cm="1">
         <f t="array" ref="D26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>528226.62545000017</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="118">
         <f>D26-C26</f>
         <v>331642.38355000014</v>
       </c>
-      <c r="F26" s="130" cm="1">
+      <c r="F26" s="118" cm="1">
         <f t="array" ref="F26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I3, Ricavi!$M$4:$M$76)</f>
         <v>795930.12512431026</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="129" t="s">
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="130">
+      <c r="C27" s="118">
         <f t="shared" ref="C27:C30" si="5">D5</f>
         <v>2489618.9618799998</v>
       </c>
-      <c r="D27" s="130" cm="1">
+      <c r="D27" s="118" cm="1">
         <f t="array" ref="D27">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>1877590.3519999997</v>
       </c>
-      <c r="E27" s="130">
+      <c r="E27" s="118">
         <f>D27-C27</f>
         <v>-612028.60988000012</v>
       </c>
-      <c r="F27" s="130" cm="1">
+      <c r="F27" s="118" cm="1">
         <f t="array" ref="F27">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I4, Ricavi!$M$4:$M$76)</f>
         <v>795930.12512431026</v>
       </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="129" t="s">
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="117" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="130">
+      <c r="C28" s="118">
         <f t="shared" si="5"/>
         <v>43389917.016709402</v>
       </c>
-      <c r="D28" s="130" cm="1">
+      <c r="D28" s="118" cm="1">
         <f t="array" ref="D28">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>39445016.509999998</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E28" s="118">
         <f>D28-C28</f>
         <v>-3944900.5067094043</v>
       </c>
-      <c r="F28" s="130" cm="1">
+      <c r="F28" s="118" cm="1">
         <f t="array" ref="F28">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I5, Ricavi!$M$4:$M$76)</f>
         <v>795930.12512431026</v>
       </c>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="129" t="s">
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="118">
         <f t="shared" si="5"/>
         <v>9386776.6740170922</v>
       </c>
-      <c r="D29" s="130" cm="1">
+      <c r="D29" s="118" cm="1">
         <f t="array" ref="D29">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>8028278.8500000006</v>
       </c>
-      <c r="E29" s="130">
+      <c r="E29" s="118">
         <f>D29-C29</f>
         <v>-1358497.8240170917</v>
       </c>
-      <c r="F29" s="130" cm="1">
+      <c r="F29" s="118" cm="1">
         <f t="array" ref="F29">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I6, Ricavi!$M$4:$M$76)</f>
         <v>795930.12512431026</v>
       </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="129" t="s">
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="117" t="s">
         <v>331</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="118">
         <f t="shared" si="5"/>
         <v>15581855.327799987</v>
       </c>
-      <c r="D30" s="130" cm="1">
+      <c r="D30" s="118" cm="1">
         <f t="array" ref="D30">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>13754406.152800001</v>
       </c>
-      <c r="E30" s="130">
+      <c r="E30" s="118">
         <f>D30-C30</f>
         <v>-1827449.1749999858</v>
       </c>
-      <c r="F30" s="130" cm="1">
+      <c r="F30" s="118" cm="1">
         <f t="array" ref="F30">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I7, Ricavi!$M$4:$M$76)</f>
         <v>795930.12512431026</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="136"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="129" t="s">
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="130">
+      <c r="C32" s="118">
         <f>SUM(C28:C30)</f>
         <v>68358549.01852648</v>
       </c>
-      <c r="D32" s="130">
+      <c r="D32" s="118">
         <f>SUM(D28:D30)</f>
         <v>61227701.512800001</v>
       </c>
-      <c r="E32" s="130">
+      <c r="E32" s="118">
         <f>D32-C32</f>
         <v>-7130847.505726479</v>
       </c>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="129" t="s">
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="117" t="s">
         <v>327</v>
       </c>
-      <c r="C33" s="130">
+      <c r="C33" s="118">
         <f>C26</f>
         <v>196584.24189999999</v>
       </c>
-      <c r="D33" s="135">
+      <c r="D33" s="123">
         <f>D26</f>
         <v>528226.62545000017</v>
       </c>
-      <c r="E33" s="130">
+      <c r="E33" s="118">
         <f t="shared" ref="E33:E94" si="6">D33-C33</f>
         <v>331642.38355000014</v>
       </c>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="129" t="s">
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="130">
+      <c r="C34" s="118">
         <f>C27</f>
         <v>2489618.9618799998</v>
       </c>
-      <c r="D34" s="138">
+      <c r="D34" s="126">
         <f>D27</f>
         <v>1877590.3519999997</v>
       </c>
-      <c r="E34" s="130">
+      <c r="E34" s="118">
         <f t="shared" si="6"/>
         <v>-612028.60988000012</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="129" t="s">
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="117" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="135">
+      <c r="C35" s="123">
         <f>Ricavi!L65 - Ricavi!M66*Ricavi!L66</f>
         <v>-202771.84999999998</v>
       </c>
-      <c r="D35" s="135">
+      <c r="D35" s="123">
         <f>SUM(Ricavi!E77*Ricavi!D77,Ricavi!D78*(-Ricavi!E78),Ricavi!D79*Ricavi!E79)</f>
         <v>66957.510000000068</v>
       </c>
-      <c r="E35" s="130">
+      <c r="E35" s="118">
         <f t="shared" si="6"/>
         <v>269729.36000000004</v>
       </c>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="129" t="s">
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="C36" s="135">
+      <c r="C36" s="123">
         <v>0</v>
       </c>
-      <c r="D36" s="135">
+      <c r="D36" s="123">
         <v>500000</v>
       </c>
-      <c r="E36" s="130">
+      <c r="E36" s="118">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="131"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="139" t="s">
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="119"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="127" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="135">
+      <c r="C38" s="123">
         <f xml:space="preserve"> SUM(C32:C36)</f>
         <v>70841980.372306481</v>
       </c>
-      <c r="D38" s="135">
+      <c r="D38" s="123">
         <f xml:space="preserve"> SUM(D32:D36)</f>
         <v>64200476.000249997</v>
       </c>
-      <c r="E38" s="130">
+      <c r="E38" s="118">
         <f t="shared" si="6"/>
         <v>-6641504.3720564842</v>
       </c>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="131"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="119"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>336</v>
       </c>
-      <c r="C40" s="135" cm="1">
+      <c r="C40" s="123" cm="1">
         <f t="array" ref="C40">-SUM(RicaviBudget!D3:D63*RicaviBudget!F3:F63)</f>
         <v>-52760560.896493942</v>
       </c>
-      <c r="D40" s="135" cm="1">
+      <c r="D40" s="123" cm="1">
         <f t="array" ref="D40">-SUM(Ricavi!D4:D76*Ricavi!F4:F76)</f>
         <v>-46870805.517265007</v>
       </c>
-      <c r="E40" s="130">
+      <c r="E40" s="118">
         <f t="shared" si="6"/>
         <v>5889755.3792289346</v>
       </c>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>337</v>
       </c>
-      <c r="C41" s="135">
+      <c r="C41" s="123">
         <v>0</v>
       </c>
-      <c r="D41" s="135">
+      <c r="D41" s="123">
         <v>0</v>
       </c>
-      <c r="E41" s="130">
+      <c r="E41" s="118">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="131"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="139" t="s">
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="119"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="C43" s="135">
+      <c r="C43" s="123">
         <f>SUM(C40:C41)</f>
         <v>-52760560.896493942</v>
       </c>
-      <c r="D43" s="135">
+      <c r="D43" s="123">
         <f>SUM(D40:D41)</f>
         <v>-46870805.517265007</v>
       </c>
-      <c r="E43" s="130">
+      <c r="E43" s="118">
         <f t="shared" si="6"/>
         <v>5889755.3792289346</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="131"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="119"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="140">
+      <c r="C45" s="128">
         <f>'CE Budget 2022'!C14</f>
         <v>-3445836.3538936325</v>
       </c>
-      <c r="D45" s="140">
+      <c r="D45" s="128">
         <f>'CE Budget 2022'!F14</f>
         <v>-4152707.4956527753</v>
       </c>
-      <c r="E45" s="130">
+      <c r="E45" s="118">
         <f t="shared" si="6"/>
         <v>-706871.14175914275</v>
       </c>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="140">
+      <c r="C46" s="128">
         <f>'CE Budget 2022'!C15</f>
         <v>-153750</v>
       </c>
-      <c r="D46" s="140">
+      <c r="D46" s="128">
         <v>-175000</v>
       </c>
-      <c r="E46" s="130">
+      <c r="E46" s="118">
         <f t="shared" si="6"/>
         <v>-21250</v>
       </c>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>340</v>
       </c>
-      <c r="C47" s="140">
+      <c r="C47" s="128">
         <f>'CE Budget 2022'!C16</f>
         <v>-449211.74630400003</v>
       </c>
-      <c r="D47" s="140">
+      <c r="D47" s="128">
         <v>-519959.9495168</v>
       </c>
-      <c r="E47" s="130">
+      <c r="E47" s="118">
         <f t="shared" si="6"/>
         <v>-70748.20321279997</v>
       </c>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="131"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="139" t="s">
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="119"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="127" t="s">
         <v>341</v>
       </c>
-      <c r="C49" s="140">
+      <c r="C49" s="128">
         <f>SUM(C45:C47)</f>
         <v>-4048798.1001976328</v>
       </c>
-      <c r="D49" s="140">
+      <c r="D49" s="128">
         <v>-4847667.4451695755</v>
       </c>
-      <c r="E49" s="130">
+      <c r="E49" s="118">
         <f t="shared" si="6"/>
         <v>-798869.34497194272</v>
       </c>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="131"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="119"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>342</v>
       </c>
-      <c r="C51" s="140">
+      <c r="C51" s="128">
         <f>'CE Budget 2022'!C18</f>
         <v>-1471815.2299680002</v>
       </c>
-      <c r="D51" s="140">
+      <c r="D51" s="128">
         <v>-1000000</v>
       </c>
-      <c r="E51" s="130">
+      <c r="E51" s="118">
         <f t="shared" si="6"/>
         <v>471815.2299680002</v>
       </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>343</v>
       </c>
-      <c r="C52" s="140">
+      <c r="C52" s="128">
         <f>'CE Budget 2022'!C19</f>
         <v>-867798.34033418808</v>
       </c>
-      <c r="D52" s="140">
+      <c r="D52" s="128">
         <v>-550000</v>
       </c>
-      <c r="E52" s="130">
+      <c r="E52" s="118">
         <f t="shared" si="6"/>
         <v>317798.34033418808</v>
       </c>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="131"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="139" t="s">
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="119"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="C54" s="140">
+      <c r="C54" s="128">
         <f>SUM(C51+C52)</f>
         <v>-2339613.5703021884</v>
       </c>
-      <c r="D54" s="140">
+      <c r="D54" s="128">
         <v>-1550000</v>
       </c>
-      <c r="E54" s="130">
+      <c r="E54" s="118">
         <f t="shared" si="6"/>
         <v>789613.5703021884</v>
       </c>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="131"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="144" t="s">
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="119"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="C56" s="140">
+      <c r="C56" s="128">
         <f>C38+C43+C49+C54</f>
         <v>11693007.805312719</v>
       </c>
-      <c r="D56" s="140">
+      <c r="D56" s="128">
         <f>D38+D43+D49+D54</f>
         <v>10932003.037815414</v>
       </c>
-      <c r="E56" s="130">
+      <c r="E56" s="118">
         <f t="shared" si="6"/>
         <v>-761004.76749730483</v>
       </c>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>346</v>
       </c>
-      <c r="C57" s="140">
+      <c r="C57" s="128">
         <f>-FixedCostsBudget!C3</f>
         <v>-5594785.9100000001</v>
       </c>
-      <c r="D57" s="140">
+      <c r="D57" s="128">
         <f>'CE Budget 2022'!F22</f>
         <v>-5650000</v>
       </c>
-      <c r="E57" s="130">
+      <c r="E57" s="118">
         <f t="shared" si="6"/>
         <v>-55214.089999999851</v>
       </c>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="140">
+      <c r="C58" s="128">
         <f>-FixedCostsBudget!C5</f>
         <v>-1050000</v>
       </c>
-      <c r="D58" s="140">
+      <c r="D58" s="128">
         <f>'CE Budget 2022'!F23</f>
         <v>-1100000</v>
       </c>
-      <c r="E58" s="130">
+      <c r="E58" s="118">
         <f t="shared" si="6"/>
         <v>-50000</v>
       </c>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="140">
+      <c r="C59" s="128">
         <f>-FixedCostsBudget!C7</f>
         <v>-307500</v>
       </c>
-      <c r="D59" s="140">
+      <c r="D59" s="128">
         <f>'CE Budget 2022'!F24</f>
         <v>-305000</v>
       </c>
-      <c r="E59" s="130">
+      <c r="E59" s="118">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>347</v>
       </c>
-      <c r="C60" s="140">
+      <c r="C60" s="128">
         <f>-FixedCostsBudget!C9</f>
         <v>-151700</v>
       </c>
-      <c r="D60" s="140">
+      <c r="D60" s="128">
         <f>'CE Budget 2022'!F25</f>
         <v>-145000</v>
       </c>
-      <c r="E60" s="130">
+      <c r="E60" s="118">
         <f t="shared" si="6"/>
         <v>6700</v>
       </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>348</v>
       </c>
-      <c r="C61" s="140">
+      <c r="C61" s="128">
         <f>-FixedCostsBudget!C11</f>
         <v>-309550</v>
       </c>
-      <c r="D61" s="140">
+      <c r="D61" s="128">
         <f>'CE Budget 2022'!F26</f>
         <v>-307000</v>
       </c>
-      <c r="E61" s="130">
+      <c r="E61" s="118">
         <f t="shared" si="6"/>
         <v>2550</v>
       </c>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>349</v>
       </c>
-      <c r="C62" s="140">
+      <c r="C62" s="128">
         <f>-FixedCostsBudget!C13</f>
         <v>-212174.99999999997</v>
       </c>
-      <c r="D62" s="140">
+      <c r="D62" s="128">
         <f>'CE Budget 2022'!F27</f>
         <v>-209500</v>
       </c>
-      <c r="E62" s="130">
+      <c r="E62" s="118">
         <f t="shared" si="6"/>
         <v>2674.9999999999709</v>
       </c>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="131"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="139" t="s">
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="119"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="127" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="140">
+      <c r="C64" s="128">
         <f>SUM(C57:C62)</f>
         <v>-7625710.9100000001</v>
       </c>
-      <c r="D64" s="140">
+      <c r="D64" s="128">
         <f>'CE Budget 2022'!F28</f>
         <v>-7716500</v>
       </c>
-      <c r="E64" s="130">
+      <c r="E64" s="118">
         <f t="shared" si="6"/>
         <v>-90789.089999999851</v>
       </c>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="131"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="119"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="140">
+      <c r="C66" s="128">
         <f>-FixedCostsBudget!C18</f>
         <v>-563750</v>
       </c>
-      <c r="D66" s="140">
+      <c r="D66" s="128">
         <f>'CE Budget 2022'!F29</f>
         <v>-556000</v>
       </c>
-      <c r="E66" s="130">
+      <c r="E66" s="118">
         <f t="shared" si="6"/>
         <v>7750</v>
       </c>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="140">
+      <c r="C67" s="128">
         <f>-FixedCostsBudget!C20</f>
         <v>-307500</v>
       </c>
-      <c r="D67" s="140">
+      <c r="D67" s="128">
         <f>'CE Budget 2022'!F30</f>
         <v>-297000</v>
       </c>
-      <c r="E67" s="130">
+      <c r="E67" s="118">
         <f t="shared" si="6"/>
         <v>10500</v>
       </c>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="140">
+      <c r="C68" s="128">
         <f>-FixedCostsBudget!C22</f>
         <v>-102499.99999999999</v>
       </c>
-      <c r="D68" s="140">
+      <c r="D68" s="128">
         <f>'CE Budget 2022'!F31</f>
         <v>-98000</v>
       </c>
-      <c r="E68" s="130">
+      <c r="E68" s="118">
         <f t="shared" si="6"/>
         <v>4499.9999999999854</v>
       </c>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="131"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="139" t="s">
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="119"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="C70" s="140">
+      <c r="C70" s="128">
         <f>SUM(C66:C68)</f>
         <v>-973750</v>
       </c>
-      <c r="D70" s="140">
+      <c r="D70" s="128">
         <f>'CE Budget 2022'!F32</f>
         <v>-951000</v>
       </c>
-      <c r="E70" s="130">
+      <c r="E70" s="118">
         <f t="shared" si="6"/>
         <v>22750</v>
       </c>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="142" t="s">
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="129" t="s">
         <v>353</v>
       </c>
-      <c r="C71" s="140">
+      <c r="C71" s="128">
         <f>+C56+C64+C70</f>
         <v>3093546.895312719</v>
       </c>
-      <c r="D71" s="140">
+      <c r="D71" s="128">
         <f>'CE Budget 2022'!F33</f>
         <v>2384503.0378154144</v>
       </c>
-      <c r="E71" s="130">
+      <c r="E71" s="118">
         <f t="shared" si="6"/>
         <v>-709043.85749730468</v>
       </c>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="142"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="141" t="s">
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="129"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="140">
+      <c r="C73" s="128">
         <f>-OthersBudget!C3</f>
         <v>-200000</v>
       </c>
-      <c r="D73" s="140">
+      <c r="D73" s="128">
         <f>'CE Budget 2022'!F34</f>
         <v>-190000</v>
       </c>
-      <c r="E73" s="130">
+      <c r="E73" s="118">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="141" t="s">
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="140">
+      <c r="C74" s="128">
         <f>-OthersBudget!C5</f>
         <v>-796875</v>
       </c>
-      <c r="D74" s="140">
+      <c r="D74" s="128">
         <f>'CE Budget 2022'!F35</f>
         <v>-810000</v>
       </c>
-      <c r="E74" s="130">
+      <c r="E74" s="118">
         <f t="shared" si="6"/>
         <v>-13125</v>
       </c>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="141" t="s">
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="140">
+      <c r="C75" s="128">
         <f>-OthersBudget!C7</f>
         <v>0</v>
       </c>
-      <c r="D75" s="140">
+      <c r="D75" s="128">
         <f>'CE Budget 2022'!F36</f>
         <v>-25000</v>
       </c>
-      <c r="E75" s="130">
+      <c r="E75" s="118">
         <f t="shared" si="6"/>
         <v>-25000</v>
       </c>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="131"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="137"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="137"/>
-      <c r="H76" s="137"/>
-      <c r="I76" s="137"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="143" t="s">
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="119"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="125"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="140">
+      <c r="C77" s="128">
         <f>SUM(C73:C75)</f>
         <v>-996875</v>
       </c>
-      <c r="D77" s="140">
+      <c r="D77" s="128">
         <f>'CE Budget 2022'!F37</f>
         <v>-1025000</v>
       </c>
-      <c r="E77" s="130">
+      <c r="E77" s="118">
         <f t="shared" si="6"/>
         <v>-28125</v>
       </c>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="145" t="s">
+      <c r="F77" s="128"/>
+      <c r="G77" s="128"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="140">
+      <c r="C78" s="128">
         <f>+C71+C77</f>
         <v>2096671.895312719</v>
       </c>
-      <c r="D78" s="140">
+      <c r="D78" s="128">
         <f>'CE Budget 2022'!F38</f>
         <v>1359503.0378154144</v>
       </c>
-      <c r="E78" s="130">
+      <c r="E78" s="118">
         <f t="shared" si="6"/>
         <v>-737168.85749730468</v>
       </c>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="145"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="130"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="141" t="s">
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="130"/>
+      <c r="C79" s="128"/>
+      <c r="D79" s="128"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="128"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="140">
+      <c r="C80" s="128">
         <f>-OthersBudget!C9</f>
-        <v>-227633.03999999998</v>
-      </c>
-      <c r="D80" s="140">
+        <v>-87500</v>
+      </c>
+      <c r="D80" s="128">
         <f>'CE Budget 2022'!F39</f>
         <v>-140133.03999999998</v>
       </c>
-      <c r="E80" s="130">
+      <c r="E80" s="118">
         <f t="shared" si="6"/>
-        <v>87500</v>
-      </c>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="141" t="s">
+        <v>-52633.039999999979</v>
+      </c>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="140">
+      <c r="C81" s="128">
         <f>OthersBudget!C11</f>
         <v>0</v>
       </c>
-      <c r="D81" s="140">
+      <c r="D81" s="128">
         <f>'CE Budget 2022'!F40</f>
         <v>3543.6200000000003</v>
       </c>
-      <c r="E81" s="130">
+      <c r="E81" s="118">
         <f t="shared" si="6"/>
         <v>3543.6200000000003</v>
       </c>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="131"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="132"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="143" t="s">
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="119"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="140">
+      <c r="C83" s="128">
         <f>SUM(C80:C81)</f>
-        <v>-227633.03999999998</v>
-      </c>
-      <c r="D83" s="140">
+        <v>-87500</v>
+      </c>
+      <c r="D83" s="128">
         <f>'CE Budget 2022'!F41</f>
         <v>-136589.41999999998</v>
       </c>
-      <c r="E83" s="130">
+      <c r="E83" s="118">
         <f t="shared" si="6"/>
-        <v>91043.62</v>
-      </c>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" s="145" t="s">
+        <v>-49089.419999999984</v>
+      </c>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="140">
+      <c r="C84" s="128">
         <f>+C78+C83</f>
-        <v>1869038.855312719</v>
-      </c>
-      <c r="D84" s="140">
+        <v>2009171.895312719</v>
+      </c>
+      <c r="D84" s="128">
         <f>'CE Budget 2022'!F42</f>
         <v>1222913.6178154144</v>
       </c>
-      <c r="E84" s="130">
+      <c r="E84" s="118">
         <f t="shared" si="6"/>
-        <v>-646125.23749730457</v>
-      </c>
-      <c r="F84" s="140"/>
-      <c r="G84" s="140"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85" s="141" t="s">
+        <v>-786258.2774973046</v>
+      </c>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="140">
+      <c r="C85" s="128">
         <f>-OthersBudget!C13</f>
         <v>0</v>
       </c>
-      <c r="D85" s="140">
+      <c r="D85" s="128">
         <f>'CE Budget 2022'!F43</f>
         <v>-130503.97</v>
       </c>
-      <c r="E85" s="130">
+      <c r="E85" s="118">
         <f t="shared" si="6"/>
         <v>-130503.97</v>
       </c>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86" s="141" t="s">
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="140">
+      <c r="C86" s="128">
         <f>OthersBudget!C15</f>
         <v>0</v>
       </c>
-      <c r="D86" s="140">
+      <c r="D86" s="128">
         <f>'CE Budget 2022'!F44</f>
         <v>0</v>
       </c>
-      <c r="E86" s="130">
+      <c r="E86" s="118">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B87" s="141" t="s">
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="140">
+      <c r="C87" s="128">
         <f>OthersBudget!C17</f>
         <v>0</v>
       </c>
-      <c r="D87" s="140">
+      <c r="D87" s="128">
         <f>'CE Budget 2022'!F45</f>
         <v>0</v>
       </c>
-      <c r="E87" s="130">
+      <c r="E87" s="118">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F87" s="140"/>
-      <c r="G87" s="140"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88" s="131"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="143" t="s">
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="119"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="125"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="125"/>
+      <c r="I88" s="125"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="140">
+      <c r="C89" s="128">
         <f>SUM(C85:C87)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="140">
+      <c r="D89" s="128">
         <f>'CE Budget 2022'!F46</f>
         <v>-130503.97</v>
       </c>
-      <c r="E89" s="130">
+      <c r="E89" s="118">
         <f t="shared" si="6"/>
         <v>-130503.97</v>
       </c>
-      <c r="F89" s="140"/>
-      <c r="G89" s="140"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B90" s="145" t="s">
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="140">
+      <c r="C90" s="128">
         <f>+C89+C84</f>
-        <v>1869038.855312719</v>
-      </c>
-      <c r="D90" s="140">
+        <v>2009171.895312719</v>
+      </c>
+      <c r="D90" s="128">
         <f>'CE Budget 2022'!F47</f>
         <v>1092409.6478154145</v>
       </c>
-      <c r="E90" s="130">
+      <c r="E90" s="118">
         <f t="shared" si="6"/>
-        <v>-776629.20749730454</v>
-      </c>
-      <c r="F90" s="140"/>
-      <c r="G90" s="140"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91" s="145"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="130"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="140"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92" s="141" t="s">
+        <v>-916762.24749730458</v>
+      </c>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="130"/>
+      <c r="C91" s="128"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="140">
+      <c r="C92" s="128">
         <f>-OthersBudget!C19</f>
-        <v>-560711.65659381566</v>
-      </c>
-      <c r="D92" s="140">
+        <v>-602751.56859381567</v>
+      </c>
+      <c r="D92" s="128">
         <f>'CE Budget 2022'!F48</f>
         <v>-327722.8943446154</v>
       </c>
-      <c r="E92" s="130">
+      <c r="E92" s="118">
         <f t="shared" si="6"/>
-        <v>232988.76224920026</v>
-      </c>
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B93" s="131"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="137"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94" s="145" t="s">
+        <v>275028.67424920027</v>
+      </c>
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="119"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="140">
+      <c r="C94" s="128">
         <f>C90+C92</f>
-        <v>1308327.1987189034</v>
-      </c>
-      <c r="D94" s="140">
+        <v>1406420.3267189034</v>
+      </c>
+      <c r="D94" s="128">
         <f>'CE Budget 2022'!F49</f>
         <v>764686.75347079907</v>
       </c>
-      <c r="E94" s="130">
+      <c r="E94" s="118">
         <f t="shared" si="6"/>
-        <v>-543640.44524810428</v>
-      </c>
-      <c r="F94" s="140"/>
-      <c r="G94" s="140"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C95" s="140"/>
-      <c r="D95" s="140"/>
-      <c r="E95" s="140"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="140"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C96" s="140"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
-      <c r="G96" s="140"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C97" s="140"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="140"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="140"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C98" s="140"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C99" s="140"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="140"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="140"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C100" s="140"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="140"/>
-      <c r="F100" s="140"/>
-      <c r="G100" s="140"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C101" s="140"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="140"/>
-      <c r="F101" s="140"/>
-      <c r="G101" s="140"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C102" s="140"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C103" s="140"/>
-      <c r="D103" s="140"/>
-      <c r="E103" s="140"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="140"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C104" s="140"/>
-      <c r="D104" s="140"/>
-      <c r="E104" s="140"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="140"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C105" s="140"/>
-      <c r="D105" s="140"/>
-      <c r="E105" s="140"/>
-      <c r="F105" s="140"/>
-      <c r="G105" s="140"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C106" s="140"/>
-      <c r="D106" s="140"/>
-      <c r="E106" s="140"/>
-      <c r="F106" s="140"/>
-      <c r="G106" s="140"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C107" s="140"/>
-      <c r="D107" s="140"/>
-      <c r="E107" s="140"/>
-      <c r="F107" s="140"/>
-      <c r="G107" s="140"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C108" s="140"/>
-      <c r="D108" s="140"/>
-      <c r="E108" s="140"/>
-      <c r="F108" s="140"/>
-      <c r="G108" s="140"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C109" s="140"/>
-      <c r="D109" s="140"/>
-      <c r="E109" s="140"/>
-      <c r="F109" s="140"/>
-      <c r="G109" s="140"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C110" s="140"/>
-      <c r="D110" s="140"/>
-      <c r="E110" s="140"/>
-      <c r="F110" s="140"/>
-      <c r="G110" s="140"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C111" s="140"/>
-      <c r="D111" s="140"/>
-      <c r="E111" s="140"/>
-      <c r="F111" s="140"/>
-      <c r="G111" s="140"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C112" s="140"/>
-      <c r="D112" s="140"/>
-      <c r="E112" s="140"/>
-      <c r="F112" s="140"/>
-      <c r="G112" s="140"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C113" s="140"/>
-      <c r="D113" s="140"/>
-      <c r="E113" s="140"/>
-      <c r="F113" s="140"/>
-      <c r="G113" s="140"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C114" s="140"/>
-      <c r="D114" s="140"/>
-      <c r="E114" s="140"/>
-      <c r="F114" s="140"/>
-      <c r="G114" s="140"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C115" s="140"/>
-      <c r="D115" s="140"/>
-      <c r="E115" s="140"/>
-      <c r="F115" s="140"/>
-      <c r="G115" s="140"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C116" s="140"/>
-      <c r="D116" s="140"/>
-      <c r="E116" s="140"/>
-      <c r="F116" s="140"/>
-      <c r="G116" s="140"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C117" s="140"/>
-      <c r="D117" s="140"/>
-      <c r="E117" s="140"/>
-      <c r="F117" s="140"/>
-      <c r="G117" s="140"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C118" s="140"/>
-      <c r="D118" s="140"/>
-      <c r="E118" s="140"/>
-      <c r="F118" s="140"/>
-      <c r="G118" s="140"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C119" s="140"/>
-      <c r="D119" s="140"/>
-      <c r="E119" s="140"/>
-      <c r="F119" s="140"/>
-      <c r="G119" s="140"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C120" s="140"/>
-      <c r="D120" s="140"/>
-      <c r="E120" s="140"/>
-      <c r="F120" s="140"/>
-      <c r="G120" s="140"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C121" s="140"/>
-      <c r="D121" s="140"/>
-      <c r="E121" s="140"/>
-      <c r="F121" s="140"/>
-      <c r="G121" s="140"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C122" s="140"/>
-      <c r="D122" s="140"/>
-      <c r="E122" s="140"/>
-      <c r="F122" s="140"/>
-      <c r="G122" s="140"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C123" s="140"/>
-      <c r="D123" s="140"/>
-      <c r="E123" s="140"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="140"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C124" s="140"/>
-      <c r="D124" s="140"/>
-      <c r="E124" s="140"/>
-      <c r="F124" s="140"/>
-      <c r="G124" s="140"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C125" s="140"/>
-      <c r="D125" s="140"/>
-      <c r="E125" s="140"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="140"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C126" s="140"/>
-      <c r="D126" s="140"/>
-      <c r="E126" s="140"/>
-      <c r="F126" s="140"/>
-      <c r="G126" s="140"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C127" s="140"/>
-      <c r="D127" s="140"/>
-      <c r="E127" s="140"/>
-      <c r="F127" s="140"/>
-      <c r="G127" s="140"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C128" s="140"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="140"/>
-      <c r="F128" s="140"/>
-      <c r="G128" s="140"/>
-    </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C129" s="140"/>
-      <c r="D129" s="140"/>
-      <c r="E129" s="140"/>
-      <c r="F129" s="140"/>
-      <c r="G129" s="140"/>
-    </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C130" s="140"/>
-      <c r="D130" s="140"/>
-      <c r="E130" s="140"/>
-      <c r="F130" s="140"/>
-      <c r="G130" s="140"/>
-    </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C131" s="140"/>
-      <c r="D131" s="140"/>
-      <c r="E131" s="140"/>
-      <c r="F131" s="140"/>
-      <c r="G131" s="140"/>
-    </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C132" s="140"/>
-      <c r="D132" s="140"/>
-      <c r="E132" s="140"/>
-      <c r="F132" s="140"/>
-      <c r="G132" s="140"/>
-    </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C133" s="140"/>
-      <c r="D133" s="140"/>
-      <c r="E133" s="140"/>
-      <c r="F133" s="140"/>
-      <c r="G133" s="140"/>
-    </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C134" s="140"/>
-      <c r="D134" s="140"/>
-      <c r="E134" s="140"/>
-      <c r="F134" s="140"/>
-      <c r="G134" s="140"/>
-    </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C135" s="140"/>
-      <c r="D135" s="140"/>
-      <c r="E135" s="140"/>
-      <c r="F135" s="140"/>
-      <c r="G135" s="140"/>
+        <v>-641733.57324810431</v>
+      </c>
+      <c r="F94" s="128"/>
+      <c r="G94" s="128"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C95" s="128"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
+      <c r="F95" s="128"/>
+      <c r="G95" s="128"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="128"/>
+      <c r="D96" s="128"/>
+      <c r="E96" s="128"/>
+      <c r="F96" s="128"/>
+      <c r="G96" s="128"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="128"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C98" s="128"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="128"/>
+      <c r="F98" s="128"/>
+      <c r="G98" s="128"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="128"/>
+      <c r="D99" s="128"/>
+      <c r="E99" s="128"/>
+      <c r="F99" s="128"/>
+      <c r="G99" s="128"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="128"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C102" s="128"/>
+      <c r="D102" s="128"/>
+      <c r="E102" s="128"/>
+      <c r="F102" s="128"/>
+      <c r="G102" s="128"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="128"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="128"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C105" s="128"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
+      <c r="F105" s="128"/>
+      <c r="G105" s="128"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C106" s="128"/>
+      <c r="D106" s="128"/>
+      <c r="E106" s="128"/>
+      <c r="F106" s="128"/>
+      <c r="G106" s="128"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="128"/>
+      <c r="D107" s="128"/>
+      <c r="E107" s="128"/>
+      <c r="F107" s="128"/>
+      <c r="G107" s="128"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C108" s="128"/>
+      <c r="D108" s="128"/>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="128"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C109" s="128"/>
+      <c r="D109" s="128"/>
+      <c r="E109" s="128"/>
+      <c r="F109" s="128"/>
+      <c r="G109" s="128"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C110" s="128"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+      <c r="F110" s="128"/>
+      <c r="G110" s="128"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C111" s="128"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="128"/>
+      <c r="F111" s="128"/>
+      <c r="G111" s="128"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="128"/>
+      <c r="D112" s="128"/>
+      <c r="E112" s="128"/>
+      <c r="F112" s="128"/>
+      <c r="G112" s="128"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="128"/>
+      <c r="G113" s="128"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C115" s="128"/>
+      <c r="D115" s="128"/>
+      <c r="E115" s="128"/>
+      <c r="F115" s="128"/>
+      <c r="G115" s="128"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C116" s="128"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="128"/>
+      <c r="F116" s="128"/>
+      <c r="G116" s="128"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C117" s="128"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="128"/>
+      <c r="F117" s="128"/>
+      <c r="G117" s="128"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C118" s="128"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="128"/>
+      <c r="F118" s="128"/>
+      <c r="G118" s="128"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C119" s="128"/>
+      <c r="D119" s="128"/>
+      <c r="E119" s="128"/>
+      <c r="F119" s="128"/>
+      <c r="G119" s="128"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C120" s="128"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="128"/>
+      <c r="F120" s="128"/>
+      <c r="G120" s="128"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C121" s="128"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="128"/>
+      <c r="F121" s="128"/>
+      <c r="G121" s="128"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C122" s="128"/>
+      <c r="D122" s="128"/>
+      <c r="E122" s="128"/>
+      <c r="F122" s="128"/>
+      <c r="G122" s="128"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C123" s="128"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="128"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="128"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C124" s="128"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="128"/>
+      <c r="F124" s="128"/>
+      <c r="G124" s="128"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C125" s="128"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="128"/>
+      <c r="F125" s="128"/>
+      <c r="G125" s="128"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="128"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C127" s="128"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="128"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C128" s="128"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="128"/>
+      <c r="F128" s="128"/>
+      <c r="G128" s="128"/>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C129" s="128"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="128"/>
+      <c r="F129" s="128"/>
+      <c r="G129" s="128"/>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C130" s="128"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="128"/>
+      <c r="F130" s="128"/>
+      <c r="G130" s="128"/>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C131" s="128"/>
+      <c r="D131" s="128"/>
+      <c r="E131" s="128"/>
+      <c r="F131" s="128"/>
+      <c r="G131" s="128"/>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C132" s="128"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="128"/>
+      <c r="F132" s="128"/>
+      <c r="G132" s="128"/>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C133" s="128"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
+      <c r="G133" s="128"/>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C134" s="128"/>
+      <c r="D134" s="128"/>
+      <c r="E134" s="128"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="128"/>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C135" s="128"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="128"/>
+      <c r="G135" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7592,18 +7582,18 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7613,7 +7603,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -7628,7 +7618,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -7653,7 +7643,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -7683,7 +7673,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -7712,7 +7702,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -7741,7 +7731,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -7759,7 +7749,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -7780,7 +7770,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -7800,7 +7790,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -7815,7 +7805,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -7835,7 +7825,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -7854,7 +7844,7 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -7868,7 +7858,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -7886,7 +7876,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -7905,7 +7895,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -7915,7 +7905,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -7935,7 +7925,7 @@
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -7950,7 +7940,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -7960,7 +7950,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -7975,7 +7965,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -7990,7 +7980,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -8004,7 +7994,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
@@ -8019,7 +8009,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -8027,10 +8017,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -8039,7 +8029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -8048,7 +8038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -8057,7 +8047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
@@ -8066,7 +8056,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -8075,7 +8065,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -8083,7 +8073,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -8091,7 +8081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -8099,7 +8089,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -8108,7 +8098,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -8116,7 +8106,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -8125,7 +8115,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -8134,7 +8124,7 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
@@ -8143,7 +8133,7 @@
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -8152,7 +8142,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -8161,7 +8151,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -8178,55 +8168,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" style="1"/>
-    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="1"/>
+    <col min="19" max="19" width="8.77734375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="117" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="145"/>
       <c r="S2" s="88"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -8267,7 +8257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -8364,7 +8354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -8411,7 +8401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -8458,7 +8448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -8505,7 +8495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -8552,7 +8542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -8599,7 +8589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -8689,7 +8679,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -8731,7 +8721,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -8773,7 +8763,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -8815,7 +8805,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -8857,7 +8847,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -8899,7 +8889,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -8941,7 +8931,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -8983,7 +8973,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -9025,7 +9015,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -9067,7 +9057,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -9109,7 +9099,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -9151,7 +9141,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -9193,7 +9183,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -9235,7 +9225,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -9277,7 +9267,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -9322,7 +9312,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -9367,7 +9357,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -9409,7 +9399,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -9451,7 +9441,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -9493,7 +9483,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -9535,7 +9525,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -9577,7 +9567,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -9618,7 +9608,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -9660,7 +9650,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -9702,7 +9692,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -9743,7 +9733,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -9785,7 +9775,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -9826,7 +9816,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -9871,7 +9861,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -9916,7 +9906,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -9960,7 +9950,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -10005,7 +9995,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -10047,7 +10037,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -10089,7 +10079,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -10131,7 +10121,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -10173,7 +10163,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -10215,7 +10205,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -10260,7 +10250,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -10305,7 +10295,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -10350,7 +10340,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -10392,7 +10382,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -10434,7 +10424,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -10476,7 +10466,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -10518,7 +10508,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -10560,7 +10550,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -10602,7 +10592,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -10644,7 +10634,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -10686,7 +10676,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -10728,7 +10718,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -10770,7 +10760,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -10812,7 +10802,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -10854,7 +10844,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -10896,7 +10886,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -10936,7 +10926,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -10976,7 +10966,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -11002,7 +10992,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -11028,7 +11018,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -11055,7 +11045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -11083,7 +11073,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -11107,7 +11097,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -11131,7 +11121,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -11156,7 +11146,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -11180,7 +11170,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -11208,7 +11198,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -11238,7 +11228,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -11268,7 +11258,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -11294,7 +11284,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -11320,7 +11310,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -11330,25 +11320,25 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="88"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -11365,22 +11355,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -11391,7 +11383,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -11418,7 +11410,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>Ricavi!J4</f>
@@ -11449,7 +11441,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>Ricavi!J5</f>
@@ -11480,7 +11472,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>Ricavi!J6</f>
@@ -11511,7 +11503,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>Ricavi!J7</f>
@@ -11542,7 +11534,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>Ricavi!J8</f>
@@ -11573,7 +11565,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>Ricavi!J9</f>
@@ -11604,7 +11596,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>Ricavi!J10</f>
@@ -11635,7 +11627,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>Ricavi!J11</f>
@@ -11666,7 +11658,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>Ricavi!J12</f>
@@ -11697,7 +11689,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>Ricavi!J13</f>
@@ -11728,7 +11720,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>Ricavi!J14</f>
@@ -11759,7 +11751,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>Ricavi!J15</f>
@@ -11790,7 +11782,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>Ricavi!J16</f>
@@ -11821,7 +11813,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>Ricavi!J17</f>
@@ -11855,7 +11847,7 @@
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>Ricavi!J18</f>
@@ -11887,7 +11879,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>Ricavi!J19</f>
@@ -11918,7 +11910,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>Ricavi!J20</f>
@@ -11949,7 +11941,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>Ricavi!J21</f>
@@ -11980,7 +11972,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>Ricavi!J22</f>
@@ -12011,7 +12003,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>Ricavi!J23</f>
@@ -12044,7 +12036,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>Ricavi!J24</f>
@@ -12075,7 +12067,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>Ricavi!J25</f>
@@ -12107,7 +12099,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>Ricavi!J26</f>
@@ -12138,7 +12130,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>Ricavi!J27</f>
@@ -12169,7 +12161,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>Ricavi!J28</f>
@@ -12200,7 +12192,7 @@
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>Ricavi!J29</f>
@@ -12232,7 +12224,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>Ricavi!J30</f>
@@ -12266,7 +12258,7 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>Ricavi!J31</f>
@@ -12298,7 +12290,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>Ricavi!J32</f>
@@ -12330,7 +12322,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>Ricavi!J33</f>
@@ -12362,7 +12354,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>Ricavi!J34</f>
@@ -12393,7 +12385,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>Ricavi!J35</f>
@@ -12424,7 +12416,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>Ricavi!J36</f>
@@ -12455,7 +12447,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>Ricavi!J37</f>
@@ -12486,7 +12478,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>Ricavi!J38</f>
@@ -12517,7 +12509,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>Ricavi!J39</f>
@@ -12548,7 +12540,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>Ricavi!J40</f>
@@ -12579,7 +12571,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>Ricavi!J41</f>
@@ -12610,7 +12602,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>Ricavi!J42</f>
@@ -12641,7 +12633,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>Ricavi!J43</f>
@@ -12672,7 +12664,7 @@
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>Ricavi!J44</f>
@@ -12703,7 +12695,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>Ricavi!J45</f>
@@ -12734,7 +12726,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>Ricavi!J46</f>
@@ -12767,7 +12759,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>Ricavi!J47</f>
@@ -12798,7 +12790,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>Ricavi!J48</f>
@@ -12829,7 +12821,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>Ricavi!J49</f>
@@ -12860,7 +12852,7 @@
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>Ricavi!J50</f>
@@ -12891,7 +12883,7 @@
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>Ricavi!J51</f>
@@ -12922,7 +12914,7 @@
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>Ricavi!J52</f>
@@ -12953,7 +12945,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>Ricavi!J53</f>
@@ -12984,7 +12976,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>Ricavi!J54</f>
@@ -13015,7 +13007,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>Ricavi!J55</f>
@@ -13049,7 +13041,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>Ricavi!J56</f>
@@ -13084,7 +13076,7 @@
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>Ricavi!J57</f>
@@ -13118,7 +13110,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>Ricavi!J58</f>
@@ -13153,7 +13145,7 @@
         <v>196584.24189999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>Ricavi!J59</f>
@@ -13187,7 +13179,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>Ricavi!J60</f>
@@ -13222,7 +13214,7 @@
         <v>2489618.9618799998</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>Ricavi!J61</f>
@@ -13253,7 +13245,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>Ricavi!J62</f>
@@ -13284,7 +13276,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>Ricavi!J63</f>
@@ -13315,7 +13307,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>Ricavi!J64</f>
@@ -13346,7 +13338,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>Ricavi!J65</f>
@@ -13376,7 +13368,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>Ricavi!J66</f>
@@ -13407,7 +13399,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -13418,7 +13410,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -13445,37 +13437,37 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.54296875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="2.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="120" t="s">
+    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -13493,7 +13485,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -13508,7 +13500,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -13530,7 +13522,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -13550,7 +13542,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -13570,7 +13562,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -13590,7 +13582,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -13608,7 +13600,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -13628,7 +13620,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -13648,7 +13640,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -13669,7 +13661,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -13691,23 +13683,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -13716,95 +13708,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -13839,18 +13831,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -13860,7 +13852,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -13875,7 +13867,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -13900,7 +13892,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -13930,7 +13922,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -13959,7 +13951,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -13988,7 +13980,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -14006,7 +13998,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -14027,7 +14019,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -14047,7 +14039,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -14062,7 +14054,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -14082,7 +14074,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -14101,7 +14093,7 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -14115,7 +14107,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -14133,7 +14125,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -14152,7 +14144,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -14162,7 +14154,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -14182,7 +14174,7 @@
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -14197,7 +14189,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14207,7 +14199,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -14222,7 +14214,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -14237,7 +14229,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -14251,7 +14243,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
@@ -14266,7 +14258,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -14274,10 +14266,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -14286,7 +14278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -14295,7 +14287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -14304,7 +14296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
@@ -14313,7 +14305,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -14322,7 +14314,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -14330,7 +14322,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -14338,7 +14330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -14346,7 +14338,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -14355,7 +14347,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -14363,7 +14355,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -14372,7 +14364,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -14381,7 +14373,7 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
@@ -14390,7 +14382,7 @@
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -14399,7 +14391,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -14408,7 +14400,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -14427,129 +14419,129 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -14564,22 +14556,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="94" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -14591,10 +14585,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>238</v>
       </c>
@@ -14603,10 +14597,10 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>239</v>
       </c>
@@ -14615,10 +14609,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>240</v>
       </c>
@@ -14627,10 +14621,10 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>241</v>
       </c>
@@ -14639,10 +14633,10 @@
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -14651,10 +14645,10 @@
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="93" t="s">
         <v>246</v>
       </c>
@@ -14663,13 +14657,13 @@
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>243</v>
       </c>
@@ -14678,10 +14672,10 @@
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="s">
         <v>244</v>
       </c>
@@ -14690,10 +14684,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>245</v>
       </c>
@@ -14702,10 +14696,10 @@
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="93" t="s">
         <v>247</v>
       </c>
@@ -14714,13 +14708,13 @@
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="93" t="s">
         <v>248</v>
       </c>
@@ -14738,27 +14732,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -14766,13 +14762,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -14780,33 +14776,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -14817,67 +14813,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -14892,23 +14888,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -14916,7 +14914,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>254</v>
@@ -14927,13 +14925,13 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>255</v>
@@ -14944,13 +14942,13 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
         <v>256</v>
@@ -14960,30 +14958,30 @@
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>257</v>
       </c>
       <c r="C9" s="96">
-        <f>-'CE 21-22'!C39+(3000000*0.05*7/12)</f>
-        <v>227633.03999999998</v>
+        <f>(3000000*0.05*7/12)</f>
+        <v>87500</v>
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>258</v>
@@ -14993,13 +14991,13 @@
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
         <v>259</v>
@@ -15009,13 +15007,13 @@
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>260</v>
@@ -15025,13 +15023,13 @@
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>261</v>
@@ -15041,26 +15039,26 @@
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="96">
         <f>'CE Budget 2022'!C47*0.3</f>
-        <v>560711.65659381566</v>
+        <v>602751.56859381567</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>277</v>
       </c>
@@ -15068,7 +15066,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>278</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75F190-D92C-4BCE-A23C-D209FFDF4DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049C028-691C-4179-BCEF-DD88AB2DFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{F3D2BC44-8B96-4191-A951-D452051F21FF}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{F67C1344-DA6D-437B-A795-BE773FAE3582}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="385">
   <si>
     <t>MP1</t>
   </si>
@@ -1221,6 +1220,87 @@
   </si>
   <si>
     <t>Rapporto Totale famiglia-MS</t>
+  </si>
+  <si>
+    <t>Dati di appoggio</t>
+  </si>
+  <si>
+    <t>Q totale reale MP</t>
+  </si>
+  <si>
+    <t>Q totale realePCL</t>
+  </si>
+  <si>
+    <t>Q totale reale PF P</t>
+  </si>
+  <si>
+    <t>Q totale reale PF V</t>
+  </si>
+  <si>
+    <t>Q totale reale PF A</t>
+  </si>
+  <si>
+    <t>Ricavi totali reali MP</t>
+  </si>
+  <si>
+    <t>Ricavi totali reali PCL</t>
+  </si>
+  <si>
+    <t>Ricavi totali reali PF P</t>
+  </si>
+  <si>
+    <t>Ricavi totali reali PF V</t>
+  </si>
+  <si>
+    <t>Ricavi totali reali PF A</t>
+  </si>
+  <si>
+    <t>Costo MP reali MP</t>
+  </si>
+  <si>
+    <t>Costo MP reali PCL</t>
+  </si>
+  <si>
+    <t>Costo MP reali PF P</t>
+  </si>
+  <si>
+    <t>Costo MP reali PF V</t>
+  </si>
+  <si>
+    <t>Costo MP reali PF A</t>
+  </si>
+  <si>
+    <t>Q totale budget MP</t>
+  </si>
+  <si>
+    <t>Q totale budget PCL</t>
+  </si>
+  <si>
+    <t>Q totale budget PF P</t>
+  </si>
+  <si>
+    <t>Q totale budget PF V</t>
+  </si>
+  <si>
+    <t>Q totale budget PF A</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Quelli a budget</t>
+  </si>
+  <si>
+    <t>Vedi foglio Ricavi</t>
+  </si>
+  <si>
+    <t>Quelli a consuntivo</t>
+  </si>
+  <si>
+    <t>Vedi foglio ricavi</t>
+  </si>
+  <si>
+    <t>Ricavi totali MP a MS</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1561,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,8 +1676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1985,6 +2071,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2009,7 +2104,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2337,6 +2432,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -2985,684 +3090,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="CE 21-22"/>
-      <sheetName val="Ricavi"/>
-      <sheetName val="RicaviBudget"/>
-      <sheetName val="VariableCosts"/>
-      <sheetName val="VariableCostsBudget"/>
-      <sheetName val="FixedCosts"/>
-      <sheetName val="FixedCostsBudget"/>
-      <sheetName val="Others"/>
-      <sheetName val="OthersBudget"/>
-      <sheetName val="CE Budget 2022"/>
-      <sheetName val="Analisi degli scostamenti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Consuntivo 2022</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Articolo</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>P medio (€/kg)</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>MP1</v>
-          </cell>
-          <cell r="E4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>MP2</v>
-          </cell>
-          <cell r="E5">
-            <v>2.8454343054568869</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>MP3</v>
-          </cell>
-          <cell r="E6">
-            <v>2.394191982210288</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>MP4</v>
-          </cell>
-          <cell r="E7">
-            <v>1.6259024091283505</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>MP5</v>
-          </cell>
-          <cell r="E8">
-            <v>7.2999999999999989</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>MP6</v>
-          </cell>
-          <cell r="E9">
-            <v>1.407538523574988</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MP7</v>
-          </cell>
-          <cell r="E10">
-            <v>2.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>MP8</v>
-          </cell>
-          <cell r="E11">
-            <v>2.069991076133928</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>MP9</v>
-          </cell>
-          <cell r="E12">
-            <v>2.5294423532749355</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>MP10</v>
-          </cell>
-          <cell r="E13">
-            <v>2.3872630549463576</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>MP11</v>
-          </cell>
-          <cell r="E14">
-            <v>1.4000000000000004</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>MP12</v>
-          </cell>
-          <cell r="E15">
-            <v>1.88</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>MP13</v>
-          </cell>
-          <cell r="E16">
-            <v>1.1300000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>MP14</v>
-          </cell>
-          <cell r="E17">
-            <v>3.6564488552004386</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>MP15</v>
-          </cell>
-          <cell r="E18">
-            <v>0.29851713713549144</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>MP16</v>
-          </cell>
-          <cell r="E19">
-            <v>1.3214682559652613</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>MP17</v>
-          </cell>
-          <cell r="E20">
-            <v>0.20188006306692874</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>MP18</v>
-          </cell>
-          <cell r="E21">
-            <v>3.4812737374826175</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>MP19</v>
-          </cell>
-          <cell r="E22">
-            <v>5.1675675675675672</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>MP20</v>
-          </cell>
-          <cell r="E23">
-            <v>0.45000000000000007</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>MP21</v>
-          </cell>
-          <cell r="E24">
-            <v>4.4926663923229482</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>MP22</v>
-          </cell>
-          <cell r="E25">
-            <v>6.6300000000000008</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>MP23</v>
-          </cell>
-          <cell r="E26">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>MP24</v>
-          </cell>
-          <cell r="E27">
-            <v>12.982910321489001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>PCL1</v>
-          </cell>
-          <cell r="E28">
-            <v>7.7960603855361868E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>PCL2</v>
-          </cell>
-          <cell r="E29">
-            <v>0.67441660867548137</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>PCL3</v>
-          </cell>
-          <cell r="E30">
-            <v>1.5633914368373318</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>PCL4</v>
-          </cell>
-          <cell r="E31">
-            <v>1.6736903475641822</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>PCL5</v>
-          </cell>
-          <cell r="E32">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>PF P1</v>
-          </cell>
-          <cell r="E33">
-            <v>0.95151747373984275</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>PF P2</v>
-          </cell>
-          <cell r="E34">
-            <v>2.0941639085164221</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>PF P3</v>
-          </cell>
-          <cell r="E35">
-            <v>2.2182920110192836</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>PF P4</v>
-          </cell>
-          <cell r="E36">
-            <v>2.1110997372569629</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>PF P5</v>
-          </cell>
-          <cell r="E37">
-            <v>2.1683789936275497</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>PF P6</v>
-          </cell>
-          <cell r="E38">
-            <v>2.4447673031026254</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>PF P7</v>
-          </cell>
-          <cell r="E39">
-            <v>2.1755305430745655</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>PF P8</v>
-          </cell>
-          <cell r="E40">
-            <v>0.72040658436213989</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>PF V1</v>
-          </cell>
-          <cell r="E41">
-            <v>1.2394066091686382</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>PF V2</v>
-          </cell>
-          <cell r="E42">
-            <v>1.3500108906011263</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>PF V3</v>
-          </cell>
-          <cell r="E43">
-            <v>1.1953137569283963</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>PF V4</v>
-          </cell>
-          <cell r="E44">
-            <v>1.0664157465717947</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>PF V5</v>
-          </cell>
-          <cell r="E45">
-            <v>1.0917239485733838</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>PF V6</v>
-          </cell>
-          <cell r="E46">
-            <v>1.5032278016563581</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>PF V7</v>
-          </cell>
-          <cell r="E47">
-            <v>0.81786394557823128</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>PF V8</v>
-          </cell>
-          <cell r="E48">
-            <v>1.2292548613611811</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>PF V9</v>
-          </cell>
-          <cell r="E49">
-            <v>1.3103522012578614</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>PF V10</v>
-          </cell>
-          <cell r="E50">
-            <v>1.3809778209486805</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>PF V11</v>
-          </cell>
-          <cell r="E51">
-            <v>0.7641895591554374</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>PF V12</v>
-          </cell>
-          <cell r="E52">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>PF V13</v>
-          </cell>
-          <cell r="E53">
-            <v>1.29</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>PF V14</v>
-          </cell>
-          <cell r="E54">
-            <v>1.003604926690739</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>PF V15</v>
-          </cell>
-          <cell r="E55">
-            <v>1.1262508272667109</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>PF V16</v>
-          </cell>
-          <cell r="E56">
-            <v>1.1679999999999999</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>PF V17</v>
-          </cell>
-          <cell r="E57">
-            <v>0.66185661102437854</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>PF A1</v>
-          </cell>
-          <cell r="E58">
-            <v>1.5481564896611979</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>PF A2</v>
-          </cell>
-          <cell r="E59">
-            <v>1.0145297661595016</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>PF A3</v>
-          </cell>
-          <cell r="E60">
-            <v>1.5966125451519446</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>PF A4</v>
-          </cell>
-          <cell r="E61">
-            <v>1.1722768518267583</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>PF A5</v>
-          </cell>
-          <cell r="E62">
-            <v>1.3571836380718363</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>PF A6</v>
-          </cell>
-          <cell r="E63">
-            <v>1.6094114465975666</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>PF A7</v>
-          </cell>
-          <cell r="E64">
-            <v>1.7370298635106558</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>PF A8</v>
-          </cell>
-          <cell r="E65">
-            <v>1.6806898864347668</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>PF A9</v>
-          </cell>
-          <cell r="E66">
-            <v>1.0545722952001755</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>PF A10</v>
-          </cell>
-          <cell r="E67">
-            <v>1.0427329563480954</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>PF A11</v>
-          </cell>
-          <cell r="E68">
-            <v>1.9287213205204836</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>PF A12</v>
-          </cell>
-          <cell r="E69">
-            <v>1.9086574648277184</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>PF A13</v>
-          </cell>
-          <cell r="E70">
-            <v>1.4443107909945656</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>PF A14</v>
-          </cell>
-          <cell r="E71">
-            <v>1.9315133240974656</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>PF A15</v>
-          </cell>
-          <cell r="E72">
-            <v>1.5090489190950254</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>PF A16</v>
-          </cell>
-          <cell r="E73">
-            <v>1.5367824521112794</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>PF A17</v>
-          </cell>
-          <cell r="E74">
-            <v>1.7941255297930692</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>PF A18</v>
-          </cell>
-          <cell r="E75">
-            <v>0.60202058079706988</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>PF A19</v>
-          </cell>
-          <cell r="E76">
-            <v>0.63365096811948207</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>Spese trasporto</v>
-          </cell>
-          <cell r="E77">
-            <v>697.35714285714289</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>Premio Year21</v>
-          </cell>
-          <cell r="E78">
-            <v>19834.952666666664</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>Addebiti vari</v>
-          </cell>
-          <cell r="E79">
-            <v>7.155483831924637</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80" t="str">
-            <v>€/qta</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v xml:space="preserve">NB: </v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>i) le spese di trasporto sono un riaccredito da parte di un cliente.</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>ii) i premi vanno a diminuire il ricavo perché erogati a clienti</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3928,24 +3355,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="140" t="s">
         <v>139</v>
       </c>
@@ -3955,7 +3380,7 @@
       </c>
       <c r="F2" s="141"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="138" t="s">
         <v>169</v>
       </c>
@@ -3969,7 +3394,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="139"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
@@ -3982,7 +3407,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -3992,7 +3417,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>137</v>
       </c>
@@ -4002,7 +3427,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>138</v>
       </c>
@@ -4012,7 +3437,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4022,7 +3447,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4032,7 +3457,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4044,7 +3469,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4057,7 +3482,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4083,7 +3508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4110,7 +3535,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4129,7 +3554,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4144,7 +3569,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4159,7 +3584,7 @@
         <v>-705000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -4175,7 +3600,7 @@
         <v>-4805000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4189,7 +3614,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -4203,7 +3628,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -4219,7 +3644,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -4230,7 +3655,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -4244,7 +3669,7 @@
         <v>-5510785.9100000001</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -4258,7 +3683,7 @@
         <v>-1200000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -4272,7 +3697,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -4286,7 +3711,7 @@
         <v>-148000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -4300,7 +3725,7 @@
         <v>-302000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -4314,7 +3739,7 @@
         <v>-207000</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -4330,7 +3755,7 @@
         <v>-7667785.9100000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -4344,7 +3769,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -4358,7 +3783,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -4372,7 +3797,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -4388,7 +3813,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -4399,7 +3824,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -4413,7 +3838,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -4427,7 +3852,7 @@
         <v>-750000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -4441,7 +3866,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -4457,7 +3882,7 @@
         <v>-962000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +3892,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -4476,7 +3901,7 @@
       </c>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -4485,7 +3910,7 @@
       </c>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -4497,7 +3922,7 @@
       <c r="E41" s="28"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -4507,7 +3932,7 @@
       </c>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -4516,7 +3941,7 @@
       </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -4525,7 +3950,7 @@
       </c>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -4534,7 +3959,7 @@
       </c>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -4544,7 +3969,7 @@
       </c>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -4554,7 +3979,7 @@
       </c>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +3988,7 @@
       </c>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -4573,59 +3998,59 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="E60" s="28"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="28"/>
       <c r="C62" s="30"/>
       <c r="E62" s="28"/>
@@ -4647,23 +4072,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B2" s="140" t="s">
         <v>139</v>
       </c>
@@ -4676,7 +4099,7 @@
       </c>
       <c r="F2" s="141"/>
     </row>
-    <row r="3" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="138" t="s">
         <v>290</v>
       </c>
@@ -4693,7 +4116,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="139"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
@@ -4703,7 +4126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
@@ -4722,7 +4145,7 @@
         <v>61294659.022799999</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="46" t="s">
         <v>288</v>
       </c>
@@ -4741,7 +4164,7 @@
         <v>528226.62545000005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>289</v>
       </c>
@@ -4760,7 +4183,7 @@
         <v>1877590.3519999997</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
@@ -4779,7 +4202,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>69</v>
       </c>
@@ -4797,7 +4220,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>70</v>
       </c>
@@ -4819,7 +4242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>71</v>
       </c>
@@ -4838,7 +4261,7 @@
         <v>-49370805.517265007</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>72</v>
       </c>
@@ -4856,7 +4279,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="47" t="s">
         <v>73</v>
       </c>
@@ -4875,7 +4298,7 @@
         <v>-46870805.517265007</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>74</v>
       </c>
@@ -4894,7 +4317,7 @@
         <v>-4152707.4956527753</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4336,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>76</v>
       </c>
@@ -4932,7 +4355,7 @@
         <v>-519959.9495168</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>77</v>
       </c>
@@ -4951,7 +4374,7 @@
         <v>-4847667.4451695755</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>78</v>
       </c>
@@ -4970,7 +4393,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>79</v>
       </c>
@@ -4989,7 +4412,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
@@ -5008,7 +4431,7 @@
         <v>-1550000</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="49" t="s">
         <v>81</v>
       </c>
@@ -5027,7 +4450,7 @@
         <v>11052003.037815414</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>82</v>
       </c>
@@ -5046,7 +4469,7 @@
         <v>-5650000</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>83</v>
       </c>
@@ -5065,7 +4488,7 @@
         <v>-1100000</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="44" t="s">
         <v>84</v>
       </c>
@@ -5084,7 +4507,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="44" t="s">
         <v>85</v>
       </c>
@@ -5103,7 +4526,7 @@
         <v>-145000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
         <v>86</v>
       </c>
@@ -5122,7 +4545,7 @@
         <v>-307000</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="44" t="s">
         <v>87</v>
       </c>
@@ -5141,7 +4564,7 @@
         <v>-209500</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
@@ -5160,7 +4583,7 @@
         <v>-7716500</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="44" t="s">
         <v>89</v>
       </c>
@@ -5180,7 +4603,7 @@
       </c>
       <c r="G29" s="102"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
@@ -5199,7 +4622,7 @@
         <v>-297000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="44" t="s">
         <v>91</v>
       </c>
@@ -5218,7 +4641,7 @@
         <v>-98000</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="47" t="s">
         <v>92</v>
       </c>
@@ -5237,7 +4660,7 @@
         <v>-951000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="51" t="s">
         <v>93</v>
       </c>
@@ -5256,7 +4679,7 @@
         <v>2384503.0378154144</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="46" t="s">
         <v>94</v>
       </c>
@@ -5275,7 +4698,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="44" t="s">
         <v>95</v>
       </c>
@@ -5294,7 +4717,7 @@
         <v>-810000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
@@ -5313,7 +4736,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="47" t="s">
         <v>97</v>
       </c>
@@ -5332,7 +4755,7 @@
         <v>-1025000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="49" t="s">
         <v>98</v>
       </c>
@@ -5351,7 +4774,7 @@
         <v>1359503.0378154144</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="44" t="s">
         <v>99</v>
       </c>
@@ -5370,7 +4793,7 @@
         <v>-140133.03999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="44" t="s">
         <v>100</v>
       </c>
@@ -5389,7 +4812,7 @@
         <v>3543.6200000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
@@ -5408,7 +4831,7 @@
         <v>-136589.41999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="49" t="s">
         <v>102</v>
       </c>
@@ -5427,7 +4850,7 @@
         <v>1222913.6178154144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="44" t="s">
         <v>103</v>
       </c>
@@ -5446,7 +4869,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="44" t="s">
         <v>104</v>
       </c>
@@ -5465,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="44" t="s">
         <v>105</v>
       </c>
@@ -5484,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="47" t="s">
         <v>106</v>
       </c>
@@ -5503,7 +4926,7 @@
         <v>-130503.97</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="49" t="s">
         <v>107</v>
       </c>
@@ -5522,7 +4945,7 @@
         <v>1092409.6478154145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
@@ -5541,7 +4964,7 @@
         <v>-327722.8943446154</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="49" t="s">
         <v>109</v>
       </c>
@@ -5560,13 +4983,13 @@
         <v>764686.75347079907</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C50" s="102"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E53" s="102"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D54" s="102"/>
     </row>
   </sheetData>
@@ -5583,24 +5006,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2357A-B255-476A-B362-53609C625BCC}">
-  <dimension ref="A2:I135"/>
+  <dimension ref="A2:I142"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="4" width="20.21875" customWidth="1"/>
+    <col min="3" max="4" width="20.1796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="150" t="s">
         <v>304</v>
       </c>
@@ -5620,7 +5041,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="112" t="s">
         <v>124</v>
       </c>
@@ -5635,11 +5056,11 @@
         <v>115</v>
       </c>
       <c r="G3" s="137">
-        <f>C4/$C$9</f>
+        <f>C4/$C$16</f>
         <v>3.3043719893555163E-3</v>
       </c>
       <c r="H3" s="136">
-        <f>G3*$C$11</f>
+        <f>G3*$C$18</f>
         <v>127308.44354485766</v>
       </c>
       <c r="I3" s="134">
@@ -5647,7 +5068,7 @@
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="113" t="s">
         <v>115</v>
       </c>
@@ -5664,19 +5085,19 @@
         <v>116</v>
       </c>
       <c r="G4" s="137">
-        <f t="shared" ref="G4:G7" si="0">C5/$C$9</f>
+        <f>C5/$C$16</f>
         <v>9.7122175588267953E-2</v>
       </c>
       <c r="H4" s="136">
-        <f t="shared" ref="H4:H7" si="1">G4*$C$11</f>
+        <f>G4*$C$18</f>
         <v>3741852.6266603312</v>
       </c>
       <c r="I4" s="134">
-        <f t="shared" ref="I4:I7" si="2">C5/H4</f>
+        <f t="shared" ref="I4:I7" si="0">C5/H4</f>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="113" t="s">
         <v>116</v>
       </c>
@@ -5693,19 +5114,19 @@
         <v>113</v>
       </c>
       <c r="G5" s="137">
-        <f t="shared" si="0"/>
+        <f>C6/$C$16</f>
         <v>0.42783811161011548</v>
       </c>
       <c r="H5" s="136">
-        <f t="shared" si="1"/>
+        <f>G5*$C$18</f>
         <v>16483435.961118348</v>
       </c>
       <c r="I5" s="134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.88723510283275686</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="113" t="s">
         <v>204</v>
       </c>
@@ -5722,19 +5143,19 @@
         <v>208</v>
       </c>
       <c r="G6" s="137">
-        <f t="shared" si="0"/>
+        <f>C7/$C$16</f>
         <v>0.18927681631073101</v>
       </c>
       <c r="H6" s="136">
-        <f t="shared" si="1"/>
+        <f>G6*$C$18</f>
         <v>7292319.678676635</v>
       </c>
       <c r="I6" s="134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="113" t="s">
         <v>205</v>
       </c>
@@ -5751,19 +5172,19 @@
         <v>209</v>
       </c>
       <c r="G7" s="137">
-        <f t="shared" si="0"/>
+        <f>C8/$C$16</f>
         <v>0.28245852450153008</v>
       </c>
       <c r="H7" s="136">
-        <f t="shared" si="1"/>
+        <f>G7*$C$18</f>
         <v>10882356.839999827</v>
       </c>
       <c r="I7" s="134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.88723510283275675</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="113" t="s">
         <v>206</v>
       </c>
@@ -5777,685 +5198,629 @@
       </c>
       <c r="E8" s="132"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="135" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="154">
+        <f>SUM(G3:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="155">
+        <f>SUM(H3:H7)</f>
+        <v>38527273.549999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="114">
+        <f>Ricavi!C88</f>
+        <v>240574.55000000005</v>
+      </c>
+      <c r="D10" s="114">
+        <f>Ricavi!F88</f>
+        <v>528226.62545000017</v>
+      </c>
+      <c r="E10" s="132"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="114">
+        <f>Ricavi!C89</f>
+        <v>3223711</v>
+      </c>
+      <c r="D11" s="114">
+        <f>Ricavi!F89</f>
+        <v>1877590.3519999997</v>
+      </c>
+      <c r="E11" s="132"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="114">
+        <f>Ricavi!C90</f>
+        <v>18642746</v>
+      </c>
+      <c r="D12" s="114">
+        <f>Ricavi!F90</f>
+        <v>39445016.509999998</v>
+      </c>
+      <c r="E12" s="132"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="114">
+        <f>Ricavi!C91</f>
+        <v>6692984</v>
+      </c>
+      <c r="D13" s="114">
+        <f>Ricavi!F91</f>
+        <v>8028278.8500000006</v>
+      </c>
+      <c r="E13" s="132"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="114">
+        <f>Ricavi!C92</f>
+        <v>9727258</v>
+      </c>
+      <c r="D14" s="114">
+        <f>Ricavi!F92</f>
+        <v>13754406.152800001</v>
+      </c>
+      <c r="E14" s="132"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="153"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C16" s="133">
         <f>SUM(C4:C8)</f>
         <v>34182749.509999998</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D16" s="133">
         <f>SUM(D4:D8)</f>
         <v>71044752.22230649</v>
       </c>
-      <c r="H9" s="136">
-        <f>SUM(H3:H7)</f>
+      <c r="H16" s="136"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="128"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="156">
+        <f>SUM(C10:C14)</f>
         <v>38527273.549999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="128"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="115" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="128">
-        <f>SUM(D14:D18)</f>
-        <v>38527273.549999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C20" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D20" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E20" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F20" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G20" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H20" s="116" t="s">
         <v>313</v>
       </c>
-      <c r="I13" s="116" t="s">
+      <c r="I20" s="116" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="149" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="149" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B21" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C21" s="118">
         <f>C4</f>
         <v>112952.51999999999</v>
       </c>
-      <c r="D14" s="118">
+      <c r="D21" s="118">
         <f>SUMIF(Ricavi!B:B, "MP*", Ricavi!D:D)</f>
         <v>240574.55000000005</v>
       </c>
-      <c r="E14" s="118">
-        <f>D14-C14</f>
+      <c r="E21" s="118">
+        <f>D21-C21</f>
         <v>127622.03000000006</v>
       </c>
-      <c r="F14" s="118">
+      <c r="F21" s="118">
         <f>H3</f>
         <v>127308.44354485766</v>
       </c>
-      <c r="G14" s="118">
-        <f>F14-C14</f>
+      <c r="G21" s="118">
+        <f>F21-C21</f>
         <v>14355.923544857666</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="149"/>
-      <c r="B15" s="117" t="s">
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="149"/>
+      <c r="B22" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C22" s="118">
         <f>C5</f>
         <v>3319903</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D22" s="118">
         <f>SUMIF(Ricavi!B:B, "PCL*", Ricavi!D:D)</f>
         <v>3223711</v>
       </c>
-      <c r="E15" s="118">
-        <f>D15-C15</f>
+      <c r="E22" s="118">
+        <f>D22-C22</f>
         <v>-96192</v>
       </c>
-      <c r="F15" s="118">
-        <f t="shared" ref="F15:F18" si="3">H4</f>
+      <c r="F22" s="118">
+        <f>H4</f>
         <v>3741852.6266603312</v>
       </c>
-      <c r="G15" s="118">
-        <f t="shared" ref="G15:G18" si="4">F15-C15</f>
+      <c r="G22" s="118">
+        <f t="shared" ref="G22:G25" si="1">F22-C22</f>
         <v>421949.62666033115</v>
       </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="117" t="s">
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="149"/>
+      <c r="B23" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C23" s="118">
         <f>C6</f>
         <v>14624683</v>
       </c>
-      <c r="D16" s="118">
+      <c r="D23" s="118">
         <f>SUMIF(Ricavi!B:B, "PF P*", Ricavi!D:D)</f>
         <v>18642746</v>
       </c>
-      <c r="E16" s="118">
-        <f>D16-C16</f>
+      <c r="E23" s="118">
+        <f>D23-C23</f>
         <v>4018063</v>
       </c>
-      <c r="F16" s="118">
-        <f t="shared" si="3"/>
+      <c r="F23" s="118">
+        <f>H5</f>
         <v>16483435.961118348</v>
       </c>
-      <c r="G16" s="118">
-        <f t="shared" si="4"/>
+      <c r="G23" s="118">
+        <f t="shared" si="1"/>
         <v>1858752.9611183479</v>
       </c>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="149"/>
-      <c r="B17" s="117" t="s">
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="149"/>
+      <c r="B24" s="117" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C24" s="118">
         <f>C7</f>
         <v>6470002</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D24" s="118">
         <f>SUMIF(Ricavi!B:B, "PF V*", Ricavi!D:D)</f>
         <v>6692984</v>
       </c>
-      <c r="E17" s="118">
-        <f>D17-C17</f>
+      <c r="E24" s="118">
+        <f>D24-C24</f>
         <v>222982</v>
       </c>
-      <c r="F17" s="118">
-        <f t="shared" si="3"/>
+      <c r="F24" s="118">
+        <f>H6</f>
         <v>7292319.678676635</v>
       </c>
-      <c r="G17" s="118">
-        <f t="shared" si="4"/>
+      <c r="G24" s="118">
+        <f t="shared" si="1"/>
         <v>822317.67867663503</v>
       </c>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="117" t="s">
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="149"/>
+      <c r="B25" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C25" s="118">
         <f>C8</f>
         <v>9655208.9900000002</v>
       </c>
-      <c r="D18" s="118">
+      <c r="D25" s="118">
         <f>SUMIF(Ricavi!B:B, "PF A*", Ricavi!D:D)</f>
         <v>9727258</v>
       </c>
-      <c r="E18" s="118">
-        <f>D18-C18</f>
+      <c r="E25" s="118">
+        <f>D25-C25</f>
         <v>72049.009999999776</v>
       </c>
-      <c r="F18" s="118">
-        <f t="shared" si="3"/>
+      <c r="F25" s="118">
+        <f>H7</f>
         <v>10882356.839999827</v>
       </c>
-      <c r="G18" s="118">
-        <f t="shared" si="4"/>
+      <c r="G25" s="118">
+        <f t="shared" si="1"/>
         <v>1227147.8499998264</v>
       </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="149" t="s">
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="115"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B27" s="117" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="121" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="118">
-        <f>SUMIF(Ricavi!B:B, "MP*",Ricavi!E:E)</f>
-        <v>81.552496034955993</v>
-      </c>
-      <c r="E20" s="118" t="e">
-        <f>D20-C20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="117" t="s">
+      <c r="C27" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>382</v>
+      </c>
+      <c r="E27" s="118"/>
+      <c r="F27" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="149"/>
+      <c r="B28" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="118" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="118" t="e">
-        <f>SUMIF([2]Ricavi!B:B, "PCL*",[2]Ricavi!E:E)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="118" t="e">
-        <f>D21-C21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="149"/>
-      <c r="B22" s="117" t="s">
+      <c r="C28" s="118" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="149"/>
+      <c r="B29" s="117" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="118" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="118" t="e">
-        <f>SUMIF([2]Ricavi!B:B, "PF P*",[2]Ricavi!E:E)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="118" t="e">
-        <f>D22-C22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
-      <c r="B23" s="117" t="s">
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="149"/>
+      <c r="B30" s="117" t="s">
         <v>325</v>
       </c>
-      <c r="C23" s="118" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="118" t="e">
-        <f>SUMIF([2]Ricavi!B:B, "PF V*",[2]Ricavi!E:E)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="118" t="e">
-        <f>D23-C23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="149"/>
-      <c r="B24" s="117" t="s">
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="149"/>
+      <c r="B31" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="118" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="118" t="e">
-        <f>SUMIF([2]Ricavi!B:B, "PF A*",[2]Ricavi!E:E)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="118" t="e">
-        <f>D24-C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115" t="s">
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="115"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="115"/>
+      <c r="B33" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C33" s="118">
         <f>D4</f>
         <v>196584.24189999999</v>
       </c>
-      <c r="D26" s="118" cm="1">
-        <f t="array" ref="D26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+      <c r="D33" s="118" cm="1">
+        <f t="array" ref="D33">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>528226.62545000017</v>
       </c>
-      <c r="E26" s="118">
-        <f>D26-C26</f>
+      <c r="E33" s="118">
+        <f>D33-C33</f>
         <v>331642.38355000014</v>
       </c>
-      <c r="F26" s="118" cm="1">
-        <f t="array" ref="F26">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I3, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="118">
-        <f t="shared" ref="C27:C30" si="5">D5</f>
-        <v>2489618.9618799998</v>
-      </c>
-      <c r="D27" s="118" cm="1">
-        <f t="array" ref="D27">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
-        <v>1877590.3519999997</v>
-      </c>
-      <c r="E27" s="118">
-        <f>D27-C27</f>
-        <v>-612028.60988000012</v>
-      </c>
-      <c r="F27" s="118" cm="1">
-        <f t="array" ref="F27">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I4, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="117" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="118">
-        <f t="shared" si="5"/>
-        <v>43389917.016709402</v>
-      </c>
-      <c r="D28" s="118" cm="1">
-        <f t="array" ref="D28">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
-        <v>39445016.509999998</v>
-      </c>
-      <c r="E28" s="118">
-        <f>D28-C28</f>
-        <v>-3944900.5067094043</v>
-      </c>
-      <c r="F28" s="118" cm="1">
-        <f t="array" ref="F28">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I5, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="118">
-        <f t="shared" si="5"/>
-        <v>9386776.6740170922</v>
-      </c>
-      <c r="D29" s="118" cm="1">
-        <f t="array" ref="D29">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
-        <v>8028278.8500000006</v>
-      </c>
-      <c r="E29" s="118">
-        <f>D29-C29</f>
-        <v>-1358497.8240170917</v>
-      </c>
-      <c r="F29" s="118" cm="1">
-        <f t="array" ref="F29">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I6, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="118">
-        <f t="shared" si="5"/>
-        <v>15581855.327799987</v>
-      </c>
-      <c r="D30" s="118" cm="1">
-        <f t="array" ref="D30">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
-        <v>13754406.152800001</v>
-      </c>
-      <c r="E30" s="118">
-        <f>D30-C30</f>
-        <v>-1827449.1749999858</v>
-      </c>
-      <c r="F30" s="118" cm="1">
-        <f t="array" ref="F30">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I7, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="118">
-        <f>SUM(C28:C30)</f>
-        <v>68358549.01852648</v>
-      </c>
-      <c r="D32" s="118">
-        <f>SUM(D28:D30)</f>
-        <v>61227701.512800001</v>
-      </c>
-      <c r="E32" s="118">
-        <f>D32-C32</f>
-        <v>-7130847.505726479</v>
-      </c>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="118">
-        <f>C26</f>
-        <v>196584.24189999999</v>
-      </c>
-      <c r="D33" s="123">
-        <f>D26</f>
-        <v>528226.62545000017</v>
-      </c>
-      <c r="E33" s="118">
-        <f t="shared" ref="E33:E94" si="6">D33-C33</f>
-        <v>331642.38355000014</v>
-      </c>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="117" t="s">
         <v>328</v>
       </c>
       <c r="C34" s="118">
-        <f>C27</f>
+        <f>D5</f>
         <v>2489618.9618799998</v>
       </c>
-      <c r="D34" s="126">
-        <f>D27</f>
+      <c r="D34" s="118" cm="1">
+        <f t="array" ref="D34">SUMPRODUCT(--ISNUMBER((SEARCH("PCL", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
         <v>1877590.3519999997</v>
       </c>
       <c r="E34" s="118">
-        <f t="shared" si="6"/>
+        <f>D34-C34</f>
         <v>-612028.60988000012</v>
       </c>
-      <c r="F34" s="123"/>
+      <c r="F34" s="118" cm="1">
+        <f t="array" ref="F34">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I4, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
       <c r="G34" s="123"/>
       <c r="H34" s="123"/>
       <c r="I34" s="123"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" s="117" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="123">
-        <f>Ricavi!L65 - Ricavi!M66*Ricavi!L66</f>
-        <v>-202771.84999999998</v>
-      </c>
-      <c r="D35" s="123">
-        <f>SUM(Ricavi!E77*Ricavi!D77,Ricavi!D78*(-Ricavi!E78),Ricavi!D79*Ricavi!E79)</f>
-        <v>66957.510000000068</v>
+        <v>329</v>
+      </c>
+      <c r="C35" s="118">
+        <f>D6</f>
+        <v>43389917.016709402</v>
+      </c>
+      <c r="D35" s="118" cm="1">
+        <f t="array" ref="D35">SUMPRODUCT(--ISNUMBER((SEARCH("PF P", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>39445016.509999998</v>
       </c>
       <c r="E35" s="118">
-        <f t="shared" si="6"/>
-        <v>269729.36000000004</v>
-      </c>
-      <c r="F35" s="123"/>
+        <f>D35-C35</f>
+        <v>-3944900.5067094043</v>
+      </c>
+      <c r="F35" s="118" cm="1">
+        <f t="array" ref="F35">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I5, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
       <c r="G35" s="123"/>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="117" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="123">
-        <v>0</v>
-      </c>
-      <c r="D36" s="123">
-        <v>500000</v>
+        <v>330</v>
+      </c>
+      <c r="C36" s="118">
+        <f>D7</f>
+        <v>9386776.6740170922</v>
+      </c>
+      <c r="D36" s="118" cm="1">
+        <f t="array" ref="D36">SUMPRODUCT(--ISNUMBER((SEARCH("PF V", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>8028278.8500000006</v>
       </c>
       <c r="E36" s="118">
-        <f t="shared" si="6"/>
-        <v>500000</v>
-      </c>
-      <c r="F36" s="123"/>
+        <f>D36-C36</f>
+        <v>-1358497.8240170917</v>
+      </c>
+      <c r="F36" s="118" cm="1">
+        <f t="array" ref="F36">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I6, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
       <c r="G36" s="123"/>
       <c r="H36" s="123"/>
       <c r="I36" s="123"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="119"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="123">
-        <f xml:space="preserve"> SUM(C32:C36)</f>
-        <v>70841980.372306481</v>
-      </c>
-      <c r="D38" s="123">
-        <f xml:space="preserve"> SUM(D32:D36)</f>
-        <v>64200476.000249997</v>
-      </c>
-      <c r="E38" s="118">
-        <f t="shared" si="6"/>
-        <v>-6641504.3720564842</v>
-      </c>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="119"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>336</v>
-      </c>
-      <c r="C40" s="123" cm="1">
-        <f t="array" ref="C40">-SUM(RicaviBudget!D3:D63*RicaviBudget!F3:F63)</f>
-        <v>-52760560.896493942</v>
-      </c>
-      <c r="D40" s="123" cm="1">
-        <f t="array" ref="D40">-SUM(Ricavi!D4:D76*Ricavi!F4:F76)</f>
-        <v>-46870805.517265007</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="118">
+        <f>D8</f>
+        <v>15581855.327799987</v>
+      </c>
+      <c r="D37" s="118" cm="1">
+        <f t="array" ref="D37">SUMPRODUCT(--ISNUMBER((SEARCH("PF A", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76, Ricavi!$E$4:$E$76)</f>
+        <v>13754406.152800001</v>
+      </c>
+      <c r="E37" s="118">
+        <f>D37-C37</f>
+        <v>-1827449.1749999858</v>
+      </c>
+      <c r="F37" s="118" cm="1">
+        <f t="array" ref="F37">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I7, Ricavi!$M$4:$M$76)</f>
+        <v>795930.12512431026</v>
+      </c>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="118">
+        <f>SUM(C35:C37)</f>
+        <v>68358549.01852648</v>
+      </c>
+      <c r="D39" s="118">
+        <f>SUM(D35:D37)</f>
+        <v>61227701.512800001</v>
+      </c>
+      <c r="E39" s="118">
+        <f>D39-C39</f>
+        <v>-7130847.505726479</v>
+      </c>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="118">
+        <f>C33</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="D40" s="123">
+        <f>D33</f>
+        <v>528226.62545000017</v>
       </c>
       <c r="E40" s="118">
-        <f t="shared" si="6"/>
-        <v>5889755.3792289346</v>
+        <f t="shared" ref="E40:E101" si="2">D40-C40</f>
+        <v>331642.38355000014</v>
       </c>
       <c r="F40" s="123"/>
       <c r="G40" s="123"/>
       <c r="H40" s="123"/>
       <c r="I40" s="123"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>337</v>
-      </c>
-      <c r="C41" s="123">
-        <v>0</v>
-      </c>
-      <c r="D41" s="123">
-        <v>0</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="118">
+        <f>C34</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="D41" s="126">
+        <f>D34</f>
+        <v>1877590.3519999997</v>
       </c>
       <c r="E41" s="118">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-612028.60988000012</v>
       </c>
       <c r="F41" s="123"/>
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
       <c r="I41" s="123"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="119"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="127" t="s">
-        <v>338</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" s="123">
+        <f>Ricavi!L65 - Ricavi!M66*Ricavi!L66</f>
+        <v>-202771.84999999998</v>
+      </c>
+      <c r="D42" s="123">
+        <f>SUM(Ricavi!E77*Ricavi!D77,Ricavi!D78*(-Ricavi!E78),Ricavi!D79*Ricavi!E79)</f>
+        <v>66957.510000000068</v>
+      </c>
+      <c r="E42" s="118">
+        <f t="shared" si="2"/>
+        <v>269729.36000000004</v>
+      </c>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="117" t="s">
+        <v>334</v>
       </c>
       <c r="C43" s="123">
-        <f>SUM(C40:C41)</f>
-        <v>-52760560.896493942</v>
+        <v>0</v>
       </c>
       <c r="D43" s="123">
-        <f>SUM(D40:D41)</f>
-        <v>-46870805.517265007</v>
+        <v>500000</v>
       </c>
       <c r="E43" s="118">
-        <f t="shared" si="6"/>
-        <v>5889755.3792289346</v>
+        <f t="shared" si="2"/>
+        <v>500000</v>
       </c>
       <c r="F43" s="123"/>
       <c r="G43" s="123"/>
       <c r="H43" s="123"/>
       <c r="I43" s="123"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="119"/>
       <c r="C44" s="125"/>
       <c r="D44" s="125"/>
@@ -6465,164 +5830,174 @@
       <c r="H44" s="125"/>
       <c r="I44" s="125"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="123">
+        <f xml:space="preserve"> SUM(C39:C43)</f>
+        <v>70841980.372306481</v>
+      </c>
+      <c r="D45" s="123">
+        <f xml:space="preserve"> SUM(D39:D43)</f>
+        <v>64200476.000249997</v>
+      </c>
+      <c r="E45" s="118">
+        <f t="shared" si="2"/>
+        <v>-6641504.3720564842</v>
+      </c>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="119"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="123" cm="1">
+        <f t="array" ref="C47">-SUM(RicaviBudget!D3:D63*RicaviBudget!F3:F63)</f>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D47" s="123" cm="1">
+        <f t="array" ref="D47">-SUM(Ricavi!D4:D76*Ricavi!F4:F76)</f>
+        <v>-46870805.517265007</v>
+      </c>
+      <c r="E47" s="118">
+        <f t="shared" si="2"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="123">
+        <v>0</v>
+      </c>
+      <c r="D48" s="123">
+        <v>0</v>
+      </c>
+      <c r="E48" s="118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="119"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="127" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="123">
+        <f>SUM(C47:C48)</f>
+        <v>-52760560.896493942</v>
+      </c>
+      <c r="D50" s="123">
+        <f>SUM(D47:D48)</f>
+        <v>-46870805.517265007</v>
+      </c>
+      <c r="E50" s="118">
+        <f t="shared" si="2"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="119"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="128">
+      <c r="C52" s="128">
         <f>'CE Budget 2022'!C14</f>
         <v>-3445836.3538936325</v>
       </c>
-      <c r="D45" s="128">
+      <c r="D52" s="128">
         <f>'CE Budget 2022'!F14</f>
         <v>-4152707.4956527753</v>
       </c>
-      <c r="E45" s="118">
-        <f t="shared" si="6"/>
+      <c r="E52" s="118">
+        <f t="shared" si="2"/>
         <v>-706871.14175914275</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="128">
+      <c r="C53" s="128">
         <f>'CE Budget 2022'!C15</f>
         <v>-153750</v>
       </c>
-      <c r="D46" s="128">
+      <c r="D53" s="128">
         <v>-175000</v>
       </c>
-      <c r="E46" s="118">
-        <f t="shared" si="6"/>
+      <c r="E53" s="118">
+        <f t="shared" si="2"/>
         <v>-21250</v>
       </c>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>340</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C54" s="128">
         <f>'CE Budget 2022'!C16</f>
         <v>-449211.74630400003</v>
       </c>
-      <c r="D47" s="128">
+      <c r="D54" s="128">
         <v>-519959.9495168</v>
       </c>
-      <c r="E47" s="118">
-        <f t="shared" si="6"/>
+      <c r="E54" s="118">
+        <f t="shared" si="2"/>
         <v>-70748.20321279997</v>
-      </c>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="119"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="128">
-        <f>SUM(C45:C47)</f>
-        <v>-4048798.1001976328</v>
-      </c>
-      <c r="D49" s="128">
-        <v>-4847667.4451695755</v>
-      </c>
-      <c r="E49" s="118">
-        <f t="shared" si="6"/>
-        <v>-798869.34497194272</v>
-      </c>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="119"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="128">
-        <f>'CE Budget 2022'!C18</f>
-        <v>-1471815.2299680002</v>
-      </c>
-      <c r="D51" s="128">
-        <v>-1000000</v>
-      </c>
-      <c r="E51" s="118">
-        <f t="shared" si="6"/>
-        <v>471815.2299680002</v>
-      </c>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="128">
-        <f>'CE Budget 2022'!C19</f>
-        <v>-867798.34033418808</v>
-      </c>
-      <c r="D52" s="128">
-        <v>-550000</v>
-      </c>
-      <c r="E52" s="118">
-        <f t="shared" si="6"/>
-        <v>317798.34033418808</v>
-      </c>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="119"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="127" t="s">
-        <v>344</v>
-      </c>
-      <c r="C54" s="128">
-        <f>SUM(C51+C52)</f>
-        <v>-2339613.5703021884</v>
-      </c>
-      <c r="D54" s="128">
-        <v>-1550000</v>
-      </c>
-      <c r="E54" s="118">
-        <f t="shared" si="6"/>
-        <v>789613.5703021884</v>
       </c>
       <c r="F54" s="128"/>
       <c r="G54" s="128"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="119"/>
       <c r="C55" s="125"/>
       <c r="D55" s="125"/>
@@ -6632,349 +6007,338 @@
       <c r="H55" s="125"/>
       <c r="I55" s="125"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="130" t="s">
-        <v>345</v>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="127" t="s">
+        <v>341</v>
       </c>
       <c r="C56" s="128">
-        <f>C38+C43+C49+C54</f>
-        <v>11693007.805312719</v>
+        <f>SUM(C52:C54)</f>
+        <v>-4048798.1001976328</v>
       </c>
       <c r="D56" s="128">
-        <f>D38+D43+D49+D54</f>
-        <v>10932003.037815414</v>
+        <v>-4847667.4451695755</v>
       </c>
       <c r="E56" s="118">
-        <f t="shared" si="6"/>
-        <v>-761004.76749730483</v>
+        <f t="shared" si="2"/>
+        <v>-798869.34497194272</v>
       </c>
       <c r="F56" s="128"/>
       <c r="G56" s="128"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="119"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="128">
+        <f>'CE Budget 2022'!C18</f>
+        <v>-1471815.2299680002</v>
+      </c>
+      <c r="D58" s="128">
+        <v>-1000000</v>
+      </c>
+      <c r="E58" s="118">
+        <f t="shared" si="2"/>
+        <v>471815.2299680002</v>
+      </c>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="128">
+        <f>'CE Budget 2022'!C19</f>
+        <v>-867798.34033418808</v>
+      </c>
+      <c r="D59" s="128">
+        <v>-550000</v>
+      </c>
+      <c r="E59" s="118">
+        <f t="shared" si="2"/>
+        <v>317798.34033418808</v>
+      </c>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="119"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="128">
+        <f>SUM(C58+C59)</f>
+        <v>-2339613.5703021884</v>
+      </c>
+      <c r="D61" s="128">
+        <v>-1550000</v>
+      </c>
+      <c r="E61" s="118">
+        <f t="shared" si="2"/>
+        <v>789613.5703021884</v>
+      </c>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="119"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="130" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="128">
+        <f>C45+C50+C56+C61</f>
+        <v>11693007.805312719</v>
+      </c>
+      <c r="D63" s="128">
+        <f>D45+D50+D56+D61</f>
+        <v>10932003.037815414</v>
+      </c>
+      <c r="E63" s="118">
+        <f t="shared" si="2"/>
+        <v>-761004.76749730483</v>
+      </c>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>346</v>
       </c>
-      <c r="C57" s="128">
+      <c r="C64" s="128">
         <f>-FixedCostsBudget!C3</f>
         <v>-5594785.9100000001</v>
       </c>
-      <c r="D57" s="128">
+      <c r="D64" s="128">
         <f>'CE Budget 2022'!F22</f>
         <v>-5650000</v>
       </c>
-      <c r="E57" s="118">
-        <f t="shared" si="6"/>
+      <c r="E64" s="118">
+        <f t="shared" si="2"/>
         <v>-55214.089999999851</v>
       </c>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="128">
+      <c r="C65" s="128">
         <f>-FixedCostsBudget!C5</f>
         <v>-1050000</v>
       </c>
-      <c r="D58" s="128">
+      <c r="D65" s="128">
         <f>'CE Budget 2022'!F23</f>
         <v>-1100000</v>
       </c>
-      <c r="E58" s="118">
-        <f t="shared" si="6"/>
+      <c r="E65" s="118">
+        <f t="shared" si="2"/>
         <v>-50000</v>
       </c>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="128">
+      <c r="C66" s="128">
         <f>-FixedCostsBudget!C7</f>
         <v>-307500</v>
       </c>
-      <c r="D59" s="128">
+      <c r="D66" s="128">
         <f>'CE Budget 2022'!F24</f>
         <v>-305000</v>
       </c>
-      <c r="E59" s="118">
-        <f t="shared" si="6"/>
+      <c r="E66" s="118">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>347</v>
       </c>
-      <c r="C60" s="128">
+      <c r="C67" s="128">
         <f>-FixedCostsBudget!C9</f>
         <v>-151700</v>
       </c>
-      <c r="D60" s="128">
+      <c r="D67" s="128">
         <f>'CE Budget 2022'!F25</f>
         <v>-145000</v>
       </c>
-      <c r="E60" s="118">
-        <f t="shared" si="6"/>
+      <c r="E67" s="118">
+        <f t="shared" si="2"/>
         <v>6700</v>
       </c>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>348</v>
       </c>
-      <c r="C61" s="128">
+      <c r="C68" s="128">
         <f>-FixedCostsBudget!C11</f>
         <v>-309550</v>
       </c>
-      <c r="D61" s="128">
+      <c r="D68" s="128">
         <f>'CE Budget 2022'!F26</f>
         <v>-307000</v>
       </c>
-      <c r="E61" s="118">
-        <f t="shared" si="6"/>
+      <c r="E68" s="118">
+        <f t="shared" si="2"/>
         <v>2550</v>
       </c>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>349</v>
       </c>
-      <c r="C62" s="128">
+      <c r="C69" s="128">
         <f>-FixedCostsBudget!C13</f>
         <v>-212174.99999999997</v>
       </c>
-      <c r="D62" s="128">
+      <c r="D69" s="128">
         <f>'CE Budget 2022'!F27</f>
         <v>-209500</v>
       </c>
-      <c r="E62" s="118">
-        <f t="shared" si="6"/>
+      <c r="E69" s="118">
+        <f t="shared" si="2"/>
         <v>2674.9999999999709</v>
       </c>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="119"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="127" t="s">
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="119"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="127" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="128">
-        <f>SUM(C57:C62)</f>
+      <c r="C71" s="128">
+        <f>SUM(C64:C69)</f>
         <v>-7625710.9100000001</v>
       </c>
-      <c r="D64" s="128">
+      <c r="D71" s="128">
         <f>'CE Budget 2022'!F28</f>
         <v>-7716500</v>
       </c>
-      <c r="E64" s="118">
-        <f t="shared" si="6"/>
+      <c r="E71" s="118">
+        <f t="shared" si="2"/>
         <v>-90789.089999999851</v>
       </c>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="119"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="119"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="125"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="128">
+      <c r="C73" s="128">
         <f>-FixedCostsBudget!C18</f>
         <v>-563750</v>
       </c>
-      <c r="D66" s="128">
+      <c r="D73" s="128">
         <f>'CE Budget 2022'!F29</f>
         <v>-556000</v>
       </c>
-      <c r="E66" s="118">
-        <f t="shared" si="6"/>
+      <c r="E73" s="118">
+        <f t="shared" si="2"/>
         <v>7750</v>
       </c>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="128">
+      <c r="C74" s="128">
         <f>-FixedCostsBudget!C20</f>
         <v>-307500</v>
       </c>
-      <c r="D67" s="128">
+      <c r="D74" s="128">
         <f>'CE Budget 2022'!F30</f>
         <v>-297000</v>
       </c>
-      <c r="E67" s="118">
-        <f t="shared" si="6"/>
+      <c r="E74" s="118">
+        <f t="shared" si="2"/>
         <v>10500</v>
       </c>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="128">
+      <c r="C75" s="128">
         <f>-FixedCostsBudget!C22</f>
         <v>-102499.99999999999</v>
       </c>
-      <c r="D68" s="128">
+      <c r="D75" s="128">
         <f>'CE Budget 2022'!F31</f>
         <v>-98000</v>
       </c>
-      <c r="E68" s="118">
-        <f t="shared" si="6"/>
+      <c r="E75" s="118">
+        <f t="shared" si="2"/>
         <v>4499.9999999999854</v>
-      </c>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="119"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="127" t="s">
-        <v>352</v>
-      </c>
-      <c r="C70" s="128">
-        <f>SUM(C66:C68)</f>
-        <v>-973750</v>
-      </c>
-      <c r="D70" s="128">
-        <f>'CE Budget 2022'!F32</f>
-        <v>-951000</v>
-      </c>
-      <c r="E70" s="118">
-        <f t="shared" si="6"/>
-        <v>22750</v>
-      </c>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="129" t="s">
-        <v>353</v>
-      </c>
-      <c r="C71" s="128">
-        <f>+C56+C64+C70</f>
-        <v>3093546.895312719</v>
-      </c>
-      <c r="D71" s="128">
-        <f>'CE Budget 2022'!F33</f>
-        <v>2384503.0378154144</v>
-      </c>
-      <c r="E71" s="118">
-        <f t="shared" si="6"/>
-        <v>-709043.85749730468</v>
-      </c>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="129"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="128">
-        <f>-OthersBudget!C3</f>
-        <v>-200000</v>
-      </c>
-      <c r="D73" s="128">
-        <f>'CE Budget 2022'!F34</f>
-        <v>-190000</v>
-      </c>
-      <c r="E73" s="118">
-        <f t="shared" si="6"/>
-        <v>10000</v>
-      </c>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="128">
-        <f>-OthersBudget!C5</f>
-        <v>-796875</v>
-      </c>
-      <c r="D74" s="128">
-        <f>'CE Budget 2022'!F35</f>
-        <v>-810000</v>
-      </c>
-      <c r="E74" s="118">
-        <f t="shared" si="6"/>
-        <v>-13125</v>
-      </c>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="128">
-        <f>-OthersBudget!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="128">
-        <f>'CE Budget 2022'!F36</f>
-        <v>-25000</v>
-      </c>
-      <c r="E75" s="118">
-        <f t="shared" si="6"/>
-        <v>-25000</v>
       </c>
       <c r="F75" s="128"/>
       <c r="G75" s="128"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="119"/>
       <c r="C76" s="125"/>
       <c r="D76" s="125"/>
@@ -6984,591 +6348,705 @@
       <c r="H76" s="125"/>
       <c r="I76" s="125"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="127" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="C77" s="128">
         <f>SUM(C73:C75)</f>
-        <v>-996875</v>
+        <v>-973750</v>
       </c>
       <c r="D77" s="128">
-        <f>'CE Budget 2022'!F37</f>
-        <v>-1025000</v>
+        <f>'CE Budget 2022'!F32</f>
+        <v>-951000</v>
       </c>
       <c r="E77" s="118">
-        <f t="shared" si="6"/>
-        <v>-28125</v>
+        <f t="shared" si="2"/>
+        <v>22750</v>
       </c>
       <c r="F77" s="128"/>
       <c r="G77" s="128"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="130" t="s">
-        <v>98</v>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="129" t="s">
+        <v>353</v>
       </c>
       <c r="C78" s="128">
-        <f>+C71+C77</f>
-        <v>2096671.895312719</v>
+        <f>+C63+C71+C77</f>
+        <v>3093546.895312719</v>
       </c>
       <c r="D78" s="128">
-        <f>'CE Budget 2022'!F38</f>
-        <v>1359503.0378154144</v>
+        <f>'CE Budget 2022'!F33</f>
+        <v>2384503.0378154144</v>
       </c>
       <c r="E78" s="118">
-        <f t="shared" si="6"/>
-        <v>-737168.85749730468</v>
+        <f t="shared" si="2"/>
+        <v>-709043.85749730468</v>
       </c>
       <c r="F78" s="128"/>
       <c r="G78" s="128"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="130"/>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="129"/>
       <c r="C79" s="128"/>
       <c r="D79" s="128"/>
       <c r="E79" s="118"/>
       <c r="F79" s="128"/>
       <c r="G79" s="128"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="128">
+        <f>-OthersBudget!C3</f>
+        <v>-200000</v>
+      </c>
+      <c r="D80" s="128">
+        <f>'CE Budget 2022'!F34</f>
+        <v>-190000</v>
+      </c>
+      <c r="E80" s="118">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="128">
+        <f>-OthersBudget!C5</f>
+        <v>-796875</v>
+      </c>
+      <c r="D81" s="128">
+        <f>'CE Budget 2022'!F35</f>
+        <v>-810000</v>
+      </c>
+      <c r="E81" s="118">
+        <f t="shared" si="2"/>
+        <v>-13125</v>
+      </c>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="128">
+        <f>-OthersBudget!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="128">
+        <f>'CE Budget 2022'!F36</f>
+        <v>-25000</v>
+      </c>
+      <c r="E82" s="118">
+        <f t="shared" si="2"/>
+        <v>-25000</v>
+      </c>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="119"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="125"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="128">
+        <f>SUM(C80:C82)</f>
+        <v>-996875</v>
+      </c>
+      <c r="D84" s="128">
+        <f>'CE Budget 2022'!F37</f>
+        <v>-1025000</v>
+      </c>
+      <c r="E84" s="118">
+        <f t="shared" si="2"/>
+        <v>-28125</v>
+      </c>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="128">
+        <f>+C78+C84</f>
+        <v>2096671.895312719</v>
+      </c>
+      <c r="D85" s="128">
+        <f>'CE Budget 2022'!F38</f>
+        <v>1359503.0378154144</v>
+      </c>
+      <c r="E85" s="118">
+        <f t="shared" si="2"/>
+        <v>-737168.85749730468</v>
+      </c>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="130"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="128">
+      <c r="C87" s="128">
         <f>-OthersBudget!C9</f>
         <v>-87500</v>
       </c>
-      <c r="D80" s="128">
+      <c r="D87" s="128">
         <f>'CE Budget 2022'!F39</f>
         <v>-140133.03999999998</v>
       </c>
-      <c r="E80" s="118">
-        <f t="shared" si="6"/>
+      <c r="E87" s="118">
+        <f t="shared" si="2"/>
         <v>-52633.039999999979</v>
       </c>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="128">
+      <c r="C88" s="128">
         <f>OthersBudget!C11</f>
         <v>0</v>
       </c>
-      <c r="D81" s="128">
+      <c r="D88" s="128">
         <f>'CE Budget 2022'!F40</f>
         <v>3543.6200000000003</v>
       </c>
-      <c r="E81" s="118">
-        <f t="shared" si="6"/>
+      <c r="E88" s="118">
+        <f t="shared" si="2"/>
         <v>3543.6200000000003</v>
       </c>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="119"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="127" t="s">
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="119"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="128">
-        <f>SUM(C80:C81)</f>
+      <c r="C90" s="128">
+        <f>SUM(C87:C88)</f>
         <v>-87500</v>
       </c>
-      <c r="D83" s="128">
+      <c r="D90" s="128">
         <f>'CE Budget 2022'!F41</f>
         <v>-136589.41999999998</v>
       </c>
-      <c r="E83" s="118">
-        <f t="shared" si="6"/>
+      <c r="E90" s="118">
+        <f t="shared" si="2"/>
         <v>-49089.419999999984</v>
       </c>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="130" t="s">
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="128">
-        <f>+C78+C83</f>
+      <c r="C91" s="128">
+        <f>+C85+C90</f>
         <v>2009171.895312719</v>
       </c>
-      <c r="D84" s="128">
+      <c r="D91" s="128">
         <f>'CE Budget 2022'!F42</f>
         <v>1222913.6178154144</v>
       </c>
-      <c r="E84" s="118">
-        <f t="shared" si="6"/>
+      <c r="E91" s="118">
+        <f t="shared" si="2"/>
         <v>-786258.2774973046</v>
       </c>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+      <c r="F91" s="128"/>
+      <c r="G91" s="128"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="128">
+      <c r="C92" s="128">
         <f>-OthersBudget!C13</f>
         <v>0</v>
       </c>
-      <c r="D85" s="128">
+      <c r="D92" s="128">
         <f>'CE Budget 2022'!F43</f>
         <v>-130503.97</v>
       </c>
-      <c r="E85" s="118">
-        <f t="shared" si="6"/>
+      <c r="E92" s="118">
+        <f t="shared" si="2"/>
         <v>-130503.97</v>
       </c>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="128">
+      <c r="C93" s="128">
         <f>OthersBudget!C15</f>
         <v>0</v>
       </c>
-      <c r="D86" s="128">
+      <c r="D93" s="128">
         <f>'CE Budget 2022'!F44</f>
         <v>0</v>
       </c>
-      <c r="E86" s="118">
-        <f t="shared" si="6"/>
+      <c r="E93" s="118">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="F93" s="128"/>
+      <c r="G93" s="128"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="128">
+      <c r="C94" s="128">
         <f>OthersBudget!C17</f>
         <v>0</v>
       </c>
-      <c r="D87" s="128">
+      <c r="D94" s="128">
         <f>'CE Budget 2022'!F45</f>
         <v>0</v>
       </c>
-      <c r="E87" s="118">
-        <f t="shared" si="6"/>
+      <c r="E94" s="118">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="119"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="120"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="125"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="127" t="s">
+      <c r="F94" s="128"/>
+      <c r="G94" s="128"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="119"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="128">
-        <f>SUM(C85:C87)</f>
+      <c r="C96" s="128">
+        <f>SUM(C92:C94)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="128">
+      <c r="D96" s="128">
         <f>'CE Budget 2022'!F46</f>
         <v>-130503.97</v>
       </c>
-      <c r="E89" s="118">
-        <f t="shared" si="6"/>
+      <c r="E96" s="118">
+        <f t="shared" si="2"/>
         <v>-130503.97</v>
       </c>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="130" t="s">
+      <c r="F96" s="128"/>
+      <c r="G96" s="128"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="128">
-        <f>+C89+C84</f>
+      <c r="C97" s="128">
+        <f>+C96+C91</f>
         <v>2009171.895312719</v>
       </c>
-      <c r="D90" s="128">
+      <c r="D97" s="128">
         <f>'CE Budget 2022'!F47</f>
         <v>1092409.6478154145</v>
       </c>
-      <c r="E90" s="118">
-        <f t="shared" si="6"/>
+      <c r="E97" s="118">
+        <f t="shared" si="2"/>
         <v>-916762.24749730458</v>
       </c>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="130"/>
-      <c r="C91" s="128"/>
-      <c r="D91" s="128"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="128"/>
-      <c r="G91" s="128"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+      <c r="F97" s="128"/>
+      <c r="G97" s="128"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="130"/>
+      <c r="C98" s="128"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="128"/>
+      <c r="G98" s="128"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="128">
+      <c r="C99" s="128">
         <f>-OthersBudget!C19</f>
         <v>-602751.56859381567</v>
       </c>
-      <c r="D92" s="128">
+      <c r="D99" s="128">
         <f>'CE Budget 2022'!F48</f>
         <v>-327722.8943446154</v>
       </c>
-      <c r="E92" s="118">
-        <f t="shared" si="6"/>
+      <c r="E99" s="118">
+        <f t="shared" si="2"/>
         <v>275028.67424920027</v>
       </c>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="119"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="120"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="130" t="s">
+      <c r="F99" s="128"/>
+      <c r="G99" s="128"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="119"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="125"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="128">
-        <f>C90+C92</f>
+      <c r="C101" s="128">
+        <f>C97+C99</f>
         <v>1406420.3267189034</v>
       </c>
-      <c r="D94" s="128">
+      <c r="D101" s="128">
         <f>'CE Budget 2022'!F49</f>
         <v>764686.75347079907</v>
       </c>
-      <c r="E94" s="118">
-        <f t="shared" si="6"/>
+      <c r="E101" s="118">
+        <f t="shared" si="2"/>
         <v>-641733.57324810431</v>
       </c>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C95" s="128"/>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="128"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C96" s="128"/>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
-      <c r="F96" s="128"/>
-      <c r="G96" s="128"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="128"/>
-      <c r="D98" s="128"/>
-      <c r="E98" s="128"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="128"/>
-      <c r="D99" s="128"/>
-      <c r="E99" s="128"/>
-      <c r="F99" s="128"/>
-      <c r="G99" s="128"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
       <c r="F101" s="128"/>
       <c r="G101" s="128"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C102" s="128"/>
       <c r="D102" s="128"/>
       <c r="E102" s="128"/>
       <c r="F102" s="128"/>
       <c r="G102" s="128"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C103" s="128"/>
       <c r="D103" s="128"/>
       <c r="E103" s="128"/>
       <c r="F103" s="128"/>
       <c r="G103" s="128"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C104" s="128"/>
       <c r="D104" s="128"/>
       <c r="E104" s="128"/>
       <c r="F104" s="128"/>
       <c r="G104" s="128"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C105" s="128"/>
       <c r="D105" s="128"/>
       <c r="E105" s="128"/>
       <c r="F105" s="128"/>
       <c r="G105" s="128"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C106" s="128"/>
       <c r="D106" s="128"/>
       <c r="E106" s="128"/>
       <c r="F106" s="128"/>
       <c r="G106" s="128"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C107" s="128"/>
       <c r="D107" s="128"/>
       <c r="E107" s="128"/>
       <c r="F107" s="128"/>
       <c r="G107" s="128"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C108" s="128"/>
       <c r="D108" s="128"/>
       <c r="E108" s="128"/>
       <c r="F108" s="128"/>
       <c r="G108" s="128"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C109" s="128"/>
       <c r="D109" s="128"/>
       <c r="E109" s="128"/>
       <c r="F109" s="128"/>
       <c r="G109" s="128"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C110" s="128"/>
       <c r="D110" s="128"/>
       <c r="E110" s="128"/>
       <c r="F110" s="128"/>
       <c r="G110" s="128"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C111" s="128"/>
       <c r="D111" s="128"/>
       <c r="E111" s="128"/>
       <c r="F111" s="128"/>
       <c r="G111" s="128"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C112" s="128"/>
       <c r="D112" s="128"/>
       <c r="E112" s="128"/>
       <c r="F112" s="128"/>
       <c r="G112" s="128"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C113" s="128"/>
       <c r="D113" s="128"/>
       <c r="E113" s="128"/>
       <c r="F113" s="128"/>
       <c r="G113" s="128"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C114" s="128"/>
       <c r="D114" s="128"/>
       <c r="E114" s="128"/>
       <c r="F114" s="128"/>
       <c r="G114" s="128"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C115" s="128"/>
       <c r="D115" s="128"/>
       <c r="E115" s="128"/>
       <c r="F115" s="128"/>
       <c r="G115" s="128"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C116" s="128"/>
       <c r="D116" s="128"/>
       <c r="E116" s="128"/>
       <c r="F116" s="128"/>
       <c r="G116" s="128"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C117" s="128"/>
       <c r="D117" s="128"/>
       <c r="E117" s="128"/>
       <c r="F117" s="128"/>
       <c r="G117" s="128"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C118" s="128"/>
       <c r="D118" s="128"/>
       <c r="E118" s="128"/>
       <c r="F118" s="128"/>
       <c r="G118" s="128"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C119" s="128"/>
       <c r="D119" s="128"/>
       <c r="E119" s="128"/>
       <c r="F119" s="128"/>
       <c r="G119" s="128"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C120" s="128"/>
       <c r="D120" s="128"/>
       <c r="E120" s="128"/>
       <c r="F120" s="128"/>
       <c r="G120" s="128"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C121" s="128"/>
       <c r="D121" s="128"/>
       <c r="E121" s="128"/>
       <c r="F121" s="128"/>
       <c r="G121" s="128"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C122" s="128"/>
       <c r="D122" s="128"/>
       <c r="E122" s="128"/>
       <c r="F122" s="128"/>
       <c r="G122" s="128"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C123" s="128"/>
       <c r="D123" s="128"/>
       <c r="E123" s="128"/>
       <c r="F123" s="128"/>
       <c r="G123" s="128"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C124" s="128"/>
       <c r="D124" s="128"/>
       <c r="E124" s="128"/>
       <c r="F124" s="128"/>
       <c r="G124" s="128"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C125" s="128"/>
       <c r="D125" s="128"/>
       <c r="E125" s="128"/>
       <c r="F125" s="128"/>
       <c r="G125" s="128"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C126" s="128"/>
       <c r="D126" s="128"/>
       <c r="E126" s="128"/>
       <c r="F126" s="128"/>
       <c r="G126" s="128"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C127" s="128"/>
       <c r="D127" s="128"/>
       <c r="E127" s="128"/>
       <c r="F127" s="128"/>
       <c r="G127" s="128"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C128" s="128"/>
       <c r="D128" s="128"/>
       <c r="E128" s="128"/>
       <c r="F128" s="128"/>
       <c r="G128" s="128"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C129" s="128"/>
       <c r="D129" s="128"/>
       <c r="E129" s="128"/>
       <c r="F129" s="128"/>
       <c r="G129" s="128"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C130" s="128"/>
       <c r="D130" s="128"/>
       <c r="E130" s="128"/>
       <c r="F130" s="128"/>
       <c r="G130" s="128"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C131" s="128"/>
       <c r="D131" s="128"/>
       <c r="E131" s="128"/>
       <c r="F131" s="128"/>
       <c r="G131" s="128"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C132" s="128"/>
       <c r="D132" s="128"/>
       <c r="E132" s="128"/>
       <c r="F132" s="128"/>
       <c r="G132" s="128"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C133" s="128"/>
       <c r="D133" s="128"/>
       <c r="E133" s="128"/>
       <c r="F133" s="128"/>
       <c r="G133" s="128"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C134" s="128"/>
       <c r="D134" s="128"/>
       <c r="E134" s="128"/>
       <c r="F134" s="128"/>
       <c r="G134" s="128"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C135" s="128"/>
       <c r="D135" s="128"/>
       <c r="E135" s="128"/>
       <c r="F135" s="128"/>
       <c r="G135" s="128"/>
     </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C136" s="128"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="128"/>
+      <c r="F136" s="128"/>
+      <c r="G136" s="128"/>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C137" s="128"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C138" s="128"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="128"/>
+      <c r="F138" s="128"/>
+      <c r="G138" s="128"/>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C139" s="128"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C140" s="128"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="128"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C141" s="128"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="128"/>
+      <c r="F141" s="128"/>
+      <c r="G141" s="128"/>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C142" s="128"/>
+      <c r="D142" s="128"/>
+      <c r="E142" s="128"/>
+      <c r="F142" s="128"/>
+      <c r="G142" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A24"/>
+  <mergeCells count="4">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7578,22 +7056,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70766F80-CE68-41EB-ABBB-DDA3104E92AF}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7603,7 +7079,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -7618,7 +7094,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -7643,7 +7119,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -7673,7 +7149,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -7702,7 +7178,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -7731,7 +7207,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -7749,7 +7225,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -7770,7 +7246,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -7790,7 +7266,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -7805,7 +7281,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -7825,7 +7301,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -7844,7 +7320,7 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -7858,7 +7334,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -7876,7 +7352,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -7895,7 +7371,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -7905,7 +7381,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -7925,7 +7401,7 @@
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -7940,7 +7416,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -7950,7 +7426,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -7965,7 +7441,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -7980,7 +7456,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -7994,7 +7470,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
@@ -8009,7 +7485,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -8017,10 +7493,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -8029,7 +7505,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -8038,7 +7514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -8047,7 +7523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
@@ -8056,7 +7532,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -8065,7 +7541,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -8073,7 +7549,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -8081,7 +7557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -8089,7 +7565,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -8098,7 +7574,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -8106,7 +7582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -8115,7 +7591,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -8124,7 +7600,7 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
@@ -8133,7 +7609,7 @@
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -8142,7 +7618,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -8151,7 +7627,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -8168,34 +7644,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="1"/>
-    <col min="19" max="19" width="8.77734375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" style="1"/>
+    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="143" t="s">
         <v>162</v>
       </c>
@@ -8216,7 +7692,7 @@
       <c r="Q2" s="145"/>
       <c r="S2" s="88"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
         <v>110</v>
       </c>
@@ -8257,7 +7733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
@@ -8307,7 +7783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
@@ -8354,7 +7830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
@@ -8401,7 +7877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
@@ -8448,7 +7924,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
@@ -8495,7 +7971,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
@@ -8542,7 +8018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
@@ -8589,7 +8065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
@@ -8636,7 +8112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
       <c r="B12" s="35" t="s">
         <v>8</v>
@@ -8679,7 +8155,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
@@ -8721,7 +8197,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
@@ -8763,7 +8239,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -8805,7 +8281,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
@@ -8847,7 +8323,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -8889,7 +8365,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -8931,7 +8407,7 @@
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -8973,7 +8449,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -9015,7 +8491,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -9057,7 +8533,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -9099,7 +8575,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -9141,7 +8617,7 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -9183,7 +8659,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -9225,7 +8701,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -9267,7 +8743,7 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -9312,7 +8788,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -9357,7 +8833,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -9399,7 +8875,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -9441,7 +8917,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -9483,7 +8959,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -9525,7 +9001,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -9567,7 +9043,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -9608,7 +9084,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -9650,7 +9126,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -9692,7 +9168,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -9733,7 +9209,7 @@
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -9775,7 +9251,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -9816,7 +9292,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -9861,7 +9337,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -9906,7 +9382,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -9950,7 +9426,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -9995,7 +9471,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -10037,7 +9513,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -10079,7 +9555,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -10121,7 +9597,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -10163,7 +9639,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -10205,7 +9681,7 @@
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -10250,7 +9726,7 @@
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -10295,7 +9771,7 @@
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -10340,7 +9816,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -10382,7 +9858,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -10424,7 +9900,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -10466,7 +9942,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -10508,7 +9984,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -10550,7 +10026,7 @@
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -10592,7 +10068,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -10634,7 +10110,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -10676,7 +10152,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -10718,7 +10194,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -10760,7 +10236,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -10802,7 +10278,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -10844,7 +10320,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -10886,7 +10362,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
         <v>49</v>
       </c>
@@ -10926,7 +10402,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="35" t="s">
         <v>50</v>
       </c>
@@ -10966,7 +10442,7 @@
       <c r="P66" s="53"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" s="35" t="s">
         <v>51</v>
       </c>
@@ -10992,7 +10468,7 @@
       <c r="J67" s="11"/>
       <c r="P67" s="60"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" s="35" t="s">
         <v>52</v>
       </c>
@@ -11018,7 +10494,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" s="35" t="s">
         <v>53</v>
       </c>
@@ -11045,7 +10521,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" s="35" t="s">
         <v>54</v>
       </c>
@@ -11073,7 +10549,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
@@ -11097,7 +10573,7 @@
       </c>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" s="35" t="s">
         <v>56</v>
       </c>
@@ -11121,7 +10597,7 @@
       </c>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" s="35" t="s">
         <v>57</v>
       </c>
@@ -11146,7 +10622,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" s="35" t="s">
         <v>58</v>
       </c>
@@ -11170,7 +10646,7 @@
       </c>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" s="35" t="s">
         <v>59</v>
       </c>
@@ -11198,7 +10674,7 @@
         <v>-14423853.505534992</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" s="35" t="s">
         <v>60</v>
       </c>
@@ -11228,7 +10704,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" s="35" t="s">
         <v>61</v>
       </c>
@@ -11258,7 +10734,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" s="35" t="s">
         <v>154</v>
       </c>
@@ -11284,7 +10760,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="39" t="s">
         <v>63</v>
       </c>
@@ -11310,7 +10786,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
@@ -11320,25 +10796,270 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="88"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="151">
+        <f>SUM(D4:D27)</f>
+        <v>240574.55000000005</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="151" cm="1">
+        <f t="array" ref="F88">SUM(D4:D27*E4:E27)</f>
+        <v>528226.62545000017</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I88" s="151" cm="1">
+        <f t="array" ref="I88">SUM(D4:D27*F4:F27)</f>
+        <v>369758.63781500002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" s="151">
+        <f>SUM(D28:D32)</f>
+        <v>3223711</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F89" s="151" cm="1">
+        <f t="array" ref="F89">SUM(D28:D32*E28:E32)</f>
+        <v>1877590.3519999997</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I89" s="151" cm="1">
+        <f t="array" ref="I89">SUM(D28:D32*F28:F32)</f>
+        <v>1905226.9779699999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="151">
+        <f>SUM(D33:D40)</f>
+        <v>18642746</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F90" s="151" cm="1">
+        <f t="array" ref="F90">SUM(D33:D40*E33:E40)</f>
+        <v>39445016.509999998</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I90" s="151" cm="1">
+        <f t="array" ref="I90">SUM(D33:D40*F33:F40)</f>
+        <v>27745756.957399998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="151">
+        <f>SUM(D41:D57)</f>
+        <v>6692984</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F91" s="151" cm="1">
+        <f t="array" ref="F91">SUM(D41:D57*E41:E57)</f>
+        <v>8028278.8500000006</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I91" s="151" cm="1">
+        <f t="array" ref="I91">SUM(D41:D57*F41:F57)</f>
+        <v>5708079.1300799996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92" s="151">
+        <f>SUM(D58:D76)</f>
+        <v>9727258</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F92" s="151" cm="1">
+        <f t="array" ref="F92">SUM(D58:D76*E58:E76)</f>
+        <v>13754406.152800001</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I92" s="151" cm="1">
+        <f t="array" ref="I92">SUM(D58:D76*F58:F76)</f>
+        <v>11141983.814000003</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C93" s="151"/>
+      <c r="F93" s="151"/>
+      <c r="I93" s="151"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C94" s="151">
+        <f>SUM(L4:L17)</f>
+        <v>112952.51999999999</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" s="151" cm="1">
+        <f t="array" ref="F94">SUM(L4:L17*M4:M17)</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I94" s="151" cm="1">
+        <f t="array" ref="I94">SUM(L4:L17*O4:O17)</f>
+        <v>133298.61836846152</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" s="151">
+        <f>SUM(L18:L22)</f>
+        <v>3319903</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F95" s="151" cm="1">
+        <f t="array" ref="F95">SUM(L18:L22*M18:M22)</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I95" s="151" cm="1">
+        <f t="array" ref="I95">SUM(L18:L22*O18:O22)</f>
+        <v>1908077.8488700001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C96" s="151">
+        <f>SUM(L23:L29)</f>
+        <v>14624683</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F96" s="151" cm="1">
+        <f t="array" ref="F96">SUM(L23:L29*M23:M29)</f>
+        <v>43389917.016709402</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I96" s="151" cm="1">
+        <f t="array" ref="I96">SUM(L23:L29*O23:O29)</f>
+        <v>31393678.94368</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="151">
+        <f>SUM(L30:L45)</f>
+        <v>6470002</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="151" cm="1">
+        <f t="array" ref="F97">SUM(L30:L45*M30:M45)</f>
+        <v>9386776.6740170922</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I97" s="151" cm="1">
+        <f t="array" ref="I97">SUM(L30:L45*O30:O45)</f>
+        <v>7327637.1359800007</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="151">
+        <f>SUM(L46:L64)</f>
+        <v>9655208.9900000002</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F98" s="151" cm="1">
+        <f t="array" ref="F98">SUM(L46:L64*M46:M64)</f>
+        <v>15581855.327799987</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I98" s="151" cm="1">
+        <f t="array" ref="I98">SUM(L46:L64*O46:O64)</f>
+        <v>11997868.349595502</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E100" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
       <c r="XFD1048576" s="91"/>
     </row>
   </sheetData>
@@ -11355,24 +11076,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -11383,7 +11102,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>110</v>
@@ -11410,7 +11129,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="str">
         <f>Ricavi!J4</f>
@@ -11441,7 +11160,7 @@
       </c>
       <c r="I3" s="96"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="str">
         <f>Ricavi!J5</f>
@@ -11472,7 +11191,7 @@
       </c>
       <c r="I4" s="96"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="str">
         <f>Ricavi!J6</f>
@@ -11503,7 +11222,7 @@
       </c>
       <c r="I5" s="96"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="str">
         <f>Ricavi!J7</f>
@@ -11534,7 +11253,7 @@
       </c>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="str">
         <f>Ricavi!J8</f>
@@ -11565,7 +11284,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="str">
         <f>Ricavi!J9</f>
@@ -11596,7 +11315,7 @@
       </c>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="str">
         <f>Ricavi!J10</f>
@@ -11627,7 +11346,7 @@
       </c>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96" t="str">
         <f>Ricavi!J11</f>
@@ -11658,7 +11377,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="str">
         <f>Ricavi!J12</f>
@@ -11689,7 +11408,7 @@
       </c>
       <c r="I11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="str">
         <f>Ricavi!J13</f>
@@ -11720,7 +11439,7 @@
       </c>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="str">
         <f>Ricavi!J14</f>
@@ -11751,7 +11470,7 @@
       </c>
       <c r="I13" s="96"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="str">
         <f>Ricavi!J15</f>
@@ -11782,7 +11501,7 @@
       </c>
       <c r="I14" s="96"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="str">
         <f>Ricavi!J16</f>
@@ -11813,7 +11532,7 @@
       </c>
       <c r="I15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96" t="str">
         <f>Ricavi!J17</f>
@@ -11847,7 +11566,7 @@
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="str">
         <f>Ricavi!J18</f>
@@ -11879,7 +11598,7 @@
       <c r="I17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="str">
         <f>Ricavi!J19</f>
@@ -11910,7 +11629,7 @@
       </c>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="str">
         <f>Ricavi!J20</f>
@@ -11941,7 +11660,7 @@
       </c>
       <c r="I19" s="96"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="str">
         <f>Ricavi!J21</f>
@@ -11972,7 +11691,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="str">
         <f>Ricavi!J22</f>
@@ -12003,7 +11722,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="str">
         <f>Ricavi!J23</f>
@@ -12036,7 +11755,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="str">
         <f>Ricavi!J24</f>
@@ -12067,7 +11786,7 @@
       </c>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="96"/>
       <c r="B24" s="96" t="str">
         <f>Ricavi!J25</f>
@@ -12099,7 +11818,7 @@
       <c r="I24" s="96"/>
       <c r="L24" s="96"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="96"/>
       <c r="B25" s="96" t="str">
         <f>Ricavi!J26</f>
@@ -12130,7 +11849,7 @@
       </c>
       <c r="I25" s="96"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="96"/>
       <c r="B26" s="96" t="str">
         <f>Ricavi!J27</f>
@@ -12161,7 +11880,7 @@
       </c>
       <c r="I26" s="96"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="96"/>
       <c r="B27" s="96" t="str">
         <f>Ricavi!J28</f>
@@ -12192,7 +11911,7 @@
       </c>
       <c r="I27" s="96"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="96"/>
       <c r="B28" s="96" t="str">
         <f>Ricavi!J29</f>
@@ -12224,7 +11943,7 @@
       <c r="I28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="96"/>
       <c r="B29" s="96" t="str">
         <f>Ricavi!J30</f>
@@ -12258,7 +11977,7 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="96"/>
       <c r="B30" s="96" t="str">
         <f>Ricavi!J31</f>
@@ -12290,7 +12009,7 @@
       <c r="I30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="str">
         <f>Ricavi!J32</f>
@@ -12322,7 +12041,7 @@
       <c r="I31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="96"/>
       <c r="B32" s="96" t="str">
         <f>Ricavi!J33</f>
@@ -12354,7 +12073,7 @@
       <c r="I32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="96"/>
       <c r="B33" s="96" t="str">
         <f>Ricavi!J34</f>
@@ -12385,7 +12104,7 @@
       </c>
       <c r="I33" s="96"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="str">
         <f>Ricavi!J35</f>
@@ -12416,7 +12135,7 @@
       </c>
       <c r="I34" s="96"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="96"/>
       <c r="B35" s="96" t="str">
         <f>Ricavi!J36</f>
@@ -12447,7 +12166,7 @@
       </c>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="96"/>
       <c r="B36" s="96" t="str">
         <f>Ricavi!J37</f>
@@ -12478,7 +12197,7 @@
       </c>
       <c r="I36" s="96"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="str">
         <f>Ricavi!J38</f>
@@ -12509,7 +12228,7 @@
       </c>
       <c r="I37" s="96"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="str">
         <f>Ricavi!J39</f>
@@ -12540,7 +12259,7 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="96"/>
       <c r="B39" s="96" t="str">
         <f>Ricavi!J40</f>
@@ -12571,7 +12290,7 @@
       </c>
       <c r="I39" s="96"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="96"/>
       <c r="B40" s="96" t="str">
         <f>Ricavi!J41</f>
@@ -12602,7 +12321,7 @@
       </c>
       <c r="I40" s="96"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="96"/>
       <c r="B41" s="96" t="str">
         <f>Ricavi!J42</f>
@@ -12633,7 +12352,7 @@
       </c>
       <c r="I41" s="96"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="96"/>
       <c r="B42" s="96" t="str">
         <f>Ricavi!J43</f>
@@ -12664,7 +12383,7 @@
       </c>
       <c r="I42" s="96"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="96"/>
       <c r="B43" s="96" t="str">
         <f>Ricavi!J44</f>
@@ -12695,7 +12414,7 @@
       </c>
       <c r="I43" s="96"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="96"/>
       <c r="B44" s="96" t="str">
         <f>Ricavi!J45</f>
@@ -12726,7 +12445,7 @@
       </c>
       <c r="I44" s="96"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="96"/>
       <c r="B45" s="96" t="str">
         <f>Ricavi!J46</f>
@@ -12759,7 +12478,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="96"/>
       <c r="B46" s="96" t="str">
         <f>Ricavi!J47</f>
@@ -12790,7 +12509,7 @@
       </c>
       <c r="I46" s="96"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="96"/>
       <c r="B47" s="96" t="str">
         <f>Ricavi!J48</f>
@@ -12821,7 +12540,7 @@
       </c>
       <c r="I47" s="96"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="96"/>
       <c r="B48" s="96" t="str">
         <f>Ricavi!J49</f>
@@ -12852,7 +12571,7 @@
       </c>
       <c r="I48" s="96"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="96"/>
       <c r="B49" s="96" t="str">
         <f>Ricavi!J50</f>
@@ -12883,7 +12602,7 @@
       </c>
       <c r="I49" s="96"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="96"/>
       <c r="B50" s="96" t="str">
         <f>Ricavi!J51</f>
@@ -12914,7 +12633,7 @@
       </c>
       <c r="I50" s="96"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="96"/>
       <c r="B51" s="96" t="str">
         <f>Ricavi!J52</f>
@@ -12945,7 +12664,7 @@
       </c>
       <c r="I51" s="96"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="96"/>
       <c r="B52" s="96" t="str">
         <f>Ricavi!J53</f>
@@ -12976,7 +12695,7 @@
       </c>
       <c r="I52" s="96"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="96"/>
       <c r="B53" s="96" t="str">
         <f>Ricavi!J54</f>
@@ -13007,7 +12726,7 @@
       </c>
       <c r="I53" s="96"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="96"/>
       <c r="B54" s="96" t="str">
         <f>Ricavi!J55</f>
@@ -13041,7 +12760,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="96"/>
       <c r="B55" s="96" t="str">
         <f>Ricavi!J56</f>
@@ -13076,7 +12795,7 @@
         <v>68358549.018526509</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="96"/>
       <c r="B56" s="96" t="str">
         <f>Ricavi!J57</f>
@@ -13110,7 +12829,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="96"/>
       <c r="B57" s="96" t="str">
         <f>Ricavi!J58</f>
@@ -13145,7 +12864,7 @@
         <v>196584.24189999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="str">
         <f>Ricavi!J59</f>
@@ -13179,7 +12898,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="str">
         <f>Ricavi!J60</f>
@@ -13214,7 +12933,7 @@
         <v>2489618.9618799998</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="str">
         <f>Ricavi!J61</f>
@@ -13245,7 +12964,7 @@
       </c>
       <c r="I60" s="96"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="str">
         <f>Ricavi!J62</f>
@@ -13276,7 +12995,7 @@
       </c>
       <c r="I61" s="96"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="str">
         <f>Ricavi!J63</f>
@@ -13307,7 +13026,7 @@
       </c>
       <c r="I62" s="96"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="str">
         <f>Ricavi!J64</f>
@@ -13338,7 +13057,7 @@
       </c>
       <c r="I63" s="96"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="str">
         <f>Ricavi!J65</f>
@@ -13368,7 +13087,7 @@
         <v>Riaccredito trasporti</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="str">
         <f>Ricavi!J66</f>
@@ -13399,7 +13118,7 @@
         <v>Premio clienti (ricavo negativo)</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -13410,7 +13129,7 @@
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -13435,21 +13154,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="1" width="2.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.54296875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="146" t="s">
         <v>134</v>
       </c>
@@ -13467,7 +13186,7 @@
       <c r="N2" s="147"/>
       <c r="O2" s="148"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>120</v>
       </c>
@@ -13485,7 +13204,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -13500,7 +13219,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="2:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>177</v>
       </c>
@@ -13522,7 +13241,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>180</v>
       </c>
@@ -13542,7 +13261,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>172</v>
       </c>
@@ -13562,7 +13281,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -13582,7 +13301,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>167</v>
       </c>
@@ -13600,7 +13319,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
@@ -13620,7 +13339,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
@@ -13640,7 +13359,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>113</v>
       </c>
@@ -13661,7 +13380,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>114</v>
       </c>
@@ -13683,23 +13402,23 @@
       <c r="N13" s="9"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>165</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>174</v>
       </c>
@@ -13708,95 +13427,95 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>166</v>
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>182</v>
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
         <v>181</v>
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>171</v>
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="21"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
         <v>161</v>
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>173</v>
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="21"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="24" t="s">
         <v>125</v>
       </c>
@@ -13827,22 +13546,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB61E9C-EC3D-49DF-83B5-89D531594792}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -13852,7 +13569,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
         <v>213</v>
@@ -13867,7 +13584,7 @@
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>214</v>
@@ -13892,7 +13609,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
         <v>215</v>
@@ -13922,7 +13639,7 @@
         <v>3512848.8566000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>216</v>
@@ -13951,7 +13668,7 @@
         <v>388200.12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
         <v>217</v>
@@ -13980,7 +13697,7 @@
         <v>843382.27934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -13998,7 +13715,7 @@
       </c>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96" t="s">
         <v>218</v>
@@ -14019,7 +13736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>219</v>
@@ -14039,7 +13756,7 @@
       </c>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -14054,7 +13771,7 @@
       </c>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>220</v>
@@ -14074,7 +13791,7 @@
       </c>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96" t="s">
         <v>221</v>
@@ -14093,7 +13810,7 @@
         <v>449211.74630400003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -14107,7 +13824,7 @@
         <v>1471815.2299680002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96" t="s">
         <v>222</v>
@@ -14125,7 +13842,7 @@
         <v>867798.34033418808</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>223</v>
@@ -14144,7 +13861,7 @@
       </c>
       <c r="H15" s="96"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -14154,7 +13871,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>224</v>
@@ -14174,7 +13891,7 @@
       </c>
       <c r="H17" s="96"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96" t="s">
         <v>225</v>
@@ -14189,7 +13906,7 @@
       <c r="G18" s="96"/>
       <c r="H18" s="96"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14199,7 +13916,7 @@
       <c r="G19" s="96"/>
       <c r="H19" s="96"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="96"/>
       <c r="B20" s="96" t="s">
         <v>299</v>
@@ -14214,7 +13931,7 @@
       <c r="G20" s="96"/>
       <c r="H20" s="96"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
       <c r="B21" s="96" t="s">
         <v>300</v>
@@ -14229,7 +13946,7 @@
       <c r="G21" s="96"/>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="96"/>
       <c r="B22" s="96" t="s">
         <v>274</v>
@@ -14243,7 +13960,7 @@
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="96"/>
       <c r="B23" s="96" t="s">
         <v>276</v>
@@ -14258,7 +13975,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="96" t="s">
         <v>249</v>
       </c>
@@ -14266,10 +13983,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="96" t="s">
         <v>275</v>
       </c>
@@ -14278,7 +13995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="96" t="s">
         <v>250</v>
       </c>
@@ -14287,7 +14004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="96" t="s">
         <v>251</v>
       </c>
@@ -14296,7 +14013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="96" t="s">
         <v>264</v>
       </c>
@@ -14305,7 +14022,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="96" t="s">
         <v>265</v>
       </c>
@@ -14314,7 +14031,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="96" t="s">
         <v>266</v>
       </c>
@@ -14322,7 +14039,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="96" t="s">
         <v>267</v>
       </c>
@@ -14330,7 +14047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>268</v>
       </c>
@@ -14338,7 +14055,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="96" t="s">
         <v>269</v>
       </c>
@@ -14347,7 +14064,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>270</v>
       </c>
@@ -14355,7 +14072,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="96" t="s">
         <v>233</v>
       </c>
@@ -14364,7 +14081,7 @@
         <v>15619.501552906979</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="96" t="s">
         <v>273</v>
       </c>
@@ -14373,7 +14090,7 @@
         <v>4137.7919767441863</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="96" t="s">
         <v>272</v>
       </c>
@@ -14382,7 +14099,7 @@
         <v>12069.871618604651</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="96" t="s">
         <v>234</v>
       </c>
@@ -14391,7 +14108,7 @@
         <v>31827.165148255815</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="96" t="s">
         <v>235</v>
       </c>
@@ -14400,7 +14117,7 @@
         <v>7956.7912870639539</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="96" t="s">
         <v>252</v>
       </c>
@@ -14417,131 +14134,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC2D69-4CDB-4944-95A7-150A65922A87}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="123.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="77"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -14556,24 +14273,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB1E3B-0C1C-4993-9177-FBCEDBD20284}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -14585,10 +14300,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C4" s="96"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>238</v>
       </c>
@@ -14597,10 +14312,10 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C6" s="96"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>239</v>
       </c>
@@ -14609,10 +14324,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>240</v>
       </c>
@@ -14621,10 +14336,10 @@
         <v>151700</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" s="96"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>241</v>
       </c>
@@ -14633,10 +14348,10 @@
         <v>309550</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" s="96"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -14645,10 +14360,10 @@
         <v>212174.99999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="93" t="s">
         <v>246</v>
       </c>
@@ -14657,13 +14372,13 @@
         <v>7625710.9100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="96"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C17" s="96"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>243</v>
       </c>
@@ -14672,10 +14387,10 @@
         <v>563750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="94" t="s">
         <v>244</v>
       </c>
@@ -14684,10 +14399,10 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="96"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>245</v>
       </c>
@@ -14696,10 +14411,10 @@
         <v>102499.99999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C23" s="96"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="93" t="s">
         <v>247</v>
       </c>
@@ -14708,13 +14423,13 @@
         <v>973750</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C25" s="96"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="96"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="93" t="s">
         <v>248</v>
       </c>
@@ -14732,29 +14447,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC74C4D-8FA0-4227-922B-636E2D04E620}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="95" t="s">
         <v>176</v>
       </c>
@@ -14762,13 +14475,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
@@ -14776,33 +14489,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
@@ -14813,67 +14526,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="32"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="32"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34" t="s">
         <v>163</v>
       </c>
@@ -14888,25 +14601,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE109-08EA-4B02-B169-2F563F62FEDC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -14914,7 +14625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>254</v>
@@ -14925,13 +14636,13 @@
       </c>
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
         <v>255</v>
@@ -14942,13 +14653,13 @@
       </c>
       <c r="D5" s="96"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="96" t="s">
         <v>256</v>
@@ -14958,13 +14669,13 @@
       </c>
       <c r="D7" s="96"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="96" t="s">
         <v>257</v>
@@ -14975,13 +14686,13 @@
       </c>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="96"/>
       <c r="B11" s="96" t="s">
         <v>258</v>
@@ -14991,13 +14702,13 @@
       </c>
       <c r="D11" s="96"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="96"/>
       <c r="B13" s="96" t="s">
         <v>259</v>
@@ -15007,13 +14718,13 @@
       </c>
       <c r="D13" s="96"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="96"/>
       <c r="B15" s="96" t="s">
         <v>260</v>
@@ -15023,13 +14734,13 @@
       </c>
       <c r="D15" s="96"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="96"/>
       <c r="B17" s="96" t="s">
         <v>261</v>
@@ -15039,13 +14750,13 @@
       </c>
       <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="96"/>
       <c r="B19" s="96" t="s">
         <v>262</v>
@@ -15058,7 +14769,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>277</v>
       </c>
@@ -15066,7 +14777,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>278</v>
       </c>

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049C028-691C-4179-BCEF-DD88AB2DFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0031FF7-C431-4E27-B86E-8C6C6181246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{F67C1344-DA6D-437B-A795-BE773FAE3582}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="10" activeTab="10" xr2:uid="{47D82A9E-1214-4F6E-A405-C3A19453CBD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="394">
   <si>
     <t>MP1</t>
   </si>
@@ -1300,7 +1300,34 @@
     <t>Vedi foglio ricavi</t>
   </si>
   <si>
-    <t>Ricavi totali MP a MS</t>
+    <t>Controllo Ricavi con media pesata</t>
+  </si>
+  <si>
+    <t>Prezzo medio pesato reale</t>
+  </si>
+  <si>
+    <t>Controllo costi MP</t>
+  </si>
+  <si>
+    <t>Costo medio MP pesato reale</t>
+  </si>
+  <si>
+    <t>Prezzo medio pesato budget</t>
+  </si>
+  <si>
+    <t>in fondo</t>
+  </si>
+  <si>
+    <t>Costo medio MP pesato budget</t>
+  </si>
+  <si>
+    <t>Acquisto MP a MS</t>
+  </si>
+  <si>
+    <t>quantita a MS (kg)</t>
+  </si>
+  <si>
+    <t>Quantità a MS (ton)</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2131,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2393,6 +2420,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,16 +2463,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -3371,23 +3395,23 @@
   <sheetData>
     <row r="1" spans="2:14" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="E2" s="140" t="s">
+      <c r="C2" s="145"/>
+      <c r="E2" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="145"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="142" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="146" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="80" t="s">
@@ -3395,11 +3419,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="139"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -4072,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E70B5-F172-4D91-815C-9EECD134C376}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4087,26 +4111,26 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="141"/>
+      <c r="C2" s="145"/>
       <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="145"/>
     </row>
     <row r="3" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="142" t="s">
         <v>290</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="142" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -4117,11 +4141,11 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="139"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
@@ -5008,7 +5032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2357A-B255-476A-B362-53609C625BCC}">
   <dimension ref="A2:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5022,11 +5048,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="131"/>
       <c r="F2" s="115" t="s">
         <v>124</v>
@@ -5199,20 +5225,20 @@
       <c r="E8" s="132"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
       <c r="E9" s="132"/>
       <c r="F9" s="135" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="154">
+      <c r="G9" s="139">
         <f>SUM(G3:G7)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="155">
+      <c r="H9" s="140">
         <f>SUM(H3:H7)</f>
         <v>38527273.549999997</v>
       </c>
@@ -5288,7 +5314,7 @@
       <c r="E14" s="132"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="153"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="132"/>
       <c r="D15" s="132"/>
       <c r="E15" s="132"/>
@@ -5314,7 +5340,7 @@
       <c r="B18" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="C18" s="156">
+      <c r="C18" s="141">
         <f>SUM(C10:C14)</f>
         <v>38527273.549999997</v>
       </c>
@@ -5347,7 +5373,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="153" t="s">
         <v>315</v>
       </c>
       <c r="B21" s="117" t="s">
@@ -5377,7 +5403,7 @@
       <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="149"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="117" t="s">
         <v>317</v>
       </c>
@@ -5405,7 +5431,7 @@
       <c r="I22" s="118"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="149"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="117" t="s">
         <v>318</v>
       </c>
@@ -5433,7 +5459,7 @@
       <c r="I23" s="118"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="149"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="117" t="s">
         <v>319</v>
       </c>
@@ -5461,7 +5487,7 @@
       <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="149"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="117" t="s">
         <v>320</v>
       </c>
@@ -5500,7 +5526,7 @@
       <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="153" t="s">
         <v>321</v>
       </c>
       <c r="B27" s="117" t="s">
@@ -5521,7 +5547,7 @@
       <c r="I27" s="118"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="149"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="117" t="s">
         <v>323</v>
       </c>
@@ -5540,20 +5566,26 @@
       <c r="I28" s="118"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="149"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="117" t="s">
         <v>324</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="118" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>389</v>
+      </c>
       <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
+      <c r="F29" s="118" t="s">
+        <v>389</v>
+      </c>
       <c r="G29" s="118"/>
       <c r="H29" s="118"/>
       <c r="I29" s="118"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="149"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="117" t="s">
         <v>325</v>
       </c>
@@ -5566,7 +5598,7 @@
       <c r="I30" s="118"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="149"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="117" t="s">
         <v>326</v>
       </c>
@@ -5591,7 +5623,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="115"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="117" t="s">
         <v>327</v>
       </c>
       <c r="C33" s="118">
@@ -5606,8 +5638,14 @@
         <f>D33-C33</f>
         <v>331642.38355000014</v>
       </c>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
+      <c r="F33" s="118">
+        <f>F21*Ricavi!K94</f>
+        <v>221569.50426369233</v>
+      </c>
+      <c r="G33" s="118">
+        <f t="shared" ref="G33:G96" si="2">F33-C33</f>
+        <v>24985.262363692338</v>
+      </c>
       <c r="H33" s="118"/>
       <c r="I33" s="118"/>
     </row>
@@ -5627,11 +5665,14 @@
         <f>D34-C34</f>
         <v>-612028.60988000012</v>
       </c>
-      <c r="F34" s="118" cm="1">
-        <f t="array" ref="F34">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I4, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G34" s="123"/>
+      <c r="F34" s="118">
+        <f>F22*Ricavi!K95</f>
+        <v>2806041.9993879469</v>
+      </c>
+      <c r="G34" s="118">
+        <f t="shared" si="2"/>
+        <v>316423.03750794707</v>
+      </c>
       <c r="H34" s="123"/>
       <c r="I34" s="123"/>
     </row>
@@ -5651,11 +5692,14 @@
         <f>D35-C35</f>
         <v>-3944900.5067094043</v>
       </c>
-      <c r="F35" s="118" cm="1">
-        <f t="array" ref="F35">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I5, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G35" s="123"/>
+      <c r="F35" s="118">
+        <f>F23*Ricavi!K96</f>
+        <v>48904644.189769357</v>
+      </c>
+      <c r="G35" s="118">
+        <f t="shared" si="2"/>
+        <v>5514727.1730599552</v>
+      </c>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
     </row>
@@ -5675,11 +5719,14 @@
         <f>D36-C36</f>
         <v>-1358497.8240170917</v>
       </c>
-      <c r="F36" s="118" cm="1">
-        <f t="array" ref="F36">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I6, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G36" s="123"/>
+      <c r="F36" s="118">
+        <f>F24*Ricavi!K97</f>
+        <v>10579807.588819548</v>
+      </c>
+      <c r="G36" s="118">
+        <f t="shared" si="2"/>
+        <v>1193030.9148024563</v>
+      </c>
       <c r="H36" s="123"/>
       <c r="I36" s="123"/>
     </row>
@@ -5699,11 +5746,14 @@
         <f>D37-C37</f>
         <v>-1827449.1749999858</v>
       </c>
-      <c r="F37" s="118" cm="1">
-        <f t="array" ref="F37">SUMPRODUCT(--ISNUMBER((SEARCH("MP", Ricavi!$B$4:$B$76))), Ricavi!$D$4:$D$76/I7, Ricavi!$M$4:$M$76)</f>
-        <v>795930.12512431026</v>
-      </c>
-      <c r="G37" s="123"/>
+      <c r="F37" s="118">
+        <f>F25*Ricavi!K98</f>
+        <v>17562261.995778088</v>
+      </c>
+      <c r="G37" s="118">
+        <f t="shared" si="2"/>
+        <v>1980406.6679781005</v>
+      </c>
       <c r="H37" s="123"/>
       <c r="I37" s="123"/>
     </row>
@@ -5733,8 +5783,14 @@
         <f>D39-C39</f>
         <v>-7130847.505726479</v>
       </c>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
+      <c r="F39" s="123">
+        <f>SUM(F35:F37)</f>
+        <v>77046713.77436699</v>
+      </c>
+      <c r="G39" s="118">
+        <f t="shared" si="2"/>
+        <v>8688164.7558405101</v>
+      </c>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
     </row>
@@ -5751,11 +5807,17 @@
         <v>528226.62545000017</v>
       </c>
       <c r="E40" s="118">
-        <f t="shared" ref="E40:E101" si="2">D40-C40</f>
+        <f t="shared" ref="E40:F101" si="3">D40-C40</f>
         <v>331642.38355000014</v>
       </c>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
+      <c r="F40" s="123">
+        <f>F33</f>
+        <v>221569.50426369233</v>
+      </c>
+      <c r="G40" s="118">
+        <f t="shared" si="2"/>
+        <v>24985.262363692338</v>
+      </c>
       <c r="H40" s="123"/>
       <c r="I40" s="123"/>
     </row>
@@ -5772,11 +5834,17 @@
         <v>1877590.3519999997</v>
       </c>
       <c r="E41" s="118">
+        <f t="shared" si="3"/>
+        <v>-612028.60988000012</v>
+      </c>
+      <c r="F41" s="123">
+        <f>F34</f>
+        <v>2806041.9993879469</v>
+      </c>
+      <c r="G41" s="118">
         <f t="shared" si="2"/>
-        <v>-612028.60988000012</v>
-      </c>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
+        <v>316423.03750794707</v>
+      </c>
       <c r="H41" s="123"/>
       <c r="I41" s="123"/>
     </row>
@@ -5793,11 +5861,17 @@
         <v>66957.510000000068</v>
       </c>
       <c r="E42" s="118">
+        <f t="shared" si="3"/>
+        <v>269729.36000000004</v>
+      </c>
+      <c r="F42" s="123">
+        <f>SUM(-Ricavi!D78*Ricavi!M66,)</f>
+        <v>-284714.8125</v>
+      </c>
+      <c r="G42" s="118">
         <f t="shared" si="2"/>
-        <v>269729.36000000004</v>
-      </c>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
+        <v>-81942.962500000023</v>
+      </c>
       <c r="H42" s="123"/>
       <c r="I42" s="123"/>
     </row>
@@ -5812,11 +5886,16 @@
         <v>500000</v>
       </c>
       <c r="E43" s="118">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="F43" s="123">
+        <v>0</v>
+      </c>
+      <c r="G43" s="118">
         <f t="shared" si="2"/>
-        <v>500000</v>
-      </c>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
+        <v>0</v>
+      </c>
       <c r="H43" s="123"/>
       <c r="I43" s="123"/>
     </row>
@@ -5843,11 +5922,17 @@
         <v>64200476.000249997</v>
       </c>
       <c r="E45" s="118">
+        <f t="shared" si="3"/>
+        <v>-6641504.3720564842</v>
+      </c>
+      <c r="F45" s="118">
+        <f xml:space="preserve"> SUM(F39:F43)</f>
+        <v>79789610.465518638</v>
+      </c>
+      <c r="G45" s="118">
         <f t="shared" si="2"/>
-        <v>-6641504.3720564842</v>
-      </c>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
+        <v>8947630.0932121575</v>
+      </c>
       <c r="H45" s="123"/>
       <c r="I45" s="123"/>
     </row>
@@ -5874,11 +5959,17 @@
         <v>-46870805.517265007</v>
       </c>
       <c r="E47" s="118">
+        <f t="shared" si="3"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F47" s="123">
+        <f>Ricavi!C101</f>
+        <v>-61823221.954590201</v>
+      </c>
+      <c r="G47" s="118">
         <f t="shared" si="2"/>
-        <v>5889755.3792289346</v>
-      </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
+        <v>-9062661.0580962598</v>
+      </c>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
     </row>
@@ -5893,11 +5984,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="123">
+        <v>0</v>
+      </c>
+      <c r="G48" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
       <c r="H48" s="123"/>
       <c r="I48" s="123"/>
     </row>
@@ -5924,11 +6020,17 @@
         <v>-46870805.517265007</v>
       </c>
       <c r="E50" s="118">
+        <f t="shared" si="3"/>
+        <v>5889755.3792289346</v>
+      </c>
+      <c r="F50" s="118">
+        <f>SUM(F47:F48)</f>
+        <v>-61823221.954590201</v>
+      </c>
+      <c r="G50" s="118">
         <f t="shared" si="2"/>
-        <v>5889755.3792289346</v>
-      </c>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
+        <v>-9062661.0580962598</v>
+      </c>
       <c r="H50" s="123"/>
       <c r="I50" s="123"/>
     </row>
@@ -5955,11 +6057,17 @@
         <v>-4152707.4956527753</v>
       </c>
       <c r="E52" s="118">
+        <f t="shared" si="3"/>
+        <v>-706871.14175914275</v>
+      </c>
+      <c r="F52" s="128">
+        <f>-VariableCostsC!G9-VariableCostsC!G10-VariableCostsC!G15</f>
+        <v>-3544829.5016939119</v>
+      </c>
+      <c r="G52" s="118">
         <f t="shared" si="2"/>
-        <v>-706871.14175914275</v>
-      </c>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
+        <v>-98993.147800279316</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
@@ -5973,11 +6081,17 @@
         <v>-175000</v>
       </c>
       <c r="E53" s="118">
+        <f t="shared" si="3"/>
+        <v>-21250</v>
+      </c>
+      <c r="F53" s="128">
+        <f>-VariableCostsC!G11</f>
+        <v>-153750</v>
+      </c>
+      <c r="G53" s="118">
         <f t="shared" si="2"/>
-        <v>-21250</v>
-      </c>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
@@ -5991,11 +6105,17 @@
         <v>-519959.9495168</v>
       </c>
       <c r="E54" s="118">
+        <f t="shared" si="3"/>
+        <v>-70748.20321279997</v>
+      </c>
+      <c r="F54" s="128">
+        <f>-VariableCostsC!G12</f>
+        <v>-467988.62923513958</v>
+      </c>
+      <c r="G54" s="118">
         <f t="shared" si="2"/>
-        <v>-70748.20321279997</v>
-      </c>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
+        <v>-18776.882931139553</v>
+      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="119"/>
@@ -6019,11 +6139,17 @@
         <v>-4847667.4451695755</v>
       </c>
       <c r="E56" s="118">
+        <f t="shared" si="3"/>
+        <v>-798869.34497194272</v>
+      </c>
+      <c r="F56" s="128">
+        <f>SUM(F52:F54)</f>
+        <v>-4166568.1309290514</v>
+      </c>
+      <c r="G56" s="118">
         <f t="shared" si="2"/>
-        <v>-798869.34497194272</v>
-      </c>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
+        <v>-117770.03073141864</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="119"/>
@@ -6047,11 +6173,17 @@
         <v>-1000000</v>
       </c>
       <c r="E58" s="118">
+        <f t="shared" si="3"/>
+        <v>471815.2299680002</v>
+      </c>
+      <c r="F58" s="128">
+        <f>-VariableCostsC!G13</f>
+        <v>-1497230.4591271358</v>
+      </c>
+      <c r="G58" s="118">
         <f t="shared" si="2"/>
-        <v>471815.2299680002</v>
-      </c>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
+        <v>-25415.229159135604</v>
+      </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
@@ -6065,11 +6197,17 @@
         <v>-550000</v>
       </c>
       <c r="E59" s="118">
+        <f t="shared" si="3"/>
+        <v>317798.34033418808</v>
+      </c>
+      <c r="F59" s="128">
+        <f>-VariableCostsC!G14</f>
+        <v>-788900.33019999997</v>
+      </c>
+      <c r="G59" s="118">
         <f t="shared" si="2"/>
-        <v>317798.34033418808</v>
-      </c>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
+        <v>78898.010134188109</v>
+      </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="119"/>
@@ -6093,11 +6231,17 @@
         <v>-1550000</v>
       </c>
       <c r="E61" s="118">
+        <f t="shared" si="3"/>
+        <v>789613.5703021884</v>
+      </c>
+      <c r="F61" s="128">
+        <f>SUM(F58:F59)</f>
+        <v>-2286130.7893271358</v>
+      </c>
+      <c r="G61" s="118">
         <f t="shared" si="2"/>
-        <v>789613.5703021884</v>
-      </c>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
+        <v>53482.780975052621</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="119"/>
@@ -6122,11 +6266,17 @@
         <v>10932003.037815414</v>
       </c>
       <c r="E63" s="118">
+        <f t="shared" si="3"/>
+        <v>-761004.76749730483</v>
+      </c>
+      <c r="F63" s="128">
+        <f>SUM(F45,F50,F56,F61)</f>
+        <v>11513689.590672251</v>
+      </c>
+      <c r="G63" s="118">
         <f t="shared" si="2"/>
-        <v>-761004.76749730483</v>
-      </c>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
+        <v>-179318.21464046836</v>
+      </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
@@ -6141,11 +6291,17 @@
         <v>-5650000</v>
       </c>
       <c r="E64" s="118">
+        <f t="shared" si="3"/>
+        <v>-55214.089999999851</v>
+      </c>
+      <c r="F64" s="128">
+        <f>C64</f>
+        <v>-5594785.9100000001</v>
+      </c>
+      <c r="G64" s="118">
         <f t="shared" si="2"/>
-        <v>-55214.089999999851</v>
-      </c>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
@@ -6160,11 +6316,17 @@
         <v>-1100000</v>
       </c>
       <c r="E65" s="118">
+        <f t="shared" si="3"/>
+        <v>-50000</v>
+      </c>
+      <c r="F65" s="128">
+        <f t="shared" ref="F65:F69" si="4">C65</f>
+        <v>-1050000</v>
+      </c>
+      <c r="G65" s="118">
         <f t="shared" si="2"/>
-        <v>-50000</v>
-      </c>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
@@ -6179,11 +6341,17 @@
         <v>-305000</v>
       </c>
       <c r="E66" s="118">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="F66" s="128">
+        <f t="shared" si="4"/>
+        <v>-307500</v>
+      </c>
+      <c r="G66" s="118">
         <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
@@ -6198,11 +6366,17 @@
         <v>-145000</v>
       </c>
       <c r="E67" s="118">
+        <f t="shared" si="3"/>
+        <v>6700</v>
+      </c>
+      <c r="F67" s="128">
+        <f t="shared" si="4"/>
+        <v>-151700</v>
+      </c>
+      <c r="G67" s="118">
         <f t="shared" si="2"/>
-        <v>6700</v>
-      </c>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
@@ -6217,11 +6391,17 @@
         <v>-307000</v>
       </c>
       <c r="E68" s="118">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="F68" s="128">
+        <f t="shared" si="4"/>
+        <v>-309550</v>
+      </c>
+      <c r="G68" s="118">
         <f t="shared" si="2"/>
-        <v>2550</v>
-      </c>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
@@ -6236,11 +6416,17 @@
         <v>-209500</v>
       </c>
       <c r="E69" s="118">
+        <f t="shared" si="3"/>
+        <v>2674.9999999999709</v>
+      </c>
+      <c r="F69" s="128">
+        <f t="shared" si="4"/>
+        <v>-212174.99999999997</v>
+      </c>
+      <c r="G69" s="118">
         <f t="shared" si="2"/>
-        <v>2674.9999999999709</v>
-      </c>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="119"/>
@@ -6261,15 +6447,21 @@
         <v>-7625710.9100000001</v>
       </c>
       <c r="D71" s="128">
-        <f>'CE Budget 2022'!F28</f>
+        <f>SUM(D64:D69)</f>
         <v>-7716500</v>
       </c>
       <c r="E71" s="118">
+        <f t="shared" si="3"/>
+        <v>-90789.089999999851</v>
+      </c>
+      <c r="F71" s="128">
+        <f>SUM(F64:F69)</f>
+        <v>-7625710.9100000001</v>
+      </c>
+      <c r="G71" s="118">
         <f t="shared" si="2"/>
-        <v>-90789.089999999851</v>
-      </c>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="119"/>
@@ -6294,11 +6486,17 @@
         <v>-556000</v>
       </c>
       <c r="E73" s="118">
+        <f t="shared" si="3"/>
+        <v>7750</v>
+      </c>
+      <c r="F73" s="128">
+        <f>C73</f>
+        <v>-563750</v>
+      </c>
+      <c r="G73" s="118">
         <f t="shared" si="2"/>
-        <v>7750</v>
-      </c>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
@@ -6313,11 +6511,17 @@
         <v>-297000</v>
       </c>
       <c r="E74" s="118">
+        <f t="shared" si="3"/>
+        <v>10500</v>
+      </c>
+      <c r="F74" s="128">
+        <f t="shared" ref="F74:F75" si="5">C74</f>
+        <v>-307500</v>
+      </c>
+      <c r="G74" s="118">
         <f t="shared" si="2"/>
-        <v>10500</v>
-      </c>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
@@ -6332,11 +6536,17 @@
         <v>-98000</v>
       </c>
       <c r="E75" s="118">
+        <f t="shared" si="3"/>
+        <v>4499.9999999999854</v>
+      </c>
+      <c r="F75" s="128">
+        <f t="shared" si="5"/>
+        <v>-102499.99999999999</v>
+      </c>
+      <c r="G75" s="118">
         <f t="shared" si="2"/>
-        <v>4499.9999999999854</v>
-      </c>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="119"/>
@@ -6357,15 +6567,21 @@
         <v>-973750</v>
       </c>
       <c r="D77" s="128">
-        <f>'CE Budget 2022'!F32</f>
+        <f>SUM(D73:D75)</f>
         <v>-951000</v>
       </c>
       <c r="E77" s="118">
+        <f t="shared" si="3"/>
+        <v>22750</v>
+      </c>
+      <c r="F77" s="128">
+        <f>SUM(F73:F75)</f>
+        <v>-973750</v>
+      </c>
+      <c r="G77" s="118">
         <f t="shared" si="2"/>
-        <v>22750</v>
-      </c>
-      <c r="F77" s="128"/>
-      <c r="G77" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="129" t="s">
@@ -6376,15 +6592,21 @@
         <v>3093546.895312719</v>
       </c>
       <c r="D78" s="128">
-        <f>'CE Budget 2022'!F33</f>
-        <v>2384503.0378154144</v>
+        <f>SUM(D45,D50,D56,D61,D71,D77)</f>
+        <v>2264503.0378154144</v>
       </c>
       <c r="E78" s="118">
+        <f t="shared" si="3"/>
+        <v>-829043.85749730468</v>
+      </c>
+      <c r="F78" s="128">
+        <f>SUM(F63,F71,F77)</f>
+        <v>2914228.6806722507</v>
+      </c>
+      <c r="G78" s="118">
         <f t="shared" si="2"/>
-        <v>-709043.85749730468</v>
-      </c>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
+        <v>-179318.21464046836</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="129"/>
@@ -6392,7 +6614,10 @@
       <c r="D79" s="128"/>
       <c r="E79" s="118"/>
       <c r="F79" s="128"/>
-      <c r="G79" s="128"/>
+      <c r="G79" s="118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
@@ -6407,11 +6632,17 @@
         <v>-190000</v>
       </c>
       <c r="E80" s="118">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="F80" s="128">
+        <f>C80</f>
+        <v>-200000</v>
+      </c>
+      <c r="G80" s="118">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
@@ -6426,11 +6657,17 @@
         <v>-810000</v>
       </c>
       <c r="E81" s="118">
+        <f t="shared" si="3"/>
+        <v>-13125</v>
+      </c>
+      <c r="F81" s="128">
+        <f t="shared" ref="F81:F84" si="6">C81</f>
+        <v>-796875</v>
+      </c>
+      <c r="G81" s="118">
         <f t="shared" si="2"/>
-        <v>-13125</v>
-      </c>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
@@ -6445,11 +6682,17 @@
         <v>-25000</v>
       </c>
       <c r="E82" s="118">
+        <f t="shared" si="3"/>
+        <v>-25000</v>
+      </c>
+      <c r="F82" s="128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="118">
         <f t="shared" si="2"/>
-        <v>-25000</v>
-      </c>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="119"/>
@@ -6457,7 +6700,7 @@
       <c r="D83" s="125"/>
       <c r="E83" s="120"/>
       <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
+      <c r="G83" s="120"/>
       <c r="H83" s="125"/>
       <c r="I83" s="125"/>
     </row>
@@ -6474,11 +6717,17 @@
         <v>-1025000</v>
       </c>
       <c r="E84" s="118">
+        <f t="shared" si="3"/>
+        <v>-28125</v>
+      </c>
+      <c r="F84" s="128">
+        <f t="shared" si="6"/>
+        <v>-996875</v>
+      </c>
+      <c r="G84" s="118">
         <f t="shared" si="2"/>
-        <v>-28125</v>
-      </c>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="130" t="s">
@@ -6493,11 +6742,17 @@
         <v>1359503.0378154144</v>
       </c>
       <c r="E85" s="118">
+        <f t="shared" si="3"/>
+        <v>-737168.85749730468</v>
+      </c>
+      <c r="F85" s="128">
+        <f>SUM(F78,F84)</f>
+        <v>1917353.6806722507</v>
+      </c>
+      <c r="G85" s="118">
         <f t="shared" si="2"/>
-        <v>-737168.85749730468</v>
-      </c>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
+        <v>-179318.21464046836</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="130"/>
@@ -6505,7 +6760,10 @@
       <c r="D86" s="128"/>
       <c r="E86" s="118"/>
       <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
+      <c r="G86" s="118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
@@ -6520,11 +6778,17 @@
         <v>-140133.03999999998</v>
       </c>
       <c r="E87" s="118">
+        <f t="shared" si="3"/>
+        <v>-52633.039999999979</v>
+      </c>
+      <c r="F87" s="128">
+        <f>C87</f>
+        <v>-87500</v>
+      </c>
+      <c r="G87" s="118">
         <f t="shared" si="2"/>
-        <v>-52633.039999999979</v>
-      </c>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
@@ -6539,11 +6803,17 @@
         <v>3543.6200000000003</v>
       </c>
       <c r="E88" s="118">
+        <f t="shared" si="3"/>
+        <v>3543.6200000000003</v>
+      </c>
+      <c r="F88" s="128">
+        <f>C88</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="118">
         <f t="shared" si="2"/>
-        <v>3543.6200000000003</v>
-      </c>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="119"/>
@@ -6568,11 +6838,17 @@
         <v>-136589.41999999998</v>
       </c>
       <c r="E90" s="118">
+        <f t="shared" si="3"/>
+        <v>-49089.419999999984</v>
+      </c>
+      <c r="F90" s="128">
+        <f>F87+F88</f>
+        <v>-87500</v>
+      </c>
+      <c r="G90" s="118">
         <f t="shared" si="2"/>
-        <v>-49089.419999999984</v>
-      </c>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="130" t="s">
@@ -6587,11 +6863,17 @@
         <v>1222913.6178154144</v>
       </c>
       <c r="E91" s="118">
+        <f t="shared" si="3"/>
+        <v>-786258.2774973046</v>
+      </c>
+      <c r="F91" s="128">
+        <f>F85+F90</f>
+        <v>1829853.6806722507</v>
+      </c>
+      <c r="G91" s="118">
         <f t="shared" si="2"/>
-        <v>-786258.2774973046</v>
-      </c>
-      <c r="F91" s="128"/>
-      <c r="G91" s="128"/>
+        <v>-179318.21464046836</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
@@ -6606,11 +6888,17 @@
         <v>-130503.97</v>
       </c>
       <c r="E92" s="118">
+        <f t="shared" si="3"/>
+        <v>-130503.97</v>
+      </c>
+      <c r="F92" s="128">
+        <f>C92</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="118">
         <f t="shared" si="2"/>
-        <v>-130503.97</v>
-      </c>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
@@ -6625,11 +6913,17 @@
         <v>0</v>
       </c>
       <c r="E93" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="128">
+        <f t="shared" ref="F93:F94" si="7">C93</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F93" s="128"/>
-      <c r="G93" s="128"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
@@ -6644,11 +6938,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="119"/>
@@ -6673,11 +6973,17 @@
         <v>-130503.97</v>
       </c>
       <c r="E96" s="118">
+        <f t="shared" si="3"/>
+        <v>-130503.97</v>
+      </c>
+      <c r="F96" s="128">
+        <f>SUM(F92:F94)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="118">
         <f t="shared" si="2"/>
-        <v>-130503.97</v>
-      </c>
-      <c r="F96" s="128"/>
-      <c r="G96" s="128"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B97" s="130" t="s">
@@ -6692,11 +6998,17 @@
         <v>1092409.6478154145</v>
       </c>
       <c r="E97" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-916762.24749730458</v>
       </c>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
+      <c r="F97" s="128">
+        <f>F91+F96</f>
+        <v>1829853.6806722507</v>
+      </c>
+      <c r="G97" s="118">
+        <f t="shared" ref="G97:G99" si="8">F97-C97</f>
+        <v>-179318.21464046836</v>
+      </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="130"/>
@@ -6704,7 +7016,10 @@
       <c r="D98" s="128"/>
       <c r="E98" s="118"/>
       <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
+      <c r="G98" s="118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
@@ -6719,11 +7034,17 @@
         <v>-327722.8943446154</v>
       </c>
       <c r="E99" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>275028.67424920027</v>
       </c>
-      <c r="F99" s="128"/>
-      <c r="G99" s="128"/>
+      <c r="F99" s="128">
+        <f>-F97*0.3</f>
+        <v>-548956.10420167516</v>
+      </c>
+      <c r="G99" s="118">
+        <f t="shared" si="8"/>
+        <v>53795.464392140508</v>
+      </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="119"/>
@@ -6748,11 +7069,17 @@
         <v>764686.75347079907</v>
       </c>
       <c r="E101" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-641733.57324810431</v>
       </c>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
+      <c r="F101" s="128">
+        <f>F97+F99</f>
+        <v>1280897.5764705755</v>
+      </c>
+      <c r="G101" s="118">
+        <f t="shared" ref="G101" si="9">F101-C101</f>
+        <v>-125522.75024832785</v>
+      </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C102" s="128"/>
@@ -7107,10 +7434,10 @@
         <v>200</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="H3" s="96" t="s">
         <v>301</v>
@@ -7133,20 +7460,20 @@
         <v>113</v>
       </c>
       <c r="F4" s="96">
-        <f>SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$D:$D)</f>
-        <v>14624683</v>
+        <f>'Analisi degli scostamenti'!F23</f>
+        <v>16483435.961118348</v>
       </c>
       <c r="G4" s="96">
         <f>F4/1000</f>
-        <v>14624.683000000001</v>
+        <v>16483.435961118346</v>
       </c>
       <c r="H4" s="96">
         <f>C23*G4*C24</f>
-        <v>1343277.1335500001</v>
+        <v>1514003.59302872</v>
       </c>
       <c r="I4" s="107">
         <f>G4*(C26+C22*C27)</f>
-        <v>3512848.8566000001</v>
+        <v>3959321.3178606266</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -7162,20 +7489,20 @@
         <v>208</v>
       </c>
       <c r="F5" s="96">
-        <f>SUMIF(RicaviBudget!$H:$H,"V",RicaviBudget!$D:$D)</f>
-        <v>6470002</v>
+        <f>'Analisi degli scostamenti'!F24</f>
+        <v>7292319.678676635</v>
       </c>
       <c r="G5" s="96">
         <f t="shared" ref="G5:G6" si="0">F5/1000</f>
-        <v>6470.0020000000004</v>
+        <v>7292.3196786766348</v>
       </c>
       <c r="H5" s="96">
         <f>C21*G5*C24</f>
-        <v>355850.11000000004</v>
+        <v>401077.58232721494</v>
       </c>
       <c r="I5" s="107">
         <f>G5*C27</f>
-        <v>388200.12</v>
+        <v>437539.18072059809</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -7191,20 +7518,20 @@
         <v>209</v>
       </c>
       <c r="F6" s="96">
-        <f>SUMIF(RicaviBudget!$H:$H,"A",RicaviBudget!$D:$CE)+SUMIF(RicaviBudget!$H:$H,"PCL",RicaviBudget!$D:$CE)</f>
-        <v>12975111.99</v>
+        <f>'Analisi degli scostamenti'!F25</f>
+        <v>10882356.839999827</v>
       </c>
       <c r="G6" s="96">
         <f t="shared" si="0"/>
-        <v>12975.111989999999</v>
+        <v>10882.356839999826</v>
       </c>
       <c r="H6" s="96">
         <f>G6*C20*C24</f>
-        <v>1038008.9592</v>
+        <v>870588.54719998618</v>
       </c>
       <c r="I6" s="107">
         <f>G6*C28</f>
-        <v>843382.27934999997</v>
+        <v>707353.19459998864</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -7217,11 +7544,11 @@
       </c>
       <c r="F7" s="96">
         <f xml:space="preserve"> SUM(F4:F6)</f>
-        <v>34069796.990000002</v>
+        <v>34658112.479794808</v>
       </c>
       <c r="G7" s="96">
         <f>G6+G5+G4</f>
-        <v>34069.796990000003</v>
+        <v>34658.112479794807</v>
       </c>
       <c r="H7" s="96"/>
     </row>
@@ -7262,7 +7589,7 @@
       </c>
       <c r="G9" s="96">
         <f>(H4+H5+H6)*C18</f>
-        <v>1477079.6382314637</v>
+        <v>1503270.4700231024</v>
       </c>
       <c r="H9" s="96"/>
     </row>
@@ -7277,7 +7604,7 @@
       </c>
       <c r="G10" s="96">
         <f>(I4+I5+I6+C30)*C17</f>
-        <v>1403824.5342806277</v>
+        <v>1466609.7575386281</v>
       </c>
       <c r="H10" s="96"/>
     </row>
@@ -7317,7 +7644,7 @@
       </c>
       <c r="G12" s="96">
         <f>(G5+G6+G4*C22)*C32</f>
-        <v>449211.74630400003</v>
+        <v>467988.62923513958</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -7331,7 +7658,7 @@
       </c>
       <c r="G13" s="96">
         <f>G7*C36</f>
-        <v>1471815.2299680002</v>
+        <v>1497230.4591271358</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -7348,8 +7675,8 @@
         <v>231</v>
       </c>
       <c r="G14" s="96">
-        <f>(SUMIF(RicaviBudget!$H:$H,"P",RicaviBudget!$G:$G))*C38</f>
-        <v>867798.34033418808</v>
+        <f>Ricavi!F90*C38</f>
+        <v>788900.33019999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -7367,7 +7694,7 @@
       </c>
       <c r="G15" s="96">
         <f>C44*C45</f>
-        <v>564932.18138154072</v>
+        <v>574949.27413218142</v>
       </c>
       <c r="H15" s="96"/>
     </row>
@@ -7397,7 +7724,7 @@
       </c>
       <c r="G17" s="97">
         <f>SUM(G9:G15)</f>
-        <v>6388411.6704998203</v>
+        <v>6452698.9202561863</v>
       </c>
       <c r="H17" s="96"/>
     </row>
@@ -7588,7 +7915,7 @@
       </c>
       <c r="C40" s="96">
         <f>G4*C23</f>
-        <v>15619.501552906979</v>
+        <v>17604.692942194419</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
@@ -7597,7 +7924,7 @@
       </c>
       <c r="C41" s="96">
         <f>G5*C21</f>
-        <v>4137.7919767441863</v>
+        <v>4663.6928177583131</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
@@ -7606,7 +7933,7 @@
       </c>
       <c r="C42" s="107">
         <f>G6*C20</f>
-        <v>12069.871618604651</v>
+        <v>10123.122641860304</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
@@ -7615,7 +7942,7 @@
       </c>
       <c r="C43" s="96">
         <f>C41+C40+C42</f>
-        <v>31827.165148255815</v>
+        <v>32391.508401813036</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
@@ -7624,7 +7951,7 @@
       </c>
       <c r="C44" s="96">
         <f>C43*0.25</f>
-        <v>7956.7912870639539</v>
+        <v>8097.8771004532591</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
@@ -7644,52 +7971,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView topLeftCell="C74" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.26953125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.81640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" style="1" customWidth="1"/>
     <col min="17" max="17" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.81640625" style="1"/>
-    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
       <c r="H2" s="59"/>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="145"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="149"/>
       <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7755,10 +8082,7 @@
         <f>D4*F4</f>
         <v>140</v>
       </c>
-      <c r="H4" s="37">
-        <f>SUM(_xlfn.ANCHORARRAY(G4))</f>
-        <v>140</v>
-      </c>
+      <c r="H4" s="37"/>
       <c r="J4" s="78" t="s">
         <v>0</v>
       </c>
@@ -7782,6 +8106,7 @@
       <c r="Q4" s="74" t="s">
         <v>157</v>
       </c>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="35" t="s">
@@ -7829,6 +8154,7 @@
       <c r="Q5" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
@@ -7876,6 +8202,7 @@
       <c r="Q6" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="35" t="s">
@@ -7923,6 +8250,7 @@
       <c r="Q7" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35" t="s">
@@ -7970,6 +8298,7 @@
       <c r="Q8" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="35" t="s">
@@ -8017,6 +8346,7 @@
       <c r="Q9" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35" t="s">
@@ -8064,6 +8394,7 @@
       <c r="Q10" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
@@ -8111,6 +8442,7 @@
       <c r="Q11" s="75" t="s">
         <v>157</v>
       </c>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
@@ -8154,6 +8486,7 @@
       </c>
       <c r="P12" s="38"/>
       <c r="Q12" s="62"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
@@ -8196,6 +8529,7 @@
       </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="62"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="35" t="s">
@@ -8238,6 +8572,7 @@
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="62"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="35" t="s">
@@ -8280,6 +8615,7 @@
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="62"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="s">
@@ -8322,8 +8658,9 @@
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
@@ -8364,8 +8701,9 @@
       </c>
       <c r="P17" s="70"/>
       <c r="Q17" s="72"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="35" t="s">
         <v>140</v>
       </c>
@@ -8406,8 +8744,9 @@
       </c>
       <c r="P18" s="66"/>
       <c r="Q18" s="73"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="35" t="s">
         <v>141</v>
       </c>
@@ -8448,8 +8787,9 @@
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="62"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="35" t="s">
         <v>142</v>
       </c>
@@ -8490,8 +8830,9 @@
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="62"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="35" t="s">
         <v>143</v>
       </c>
@@ -8532,8 +8873,9 @@
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="62"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>144</v>
       </c>
@@ -8574,8 +8916,9 @@
       </c>
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
         <v>145</v>
       </c>
@@ -8616,8 +8959,9 @@
       </c>
       <c r="P23" s="66"/>
       <c r="Q23" s="73"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S23" s="37"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
         <v>146</v>
       </c>
@@ -8658,8 +9002,9 @@
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="62"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S24" s="37"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>147</v>
       </c>
@@ -8700,8 +9045,9 @@
       </c>
       <c r="P25" s="38"/>
       <c r="Q25" s="62"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
         <v>148</v>
       </c>
@@ -8742,8 +9088,9 @@
       </c>
       <c r="P26" s="38"/>
       <c r="Q26" s="62"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -8787,8 +9134,9 @@
       </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="62"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
         <v>14</v>
       </c>
@@ -8832,8 +9180,9 @@
       </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="62"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
@@ -8874,8 +9223,9 @@
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="62"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S29" s="37"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
         <v>16</v>
       </c>
@@ -8916,8 +9266,9 @@
       </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="62"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
@@ -8958,8 +9309,9 @@
       </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="62"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
@@ -9000,8 +9352,9 @@
       </c>
       <c r="P32" s="38"/>
       <c r="Q32" s="62"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S32" s="37"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" s="35" t="s">
         <v>19</v>
       </c>
@@ -9042,8 +9395,9 @@
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="62"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S33" s="37"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="35" t="s">
         <v>20</v>
       </c>
@@ -9083,8 +9437,9 @@
       </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="62"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
         <v>21</v>
       </c>
@@ -9125,8 +9480,9 @@
       </c>
       <c r="P35" s="38"/>
       <c r="Q35" s="62"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S35" s="37"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
         <v>22</v>
       </c>
@@ -9167,8 +9523,9 @@
       </c>
       <c r="P36" s="38"/>
       <c r="Q36" s="62"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S36" s="37"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
@@ -9208,8 +9565,9 @@
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="62"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S37" s="37"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
         <v>24</v>
       </c>
@@ -9250,8 +9608,9 @@
       </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="62"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
         <v>25</v>
       </c>
@@ -9291,8 +9650,9 @@
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="62"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S39" s="37"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
         <v>150</v>
       </c>
@@ -9336,8 +9696,9 @@
       </c>
       <c r="P40" s="38"/>
       <c r="Q40" s="62"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S40" s="37"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
@@ -9381,8 +9742,9 @@
       </c>
       <c r="P41" s="38"/>
       <c r="Q41" s="62"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S41" s="37"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
@@ -9425,8 +9787,9 @@
       </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="62"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
         <v>28</v>
       </c>
@@ -9470,8 +9833,9 @@
       </c>
       <c r="P43" s="38"/>
       <c r="Q43" s="62"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
         <v>29</v>
       </c>
@@ -9512,8 +9876,9 @@
       </c>
       <c r="P44" s="38"/>
       <c r="Q44" s="62"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
@@ -9554,8 +9919,9 @@
       </c>
       <c r="P45" s="38"/>
       <c r="Q45" s="62"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S45" s="37"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" s="35" t="s">
         <v>31</v>
       </c>
@@ -9596,8 +9962,9 @@
       </c>
       <c r="P46" s="38"/>
       <c r="Q46" s="62"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S46" s="37"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" s="35" t="s">
         <v>32</v>
       </c>
@@ -9638,8 +10005,9 @@
       </c>
       <c r="P47" s="38"/>
       <c r="Q47" s="62"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S47" s="37"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" s="35" t="s">
         <v>33</v>
       </c>
@@ -9680,8 +10048,9 @@
       </c>
       <c r="P48" s="38"/>
       <c r="Q48" s="62"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
         <v>34</v>
       </c>
@@ -9725,8 +10094,9 @@
       </c>
       <c r="P49" s="38"/>
       <c r="Q49" s="62"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S49" s="37"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
         <v>35</v>
       </c>
@@ -9770,8 +10140,9 @@
       </c>
       <c r="P50" s="38"/>
       <c r="Q50" s="62"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S50" s="37"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
@@ -9815,8 +10186,9 @@
       </c>
       <c r="P51" s="38"/>
       <c r="Q51" s="62"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S51" s="37"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52" s="35" t="s">
         <v>37</v>
       </c>
@@ -9857,8 +10229,9 @@
       </c>
       <c r="P52" s="38"/>
       <c r="Q52" s="62"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S52" s="37"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53" s="35" t="s">
         <v>38</v>
       </c>
@@ -9899,8 +10272,9 @@
       </c>
       <c r="P53" s="38"/>
       <c r="Q53" s="62"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S53" s="37"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54" s="35" t="s">
         <v>39</v>
       </c>
@@ -9941,8 +10315,9 @@
       </c>
       <c r="P54" s="38"/>
       <c r="Q54" s="62"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S54" s="37"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55" s="35" t="s">
         <v>40</v>
       </c>
@@ -9983,8 +10358,9 @@
       </c>
       <c r="P55" s="38"/>
       <c r="Q55" s="62"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S55" s="37"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56" s="35" t="s">
         <v>41</v>
       </c>
@@ -10025,8 +10401,9 @@
       </c>
       <c r="P56" s="38"/>
       <c r="Q56" s="62"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S56" s="37"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57" s="35" t="s">
         <v>151</v>
       </c>
@@ -10067,8 +10444,9 @@
       </c>
       <c r="P57" s="38"/>
       <c r="Q57" s="62"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S57" s="37"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58" s="35" t="s">
         <v>42</v>
       </c>
@@ -10109,8 +10487,9 @@
       </c>
       <c r="P58" s="38"/>
       <c r="Q58" s="62"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S58" s="37"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
@@ -10151,8 +10530,9 @@
       </c>
       <c r="P59" s="38"/>
       <c r="Q59" s="62"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S59" s="37"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60" s="35" t="s">
         <v>44</v>
       </c>
@@ -10193,8 +10573,9 @@
       </c>
       <c r="P60" s="38"/>
       <c r="Q60" s="62"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S60" s="37"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61" s="35" t="s">
         <v>45</v>
       </c>
@@ -10235,8 +10616,9 @@
       </c>
       <c r="P61" s="38"/>
       <c r="Q61" s="62"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S61" s="37"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B62" s="35" t="s">
         <v>46</v>
       </c>
@@ -10277,8 +10659,9 @@
       </c>
       <c r="P62" s="38"/>
       <c r="Q62" s="62"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S62" s="37"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63" s="35" t="s">
         <v>47</v>
       </c>
@@ -10319,8 +10702,9 @@
       </c>
       <c r="P63" s="38"/>
       <c r="Q63" s="62"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S63" s="37"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
@@ -10361,6 +10745,7 @@
       </c>
       <c r="P64" s="38"/>
       <c r="Q64" s="62"/>
+      <c r="S64" s="37"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
@@ -10671,7 +11056,7 @@
       <c r="H75" s="37"/>
       <c r="J75" s="11">
         <f>H76-'CE 21-22'!C5</f>
-        <v>-14423853.505534992</v>
+        <v>-61294659.022799999</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.35">
@@ -10696,10 +11081,7 @@
         <f t="shared" si="1"/>
         <v>977735.17900000012</v>
       </c>
-      <c r="H76" s="37">
-        <f>SUM(G2:G76)</f>
-        <v>46870805.517265007</v>
-      </c>
+      <c r="H76" s="37"/>
       <c r="I76" s="11"/>
       <c r="P76"/>
       <c r="Q76"/>
@@ -10726,10 +11108,7 @@
         <f>E77*D77</f>
         <v>9763</v>
       </c>
-      <c r="H77" s="37">
-        <f>H76-G78+G79-G77</f>
-        <v>46918237.027265005</v>
-      </c>
+      <c r="H77" s="37"/>
       <c r="I77" s="11"/>
       <c r="P77"/>
       <c r="Q77"/>
@@ -10796,267 +11175,457 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="88"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C88" s="151">
+      <c r="C88" s="138">
         <f>SUM(D4:D27)</f>
         <v>240574.55000000005</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F88" s="151" cm="1">
+      <c r="F88" s="138" cm="1">
         <f t="array" ref="F88">SUM(D4:D27*E4:E27)</f>
         <v>528226.62545000017</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I88" s="151" cm="1">
+      <c r="I88" s="138" cm="1">
         <f t="array" ref="I88">SUM(D4:D27*F4:F27)</f>
         <v>369758.63781500002</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K88" s="138">
+        <f>SUMPRODUCT(D4:D27,E4:E27)/SUM(D4:D27)</f>
+        <v>2.1956878873929102</v>
+      </c>
+      <c r="M88" s="138">
+        <f>K88*C88</f>
+        <v>528226.62545000017</v>
+      </c>
+      <c r="O88" s="138">
+        <f>SUMPRODUCT(D4:D27,F4:F27)/SUM(D4:D27)</f>
+        <v>1.5369815211750368</v>
+      </c>
+      <c r="Q88" s="138">
+        <f>O88*C88</f>
+        <v>369758.63781500002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C89" s="151">
+      <c r="C89" s="138">
         <f>SUM(D28:D32)</f>
         <v>3223711</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F89" s="151" cm="1">
+      <c r="F89" s="138" cm="1">
         <f t="array" ref="F89">SUM(D28:D32*E28:E32)</f>
         <v>1877590.3519999997</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I89" s="151" cm="1">
+      <c r="I89" s="138" cm="1">
         <f t="array" ref="I89">SUM(D28:D32*F28:F32)</f>
         <v>1905226.9779699999</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K89" s="138">
+        <f>SUMPRODUCT(D29:D32,E29:E32)/SUM(D29:D32)</f>
+        <v>1.3303347138496227</v>
+      </c>
+      <c r="M89" s="138">
+        <f t="shared" ref="M89:M92" si="3">K89*C89</f>
+        <v>4288614.6507188808</v>
+      </c>
+      <c r="O89" s="138">
+        <f>SUMPRODUCT(D28:D32,F28:F32)/SUM(D28:D32)</f>
+        <v>0.59100427363681174</v>
+      </c>
+      <c r="Q89" s="138">
+        <f>O89*C89</f>
+        <v>1905226.9779700001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="151">
+      <c r="C90" s="138">
         <f>SUM(D33:D40)</f>
         <v>18642746</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F90" s="151" cm="1">
+      <c r="F90" s="138" cm="1">
         <f t="array" ref="F90">SUM(D33:D40*E33:E40)</f>
         <v>39445016.509999998</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="151" cm="1">
+      <c r="I90" s="138" cm="1">
         <f t="array" ref="I90">SUM(D33:D40*F33:F40)</f>
         <v>27745756.957399998</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K90" s="138">
+        <f>SUMPRODUCT(D33:D40,E33:E40)/SUM(D33:D40)</f>
+        <v>2.1158372543401063</v>
+      </c>
+      <c r="M90" s="138">
+        <f t="shared" si="3"/>
+        <v>39445016.509999998</v>
+      </c>
+      <c r="O90" s="138">
+        <f>SUMPRODUCT(D33:D40,F33:F40)/SUM(D33:D40)</f>
+        <v>1.4882870236712982</v>
+      </c>
+      <c r="Q90" s="138">
+        <f>O90*C90</f>
+        <v>27745756.957399998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="151">
+      <c r="C91" s="138">
         <f>SUM(D41:D57)</f>
         <v>6692984</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F91" s="151" cm="1">
+      <c r="F91" s="138" cm="1">
         <f t="array" ref="F91">SUM(D41:D57*E41:E57)</f>
         <v>8028278.8500000006</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I91" s="151" cm="1">
+      <c r="I91" s="138" cm="1">
         <f t="array" ref="I91">SUM(D41:D57*F41:F57)</f>
         <v>5708079.1300799996</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K91" s="138">
+        <f>SUMPRODUCT(D41:D57,E41:E57)/SUM(D41:D57)</f>
+        <v>1.1995066550286091</v>
+      </c>
+      <c r="M91" s="138">
+        <f t="shared" si="3"/>
+        <v>8028278.8500000006</v>
+      </c>
+      <c r="O91" s="138">
+        <f>SUMPRODUCT(D41:D57,F41:F57)/SUM(D41:D57)</f>
+        <v>0.85284517788777015</v>
+      </c>
+      <c r="Q91" s="138">
+        <f>O91*C91</f>
+        <v>5708079.1300799996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="151">
+      <c r="C92" s="138">
         <f>SUM(D58:D76)</f>
         <v>9727258</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F92" s="151" cm="1">
+      <c r="F92" s="138" cm="1">
         <f t="array" ref="F92">SUM(D58:D76*E58:E76)</f>
         <v>13754406.152800001</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I92" s="151" cm="1">
+      <c r="I92" s="138" cm="1">
         <f t="array" ref="I92">SUM(D58:D76*F58:F76)</f>
         <v>11141983.814000003</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C93" s="151"/>
-      <c r="F93" s="151"/>
-      <c r="I93" s="151"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K92" s="138">
+        <f>SUMPRODUCT(D58:D76,E58:E76)/SUM(D58:D76)</f>
+        <v>1.4140065116808869</v>
+      </c>
+      <c r="M92" s="138">
+        <f t="shared" si="3"/>
+        <v>13754406.152799999</v>
+      </c>
+      <c r="O92" s="138">
+        <f>SUMPRODUCT(D58:D76,F58:F76)/SUM(D58:D76)</f>
+        <v>1.145439322571685</v>
+      </c>
+      <c r="Q92" s="138">
+        <f>O92*C92</f>
+        <v>11141983.814000003</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C93" s="138"/>
+      <c r="F93" s="138"/>
+      <c r="I93" s="138"/>
+      <c r="K93" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C94" s="151">
+      <c r="C94" s="138">
         <f>SUM(L4:L17)</f>
         <v>112952.51999999999</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F94" s="151" cm="1">
+      <c r="F94" s="138" cm="1">
         <f t="array" ref="F94">SUM(L4:L17*M4:M17)</f>
         <v>196584.24189999999</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I94" s="151" cm="1">
+      <c r="I94" s="138" cm="1">
         <f t="array" ref="I94">SUM(L4:L17*O4:O17)</f>
         <v>133298.61836846152</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K94" s="138">
+        <f>SUMPRODUCT(L4:L17,M4:M17)/SUM(L4:L17)</f>
+        <v>1.740414838907534</v>
+      </c>
+      <c r="M94" s="138">
+        <f>K94*C94</f>
+        <v>196584.24189999999</v>
+      </c>
+      <c r="O94" s="138">
+        <f>SUMPRODUCT(L4:L17,O4:O17)/SUM(L4:L17)</f>
+        <v>1.1801296541986097</v>
+      </c>
+      <c r="Q94" s="138">
+        <f>O94*C94</f>
+        <v>133298.61836846152</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C95" s="151">
+      <c r="C95" s="138">
         <f>SUM(L18:L22)</f>
         <v>3319903</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F95" s="151" cm="1">
+      <c r="F95" s="138" cm="1">
         <f t="array" ref="F95">SUM(L18:L22*M18:M22)</f>
         <v>2489618.9618799998</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I95" s="151" cm="1">
+      <c r="I95" s="138" cm="1">
         <f t="array" ref="I95">SUM(L18:L22*O18:O22)</f>
         <v>1908077.8488700001</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K95" s="138">
+        <f>SUMPRODUCT(L18:L22,M18:M22)/SUM(L18:L22)</f>
+        <v>0.74990713941943477</v>
+      </c>
+      <c r="M95" s="138">
+        <f t="shared" ref="M95:M98" si="4">K95*C95</f>
+        <v>2489618.9618799998</v>
+      </c>
+      <c r="O95" s="138">
+        <f>SUMPRODUCT(L18:L22,O18:O22)/SUM(L18:L22)</f>
+        <v>0.57473903570977825</v>
+      </c>
+      <c r="Q95" s="138">
+        <f>O95*C95</f>
+        <v>1908077.8488699999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C96" s="151">
+      <c r="C96" s="138">
         <f>SUM(L23:L29)</f>
         <v>14624683</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F96" s="151" cm="1">
+      <c r="F96" s="138" cm="1">
         <f t="array" ref="F96">SUM(L23:L29*M23:M29)</f>
         <v>43389917.016709402</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I96" s="151" cm="1">
+      <c r="I96" s="138" cm="1">
         <f t="array" ref="I96">SUM(L23:L29*O23:O29)</f>
         <v>31393678.94368</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K96" s="138">
+        <f>SUMPRODUCT(L23:L29,M23:M29)/SUM(L23:L29)</f>
+        <v>2.9668962408764279</v>
+      </c>
+      <c r="M96" s="138">
+        <f t="shared" si="4"/>
+        <v>43389917.016709402</v>
+      </c>
+      <c r="O96" s="138">
+        <f>SUMPRODUCT(L23:L29,O23:O29)/SUM(L23:L29)</f>
+        <v>2.1466228665387139</v>
+      </c>
+      <c r="Q96" s="138">
+        <f>O96*C96</f>
+        <v>31393678.94368</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C97" s="151">
+      <c r="C97" s="138">
         <f>SUM(L30:L45)</f>
         <v>6470002</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F97" s="151" cm="1">
+      <c r="F97" s="138" cm="1">
         <f t="array" ref="F97">SUM(L30:L45*M30:M45)</f>
         <v>9386776.6740170922</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I97" s="151" cm="1">
+      <c r="I97" s="138" cm="1">
         <f t="array" ref="I97">SUM(L30:L45*O30:O45)</f>
         <v>7327637.1359800007</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K97" s="138">
+        <f>SUMPRODUCT(L30:L45,M30:M45)/SUM(L30:L45)</f>
+        <v>1.4508151116517571</v>
+      </c>
+      <c r="M97" s="138">
+        <f t="shared" si="4"/>
+        <v>9386776.6740170922</v>
+      </c>
+      <c r="O97" s="138">
+        <f>SUMPRODUCT(L30:L45,O30:O45)/SUM(L30:L45)</f>
+        <v>1.1325556214634864</v>
+      </c>
+      <c r="Q97" s="138">
+        <f>O97*C97</f>
+        <v>7327637.1359799998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C98" s="151">
+      <c r="C98" s="138">
         <f>SUM(L46:L64)</f>
         <v>9655208.9900000002</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F98" s="151" cm="1">
+      <c r="F98" s="138" cm="1">
         <f t="array" ref="F98">SUM(L46:L64*M46:M64)</f>
         <v>15581855.327799987</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I98" s="151" cm="1">
+      <c r="I98" s="138" cm="1">
         <f t="array" ref="I98">SUM(L46:L64*O46:O64)</f>
         <v>11997868.349595502</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E100" s="1" t="s">
-        <v>384</v>
+      <c r="K98" s="138">
+        <f>SUMPRODUCT(L46:L64,M46:M64)/SUM(L46:L64)</f>
+        <v>1.6138289025062302</v>
+      </c>
+      <c r="M98" s="138">
+        <f t="shared" si="4"/>
+        <v>15581855.327799989</v>
+      </c>
+      <c r="O98" s="138">
+        <f>SUMPRODUCT(L46:L64,O46:O64)/SUM(L46:L64)</f>
+        <v>1.2426316573801581</v>
+      </c>
+      <c r="Q98" s="138">
+        <f>O98*C98</f>
+        <v>11997868.349595502</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C101" s="138" cm="1">
+        <f t="array" ref="C101">-SUM(C88:C92*O94:O98)</f>
+        <v>-61823221.954590201</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
@@ -11076,7 +11645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEFA6D-2B43-44D4-9785-BA525C9ED11E}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13154,7 +13723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD57A733-1E5A-4C67-BA94-1CEFC4F75056}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13169,22 +13738,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">

--- a/Progetto_sdg.xlsx
+++ b/Progetto_sdg.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikyv\Desktop\Universita\SDG\script-analisi-scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Nicola\UNIBG\Sistemi di controllo di gestione\script analisi scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0031FF7-C431-4E27-B86E-8C6C6181246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44576B7-5623-4E05-9EA2-6A1BFA96B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="10" activeTab="10" xr2:uid="{47D82A9E-1214-4F6E-A405-C3A19453CBD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="675" firstSheet="1" activeTab="9" xr2:uid="{47D82A9E-1214-4F6E-A405-C3A19453CBD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CE 21-22" sheetId="3" r:id="rId1"/>
     <sheet name="Ricavi" sheetId="1" r:id="rId2"/>
-    <sheet name="RicaviBudget" sheetId="7" r:id="rId3"/>
+    <sheet name="RicaviBudget" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="VariableCosts" sheetId="4" r:id="rId4"/>
     <sheet name="VariableCostsBudget" sheetId="8" r:id="rId5"/>
-    <sheet name="FixedCosts" sheetId="5" r:id="rId6"/>
+    <sheet name="FixedCosts" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="FixedCostsBudget" sheetId="9" r:id="rId7"/>
-    <sheet name="Others" sheetId="6" r:id="rId8"/>
-    <sheet name="OthersBudget" sheetId="10" r:id="rId9"/>
-    <sheet name="CE Budget 2022" sheetId="11" r:id="rId10"/>
-    <sheet name="Analisi degli scostamenti" sheetId="12" r:id="rId11"/>
+    <sheet name="Others" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="OthersBudget" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Analisi degli scostamenti" sheetId="12" r:id="rId10"/>
+    <sheet name="CE Budget 2022" sheetId="11" r:id="rId11"/>
     <sheet name="VariableCostsC" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="398">
   <si>
     <t>MP1</t>
   </si>
@@ -1084,9 +1084,6 @@
     <t>Mix Standard</t>
   </si>
   <si>
-    <t>∆ Mix Standard-Budget</t>
-  </si>
-  <si>
     <t>Mix Effettivo</t>
   </si>
   <si>
@@ -1288,18 +1285,6 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>Quelli a budget</t>
-  </si>
-  <si>
-    <t>Vedi foglio Ricavi</t>
-  </si>
-  <si>
-    <t>Quelli a consuntivo</t>
-  </si>
-  <si>
-    <t>Vedi foglio ricavi</t>
-  </si>
-  <si>
     <t>Controllo Ricavi con media pesata</t>
   </si>
   <si>
@@ -1315,19 +1300,46 @@
     <t>Prezzo medio pesato budget</t>
   </si>
   <si>
-    <t>in fondo</t>
-  </si>
-  <si>
     <t>Costo medio MP pesato budget</t>
   </si>
   <si>
-    <t>Acquisto MP a MS</t>
-  </si>
-  <si>
     <t>quantita a MS (kg)</t>
   </si>
   <si>
     <t>Quantità a MS (ton)</t>
+  </si>
+  <si>
+    <t>Ricavi totali budget MP</t>
+  </si>
+  <si>
+    <t>Ricavi totali budget PCL</t>
+  </si>
+  <si>
+    <t>Ricavi totali budget PF P</t>
+  </si>
+  <si>
+    <t>Ricavi totali budget PF V</t>
+  </si>
+  <si>
+    <t>Ricavi totali budget PF A</t>
+  </si>
+  <si>
+    <t>Costo MP budget PF A</t>
+  </si>
+  <si>
+    <t>Costo MP budget MP</t>
+  </si>
+  <si>
+    <t>Costo MP budget PCL</t>
+  </si>
+  <si>
+    <t>Costo MP budget PF P</t>
+  </si>
+  <si>
+    <t>Costo MP budget PF V</t>
+  </si>
+  <si>
+    <t>∆ Mix Budget-Standard</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2143,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2466,6 +2478,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Euro" xfId="16" xr:uid="{6609C029-AE67-4DF2-BB38-0E304B6F97A8}"/>
@@ -3379,22 +3392,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09E9022-8714-451A-AC8C-ADBBD3500E3D}">
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81